--- a/excels/abilities/hero/drow.xlsx
+++ b/excels/abilities/hero/drow.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="118">
   <si>
     <t>名字</t>
   </si>
@@ -36,6 +36,9 @@
     <t>中文名</t>
   </si>
   <si>
+    <t>分支</t>
+  </si>
+  <si>
     <t>继承</t>
   </si>
   <si>
@@ -52,9 +55,6 @@
   </si>
   <si>
     <t>最大等级</t>
-  </si>
-  <si>
-    <t>冷却</t>
   </si>
   <si>
     <t>图标</t>
@@ -76,6 +76,9 @@
     <t>xxx</t>
   </si>
   <si>
+    <t>冷却</t>
+  </si>
+  <si>
     <t>魔法消耗</t>
   </si>
   <si>
@@ -118,34 +121,34 @@
     <t>MaxLevel</t>
   </si>
   <si>
+    <t>AbilityTextureName</t>
+  </si>
+  <si>
+    <t>Element</t>
+  </si>
+  <si>
+    <t>DamageFormula</t>
+  </si>
+  <si>
+    <t>AbilityValues[{]</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>[}]</t>
+  </si>
+  <si>
     <t>AbilityCooldown</t>
-  </si>
-  <si>
-    <t>AbilityTextureName</t>
-  </si>
-  <si>
-    <t>Element</t>
-  </si>
-  <si>
-    <t>DamageFormula</t>
-  </si>
-  <si>
-    <t>AbilityValues[{]</t>
-  </si>
-  <si>
-    <t>5</t>
-  </si>
-  <si>
-    <t>6</t>
-  </si>
-  <si>
-    <t>7</t>
-  </si>
-  <si>
-    <t>8</t>
-  </si>
-  <si>
-    <t>[}]</t>
   </si>
   <si>
     <t>AbilityManaCost</t>
@@ -218,6 +221,9 @@
     <t>穿透箭</t>
   </si>
   <si>
+    <t>攻击可以穿透敌人，伤害提高30%。技能赋予风元素效果，伤害变为风元素伤害。</t>
+  </si>
+  <si>
     <t>windrunner_powershot</t>
   </si>
   <si>
@@ -227,36 +233,66 @@
     <t>分裂箭</t>
   </si>
   <si>
+    <t>寒冰箭《冰》（1/2）：伤害提高150%，技能赋予冰元素效果，伤害变为冰元素伤害。
+（2/2）伤害提高300%
+3.2.积蓄（1/2）：分裂箭命中时会额外回复2点蓝量。
+（2/2）：分裂箭命中时会额外回复4点蓝量。</t>
+  </si>
+  <si>
     <t>medusa_split_shot</t>
   </si>
   <si>
     <t>drow_2a</t>
   </si>
   <si>
-    <t>连续射击【目标型】5</t>
-  </si>
-  <si>
-    <t>快速射出4支箭，每支箭造成攻击力130%的伤害。
-（2/5）：攻击力160%
-（3/5）：攻击力190%
-（4/5）：攻击力225%
-（5/5）：攻击力260%
+    <t>连续射击</t>
+  </si>
+  <si>
+    <t>快速射出4支箭，每支箭造成攻击力%base_value%%%的伤害。
 cd：3秒
 蓝量消耗：20
-作用范围：750码内敌对单位
-连发 1/3</t>
+作用范围：750码内敌对单位</t>
+  </si>
+  <si>
+    <t>alchemist_corrosive_weaponry</t>
+  </si>
+  <si>
+    <t>base_value 130 160 190 225 260</t>
+  </si>
+  <si>
+    <t>proj_count 4</t>
   </si>
   <si>
     <t>drow_2a_a</t>
   </si>
   <si>
-    <t>连发 3</t>
+    <t>连续射击-连发分支</t>
+  </si>
+  <si>
+    <t>1.连发（1/3）：连续射击的弓箭数量增加至6支
+（2/3）：增加至8支。（3/3）：增加至10支
+1.1.击破（1/3）.连续射击的每支箭都会使目标收到的伤害增加2%，持续3秒，最高10层效果。
+（2/3）：伤害增加3%。（3/3）：伤害增加5%
+1.2.风箭《风》（1/2）：技能赋予风元素效果，伤害变为风元素伤害。
+（2/2）：风元素伤害增加15%。</t>
+  </si>
+  <si>
+    <t>alchemist_goblins_greed</t>
   </si>
   <si>
     <t>drow_2a_b</t>
   </si>
   <si>
-    <t>穿透</t>
+    <t>连续射击-穿透分支</t>
+  </si>
+  <si>
+    <t>2.穿透（3/3）:连续射击可穿透目标，伤害提高20%/40%/60%
+2.1.刺骨《冰》（1/2）：技能赋予冰元素效果，伤害变为冰元素伤害。
+（2/2）：该技能冰元素减速效果增加至50%。
+2.2.冰爆【范围型】（3/3）：连续射击命中被减速的敌人时，有12%概率发生冰爆，对范围300码敌人造成攻击力160%/200%/250%冰元素伤害。</t>
+  </si>
+  <si>
+    <t>alchemist_unstable_concoction</t>
   </si>
   <si>
     <t>drow_2b</t>
@@ -265,16 +301,40 @@
     <t>散射</t>
   </si>
   <si>
+    <t>散射数支箭，造成攻击力120%/140%/160%/190%/240%的伤害。
+cd：3秒
+蓝量消耗30
+作用范围：500码距离，扇形90°</t>
+  </si>
+  <si>
+    <t>alpha_wolf_command_aura</t>
+  </si>
+  <si>
     <t>drow_2b_a</t>
   </si>
   <si>
-    <t>火力覆盖【范围型】《火》</t>
+    <t>散射分支-火力覆盖</t>
+  </si>
+  <si>
+    <t>火力覆盖【范围型】《火》（3/3）：
+散射技能赋予火元素效果，伤害变为火元素伤害。伤害提高60%/90%/120%
+1.1.节减（2/2）：散射技能蓝耗下降5/10点
+1.2.压制（3/3）：对生命值高于50%的单位造成伤害提升30%/60%/100%</t>
   </si>
   <si>
     <t>drow_2b_b</t>
   </si>
   <si>
-    <t>双喷【范围型】《冰》</t>
+    <t>散射分支-双喷</t>
+  </si>
+  <si>
+    <t>1.双喷【范围型】《冰》（3/3）：
+散射技能赋予冰元素效果，伤害变为冰元素伤害。
+有25%/30%/40%概率再次释放一次。（不可套娃）
+1.1.重创【增益型】（2/2）：散射对距离越近的单位造成伤害越高。
+最近判定25码。最高提高伤害100%/200%。
+1.2.痛击（3/3）：散射对被降低移速的敌人
+造成的伤害提高30%/60%/100%。</t>
   </si>
   <si>
     <t>drow_3a</t>
@@ -1098,7 +1158,7 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1126,27 +1186,24 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -1531,24 +1588,23 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:AD24"/>
+  <dimension ref="A1:AE24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" topLeftCell="O1" activePane="topRight" state="frozen"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <pane xSplit="3" topLeftCell="N1" activePane="topRight" state="frozen"/>
       <selection/>
-      <selection pane="topRight" activeCell="Q6" sqref="Q6"/>
+      <selection pane="topRight" activeCell="R8" sqref="R8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="22.675" customWidth="1"/>
     <col min="2" max="2" width="27.3416666666667" customWidth="1"/>
-    <col min="3" max="3" width="50.5" customWidth="1"/>
-    <col min="4" max="4" width="10.675" customWidth="1"/>
-    <col min="5" max="7" width="12.3416666666667" customWidth="1"/>
-    <col min="8" max="9" width="21.625" customWidth="1"/>
-    <col min="10" max="10" width="12.675" customWidth="1"/>
-    <col min="11" max="11" width="18.175" customWidth="1"/>
+    <col min="3" max="4" width="50.5" customWidth="1"/>
+    <col min="5" max="5" width="10.675" customWidth="1"/>
+    <col min="6" max="8" width="12.3416666666667" customWidth="1"/>
+    <col min="9" max="10" width="21.625" customWidth="1"/>
+    <col min="11" max="11" width="12.675" customWidth="1"/>
     <col min="12" max="12" width="25.8416666666667" customWidth="1"/>
     <col min="13" max="13" width="24.0083333333333" customWidth="1"/>
     <col min="14" max="14" width="29.5083333333333" customWidth="1"/>
@@ -1561,14 +1617,15 @@
     <col min="21" max="21" width="12.625" customWidth="1"/>
     <col min="22" max="23" width="6.24166666666667" customWidth="1"/>
     <col min="24" max="24" width="8.00833333333333" customWidth="1"/>
-    <col min="25" max="25" width="18.5083333333333" customWidth="1"/>
-    <col min="26" max="26" width="27.175" customWidth="1"/>
-    <col min="27" max="27" width="13.175" customWidth="1"/>
-    <col min="28" max="28" width="39.8416666666667" customWidth="1"/>
-    <col min="29" max="29" width="50.625" customWidth="1"/>
+    <col min="25" max="25" width="18.175" customWidth="1"/>
+    <col min="26" max="26" width="18.5083333333333" customWidth="1"/>
+    <col min="27" max="27" width="27.175" customWidth="1"/>
+    <col min="28" max="28" width="13.175" customWidth="1"/>
+    <col min="29" max="29" width="39.8416666666667" customWidth="1"/>
+    <col min="30" max="30" width="50.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="39" customHeight="1" spans="1:30">
+    <row r="1" s="1" customFormat="1" ht="39" customHeight="1" spans="1:31">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1579,7 +1636,7 @@
       <c r="D1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="3" t="s">
         <v>3</v>
       </c>
       <c r="F1" s="4" t="s">
@@ -1591,11 +1648,11 @@
       <c r="H1" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="4"/>
-      <c r="J1" s="4" t="s">
+      <c r="I1" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="K1" s="9" t="s">
+      <c r="J1" s="4"/>
+      <c r="K1" s="4" t="s">
         <v>8</v>
       </c>
       <c r="L1" s="4" t="s">
@@ -1629,36 +1686,37 @@
       <c r="X1" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="Y1" s="9" t="s">
+      <c r="Y1" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="Z1" s="9" t="s">
+      <c r="Z1" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="AA1" s="4" t="s">
+      <c r="AA1" s="12" t="s">
         <v>17</v>
       </c>
       <c r="AB1" s="4" t="s">
         <v>18</v>
       </c>
       <c r="AC1" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="AD1" s="15"/>
+        <v>19</v>
+      </c>
+      <c r="AD1" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="AE1" s="13"/>
     </row>
-    <row r="2" s="1" customFormat="1" ht="22.5" customHeight="1" spans="1:29">
+    <row r="2" s="1" customFormat="1" ht="22.5" customHeight="1" spans="1:30">
       <c r="A2" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="D2" s="6" t="s">
         <v>22</v>
       </c>
+      <c r="D2" s="6"/>
       <c r="E2" s="6" t="s">
         <v>23</v>
       </c>
@@ -1677,7 +1735,7 @@
       <c r="J2" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="K2" s="10" t="s">
+      <c r="K2" s="6" t="s">
         <v>29</v>
       </c>
       <c r="L2" s="6" t="s">
@@ -1686,7 +1744,7 @@
       <c r="M2" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="N2" s="11" t="s">
+      <c r="N2" s="9" t="s">
         <v>32</v>
       </c>
       <c r="O2" s="6" t="s">
@@ -1704,19 +1762,19 @@
       <c r="S2" s="10">
         <v>4</v>
       </c>
-      <c r="T2" s="11" t="s">
+      <c r="T2" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="U2" s="11" t="s">
+      <c r="U2" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="V2" s="11" t="s">
+      <c r="V2" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="W2" s="11" t="s">
+      <c r="W2" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="X2" s="11" t="s">
+      <c r="X2" s="9" t="s">
         <v>38</v>
       </c>
       <c r="Y2" s="10" t="s">
@@ -1725,52 +1783,53 @@
       <c r="Z2" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="AA2" s="6" t="s">
+      <c r="AA2" s="10" t="s">
         <v>41</v>
       </c>
       <c r="AB2" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="AC2" s="16" t="s">
+      <c r="AC2" s="6" t="s">
         <v>43</v>
       </c>
+      <c r="AD2" s="14" t="s">
+        <v>44</v>
+      </c>
     </row>
-    <row r="3" customFormat="1" ht="33" spans="1:30">
+    <row r="3" customFormat="1" ht="33" spans="1:31">
       <c r="A3" s="7" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B3" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="D3" s="8"/>
+      <c r="E3" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="C3" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="D3" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="E3" s="8">
-        <v>1</v>
-      </c>
       <c r="F3" s="8">
         <v>1</v>
       </c>
       <c r="G3" s="8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H3" s="8">
         <v>0</v>
       </c>
       <c r="I3" s="8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J3" s="8">
         <v>1</v>
       </c>
-      <c r="K3" s="12">
-        <v>0</v>
+      <c r="K3" s="8">
+        <v>1</v>
       </c>
       <c r="L3" s="8" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="M3" s="8">
         <v>0</v>
@@ -1780,7 +1839,7 @@
       </c>
       <c r="O3" s="8"/>
       <c r="P3" s="8" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="Q3" s="8"/>
       <c r="R3" s="8"/>
@@ -1789,60 +1848,61 @@
       <c r="V3" s="8"/>
       <c r="W3" s="8"/>
       <c r="X3" s="8"/>
-      <c r="Y3" s="12">
-        <v>0</v>
-      </c>
-      <c r="Z3" s="12">
-        <v>0</v>
-      </c>
-      <c r="AA3" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="AB3" s="8" t="str">
+      <c r="Y3" s="15">
+        <v>0</v>
+      </c>
+      <c r="Z3" s="15">
+        <v>0</v>
+      </c>
+      <c r="AA3" s="15">
+        <v>0</v>
+      </c>
+      <c r="AB3" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="AC3" s="8" t="str">
         <f>"abilities/hero/drow/drow_1/"&amp;A3</f>
         <v>abilities/hero/drow/drow_1/drow_1</v>
       </c>
-      <c r="AC3" s="17" t="s">
-        <v>50</v>
-      </c>
-      <c r="AD3" s="18"/>
+      <c r="AD3" s="16" t="s">
+        <v>51</v>
+      </c>
+      <c r="AE3" s="17"/>
     </row>
-    <row r="4" ht="66" spans="1:30">
+    <row r="4" ht="66" spans="1:31">
       <c r="A4" s="7" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>53</v>
-      </c>
-      <c r="D4" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="E4" s="8">
-        <v>1</v>
+        <v>54</v>
+      </c>
+      <c r="D4" s="8"/>
+      <c r="E4" s="8" t="s">
+        <v>45</v>
       </c>
       <c r="F4" s="8">
         <v>1</v>
       </c>
       <c r="G4" s="8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H4" s="8">
         <v>0</v>
       </c>
       <c r="I4" s="8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J4" s="8">
         <v>1</v>
       </c>
-      <c r="K4" s="12">
-        <v>0</v>
+      <c r="K4" s="8">
+        <v>1</v>
       </c>
       <c r="L4" s="8" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="M4" s="8">
         <v>1</v>
@@ -1851,81 +1911,82 @@
         <v>0</v>
       </c>
       <c r="O4" s="8"/>
-      <c r="P4" s="13" t="s">
-        <v>55</v>
-      </c>
-      <c r="Q4" s="13" t="s">
+      <c r="P4" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="R4" s="14" t="s">
+      <c r="Q4" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="S4" s="14" t="s">
+      <c r="R4" s="11" t="s">
         <v>58</v>
       </c>
+      <c r="S4" s="11" t="s">
+        <v>59</v>
+      </c>
       <c r="T4" s="8" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="U4" s="8" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="V4" s="8"/>
       <c r="W4" s="8"/>
       <c r="X4" s="8"/>
-      <c r="Y4" s="12">
-        <v>0</v>
-      </c>
-      <c r="Z4" s="12">
-        <v>0</v>
-      </c>
-      <c r="AA4" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="AB4" s="8" t="str">
+      <c r="Y4" s="15">
+        <v>0</v>
+      </c>
+      <c r="Z4" s="15">
+        <v>0</v>
+      </c>
+      <c r="AA4" s="15">
+        <v>0</v>
+      </c>
+      <c r="AB4" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="AC4" s="8" t="str">
         <f>"abilities/hero/drow/drow_1/"&amp;A4</f>
         <v>abilities/hero/drow/drow_1/drow_1a</v>
       </c>
-      <c r="AC4" s="17" t="s">
-        <v>50</v>
-      </c>
-      <c r="AD4" s="18"/>
+      <c r="AD4" s="16" t="s">
+        <v>51</v>
+      </c>
+      <c r="AE4" s="17"/>
     </row>
-    <row r="5" ht="33" spans="1:30">
+    <row r="5" ht="33" spans="1:31">
       <c r="A5" s="7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="D5" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="E5" s="8">
-        <v>1</v>
+        <v>63</v>
+      </c>
+      <c r="D5" s="8"/>
+      <c r="E5" s="8" t="s">
+        <v>45</v>
       </c>
       <c r="F5" s="8">
         <v>1</v>
       </c>
       <c r="G5" s="8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H5" s="8">
         <v>0</v>
       </c>
       <c r="I5" s="8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J5" s="8">
         <v>1</v>
       </c>
-      <c r="K5" s="12">
-        <v>0</v>
+      <c r="K5" s="8">
+        <v>1</v>
       </c>
       <c r="L5" s="8" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="M5" s="8">
         <v>4</v>
@@ -1942,60 +2003,61 @@
       <c r="V5" s="8"/>
       <c r="W5" s="8"/>
       <c r="X5" s="8"/>
-      <c r="Y5" s="12">
-        <v>0</v>
-      </c>
-      <c r="Z5" s="12">
-        <v>0</v>
-      </c>
-      <c r="AA5" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="AB5" s="8" t="str">
+      <c r="Y5" s="15">
+        <v>0</v>
+      </c>
+      <c r="Z5" s="15">
+        <v>0</v>
+      </c>
+      <c r="AA5" s="15">
+        <v>0</v>
+      </c>
+      <c r="AB5" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="AC5" s="8" t="str">
         <f>"abilities/hero/drow/drow_1/"&amp;A5</f>
         <v>abilities/hero/drow/drow_1/drow_1b</v>
       </c>
-      <c r="AC5" s="17" t="s">
-        <v>50</v>
-      </c>
-      <c r="AD5" s="18"/>
+      <c r="AD5" s="16" t="s">
+        <v>51</v>
+      </c>
+      <c r="AE5" s="17"/>
     </row>
-    <row r="6" ht="33" spans="1:30">
+    <row r="6" ht="82.5" spans="1:31">
       <c r="A6" s="7" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="D6" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="E6" s="8">
-        <v>1</v>
+        <v>67</v>
+      </c>
+      <c r="D6" s="8"/>
+      <c r="E6" s="8" t="s">
+        <v>45</v>
       </c>
       <c r="F6" s="8">
         <v>1</v>
       </c>
       <c r="G6" s="8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H6" s="8">
         <v>0</v>
       </c>
       <c r="I6" s="8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J6" s="8">
         <v>1</v>
       </c>
-      <c r="K6" s="12">
-        <v>0</v>
+      <c r="K6" s="8">
+        <v>1</v>
       </c>
       <c r="L6" s="8" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="M6" s="8">
         <v>0</v>
@@ -2012,60 +2074,61 @@
       <c r="V6" s="8"/>
       <c r="W6" s="8"/>
       <c r="X6" s="8"/>
-      <c r="Y6" s="12">
-        <v>0</v>
-      </c>
-      <c r="Z6" s="12">
-        <v>0</v>
-      </c>
-      <c r="AA6" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="AB6" s="8" t="str">
+      <c r="Y6" s="15">
+        <v>0</v>
+      </c>
+      <c r="Z6" s="15">
+        <v>0</v>
+      </c>
+      <c r="AA6" s="15">
+        <v>0</v>
+      </c>
+      <c r="AB6" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="AC6" s="8" t="str">
         <f>"abilities/hero/drow/drow_1/"&amp;A6</f>
         <v>abilities/hero/drow/drow_1/drow_1c</v>
       </c>
-      <c r="AC6" s="17" t="s">
-        <v>50</v>
-      </c>
-      <c r="AD6" s="18"/>
+      <c r="AD6" s="16" t="s">
+        <v>51</v>
+      </c>
+      <c r="AE6" s="17"/>
     </row>
-    <row r="7" ht="165" spans="1:30">
+    <row r="7" ht="82.5" spans="1:31">
       <c r="A7" s="7" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>68</v>
-      </c>
-      <c r="D7" s="8" t="s">
-        <v>66</v>
-      </c>
-      <c r="E7" s="8">
-        <v>1</v>
+        <v>71</v>
+      </c>
+      <c r="D7" s="8"/>
+      <c r="E7" s="8" t="s">
+        <v>69</v>
       </c>
       <c r="F7" s="8">
+        <v>1</v>
+      </c>
+      <c r="G7" s="8">
         <v>2</v>
       </c>
-      <c r="G7" s="8">
-        <v>0</v>
-      </c>
       <c r="H7" s="8">
         <v>0</v>
       </c>
       <c r="I7" s="8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J7" s="8">
         <v>1</v>
       </c>
-      <c r="K7" s="12">
-        <v>0</v>
+      <c r="K7" s="8">
+        <v>1</v>
       </c>
       <c r="L7" s="8" t="s">
-        <v>65</v>
+        <v>72</v>
       </c>
       <c r="M7" s="8">
         <v>0</v>
@@ -2074,64 +2137,71 @@
         <v>0</v>
       </c>
       <c r="O7" s="8"/>
-      <c r="P7" s="8"/>
-      <c r="Q7" s="8"/>
+      <c r="P7" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="Q7" s="8" t="s">
+        <v>74</v>
+      </c>
       <c r="R7" s="8"/>
       <c r="T7" s="8"/>
       <c r="U7" s="8"/>
       <c r="V7" s="8"/>
       <c r="W7" s="8"/>
       <c r="X7" s="8"/>
-      <c r="Y7" s="12">
-        <v>0</v>
-      </c>
-      <c r="Z7" s="12">
-        <v>0</v>
-      </c>
-      <c r="AA7" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="AB7" s="8" t="str">
-        <f t="shared" ref="AB3:AB24" si="0">"abilities/innate/"&amp;A7</f>
-        <v>abilities/innate/drow_2a</v>
-      </c>
-      <c r="AC7" s="17" t="s">
+      <c r="Y7" s="15">
+        <v>3</v>
+      </c>
+      <c r="Z7" s="15">
+        <v>20</v>
+      </c>
+      <c r="AA7" s="15">
+        <v>0</v>
+      </c>
+      <c r="AB7" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="AD7" s="18"/>
+      <c r="AC7" s="8" t="str">
+        <f t="shared" ref="AC7:AC12" si="0">"abilities/hero/drow/drow_2/"&amp;A7</f>
+        <v>abilities/hero/drow/drow_2/drow_2a</v>
+      </c>
+      <c r="AD7" s="16" t="s">
+        <v>51</v>
+      </c>
+      <c r="AE7" s="17"/>
     </row>
-    <row r="8" ht="33" spans="1:30">
+    <row r="8" ht="132" spans="1:31">
       <c r="A8" s="7" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>70</v>
-      </c>
-      <c r="C8" s="8"/>
+        <v>76</v>
+      </c>
+      <c r="C8" s="8" t="s">
+        <v>77</v>
+      </c>
       <c r="D8" s="8"/>
-      <c r="E8" s="8">
-        <v>1</v>
-      </c>
+      <c r="E8" s="8"/>
       <c r="F8" s="8">
+        <v>1</v>
+      </c>
+      <c r="G8" s="8">
         <v>2</v>
       </c>
-      <c r="G8" s="8">
-        <v>0</v>
-      </c>
       <c r="H8" s="8">
         <v>0</v>
       </c>
       <c r="I8" s="8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J8" s="8">
         <v>1</v>
       </c>
-      <c r="K8" s="12">
-        <v>0</v>
+      <c r="K8" s="8">
+        <v>1</v>
       </c>
       <c r="L8" s="8" t="s">
-        <v>65</v>
+        <v>78</v>
       </c>
       <c r="M8" s="8">
         <v>0</v>
@@ -2140,64 +2210,71 @@
         <v>0</v>
       </c>
       <c r="O8" s="8"/>
-      <c r="P8" s="8"/>
-      <c r="Q8" s="8"/>
+      <c r="P8" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="Q8" s="8" t="s">
+        <v>74</v>
+      </c>
       <c r="R8" s="8"/>
       <c r="T8" s="8"/>
       <c r="U8" s="8"/>
       <c r="V8" s="8"/>
       <c r="W8" s="8"/>
       <c r="X8" s="8"/>
-      <c r="Y8" s="12">
-        <v>0</v>
-      </c>
-      <c r="Z8" s="12">
-        <v>0</v>
-      </c>
-      <c r="AA8" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="AB8" s="8" t="str">
+      <c r="Y8" s="15">
+        <v>3</v>
+      </c>
+      <c r="Z8" s="15">
+        <v>20</v>
+      </c>
+      <c r="AA8" s="15">
+        <v>0</v>
+      </c>
+      <c r="AB8" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="AC8" s="8" t="str">
         <f t="shared" si="0"/>
-        <v>abilities/innate/drow_2a_a</v>
-      </c>
-      <c r="AC8" s="17" t="s">
-        <v>50</v>
-      </c>
-      <c r="AD8" s="18"/>
+        <v>abilities/hero/drow/drow_2/drow_2a_a</v>
+      </c>
+      <c r="AD8" s="16" t="s">
+        <v>51</v>
+      </c>
+      <c r="AE8" s="17"/>
     </row>
-    <row r="9" ht="33" spans="1:30">
+    <row r="9" ht="115.5" spans="1:31">
       <c r="A9" s="7" t="s">
-        <v>71</v>
+        <v>79</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>72</v>
-      </c>
-      <c r="C9" s="8"/>
+        <v>80</v>
+      </c>
+      <c r="C9" s="8" t="s">
+        <v>81</v>
+      </c>
       <c r="D9" s="8"/>
-      <c r="E9" s="8">
-        <v>1</v>
-      </c>
+      <c r="E9" s="8"/>
       <c r="F9" s="8">
+        <v>1</v>
+      </c>
+      <c r="G9" s="8">
         <v>2</v>
       </c>
-      <c r="G9" s="8">
-        <v>0</v>
-      </c>
       <c r="H9" s="8">
         <v>0</v>
       </c>
       <c r="I9" s="8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J9" s="8">
         <v>1</v>
       </c>
-      <c r="K9" s="12">
-        <v>0</v>
+      <c r="K9" s="8">
+        <v>1</v>
       </c>
       <c r="L9" s="8" t="s">
-        <v>65</v>
+        <v>82</v>
       </c>
       <c r="M9" s="8">
         <v>0</v>
@@ -2206,64 +2283,71 @@
         <v>0</v>
       </c>
       <c r="O9" s="8"/>
-      <c r="P9" s="8"/>
-      <c r="Q9" s="8"/>
+      <c r="P9" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="Q9" s="8" t="s">
+        <v>74</v>
+      </c>
       <c r="R9" s="8"/>
       <c r="T9" s="8"/>
       <c r="U9" s="8"/>
       <c r="V9" s="8"/>
       <c r="W9" s="8"/>
       <c r="X9" s="8"/>
-      <c r="Y9" s="12">
-        <v>0</v>
-      </c>
-      <c r="Z9" s="12">
-        <v>0</v>
-      </c>
-      <c r="AA9" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="AB9" s="8" t="str">
+      <c r="Y9" s="15">
+        <v>3</v>
+      </c>
+      <c r="Z9" s="15">
+        <v>20</v>
+      </c>
+      <c r="AA9" s="15">
+        <v>0</v>
+      </c>
+      <c r="AB9" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="AC9" s="8" t="str">
         <f t="shared" si="0"/>
-        <v>abilities/innate/drow_2a_b</v>
-      </c>
-      <c r="AC9" s="17" t="s">
-        <v>50</v>
-      </c>
-      <c r="AD9" s="18"/>
+        <v>abilities/hero/drow/drow_2/drow_2a_b</v>
+      </c>
+      <c r="AD9" s="16" t="s">
+        <v>51</v>
+      </c>
+      <c r="AE9" s="17"/>
     </row>
-    <row r="10" ht="33" spans="1:30">
+    <row r="10" ht="66" spans="1:31">
       <c r="A10" s="7" t="s">
-        <v>73</v>
+        <v>83</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>74</v>
-      </c>
-      <c r="C10" s="8"/>
+        <v>84</v>
+      </c>
+      <c r="C10" s="8" t="s">
+        <v>85</v>
+      </c>
       <c r="D10" s="8"/>
-      <c r="E10" s="8">
-        <v>1</v>
-      </c>
+      <c r="E10" s="8"/>
       <c r="F10" s="8">
+        <v>1</v>
+      </c>
+      <c r="G10" s="8">
         <v>2</v>
       </c>
-      <c r="G10" s="8">
-        <v>0</v>
-      </c>
       <c r="H10" s="8">
         <v>0</v>
       </c>
       <c r="I10" s="8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J10" s="8">
         <v>1</v>
       </c>
-      <c r="K10" s="12">
-        <v>0</v>
+      <c r="K10" s="8">
+        <v>1</v>
       </c>
       <c r="L10" s="8" t="s">
-        <v>65</v>
+        <v>86</v>
       </c>
       <c r="M10" s="8">
         <v>0</v>
@@ -2280,56 +2364,59 @@
       <c r="V10" s="8"/>
       <c r="W10" s="8"/>
       <c r="X10" s="8"/>
-      <c r="Y10" s="12">
-        <v>0</v>
-      </c>
-      <c r="Z10" s="12">
-        <v>0</v>
-      </c>
-      <c r="AA10" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="AB10" s="8" t="str">
+      <c r="Y10" s="15">
+        <v>3</v>
+      </c>
+      <c r="Z10" s="15">
+        <v>30</v>
+      </c>
+      <c r="AA10" s="15">
+        <v>0</v>
+      </c>
+      <c r="AB10" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="AC10" s="8" t="str">
         <f t="shared" si="0"/>
-        <v>abilities/innate/drow_2b</v>
-      </c>
-      <c r="AC10" s="17" t="s">
-        <v>50</v>
-      </c>
-      <c r="AD10" s="18"/>
+        <v>abilities/hero/drow/drow_2/drow_2b</v>
+      </c>
+      <c r="AD10" s="16" t="s">
+        <v>51</v>
+      </c>
+      <c r="AE10" s="17"/>
     </row>
-    <row r="11" ht="33" spans="1:30">
+    <row r="11" ht="99" spans="1:31">
       <c r="A11" s="7" t="s">
-        <v>75</v>
+        <v>87</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>76</v>
-      </c>
-      <c r="C11" s="8"/>
+        <v>88</v>
+      </c>
+      <c r="C11" s="8" t="s">
+        <v>89</v>
+      </c>
       <c r="D11" s="8"/>
-      <c r="E11" s="8">
-        <v>1</v>
-      </c>
+      <c r="E11" s="8"/>
       <c r="F11" s="8">
+        <v>1</v>
+      </c>
+      <c r="G11" s="8">
         <v>2</v>
       </c>
-      <c r="G11" s="8">
-        <v>0</v>
-      </c>
       <c r="H11" s="8">
         <v>0</v>
       </c>
       <c r="I11" s="8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J11" s="8">
         <v>1</v>
       </c>
-      <c r="K11" s="12">
-        <v>0</v>
+      <c r="K11" s="8">
+        <v>1</v>
       </c>
       <c r="L11" s="8" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="M11" s="8">
         <v>0</v>
@@ -2346,56 +2433,59 @@
       <c r="V11" s="8"/>
       <c r="W11" s="8"/>
       <c r="X11" s="8"/>
-      <c r="Y11" s="12">
-        <v>0</v>
-      </c>
-      <c r="Z11" s="12">
-        <v>0</v>
-      </c>
-      <c r="AA11" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="AB11" s="8" t="str">
+      <c r="Y11" s="15">
+        <v>3</v>
+      </c>
+      <c r="Z11" s="15">
+        <v>30</v>
+      </c>
+      <c r="AA11" s="15">
+        <v>0</v>
+      </c>
+      <c r="AB11" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="AC11" s="8" t="str">
         <f t="shared" si="0"/>
-        <v>abilities/innate/drow_2b_a</v>
-      </c>
-      <c r="AC11" s="17" t="s">
-        <v>50</v>
-      </c>
-      <c r="AD11" s="18"/>
+        <v>abilities/hero/drow/drow_2/drow_2b_a</v>
+      </c>
+      <c r="AD11" s="16" t="s">
+        <v>51</v>
+      </c>
+      <c r="AE11" s="17"/>
     </row>
-    <row r="12" ht="33" spans="1:30">
+    <row r="12" ht="115.5" spans="1:31">
       <c r="A12" s="7" t="s">
-        <v>77</v>
+        <v>90</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>78</v>
-      </c>
-      <c r="C12" s="8"/>
+        <v>91</v>
+      </c>
+      <c r="C12" s="8" t="s">
+        <v>92</v>
+      </c>
       <c r="D12" s="8"/>
-      <c r="E12" s="8">
-        <v>1</v>
-      </c>
+      <c r="E12" s="8"/>
       <c r="F12" s="8">
+        <v>1</v>
+      </c>
+      <c r="G12" s="8">
         <v>2</v>
       </c>
-      <c r="G12" s="8">
-        <v>0</v>
-      </c>
       <c r="H12" s="8">
         <v>0</v>
       </c>
       <c r="I12" s="8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J12" s="8">
         <v>1</v>
       </c>
-      <c r="K12" s="12">
-        <v>0</v>
+      <c r="K12" s="8">
+        <v>1</v>
       </c>
       <c r="L12" s="8" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="M12" s="8">
         <v>0</v>
@@ -2412,56 +2502,57 @@
       <c r="V12" s="8"/>
       <c r="W12" s="8"/>
       <c r="X12" s="8"/>
-      <c r="Y12" s="12">
-        <v>0</v>
-      </c>
-      <c r="Z12" s="12">
-        <v>0</v>
-      </c>
-      <c r="AA12" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="AB12" s="8" t="str">
+      <c r="Y12" s="15">
+        <v>3</v>
+      </c>
+      <c r="Z12" s="15">
+        <v>30</v>
+      </c>
+      <c r="AA12" s="15">
+        <v>0</v>
+      </c>
+      <c r="AB12" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="AC12" s="8" t="str">
         <f t="shared" si="0"/>
-        <v>abilities/innate/drow_2b_b</v>
-      </c>
-      <c r="AC12" s="17" t="s">
-        <v>50</v>
-      </c>
-      <c r="AD12" s="18"/>
+        <v>abilities/hero/drow/drow_2/drow_2b_b</v>
+      </c>
+      <c r="AD12" s="16" t="s">
+        <v>51</v>
+      </c>
+      <c r="AE12" s="17"/>
     </row>
-    <row r="13" ht="33" spans="1:30">
+    <row r="13" ht="33" spans="1:31">
       <c r="A13" s="7" t="s">
-        <v>79</v>
+        <v>93</v>
       </c>
       <c r="B13" s="8" t="s">
-        <v>80</v>
+        <v>94</v>
       </c>
       <c r="C13" s="8"/>
       <c r="D13" s="8"/>
-      <c r="E13" s="8">
-        <v>1</v>
-      </c>
+      <c r="E13" s="8"/>
       <c r="F13" s="8">
+        <v>1</v>
+      </c>
+      <c r="G13" s="8">
         <v>3</v>
       </c>
-      <c r="G13" s="8">
-        <v>0</v>
-      </c>
       <c r="H13" s="8">
         <v>0</v>
       </c>
       <c r="I13" s="8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J13" s="8">
         <v>1</v>
       </c>
-      <c r="K13" s="12">
-        <v>0</v>
+      <c r="K13" s="8">
+        <v>1</v>
       </c>
       <c r="L13" s="8" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="M13" s="8">
         <v>0</v>
@@ -2478,56 +2569,57 @@
       <c r="V13" s="8"/>
       <c r="W13" s="8"/>
       <c r="X13" s="8"/>
-      <c r="Y13" s="12">
-        <v>0</v>
-      </c>
-      <c r="Z13" s="12">
-        <v>0</v>
-      </c>
-      <c r="AA13" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="AB13" s="8" t="str">
-        <f t="shared" si="0"/>
+      <c r="Y13" s="15">
+        <v>0</v>
+      </c>
+      <c r="Z13" s="15">
+        <v>0</v>
+      </c>
+      <c r="AA13" s="15">
+        <v>0</v>
+      </c>
+      <c r="AB13" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="AC13" s="8" t="str">
+        <f t="shared" ref="AC3:AC24" si="1">"abilities/innate/"&amp;A13</f>
         <v>abilities/innate/drow_3a</v>
       </c>
-      <c r="AC13" s="17" t="s">
-        <v>50</v>
-      </c>
-      <c r="AD13" s="18"/>
+      <c r="AD13" s="16" t="s">
+        <v>51</v>
+      </c>
+      <c r="AE13" s="17"/>
     </row>
-    <row r="14" ht="33" spans="1:30">
+    <row r="14" ht="33" spans="1:31">
       <c r="A14" s="7" t="s">
-        <v>81</v>
+        <v>95</v>
       </c>
       <c r="B14" s="8" t="s">
-        <v>82</v>
+        <v>96</v>
       </c>
       <c r="C14" s="8"/>
       <c r="D14" s="8"/>
-      <c r="E14" s="8">
-        <v>1</v>
-      </c>
+      <c r="E14" s="8"/>
       <c r="F14" s="8">
+        <v>1</v>
+      </c>
+      <c r="G14" s="8">
         <v>3</v>
       </c>
-      <c r="G14" s="8">
-        <v>0</v>
-      </c>
       <c r="H14" s="8">
         <v>0</v>
       </c>
       <c r="I14" s="8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J14" s="8">
         <v>1</v>
       </c>
-      <c r="K14" s="12">
-        <v>0</v>
+      <c r="K14" s="8">
+        <v>1</v>
       </c>
       <c r="L14" s="8" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="M14" s="8">
         <v>0</v>
@@ -2544,56 +2636,57 @@
       <c r="V14" s="8"/>
       <c r="W14" s="8"/>
       <c r="X14" s="8"/>
-      <c r="Y14" s="12">
-        <v>0</v>
-      </c>
-      <c r="Z14" s="12">
-        <v>0</v>
-      </c>
-      <c r="AA14" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="AB14" s="8" t="str">
-        <f t="shared" si="0"/>
+      <c r="Y14" s="15">
+        <v>0</v>
+      </c>
+      <c r="Z14" s="15">
+        <v>0</v>
+      </c>
+      <c r="AA14" s="15">
+        <v>0</v>
+      </c>
+      <c r="AB14" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="AC14" s="8" t="str">
+        <f t="shared" si="1"/>
         <v>abilities/innate/drow_3a_a</v>
       </c>
-      <c r="AC14" s="17" t="s">
-        <v>50</v>
-      </c>
-      <c r="AD14" s="18"/>
+      <c r="AD14" s="16" t="s">
+        <v>51</v>
+      </c>
+      <c r="AE14" s="17"/>
     </row>
-    <row r="15" ht="33" spans="1:30">
+    <row r="15" ht="33" spans="1:31">
       <c r="A15" s="7" t="s">
-        <v>83</v>
+        <v>97</v>
       </c>
       <c r="B15" s="8" t="s">
-        <v>84</v>
+        <v>98</v>
       </c>
       <c r="C15" s="8"/>
       <c r="D15" s="8"/>
-      <c r="E15" s="8">
-        <v>1</v>
-      </c>
+      <c r="E15" s="8"/>
       <c r="F15" s="8">
+        <v>1</v>
+      </c>
+      <c r="G15" s="8">
         <v>3</v>
       </c>
-      <c r="G15" s="8">
-        <v>0</v>
-      </c>
       <c r="H15" s="8">
         <v>0</v>
       </c>
       <c r="I15" s="8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J15" s="8">
         <v>1</v>
       </c>
-      <c r="K15" s="12">
-        <v>0</v>
+      <c r="K15" s="8">
+        <v>1</v>
       </c>
       <c r="L15" s="8" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="M15" s="8">
         <v>0</v>
@@ -2610,56 +2703,57 @@
       <c r="V15" s="8"/>
       <c r="W15" s="8"/>
       <c r="X15" s="8"/>
-      <c r="Y15" s="12">
-        <v>0</v>
-      </c>
-      <c r="Z15" s="12">
-        <v>0</v>
-      </c>
-      <c r="AA15" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="AB15" s="8" t="str">
-        <f t="shared" si="0"/>
+      <c r="Y15" s="15">
+        <v>0</v>
+      </c>
+      <c r="Z15" s="15">
+        <v>0</v>
+      </c>
+      <c r="AA15" s="15">
+        <v>0</v>
+      </c>
+      <c r="AB15" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="AC15" s="8" t="str">
+        <f t="shared" si="1"/>
         <v>abilities/innate/drow_3a_b</v>
       </c>
-      <c r="AC15" s="17" t="s">
-        <v>50</v>
-      </c>
-      <c r="AD15" s="18"/>
+      <c r="AD15" s="16" t="s">
+        <v>51</v>
+      </c>
+      <c r="AE15" s="17"/>
     </row>
-    <row r="16" ht="33" spans="1:30">
+    <row r="16" ht="33" spans="1:31">
       <c r="A16" s="7" t="s">
-        <v>85</v>
+        <v>99</v>
       </c>
       <c r="B16" s="8" t="s">
-        <v>86</v>
+        <v>100</v>
       </c>
       <c r="C16" s="8"/>
       <c r="D16" s="8"/>
-      <c r="E16" s="8">
-        <v>1</v>
-      </c>
+      <c r="E16" s="8"/>
       <c r="F16" s="8">
+        <v>1</v>
+      </c>
+      <c r="G16" s="8">
         <v>3</v>
       </c>
-      <c r="G16" s="8">
-        <v>0</v>
-      </c>
       <c r="H16" s="8">
         <v>0</v>
       </c>
       <c r="I16" s="8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J16" s="8">
         <v>1</v>
       </c>
-      <c r="K16" s="12">
-        <v>0</v>
+      <c r="K16" s="8">
+        <v>1</v>
       </c>
       <c r="L16" s="8" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="M16" s="8">
         <v>0</v>
@@ -2676,56 +2770,57 @@
       <c r="V16" s="8"/>
       <c r="W16" s="8"/>
       <c r="X16" s="8"/>
-      <c r="Y16" s="12">
-        <v>0</v>
-      </c>
-      <c r="Z16" s="12">
-        <v>0</v>
-      </c>
-      <c r="AA16" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="AB16" s="8" t="str">
-        <f t="shared" si="0"/>
+      <c r="Y16" s="15">
+        <v>0</v>
+      </c>
+      <c r="Z16" s="15">
+        <v>0</v>
+      </c>
+      <c r="AA16" s="15">
+        <v>0</v>
+      </c>
+      <c r="AB16" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="AC16" s="8" t="str">
+        <f t="shared" si="1"/>
         <v>abilities/innate/drow_3b</v>
       </c>
-      <c r="AC16" s="17" t="s">
-        <v>50</v>
-      </c>
-      <c r="AD16" s="18"/>
+      <c r="AD16" s="16" t="s">
+        <v>51</v>
+      </c>
+      <c r="AE16" s="17"/>
     </row>
-    <row r="17" ht="33" spans="1:30">
+    <row r="17" ht="33" spans="1:31">
       <c r="A17" s="7" t="s">
-        <v>87</v>
+        <v>101</v>
       </c>
       <c r="B17" s="8" t="s">
-        <v>88</v>
+        <v>102</v>
       </c>
       <c r="C17" s="8"/>
       <c r="D17" s="8"/>
-      <c r="E17" s="8">
-        <v>1</v>
-      </c>
+      <c r="E17" s="8"/>
       <c r="F17" s="8">
+        <v>1</v>
+      </c>
+      <c r="G17" s="8">
         <v>3</v>
       </c>
-      <c r="G17" s="8">
-        <v>0</v>
-      </c>
       <c r="H17" s="8">
         <v>0</v>
       </c>
       <c r="I17" s="8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J17" s="8">
         <v>1</v>
       </c>
-      <c r="K17" s="12">
-        <v>0</v>
+      <c r="K17" s="8">
+        <v>1</v>
       </c>
       <c r="L17" s="8" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="M17" s="8">
         <v>0</v>
@@ -2742,56 +2837,57 @@
       <c r="V17" s="8"/>
       <c r="W17" s="8"/>
       <c r="X17" s="8"/>
-      <c r="Y17" s="12">
-        <v>0</v>
-      </c>
-      <c r="Z17" s="12">
-        <v>0</v>
-      </c>
-      <c r="AA17" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="AB17" s="8" t="str">
-        <f t="shared" si="0"/>
+      <c r="Y17" s="15">
+        <v>0</v>
+      </c>
+      <c r="Z17" s="15">
+        <v>0</v>
+      </c>
+      <c r="AA17" s="15">
+        <v>0</v>
+      </c>
+      <c r="AB17" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="AC17" s="8" t="str">
+        <f t="shared" si="1"/>
         <v>abilities/innate/drow_3b_a</v>
       </c>
-      <c r="AC17" s="17" t="s">
-        <v>50</v>
-      </c>
-      <c r="AD17" s="18"/>
+      <c r="AD17" s="16" t="s">
+        <v>51</v>
+      </c>
+      <c r="AE17" s="17"/>
     </row>
-    <row r="18" ht="33" spans="1:30">
+    <row r="18" ht="33" spans="1:31">
       <c r="A18" s="7" t="s">
-        <v>89</v>
+        <v>103</v>
       </c>
       <c r="B18" s="8" t="s">
-        <v>90</v>
+        <v>104</v>
       </c>
       <c r="C18" s="8"/>
       <c r="D18" s="8"/>
-      <c r="E18" s="8">
-        <v>1</v>
-      </c>
+      <c r="E18" s="8"/>
       <c r="F18" s="8">
+        <v>1</v>
+      </c>
+      <c r="G18" s="8">
         <v>3</v>
       </c>
-      <c r="G18" s="8">
-        <v>0</v>
-      </c>
       <c r="H18" s="8">
         <v>0</v>
       </c>
       <c r="I18" s="8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J18" s="8">
         <v>1</v>
       </c>
-      <c r="K18" s="12">
-        <v>0</v>
+      <c r="K18" s="8">
+        <v>1</v>
       </c>
       <c r="L18" s="8" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="M18" s="8">
         <v>0</v>
@@ -2808,56 +2904,57 @@
       <c r="V18" s="8"/>
       <c r="W18" s="8"/>
       <c r="X18" s="8"/>
-      <c r="Y18" s="12">
-        <v>0</v>
-      </c>
-      <c r="Z18" s="12">
-        <v>0</v>
-      </c>
-      <c r="AA18" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="AB18" s="8" t="str">
-        <f t="shared" si="0"/>
+      <c r="Y18" s="15">
+        <v>0</v>
+      </c>
+      <c r="Z18" s="15">
+        <v>0</v>
+      </c>
+      <c r="AA18" s="15">
+        <v>0</v>
+      </c>
+      <c r="AB18" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="AC18" s="8" t="str">
+        <f t="shared" si="1"/>
         <v>abilities/innate/drow_3b_b</v>
       </c>
-      <c r="AC18" s="17" t="s">
-        <v>50</v>
-      </c>
-      <c r="AD18" s="18"/>
+      <c r="AD18" s="16" t="s">
+        <v>51</v>
+      </c>
+      <c r="AE18" s="17"/>
     </row>
-    <row r="19" ht="33" spans="1:30">
+    <row r="19" ht="33" spans="1:31">
       <c r="A19" s="7" t="s">
-        <v>91</v>
+        <v>105</v>
       </c>
       <c r="B19" s="8" t="s">
-        <v>92</v>
+        <v>106</v>
       </c>
       <c r="C19" s="8"/>
       <c r="D19" s="8"/>
-      <c r="E19" s="8">
-        <v>1</v>
-      </c>
+      <c r="E19" s="8"/>
       <c r="F19" s="8">
+        <v>1</v>
+      </c>
+      <c r="G19" s="8">
         <v>4</v>
       </c>
-      <c r="G19" s="8">
-        <v>0</v>
-      </c>
       <c r="H19" s="8">
         <v>0</v>
       </c>
       <c r="I19" s="8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J19" s="8">
         <v>1</v>
       </c>
-      <c r="K19" s="12">
-        <v>0</v>
+      <c r="K19" s="8">
+        <v>1</v>
       </c>
       <c r="L19" s="8" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="M19" s="8">
         <v>0</v>
@@ -2874,56 +2971,57 @@
       <c r="V19" s="8"/>
       <c r="W19" s="8"/>
       <c r="X19" s="8"/>
-      <c r="Y19" s="12">
-        <v>0</v>
-      </c>
-      <c r="Z19" s="12">
-        <v>0</v>
-      </c>
-      <c r="AA19" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="AB19" s="8" t="str">
-        <f t="shared" si="0"/>
+      <c r="Y19" s="15">
+        <v>0</v>
+      </c>
+      <c r="Z19" s="15">
+        <v>0</v>
+      </c>
+      <c r="AA19" s="15">
+        <v>0</v>
+      </c>
+      <c r="AB19" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="AC19" s="8" t="str">
+        <f t="shared" si="1"/>
         <v>abilities/innate/drow_4a</v>
       </c>
-      <c r="AC19" s="17" t="s">
-        <v>50</v>
-      </c>
-      <c r="AD19" s="18"/>
+      <c r="AD19" s="16" t="s">
+        <v>51</v>
+      </c>
+      <c r="AE19" s="17"/>
     </row>
-    <row r="20" ht="33" spans="1:30">
+    <row r="20" ht="33" spans="1:31">
       <c r="A20" s="7" t="s">
-        <v>93</v>
+        <v>107</v>
       </c>
       <c r="B20" s="8" t="s">
-        <v>94</v>
+        <v>108</v>
       </c>
       <c r="C20" s="8"/>
       <c r="D20" s="8"/>
-      <c r="E20" s="8">
-        <v>1</v>
-      </c>
+      <c r="E20" s="8"/>
       <c r="F20" s="8">
+        <v>1</v>
+      </c>
+      <c r="G20" s="8">
         <v>4</v>
       </c>
-      <c r="G20" s="8">
-        <v>0</v>
-      </c>
       <c r="H20" s="8">
         <v>0</v>
       </c>
       <c r="I20" s="8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J20" s="8">
         <v>1</v>
       </c>
-      <c r="K20" s="12">
-        <v>0</v>
+      <c r="K20" s="8">
+        <v>1</v>
       </c>
       <c r="L20" s="8" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="M20" s="8">
         <v>0</v>
@@ -2940,56 +3038,57 @@
       <c r="V20" s="8"/>
       <c r="W20" s="8"/>
       <c r="X20" s="8"/>
-      <c r="Y20" s="12">
-        <v>0</v>
-      </c>
-      <c r="Z20" s="12">
-        <v>0</v>
-      </c>
-      <c r="AA20" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="AB20" s="8" t="str">
-        <f t="shared" si="0"/>
+      <c r="Y20" s="15">
+        <v>0</v>
+      </c>
+      <c r="Z20" s="15">
+        <v>0</v>
+      </c>
+      <c r="AA20" s="15">
+        <v>0</v>
+      </c>
+      <c r="AB20" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="AC20" s="8" t="str">
+        <f t="shared" si="1"/>
         <v>abilities/innate/drow_4b</v>
       </c>
-      <c r="AC20" s="17" t="s">
-        <v>50</v>
-      </c>
-      <c r="AD20" s="18"/>
+      <c r="AD20" s="16" t="s">
+        <v>51</v>
+      </c>
+      <c r="AE20" s="17"/>
     </row>
-    <row r="21" ht="33" spans="1:30">
+    <row r="21" ht="33" spans="1:31">
       <c r="A21" s="7" t="s">
-        <v>95</v>
+        <v>109</v>
       </c>
       <c r="B21" s="8" t="s">
-        <v>96</v>
+        <v>110</v>
       </c>
       <c r="C21" s="8"/>
       <c r="D21" s="8"/>
-      <c r="E21" s="8">
-        <v>1</v>
-      </c>
+      <c r="E21" s="8"/>
       <c r="F21" s="8">
+        <v>1</v>
+      </c>
+      <c r="G21" s="8">
         <v>5</v>
       </c>
-      <c r="G21" s="8">
-        <v>0</v>
-      </c>
       <c r="H21" s="8">
         <v>0</v>
       </c>
       <c r="I21" s="8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J21" s="8">
         <v>1</v>
       </c>
-      <c r="K21" s="12">
-        <v>0</v>
+      <c r="K21" s="8">
+        <v>1</v>
       </c>
       <c r="L21" s="8" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="M21" s="8">
         <v>0</v>
@@ -3006,56 +3105,57 @@
       <c r="V21" s="8"/>
       <c r="W21" s="8"/>
       <c r="X21" s="8"/>
-      <c r="Y21" s="12">
-        <v>0</v>
-      </c>
-      <c r="Z21" s="12">
-        <v>0</v>
-      </c>
-      <c r="AA21" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="AB21" s="8" t="str">
-        <f t="shared" si="0"/>
+      <c r="Y21" s="15">
+        <v>0</v>
+      </c>
+      <c r="Z21" s="15">
+        <v>0</v>
+      </c>
+      <c r="AA21" s="15">
+        <v>0</v>
+      </c>
+      <c r="AB21" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="AC21" s="8" t="str">
+        <f t="shared" si="1"/>
         <v>abilities/innate/drow_5</v>
       </c>
-      <c r="AC21" s="17" t="s">
-        <v>50</v>
-      </c>
-      <c r="AD21" s="18"/>
+      <c r="AD21" s="16" t="s">
+        <v>51</v>
+      </c>
+      <c r="AE21" s="17"/>
     </row>
-    <row r="22" ht="33" spans="1:30">
+    <row r="22" ht="33" spans="1:31">
       <c r="A22" s="7" t="s">
-        <v>97</v>
+        <v>111</v>
       </c>
       <c r="B22" s="8" t="s">
-        <v>98</v>
+        <v>112</v>
       </c>
       <c r="C22" s="8"/>
       <c r="D22" s="8"/>
-      <c r="E22" s="8">
-        <v>1</v>
-      </c>
+      <c r="E22" s="8"/>
       <c r="F22" s="8">
+        <v>1</v>
+      </c>
+      <c r="G22" s="8">
         <v>5</v>
       </c>
-      <c r="G22" s="8">
-        <v>0</v>
-      </c>
       <c r="H22" s="8">
         <v>0</v>
       </c>
       <c r="I22" s="8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J22" s="8">
         <v>1</v>
       </c>
-      <c r="K22" s="12">
-        <v>0</v>
+      <c r="K22" s="8">
+        <v>1</v>
       </c>
       <c r="L22" s="8" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="M22" s="8">
         <v>0</v>
@@ -3072,56 +3172,57 @@
       <c r="V22" s="8"/>
       <c r="W22" s="8"/>
       <c r="X22" s="8"/>
-      <c r="Y22" s="12">
-        <v>0</v>
-      </c>
-      <c r="Z22" s="12">
-        <v>0</v>
-      </c>
-      <c r="AA22" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="AB22" s="8" t="str">
-        <f t="shared" si="0"/>
+      <c r="Y22" s="15">
+        <v>0</v>
+      </c>
+      <c r="Z22" s="15">
+        <v>0</v>
+      </c>
+      <c r="AA22" s="15">
+        <v>0</v>
+      </c>
+      <c r="AB22" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="AC22" s="8" t="str">
+        <f t="shared" si="1"/>
         <v>abilities/innate/drow_5a</v>
       </c>
-      <c r="AC22" s="17" t="s">
-        <v>50</v>
-      </c>
-      <c r="AD22" s="18"/>
+      <c r="AD22" s="16" t="s">
+        <v>51</v>
+      </c>
+      <c r="AE22" s="17"/>
     </row>
-    <row r="23" ht="33" spans="1:30">
+    <row r="23" ht="33" spans="1:31">
       <c r="A23" s="7" t="s">
-        <v>99</v>
+        <v>113</v>
       </c>
       <c r="B23" s="8" t="s">
-        <v>100</v>
+        <v>114</v>
       </c>
       <c r="C23" s="8"/>
       <c r="D23" s="8"/>
-      <c r="E23" s="8">
-        <v>1</v>
-      </c>
+      <c r="E23" s="8"/>
       <c r="F23" s="8">
+        <v>1</v>
+      </c>
+      <c r="G23" s="8">
         <v>5</v>
       </c>
-      <c r="G23" s="8">
-        <v>0</v>
-      </c>
       <c r="H23" s="8">
         <v>0</v>
       </c>
       <c r="I23" s="8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J23" s="8">
         <v>1</v>
       </c>
-      <c r="K23" s="12">
-        <v>0</v>
+      <c r="K23" s="8">
+        <v>1</v>
       </c>
       <c r="L23" s="8" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="M23" s="8">
         <v>0</v>
@@ -3138,58 +3239,59 @@
       <c r="V23" s="8"/>
       <c r="W23" s="8"/>
       <c r="X23" s="8"/>
-      <c r="Y23" s="12">
-        <v>0</v>
-      </c>
-      <c r="Z23" s="12">
-        <v>0</v>
-      </c>
-      <c r="AA23" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="AB23" s="8" t="str">
-        <f t="shared" si="0"/>
+      <c r="Y23" s="15">
+        <v>0</v>
+      </c>
+      <c r="Z23" s="15">
+        <v>0</v>
+      </c>
+      <c r="AA23" s="15">
+        <v>0</v>
+      </c>
+      <c r="AB23" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="AC23" s="8" t="str">
+        <f t="shared" si="1"/>
         <v>abilities/innate/drow_5b</v>
       </c>
-      <c r="AC23" s="17" t="s">
-        <v>50</v>
-      </c>
-      <c r="AD23" s="18"/>
+      <c r="AD23" s="16" t="s">
+        <v>51</v>
+      </c>
+      <c r="AE23" s="17"/>
     </row>
-    <row r="24" ht="49.5" spans="1:30">
+    <row r="24" ht="33" spans="1:31">
       <c r="A24" s="7" t="s">
-        <v>101</v>
+        <v>115</v>
       </c>
       <c r="B24" s="8" t="s">
-        <v>102</v>
+        <v>116</v>
       </c>
       <c r="C24" s="8" t="s">
-        <v>103</v>
+        <v>117</v>
       </c>
       <c r="D24" s="8"/>
-      <c r="E24" s="8">
-        <v>1</v>
-      </c>
+      <c r="E24" s="8"/>
       <c r="F24" s="8">
+        <v>1</v>
+      </c>
+      <c r="G24" s="8">
         <v>5</v>
       </c>
-      <c r="G24" s="8">
-        <v>0</v>
-      </c>
       <c r="H24" s="8">
         <v>0</v>
       </c>
       <c r="I24" s="8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J24" s="8">
         <v>1</v>
       </c>
-      <c r="K24" s="12">
-        <v>0</v>
+      <c r="K24" s="8">
+        <v>1</v>
       </c>
       <c r="L24" s="8" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="M24" s="8">
         <v>0</v>
@@ -3206,23 +3308,26 @@
       <c r="V24" s="8"/>
       <c r="W24" s="8"/>
       <c r="X24" s="8"/>
-      <c r="Y24" s="12">
-        <v>0</v>
-      </c>
-      <c r="Z24" s="12">
-        <v>0</v>
-      </c>
-      <c r="AA24" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="AB24" s="8" t="str">
-        <f t="shared" si="0"/>
+      <c r="Y24" s="15">
+        <v>0</v>
+      </c>
+      <c r="Z24" s="15">
+        <v>0</v>
+      </c>
+      <c r="AA24" s="15">
+        <v>0</v>
+      </c>
+      <c r="AB24" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="AC24" s="8" t="str">
+        <f t="shared" si="1"/>
         <v>abilities/innate/drow_5c</v>
       </c>
-      <c r="AC24" s="17" t="s">
-        <v>50</v>
-      </c>
-      <c r="AD24" s="18"/>
+      <c r="AD24" s="16" t="s">
+        <v>51</v>
+      </c>
+      <c r="AE24" s="17"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1:A3">

--- a/excels/abilities/hero/drow.xlsx
+++ b/excels/abilities/hero/drow.xlsx
@@ -28,18 +28,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="110">
   <si>
     <t>名字</t>
   </si>
   <si>
     <t>中文名</t>
-  </si>
-  <si>
-    <t>分支</t>
-  </si>
-  <si>
-    <t>继承</t>
   </si>
   <si>
     <t>类型</t>
@@ -70,9 +64,6 @@
     <t>物品KV值[</t>
   </si>
   <si>
-    <t>arms_cd</t>
-  </si>
-  <si>
     <t>xxx</t>
   </si>
   <si>
@@ -100,9 +91,6 @@
     <t>#LocDOTA_Tooltip_Ability_{}_Description</t>
   </si>
   <si>
-    <t>extends</t>
-  </si>
-  <si>
     <t>Category</t>
   </si>
   <si>
@@ -172,7 +160,7 @@
     <t>单体射击</t>
   </si>
   <si>
-    <t>攻击1名敌人，造成攻击力100%的伤害，并回复5点蓝量</t>
+    <t>攻击1名敌人，造成攻击力%base_value%%%的伤害，并回复%give_mana%点能量</t>
   </si>
   <si>
     <t>clinkz_burning_barrage</t>
@@ -181,6 +169,9 @@
     <t>base_value 100</t>
   </si>
   <si>
+    <t>give_mana 5</t>
+  </si>
+  <si>
     <t>ability_lua</t>
   </si>
   <si>
@@ -190,38 +181,24 @@
     <t>drow_1a</t>
   </si>
   <si>
-    <t>爆炸箭</t>
-  </si>
-  <si>
-    <t>攻击1名敌人，造成攻击力100%%的伤害，并回复5点蓝量
-攻击变为%aoe_radius%码范围伤害，伤害提高%bonus_mul%%%，伤害变为火元素伤害，技能赋予火元素效果。</t>
+    <t>单体射击-爆炸箭</t>
+  </si>
+  <si>
+    <t>攻击1名敌人，造成攻击力%base_value%%%的伤害，并回复%give_mana%点能量
+@t:drow_ranger:3@
+@t:drow_ranger:4@</t>
   </si>
   <si>
     <t>clinkz_searing_arrows_immortal</t>
   </si>
   <si>
-    <t>aoe_radius 300</t>
-  </si>
-  <si>
-    <t>bonus_mul 40 70 120</t>
-  </si>
-  <si>
-    <t>mul_chance 0</t>
-  </si>
-  <si>
-    <t>mul_value 0</t>
-  </si>
-  <si>
-    <t>bonus_radius 0</t>
-  </si>
-  <si>
     <t>drow_1b</t>
   </si>
   <si>
-    <t>穿透箭</t>
-  </si>
-  <si>
-    <t>攻击可以穿透敌人，伤害提高30%。技能赋予风元素效果，伤害变为风元素伤害。</t>
+    <t>单体射击-穿透箭</t>
+  </si>
+  <si>
+    <t>攻击1名敌人，造成攻击力%base_value%%%的伤害，并回复%give_mana%点</t>
   </si>
   <si>
     <t>windrunner_powershot</t>
@@ -230,13 +207,10 @@
     <t>drow_1c</t>
   </si>
   <si>
-    <t>分裂箭</t>
-  </si>
-  <si>
-    <t>寒冰箭《冰》（1/2）：伤害提高150%，技能赋予冰元素效果，伤害变为冰元素伤害。
-（2/2）伤害提高300%
-3.2.积蓄（1/2）：分裂箭命中时会额外回复2点蓝量。
-（2/2）：分裂箭命中时会额外回复4点蓝量。</t>
+    <t>单体射击-分裂箭</t>
+  </si>
+  <si>
+    <t>攻击1名敌人，造成攻击力%base_value%%%的伤害，并回复</t>
   </si>
   <si>
     <t>medusa_split_shot</t>
@@ -248,10 +222,7 @@
     <t>连续射击</t>
   </si>
   <si>
-    <t>快速射出4支箭，每支箭造成攻击力%base_value%%%的伤害。
-cd：3秒
-蓝量消耗：20
-作用范围：750码内敌对单位</t>
+    <t>快速射出4支箭，每支箭造成攻击力%base_value%%%的伤害。</t>
   </si>
   <si>
     <t>alchemist_corrosive_weaponry</t>
@@ -263,20 +234,18 @@
     <t>proj_count 4</t>
   </si>
   <si>
+    <t>action_range 750</t>
+  </si>
+  <si>
+    <t>proj_speed 1400</t>
+  </si>
+  <si>
     <t>drow_2a_a</t>
   </si>
   <si>
     <t>连续射击-连发分支</t>
   </si>
   <si>
-    <t>1.连发（1/3）：连续射击的弓箭数量增加至6支
-（2/3）：增加至8支。（3/3）：增加至10支
-1.1.击破（1/3）.连续射击的每支箭都会使目标收到的伤害增加2%，持续3秒，最高10层效果。
-（2/3）：伤害增加3%。（3/3）：伤害增加5%
-1.2.风箭《风》（1/2）：技能赋予风元素效果，伤害变为风元素伤害。
-（2/2）：风元素伤害增加15%。</t>
-  </si>
-  <si>
     <t>alchemist_goblins_greed</t>
   </si>
   <si>
@@ -284,12 +253,6 @@
   </si>
   <si>
     <t>连续射击-穿透分支</t>
-  </si>
-  <si>
-    <t>2.穿透（3/3）:连续射击可穿透目标，伤害提高20%/40%/60%
-2.1.刺骨《冰》（1/2）：技能赋予冰元素效果，伤害变为冰元素伤害。
-（2/2）：该技能冰元素减速效果增加至50%。
-2.2.冰爆【范围型】（3/3）：连续射击命中被减速的敌人时，有12%概率发生冰爆，对范围300码敌人造成攻击力160%/200%/250%冰元素伤害。</t>
   </si>
   <si>
     <t>alchemist_unstable_concoction</t>
@@ -313,7 +276,7 @@
     <t>drow_2b_a</t>
   </si>
   <si>
-    <t>散射分支-火力覆盖</t>
+    <t>散射-火力覆盖</t>
   </si>
   <si>
     <t>火力覆盖【范围型】《火》（3/3）：
@@ -325,7 +288,7 @@
     <t>drow_2b_b</t>
   </si>
   <si>
-    <t>散射分支-双喷</t>
+    <t>散射-双喷</t>
   </si>
   <si>
     <t>1.双喷【范围型】《冰》（3/3）：
@@ -1186,6 +1149,9 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="3" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1198,14 +1164,11 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1588,44 +1551,43 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:AE24"/>
+  <dimension ref="A1:AC24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <pane xSplit="3" topLeftCell="N1" activePane="topRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="3" topLeftCell="D1" activePane="topRight" state="frozen"/>
       <selection/>
-      <selection pane="topRight" activeCell="R8" sqref="R8"/>
+      <selection pane="topRight" activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="22.675" customWidth="1"/>
     <col min="2" max="2" width="27.3416666666667" customWidth="1"/>
-    <col min="3" max="4" width="50.5" customWidth="1"/>
-    <col min="5" max="5" width="10.675" customWidth="1"/>
-    <col min="6" max="8" width="12.3416666666667" customWidth="1"/>
-    <col min="9" max="10" width="21.625" customWidth="1"/>
-    <col min="11" max="11" width="12.675" customWidth="1"/>
-    <col min="12" max="12" width="25.8416666666667" customWidth="1"/>
-    <col min="13" max="13" width="24.0083333333333" customWidth="1"/>
-    <col min="14" max="14" width="29.5083333333333" customWidth="1"/>
-    <col min="15" max="15" width="17.175" customWidth="1"/>
-    <col min="16" max="16" width="16.625" customWidth="1"/>
-    <col min="17" max="17" width="21.5" customWidth="1"/>
-    <col min="18" max="18" width="17.125" customWidth="1"/>
-    <col min="19" max="19" width="18.5" customWidth="1"/>
-    <col min="20" max="20" width="14" customWidth="1"/>
-    <col min="21" max="21" width="12.625" customWidth="1"/>
-    <col min="22" max="23" width="6.24166666666667" customWidth="1"/>
-    <col min="24" max="24" width="8.00833333333333" customWidth="1"/>
-    <col min="25" max="25" width="18.175" customWidth="1"/>
-    <col min="26" max="26" width="18.5083333333333" customWidth="1"/>
-    <col min="27" max="27" width="27.175" customWidth="1"/>
-    <col min="28" max="28" width="13.175" customWidth="1"/>
-    <col min="29" max="29" width="39.8416666666667" customWidth="1"/>
-    <col min="30" max="30" width="50.625" customWidth="1"/>
+    <col min="3" max="3" width="50.5" customWidth="1"/>
+    <col min="4" max="6" width="12.3416666666667" customWidth="1"/>
+    <col min="7" max="8" width="21.625" customWidth="1"/>
+    <col min="9" max="9" width="12.675" customWidth="1"/>
+    <col min="10" max="10" width="25.8416666666667" customWidth="1"/>
+    <col min="11" max="11" width="24.0083333333333" customWidth="1"/>
+    <col min="12" max="12" width="29.5083333333333" customWidth="1"/>
+    <col min="13" max="13" width="17.175" customWidth="1"/>
+    <col min="14" max="14" width="33.125" customWidth="1"/>
+    <col min="15" max="15" width="21.5" customWidth="1"/>
+    <col min="16" max="16" width="17.125" customWidth="1"/>
+    <col min="17" max="17" width="18.5" customWidth="1"/>
+    <col min="18" max="18" width="14" customWidth="1"/>
+    <col min="19" max="19" width="12.625" customWidth="1"/>
+    <col min="20" max="21" width="6.24166666666667" customWidth="1"/>
+    <col min="22" max="22" width="8.00833333333333" customWidth="1"/>
+    <col min="23" max="23" width="18.175" customWidth="1"/>
+    <col min="24" max="24" width="18.5083333333333" customWidth="1"/>
+    <col min="25" max="25" width="27.175" customWidth="1"/>
+    <col min="26" max="26" width="13.175" customWidth="1"/>
+    <col min="27" max="27" width="39.8416666666667" customWidth="1"/>
+    <col min="28" max="28" width="50.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="39" customHeight="1" spans="1:31">
+    <row r="1" s="1" customFormat="1" ht="39" customHeight="1" spans="1:29">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1633,10 +1595,10 @@
         <v>1</v>
       </c>
       <c r="C1" s="3"/>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="4" t="s">
         <v>3</v>
       </c>
       <c r="F1" s="4" t="s">
@@ -1645,13 +1607,13 @@
       <c r="G1" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="H1" s="4"/>
+      <c r="I1" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="J1" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="4"/>
       <c r="K1" s="4" t="s">
         <v>8</v>
       </c>
@@ -1661,1673 +1623,1626 @@
       <c r="M1" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="N1" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="O1" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="P1" s="4" t="s">
-        <v>13</v>
+      <c r="N1" s="4">
+        <v>1</v>
+      </c>
+      <c r="O1" s="4">
+        <v>2</v>
+      </c>
+      <c r="P1" s="4">
+        <v>3</v>
       </c>
       <c r="Q1" s="4">
-        <v>2</v>
-      </c>
-      <c r="R1" s="4">
-        <v>3</v>
-      </c>
-      <c r="S1" s="4">
         <v>4</v>
       </c>
+      <c r="R1" s="4"/>
+      <c r="S1" s="4"/>
       <c r="T1" s="4"/>
       <c r="U1" s="4"/>
-      <c r="V1" s="4"/>
-      <c r="W1" s="4"/>
-      <c r="X1" s="4" t="s">
+      <c r="V1" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="W1" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="X1" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="Y1" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="Y1" s="12" t="s">
+      <c r="Z1" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="Z1" s="12" t="s">
+      <c r="AA1" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="AA1" s="12" t="s">
+      <c r="AB1" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="AC1" s="15"/>
+    </row>
+    <row r="2" s="1" customFormat="1" ht="22.5" customHeight="1" spans="1:28">
+      <c r="A2" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="AB1" s="4" t="s">
+      <c r="B2" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="AC1" s="4" t="s">
+      <c r="C2" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="AD1" s="4" t="s">
+      <c r="D2" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="G2" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="H2" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="I2" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="J2" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="K2" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="L2" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="M2" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="N2" s="11">
+        <v>1</v>
+      </c>
+      <c r="O2" s="11">
+        <v>2</v>
+      </c>
+      <c r="P2" s="11">
+        <v>3</v>
+      </c>
+      <c r="Q2" s="11">
         <v>4</v>
       </c>
-      <c r="AE1" s="13"/>
+      <c r="R2" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="S2" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="T2" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="U2" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="V2" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="W2" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="X2" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="Y2" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="Z2" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="AA2" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="AB2" s="16" t="s">
+        <v>40</v>
+      </c>
     </row>
-    <row r="2" s="1" customFormat="1" ht="22.5" customHeight="1" spans="1:30">
-      <c r="A2" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="B2" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="C2" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="D2" s="6"/>
-      <c r="E2" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="F2" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="G2" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="H2" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="I2" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="J2" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="K2" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="L2" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="M2" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="N2" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="O2" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="P2" s="10">
-        <v>1</v>
-      </c>
-      <c r="Q2" s="10">
-        <v>2</v>
-      </c>
-      <c r="R2" s="10">
-        <v>3</v>
-      </c>
-      <c r="S2" s="10">
-        <v>4</v>
-      </c>
-      <c r="T2" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="U2" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="V2" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="W2" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="X2" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="Y2" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="Z2" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="AA2" s="10" t="s">
+    <row r="3" customFormat="1" ht="33" spans="1:29">
+      <c r="A3" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="AB2" s="6" t="s">
+      <c r="B3" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="AC2" s="6" t="s">
+      <c r="C3" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="AD2" s="14" t="s">
+      <c r="D3" s="8">
+        <v>1</v>
+      </c>
+      <c r="E3" s="8">
+        <v>1</v>
+      </c>
+      <c r="F3" s="8">
+        <v>0</v>
+      </c>
+      <c r="G3" s="8">
+        <v>0</v>
+      </c>
+      <c r="H3" s="8">
+        <v>1</v>
+      </c>
+      <c r="I3" s="8">
+        <v>1</v>
+      </c>
+      <c r="J3" s="8" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="3" customFormat="1" ht="33" spans="1:31">
-      <c r="A3" s="7" t="s">
+      <c r="K3" s="8">
+        <v>0</v>
+      </c>
+      <c r="L3" s="8">
+        <v>0</v>
+      </c>
+      <c r="M3" s="8"/>
+      <c r="N3" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="B3" s="8" t="s">
+      <c r="O3" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="C3" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="D3" s="8"/>
-      <c r="E3" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="F3" s="8">
-        <v>1</v>
-      </c>
-      <c r="G3" s="8">
-        <v>1</v>
-      </c>
-      <c r="H3" s="8">
-        <v>0</v>
-      </c>
-      <c r="I3" s="8">
-        <v>0</v>
-      </c>
-      <c r="J3" s="8">
-        <v>1</v>
-      </c>
-      <c r="K3" s="8">
-        <v>1</v>
-      </c>
-      <c r="L3" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="M3" s="8">
-        <v>0</v>
-      </c>
-      <c r="N3" s="8">
-        <v>0</v>
-      </c>
-      <c r="O3" s="8"/>
-      <c r="P3" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="Q3" s="8"/>
+      <c r="P3" s="8"/>
       <c r="R3" s="8"/>
+      <c r="S3" s="8"/>
       <c r="T3" s="8"/>
       <c r="U3" s="8"/>
       <c r="V3" s="8"/>
-      <c r="W3" s="8"/>
-      <c r="X3" s="8"/>
-      <c r="Y3" s="15">
-        <v>0</v>
-      </c>
-      <c r="Z3" s="15">
-        <v>0</v>
-      </c>
-      <c r="AA3" s="15">
-        <v>0</v>
-      </c>
-      <c r="AB3" s="8" t="s">
-        <v>50</v>
-      </c>
-      <c r="AC3" s="8" t="str">
+      <c r="W3" s="14">
+        <v>0</v>
+      </c>
+      <c r="X3" s="14">
+        <v>0</v>
+      </c>
+      <c r="Y3" s="14">
+        <v>0</v>
+      </c>
+      <c r="Z3" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="AA3" s="8" t="str">
         <f>"abilities/hero/drow/drow_1/"&amp;A3</f>
         <v>abilities/hero/drow/drow_1/drow_1</v>
       </c>
-      <c r="AD3" s="16" t="s">
+      <c r="AB3" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="AC3" s="17"/>
+    </row>
+    <row r="4" ht="66" spans="1:29">
+      <c r="A4" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="C4" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="AE3" s="17"/>
-    </row>
-    <row r="4" ht="66" spans="1:31">
-      <c r="A4" s="7" t="s">
+      <c r="D4" s="8">
+        <v>1</v>
+      </c>
+      <c r="E4" s="8">
+        <v>1</v>
+      </c>
+      <c r="F4" s="8">
+        <v>0</v>
+      </c>
+      <c r="G4" s="8">
+        <v>0</v>
+      </c>
+      <c r="H4" s="8">
+        <v>1</v>
+      </c>
+      <c r="I4" s="8">
+        <v>1</v>
+      </c>
+      <c r="J4" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="B4" s="8" t="s">
-        <v>53</v>
-      </c>
-      <c r="C4" s="8" t="s">
-        <v>54</v>
-      </c>
-      <c r="D4" s="8"/>
-      <c r="E4" s="8" t="s">
+      <c r="K4" s="8">
+        <v>1</v>
+      </c>
+      <c r="L4" s="8">
+        <v>0</v>
+      </c>
+      <c r="M4" s="8"/>
+      <c r="N4" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="F4" s="8">
-        <v>1</v>
-      </c>
-      <c r="G4" s="8">
-        <v>1</v>
-      </c>
-      <c r="H4" s="8">
-        <v>0</v>
-      </c>
-      <c r="I4" s="8">
-        <v>0</v>
-      </c>
-      <c r="J4" s="8">
-        <v>1</v>
-      </c>
-      <c r="K4" s="8">
-        <v>1</v>
-      </c>
-      <c r="L4" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="M4" s="8">
-        <v>1</v>
-      </c>
-      <c r="N4" s="8">
-        <v>0</v>
-      </c>
-      <c r="O4" s="8"/>
-      <c r="P4" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="Q4" s="8" t="s">
-        <v>57</v>
-      </c>
-      <c r="R4" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="S4" s="11" t="s">
-        <v>59</v>
-      </c>
-      <c r="T4" s="8" t="s">
-        <v>60</v>
-      </c>
-      <c r="U4" s="8" t="s">
-        <v>49</v>
-      </c>
+      <c r="O4" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="P4" s="12"/>
+      <c r="Q4" s="12"/>
+      <c r="R4" s="8"/>
+      <c r="S4" s="8"/>
+      <c r="T4" s="8"/>
+      <c r="U4" s="8"/>
       <c r="V4" s="8"/>
-      <c r="W4" s="8"/>
-      <c r="X4" s="8"/>
-      <c r="Y4" s="15">
-        <v>0</v>
-      </c>
-      <c r="Z4" s="15">
-        <v>0</v>
-      </c>
-      <c r="AA4" s="15">
-        <v>0</v>
-      </c>
-      <c r="AB4" s="8" t="s">
-        <v>50</v>
-      </c>
-      <c r="AC4" s="8" t="str">
+      <c r="W4" s="14">
+        <v>0</v>
+      </c>
+      <c r="X4" s="14">
+        <v>0</v>
+      </c>
+      <c r="Y4" s="14">
+        <v>0</v>
+      </c>
+      <c r="Z4" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="AA4" s="8" t="str">
         <f>"abilities/hero/drow/drow_1/"&amp;A4</f>
         <v>abilities/hero/drow/drow_1/drow_1a</v>
       </c>
-      <c r="AD4" s="16" t="s">
-        <v>51</v>
-      </c>
-      <c r="AE4" s="17"/>
+      <c r="AB4" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="AC4" s="17"/>
     </row>
-    <row r="5" ht="33" spans="1:31">
+    <row r="5" ht="33" spans="1:29">
       <c r="A5" s="7" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>63</v>
-      </c>
-      <c r="D5" s="8"/>
-      <c r="E5" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="D5" s="8">
+        <v>1</v>
+      </c>
+      <c r="E5" s="8">
+        <v>1</v>
+      </c>
+      <c r="F5" s="8">
+        <v>0</v>
+      </c>
+      <c r="G5" s="8">
+        <v>0</v>
+      </c>
+      <c r="H5" s="8">
+        <v>1</v>
+      </c>
+      <c r="I5" s="8">
+        <v>1</v>
+      </c>
+      <c r="J5" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="K5" s="8">
+        <v>4</v>
+      </c>
+      <c r="L5" s="8">
+        <v>0</v>
+      </c>
+      <c r="M5" s="8"/>
+      <c r="N5" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="F5" s="8">
-        <v>1</v>
-      </c>
-      <c r="G5" s="8">
-        <v>1</v>
-      </c>
-      <c r="H5" s="8">
-        <v>0</v>
-      </c>
-      <c r="I5" s="8">
-        <v>0</v>
-      </c>
-      <c r="J5" s="8">
-        <v>1</v>
-      </c>
-      <c r="K5" s="8">
-        <v>1</v>
-      </c>
-      <c r="L5" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="M5" s="8">
-        <v>4</v>
-      </c>
-      <c r="N5" s="8">
-        <v>0</v>
-      </c>
-      <c r="O5" s="8"/>
+      <c r="O5" s="8" t="s">
+        <v>46</v>
+      </c>
       <c r="P5" s="8"/>
-      <c r="Q5" s="8"/>
       <c r="R5" s="8"/>
+      <c r="S5" s="8"/>
       <c r="T5" s="8"/>
       <c r="U5" s="8"/>
       <c r="V5" s="8"/>
-      <c r="W5" s="8"/>
-      <c r="X5" s="8"/>
-      <c r="Y5" s="15">
-        <v>0</v>
-      </c>
-      <c r="Z5" s="15">
-        <v>0</v>
-      </c>
-      <c r="AA5" s="15">
-        <v>0</v>
-      </c>
-      <c r="AB5" s="8" t="s">
-        <v>50</v>
-      </c>
-      <c r="AC5" s="8" t="str">
+      <c r="W5" s="14">
+        <v>0</v>
+      </c>
+      <c r="X5" s="14">
+        <v>0</v>
+      </c>
+      <c r="Y5" s="14">
+        <v>0</v>
+      </c>
+      <c r="Z5" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="AA5" s="8" t="str">
         <f>"abilities/hero/drow/drow_1/"&amp;A5</f>
         <v>abilities/hero/drow/drow_1/drow_1b</v>
       </c>
-      <c r="AD5" s="16" t="s">
-        <v>51</v>
-      </c>
-      <c r="AE5" s="17"/>
+      <c r="AB5" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="AC5" s="17"/>
     </row>
-    <row r="6" ht="82.5" spans="1:31">
+    <row r="6" ht="33" spans="1:29">
       <c r="A6" s="7" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>67</v>
-      </c>
-      <c r="D6" s="8"/>
-      <c r="E6" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="D6" s="8">
+        <v>1</v>
+      </c>
+      <c r="E6" s="8">
+        <v>1</v>
+      </c>
+      <c r="F6" s="8">
+        <v>0</v>
+      </c>
+      <c r="G6" s="8">
+        <v>0</v>
+      </c>
+      <c r="H6" s="8">
+        <v>1</v>
+      </c>
+      <c r="I6" s="8">
+        <v>1</v>
+      </c>
+      <c r="J6" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="K6" s="8">
+        <v>0</v>
+      </c>
+      <c r="L6" s="8">
+        <v>0</v>
+      </c>
+      <c r="M6" s="8"/>
+      <c r="N6" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="F6" s="8">
-        <v>1</v>
-      </c>
-      <c r="G6" s="8">
-        <v>1</v>
-      </c>
-      <c r="H6" s="8">
-        <v>0</v>
-      </c>
-      <c r="I6" s="8">
-        <v>0</v>
-      </c>
-      <c r="J6" s="8">
-        <v>1</v>
-      </c>
-      <c r="K6" s="8">
-        <v>1</v>
-      </c>
-      <c r="L6" s="8" t="s">
-        <v>68</v>
-      </c>
-      <c r="M6" s="8">
-        <v>0</v>
-      </c>
-      <c r="N6" s="8">
-        <v>0</v>
-      </c>
-      <c r="O6" s="8"/>
+      <c r="O6" s="8" t="s">
+        <v>46</v>
+      </c>
       <c r="P6" s="8"/>
-      <c r="Q6" s="8"/>
       <c r="R6" s="8"/>
+      <c r="S6" s="8"/>
       <c r="T6" s="8"/>
       <c r="U6" s="8"/>
       <c r="V6" s="8"/>
-      <c r="W6" s="8"/>
-      <c r="X6" s="8"/>
-      <c r="Y6" s="15">
-        <v>0</v>
-      </c>
-      <c r="Z6" s="15">
-        <v>0</v>
-      </c>
-      <c r="AA6" s="15">
-        <v>0</v>
-      </c>
-      <c r="AB6" s="8" t="s">
-        <v>50</v>
-      </c>
-      <c r="AC6" s="8" t="str">
+      <c r="W6" s="14">
+        <v>0</v>
+      </c>
+      <c r="X6" s="14">
+        <v>0</v>
+      </c>
+      <c r="Y6" s="14">
+        <v>0</v>
+      </c>
+      <c r="Z6" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="AA6" s="8" t="str">
         <f>"abilities/hero/drow/drow_1/"&amp;A6</f>
         <v>abilities/hero/drow/drow_1/drow_1c</v>
       </c>
-      <c r="AD6" s="16" t="s">
-        <v>51</v>
-      </c>
-      <c r="AE6" s="17"/>
+      <c r="AB6" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="AC6" s="17"/>
     </row>
-    <row r="7" ht="82.5" spans="1:31">
+    <row r="7" ht="33" spans="1:29">
       <c r="A7" s="7" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>71</v>
-      </c>
-      <c r="D7" s="8"/>
-      <c r="E7" s="8" t="s">
-        <v>69</v>
+        <v>63</v>
+      </c>
+      <c r="D7" s="8">
+        <v>1</v>
+      </c>
+      <c r="E7" s="8">
+        <v>2</v>
       </c>
       <c r="F7" s="8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G7" s="8">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H7" s="8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I7" s="8">
-        <v>0</v>
-      </c>
-      <c r="J7" s="8">
-        <v>1</v>
+        <v>1</v>
+      </c>
+      <c r="J7" s="8" t="s">
+        <v>64</v>
       </c>
       <c r="K7" s="8">
-        <v>1</v>
-      </c>
-      <c r="L7" s="8" t="s">
-        <v>72</v>
-      </c>
-      <c r="M7" s="8">
-        <v>0</v>
-      </c>
-      <c r="N7" s="8">
-        <v>0</v>
-      </c>
-      <c r="O7" s="8"/>
+        <v>0</v>
+      </c>
+      <c r="L7" s="8">
+        <v>0</v>
+      </c>
+      <c r="M7" s="8"/>
+      <c r="N7" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="O7" s="8" t="s">
+        <v>66</v>
+      </c>
       <c r="P7" s="8" t="s">
-        <v>73</v>
-      </c>
-      <c r="Q7" s="8" t="s">
-        <v>74</v>
+        <v>67</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>68</v>
       </c>
       <c r="R7" s="8"/>
+      <c r="S7" s="8"/>
       <c r="T7" s="8"/>
       <c r="U7" s="8"/>
       <c r="V7" s="8"/>
-      <c r="W7" s="8"/>
-      <c r="X7" s="8"/>
-      <c r="Y7" s="15">
+      <c r="W7" s="14">
         <v>3</v>
       </c>
-      <c r="Z7" s="15">
+      <c r="X7" s="14">
         <v>20</v>
       </c>
-      <c r="AA7" s="15">
-        <v>0</v>
-      </c>
-      <c r="AB7" s="8" t="s">
-        <v>50</v>
-      </c>
-      <c r="AC7" s="8" t="str">
-        <f t="shared" ref="AC7:AC12" si="0">"abilities/hero/drow/drow_2/"&amp;A7</f>
+      <c r="Y7" s="14">
+        <v>0</v>
+      </c>
+      <c r="Z7" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="AA7" s="8" t="str">
+        <f t="shared" ref="AA7:AA12" si="0">"abilities/hero/drow/drow_2/"&amp;A7</f>
         <v>abilities/hero/drow/drow_2/drow_2a</v>
       </c>
-      <c r="AD7" s="16" t="s">
-        <v>51</v>
-      </c>
-      <c r="AE7" s="17"/>
+      <c r="AB7" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="AC7" s="17"/>
     </row>
-    <row r="8" ht="132" spans="1:31">
+    <row r="8" ht="33" spans="1:29">
       <c r="A8" s="7" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>77</v>
-      </c>
-      <c r="D8" s="8"/>
-      <c r="E8" s="8"/>
+        <v>63</v>
+      </c>
+      <c r="D8" s="8">
+        <v>1</v>
+      </c>
+      <c r="E8" s="8">
+        <v>2</v>
+      </c>
       <c r="F8" s="8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G8" s="8">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H8" s="8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I8" s="8">
-        <v>0</v>
-      </c>
-      <c r="J8" s="8">
-        <v>1</v>
+        <v>1</v>
+      </c>
+      <c r="J8" s="8" t="s">
+        <v>71</v>
       </c>
       <c r="K8" s="8">
-        <v>1</v>
-      </c>
-      <c r="L8" s="8" t="s">
-        <v>78</v>
-      </c>
-      <c r="M8" s="8">
-        <v>0</v>
-      </c>
-      <c r="N8" s="8">
-        <v>0</v>
-      </c>
-      <c r="O8" s="8"/>
+        <v>0</v>
+      </c>
+      <c r="L8" s="8">
+        <v>0</v>
+      </c>
+      <c r="M8" s="8"/>
+      <c r="N8" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="O8" s="8" t="s">
+        <v>66</v>
+      </c>
       <c r="P8" s="8" t="s">
-        <v>73</v>
-      </c>
-      <c r="Q8" s="8" t="s">
-        <v>74</v>
+        <v>67</v>
+      </c>
+      <c r="Q8" t="s">
+        <v>68</v>
       </c>
       <c r="R8" s="8"/>
+      <c r="S8" s="8"/>
       <c r="T8" s="8"/>
       <c r="U8" s="8"/>
       <c r="V8" s="8"/>
-      <c r="W8" s="8"/>
-      <c r="X8" s="8"/>
-      <c r="Y8" s="15">
+      <c r="W8" s="14">
         <v>3</v>
       </c>
-      <c r="Z8" s="15">
+      <c r="X8" s="14">
         <v>20</v>
       </c>
-      <c r="AA8" s="15">
-        <v>0</v>
-      </c>
-      <c r="AB8" s="8" t="s">
-        <v>50</v>
-      </c>
-      <c r="AC8" s="8" t="str">
+      <c r="Y8" s="14">
+        <v>0</v>
+      </c>
+      <c r="Z8" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="AA8" s="8" t="str">
         <f t="shared" si="0"/>
         <v>abilities/hero/drow/drow_2/drow_2a_a</v>
       </c>
-      <c r="AD8" s="16" t="s">
-        <v>51</v>
-      </c>
-      <c r="AE8" s="17"/>
+      <c r="AB8" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="AC8" s="17"/>
     </row>
-    <row r="9" ht="115.5" spans="1:31">
+    <row r="9" ht="33" spans="1:29">
       <c r="A9" s="7" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>81</v>
-      </c>
-      <c r="D9" s="8"/>
-      <c r="E9" s="8"/>
+        <v>63</v>
+      </c>
+      <c r="D9" s="8">
+        <v>1</v>
+      </c>
+      <c r="E9" s="8">
+        <v>2</v>
+      </c>
       <c r="F9" s="8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G9" s="8">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H9" s="8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I9" s="8">
-        <v>0</v>
-      </c>
-      <c r="J9" s="8">
-        <v>1</v>
+        <v>1</v>
+      </c>
+      <c r="J9" s="8" t="s">
+        <v>74</v>
       </c>
       <c r="K9" s="8">
-        <v>1</v>
-      </c>
-      <c r="L9" s="8" t="s">
-        <v>82</v>
-      </c>
-      <c r="M9" s="8">
-        <v>0</v>
-      </c>
-      <c r="N9" s="8">
-        <v>0</v>
-      </c>
-      <c r="O9" s="8"/>
+        <v>0</v>
+      </c>
+      <c r="L9" s="8">
+        <v>0</v>
+      </c>
+      <c r="M9" s="8"/>
+      <c r="N9" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="O9" s="8" t="s">
+        <v>66</v>
+      </c>
       <c r="P9" s="8" t="s">
-        <v>73</v>
-      </c>
-      <c r="Q9" s="8" t="s">
-        <v>74</v>
+        <v>67</v>
+      </c>
+      <c r="Q9" t="s">
+        <v>68</v>
       </c>
       <c r="R9" s="8"/>
+      <c r="S9" s="8"/>
       <c r="T9" s="8"/>
       <c r="U9" s="8"/>
       <c r="V9" s="8"/>
-      <c r="W9" s="8"/>
-      <c r="X9" s="8"/>
-      <c r="Y9" s="15">
+      <c r="W9" s="14">
         <v>3</v>
       </c>
-      <c r="Z9" s="15">
+      <c r="X9" s="14">
         <v>20</v>
       </c>
-      <c r="AA9" s="15">
-        <v>0</v>
-      </c>
-      <c r="AB9" s="8" t="s">
-        <v>50</v>
-      </c>
-      <c r="AC9" s="8" t="str">
+      <c r="Y9" s="14">
+        <v>0</v>
+      </c>
+      <c r="Z9" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="AA9" s="8" t="str">
         <f t="shared" si="0"/>
         <v>abilities/hero/drow/drow_2/drow_2a_b</v>
       </c>
-      <c r="AD9" s="16" t="s">
-        <v>51</v>
-      </c>
-      <c r="AE9" s="17"/>
+      <c r="AB9" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="AC9" s="17"/>
     </row>
-    <row r="10" ht="66" spans="1:31">
+    <row r="10" ht="66" spans="1:29">
       <c r="A10" s="7" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>85</v>
-      </c>
-      <c r="D10" s="8"/>
-      <c r="E10" s="8"/>
+        <v>77</v>
+      </c>
+      <c r="D10" s="8">
+        <v>1</v>
+      </c>
+      <c r="E10" s="8">
+        <v>2</v>
+      </c>
       <c r="F10" s="8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G10" s="8">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H10" s="8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I10" s="8">
-        <v>0</v>
-      </c>
-      <c r="J10" s="8">
-        <v>1</v>
+        <v>1</v>
+      </c>
+      <c r="J10" s="8" t="s">
+        <v>78</v>
       </c>
       <c r="K10" s="8">
-        <v>1</v>
-      </c>
-      <c r="L10" s="8" t="s">
-        <v>86</v>
-      </c>
-      <c r="M10" s="8">
-        <v>0</v>
-      </c>
-      <c r="N10" s="8">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="L10" s="8">
+        <v>0</v>
+      </c>
+      <c r="M10" s="8"/>
+      <c r="N10" s="8"/>
       <c r="O10" s="8"/>
       <c r="P10" s="8"/>
-      <c r="Q10" s="8"/>
       <c r="R10" s="8"/>
+      <c r="S10" s="8"/>
       <c r="T10" s="8"/>
       <c r="U10" s="8"/>
       <c r="V10" s="8"/>
-      <c r="W10" s="8"/>
-      <c r="X10" s="8"/>
-      <c r="Y10" s="15">
+      <c r="W10" s="14">
         <v>3</v>
       </c>
-      <c r="Z10" s="15">
+      <c r="X10" s="14">
         <v>30</v>
       </c>
-      <c r="AA10" s="15">
-        <v>0</v>
-      </c>
-      <c r="AB10" s="8" t="s">
-        <v>50</v>
-      </c>
-      <c r="AC10" s="8" t="str">
+      <c r="Y10" s="14">
+        <v>0</v>
+      </c>
+      <c r="Z10" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="AA10" s="8" t="str">
         <f t="shared" si="0"/>
         <v>abilities/hero/drow/drow_2/drow_2b</v>
       </c>
-      <c r="AD10" s="16" t="s">
-        <v>51</v>
-      </c>
-      <c r="AE10" s="17"/>
+      <c r="AB10" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="AC10" s="17"/>
     </row>
-    <row r="11" ht="99" spans="1:31">
+    <row r="11" ht="99" spans="1:29">
       <c r="A11" s="7" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="C11" s="8" t="s">
-        <v>89</v>
-      </c>
-      <c r="D11" s="8"/>
-      <c r="E11" s="8"/>
+        <v>81</v>
+      </c>
+      <c r="D11" s="8">
+        <v>1</v>
+      </c>
+      <c r="E11" s="8">
+        <v>2</v>
+      </c>
       <c r="F11" s="8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G11" s="8">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H11" s="8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I11" s="8">
-        <v>0</v>
-      </c>
-      <c r="J11" s="8">
-        <v>1</v>
+        <v>1</v>
+      </c>
+      <c r="J11" s="8" t="s">
+        <v>60</v>
       </c>
       <c r="K11" s="8">
-        <v>1</v>
-      </c>
-      <c r="L11" s="8" t="s">
-        <v>68</v>
-      </c>
-      <c r="M11" s="8">
-        <v>0</v>
-      </c>
-      <c r="N11" s="8">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="L11" s="8">
+        <v>0</v>
+      </c>
+      <c r="M11" s="8"/>
+      <c r="N11" s="8"/>
       <c r="O11" s="8"/>
       <c r="P11" s="8"/>
-      <c r="Q11" s="8"/>
       <c r="R11" s="8"/>
+      <c r="S11" s="8"/>
       <c r="T11" s="8"/>
       <c r="U11" s="8"/>
       <c r="V11" s="8"/>
-      <c r="W11" s="8"/>
-      <c r="X11" s="8"/>
-      <c r="Y11" s="15">
+      <c r="W11" s="14">
         <v>3</v>
       </c>
-      <c r="Z11" s="15">
+      <c r="X11" s="14">
         <v>30</v>
       </c>
-      <c r="AA11" s="15">
-        <v>0</v>
-      </c>
-      <c r="AB11" s="8" t="s">
-        <v>50</v>
-      </c>
-      <c r="AC11" s="8" t="str">
+      <c r="Y11" s="14">
+        <v>0</v>
+      </c>
+      <c r="Z11" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="AA11" s="8" t="str">
         <f t="shared" si="0"/>
         <v>abilities/hero/drow/drow_2/drow_2b_a</v>
       </c>
-      <c r="AD11" s="16" t="s">
-        <v>51</v>
-      </c>
-      <c r="AE11" s="17"/>
+      <c r="AB11" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="AC11" s="17"/>
     </row>
-    <row r="12" ht="115.5" spans="1:31">
+    <row r="12" ht="115.5" spans="1:29">
       <c r="A12" s="7" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>91</v>
+        <v>83</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>92</v>
-      </c>
-      <c r="D12" s="8"/>
-      <c r="E12" s="8"/>
+        <v>84</v>
+      </c>
+      <c r="D12" s="8">
+        <v>1</v>
+      </c>
+      <c r="E12" s="8">
+        <v>2</v>
+      </c>
       <c r="F12" s="8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G12" s="8">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H12" s="8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I12" s="8">
-        <v>0</v>
-      </c>
-      <c r="J12" s="8">
-        <v>1</v>
+        <v>1</v>
+      </c>
+      <c r="J12" s="8" t="s">
+        <v>60</v>
       </c>
       <c r="K12" s="8">
-        <v>1</v>
-      </c>
-      <c r="L12" s="8" t="s">
-        <v>68</v>
-      </c>
-      <c r="M12" s="8">
-        <v>0</v>
-      </c>
-      <c r="N12" s="8">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="L12" s="8">
+        <v>0</v>
+      </c>
+      <c r="M12" s="8"/>
+      <c r="N12" s="8"/>
       <c r="O12" s="8"/>
       <c r="P12" s="8"/>
-      <c r="Q12" s="8"/>
       <c r="R12" s="8"/>
+      <c r="S12" s="8"/>
       <c r="T12" s="8"/>
       <c r="U12" s="8"/>
       <c r="V12" s="8"/>
-      <c r="W12" s="8"/>
-      <c r="X12" s="8"/>
-      <c r="Y12" s="15">
+      <c r="W12" s="14">
         <v>3</v>
       </c>
-      <c r="Z12" s="15">
+      <c r="X12" s="14">
         <v>30</v>
       </c>
-      <c r="AA12" s="15">
-        <v>0</v>
-      </c>
-      <c r="AB12" s="8" t="s">
-        <v>50</v>
-      </c>
-      <c r="AC12" s="8" t="str">
+      <c r="Y12" s="14">
+        <v>0</v>
+      </c>
+      <c r="Z12" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="AA12" s="8" t="str">
         <f t="shared" si="0"/>
         <v>abilities/hero/drow/drow_2/drow_2b_b</v>
       </c>
-      <c r="AD12" s="16" t="s">
-        <v>51</v>
-      </c>
-      <c r="AE12" s="17"/>
+      <c r="AB12" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="AC12" s="17"/>
     </row>
-    <row r="13" ht="33" spans="1:31">
+    <row r="13" ht="33" spans="1:29">
       <c r="A13" s="7" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="B13" s="8" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
       <c r="C13" s="8"/>
-      <c r="D13" s="8"/>
-      <c r="E13" s="8"/>
+      <c r="D13" s="8">
+        <v>1</v>
+      </c>
+      <c r="E13" s="8">
+        <v>3</v>
+      </c>
       <c r="F13" s="8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G13" s="8">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H13" s="8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I13" s="8">
-        <v>0</v>
-      </c>
-      <c r="J13" s="8">
-        <v>1</v>
+        <v>1</v>
+      </c>
+      <c r="J13" s="8" t="s">
+        <v>60</v>
       </c>
       <c r="K13" s="8">
-        <v>1</v>
-      </c>
-      <c r="L13" s="8" t="s">
-        <v>68</v>
-      </c>
-      <c r="M13" s="8">
-        <v>0</v>
-      </c>
-      <c r="N13" s="8">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="L13" s="8">
+        <v>0</v>
+      </c>
+      <c r="M13" s="8"/>
+      <c r="N13" s="8"/>
       <c r="O13" s="8"/>
       <c r="P13" s="8"/>
-      <c r="Q13" s="8"/>
       <c r="R13" s="8"/>
+      <c r="S13" s="8"/>
       <c r="T13" s="8"/>
       <c r="U13" s="8"/>
       <c r="V13" s="8"/>
-      <c r="W13" s="8"/>
-      <c r="X13" s="8"/>
-      <c r="Y13" s="15">
-        <v>0</v>
-      </c>
-      <c r="Z13" s="15">
-        <v>0</v>
-      </c>
-      <c r="AA13" s="15">
-        <v>0</v>
-      </c>
-      <c r="AB13" s="8" t="s">
-        <v>50</v>
-      </c>
-      <c r="AC13" s="8" t="str">
-        <f t="shared" ref="AC3:AC24" si="1">"abilities/innate/"&amp;A13</f>
+      <c r="W13" s="14">
+        <v>0</v>
+      </c>
+      <c r="X13" s="14">
+        <v>0</v>
+      </c>
+      <c r="Y13" s="14">
+        <v>0</v>
+      </c>
+      <c r="Z13" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="AA13" s="8" t="str">
+        <f t="shared" ref="AA3:AA24" si="1">"abilities/innate/"&amp;A13</f>
         <v>abilities/innate/drow_3a</v>
       </c>
-      <c r="AD13" s="16" t="s">
-        <v>51</v>
-      </c>
-      <c r="AE13" s="17"/>
+      <c r="AB13" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="AC13" s="17"/>
     </row>
-    <row r="14" ht="33" spans="1:31">
+    <row r="14" ht="33" spans="1:29">
       <c r="A14" s="7" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="B14" s="8" t="s">
-        <v>96</v>
+        <v>88</v>
       </c>
       <c r="C14" s="8"/>
-      <c r="D14" s="8"/>
-      <c r="E14" s="8"/>
+      <c r="D14" s="8">
+        <v>1</v>
+      </c>
+      <c r="E14" s="8">
+        <v>3</v>
+      </c>
       <c r="F14" s="8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G14" s="8">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H14" s="8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I14" s="8">
-        <v>0</v>
-      </c>
-      <c r="J14" s="8">
-        <v>1</v>
+        <v>1</v>
+      </c>
+      <c r="J14" s="8" t="s">
+        <v>60</v>
       </c>
       <c r="K14" s="8">
-        <v>1</v>
-      </c>
-      <c r="L14" s="8" t="s">
-        <v>68</v>
-      </c>
-      <c r="M14" s="8">
-        <v>0</v>
-      </c>
-      <c r="N14" s="8">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="L14" s="8">
+        <v>0</v>
+      </c>
+      <c r="M14" s="8"/>
+      <c r="N14" s="8"/>
       <c r="O14" s="8"/>
       <c r="P14" s="8"/>
-      <c r="Q14" s="8"/>
       <c r="R14" s="8"/>
+      <c r="S14" s="8"/>
       <c r="T14" s="8"/>
       <c r="U14" s="8"/>
       <c r="V14" s="8"/>
-      <c r="W14" s="8"/>
-      <c r="X14" s="8"/>
-      <c r="Y14" s="15">
-        <v>0</v>
-      </c>
-      <c r="Z14" s="15">
-        <v>0</v>
-      </c>
-      <c r="AA14" s="15">
-        <v>0</v>
-      </c>
-      <c r="AB14" s="8" t="s">
-        <v>50</v>
-      </c>
-      <c r="AC14" s="8" t="str">
+      <c r="W14" s="14">
+        <v>0</v>
+      </c>
+      <c r="X14" s="14">
+        <v>0</v>
+      </c>
+      <c r="Y14" s="14">
+        <v>0</v>
+      </c>
+      <c r="Z14" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="AA14" s="8" t="str">
         <f t="shared" si="1"/>
         <v>abilities/innate/drow_3a_a</v>
       </c>
-      <c r="AD14" s="16" t="s">
-        <v>51</v>
-      </c>
-      <c r="AE14" s="17"/>
+      <c r="AB14" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="AC14" s="17"/>
     </row>
-    <row r="15" ht="33" spans="1:31">
+    <row r="15" ht="33" spans="1:29">
       <c r="A15" s="7" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="B15" s="8" t="s">
-        <v>98</v>
+        <v>90</v>
       </c>
       <c r="C15" s="8"/>
-      <c r="D15" s="8"/>
-      <c r="E15" s="8"/>
+      <c r="D15" s="8">
+        <v>1</v>
+      </c>
+      <c r="E15" s="8">
+        <v>3</v>
+      </c>
       <c r="F15" s="8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G15" s="8">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H15" s="8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I15" s="8">
-        <v>0</v>
-      </c>
-      <c r="J15" s="8">
-        <v>1</v>
+        <v>1</v>
+      </c>
+      <c r="J15" s="8" t="s">
+        <v>60</v>
       </c>
       <c r="K15" s="8">
-        <v>1</v>
-      </c>
-      <c r="L15" s="8" t="s">
-        <v>68</v>
-      </c>
-      <c r="M15" s="8">
-        <v>0</v>
-      </c>
-      <c r="N15" s="8">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="L15" s="8">
+        <v>0</v>
+      </c>
+      <c r="M15" s="8"/>
+      <c r="N15" s="8"/>
       <c r="O15" s="8"/>
       <c r="P15" s="8"/>
-      <c r="Q15" s="8"/>
       <c r="R15" s="8"/>
+      <c r="S15" s="8"/>
       <c r="T15" s="8"/>
       <c r="U15" s="8"/>
       <c r="V15" s="8"/>
-      <c r="W15" s="8"/>
-      <c r="X15" s="8"/>
-      <c r="Y15" s="15">
-        <v>0</v>
-      </c>
-      <c r="Z15" s="15">
-        <v>0</v>
-      </c>
-      <c r="AA15" s="15">
-        <v>0</v>
-      </c>
-      <c r="AB15" s="8" t="s">
-        <v>50</v>
-      </c>
-      <c r="AC15" s="8" t="str">
+      <c r="W15" s="14">
+        <v>0</v>
+      </c>
+      <c r="X15" s="14">
+        <v>0</v>
+      </c>
+      <c r="Y15" s="14">
+        <v>0</v>
+      </c>
+      <c r="Z15" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="AA15" s="8" t="str">
         <f t="shared" si="1"/>
         <v>abilities/innate/drow_3a_b</v>
       </c>
-      <c r="AD15" s="16" t="s">
-        <v>51</v>
-      </c>
-      <c r="AE15" s="17"/>
+      <c r="AB15" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="AC15" s="17"/>
     </row>
-    <row r="16" ht="33" spans="1:31">
+    <row r="16" ht="33" spans="1:29">
       <c r="A16" s="7" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
       <c r="B16" s="8" t="s">
-        <v>100</v>
+        <v>92</v>
       </c>
       <c r="C16" s="8"/>
-      <c r="D16" s="8"/>
-      <c r="E16" s="8"/>
+      <c r="D16" s="8">
+        <v>1</v>
+      </c>
+      <c r="E16" s="8">
+        <v>3</v>
+      </c>
       <c r="F16" s="8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G16" s="8">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H16" s="8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I16" s="8">
-        <v>0</v>
-      </c>
-      <c r="J16" s="8">
-        <v>1</v>
+        <v>1</v>
+      </c>
+      <c r="J16" s="8" t="s">
+        <v>60</v>
       </c>
       <c r="K16" s="8">
-        <v>1</v>
-      </c>
-      <c r="L16" s="8" t="s">
-        <v>68</v>
-      </c>
-      <c r="M16" s="8">
-        <v>0</v>
-      </c>
-      <c r="N16" s="8">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="L16" s="8">
+        <v>0</v>
+      </c>
+      <c r="M16" s="8"/>
+      <c r="N16" s="8"/>
       <c r="O16" s="8"/>
       <c r="P16" s="8"/>
-      <c r="Q16" s="8"/>
       <c r="R16" s="8"/>
+      <c r="S16" s="8"/>
       <c r="T16" s="8"/>
       <c r="U16" s="8"/>
       <c r="V16" s="8"/>
-      <c r="W16" s="8"/>
-      <c r="X16" s="8"/>
-      <c r="Y16" s="15">
-        <v>0</v>
-      </c>
-      <c r="Z16" s="15">
-        <v>0</v>
-      </c>
-      <c r="AA16" s="15">
-        <v>0</v>
-      </c>
-      <c r="AB16" s="8" t="s">
-        <v>50</v>
-      </c>
-      <c r="AC16" s="8" t="str">
+      <c r="W16" s="14">
+        <v>0</v>
+      </c>
+      <c r="X16" s="14">
+        <v>0</v>
+      </c>
+      <c r="Y16" s="14">
+        <v>0</v>
+      </c>
+      <c r="Z16" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="AA16" s="8" t="str">
         <f t="shared" si="1"/>
         <v>abilities/innate/drow_3b</v>
       </c>
-      <c r="AD16" s="16" t="s">
-        <v>51</v>
-      </c>
-      <c r="AE16" s="17"/>
+      <c r="AB16" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="AC16" s="17"/>
     </row>
-    <row r="17" ht="33" spans="1:31">
+    <row r="17" ht="33" spans="1:29">
       <c r="A17" s="7" t="s">
-        <v>101</v>
+        <v>93</v>
       </c>
       <c r="B17" s="8" t="s">
-        <v>102</v>
+        <v>94</v>
       </c>
       <c r="C17" s="8"/>
-      <c r="D17" s="8"/>
-      <c r="E17" s="8"/>
+      <c r="D17" s="8">
+        <v>1</v>
+      </c>
+      <c r="E17" s="8">
+        <v>3</v>
+      </c>
       <c r="F17" s="8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G17" s="8">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H17" s="8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I17" s="8">
-        <v>0</v>
-      </c>
-      <c r="J17" s="8">
-        <v>1</v>
+        <v>1</v>
+      </c>
+      <c r="J17" s="8" t="s">
+        <v>60</v>
       </c>
       <c r="K17" s="8">
-        <v>1</v>
-      </c>
-      <c r="L17" s="8" t="s">
-        <v>68</v>
-      </c>
-      <c r="M17" s="8">
-        <v>0</v>
-      </c>
-      <c r="N17" s="8">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="L17" s="8">
+        <v>0</v>
+      </c>
+      <c r="M17" s="8"/>
+      <c r="N17" s="8"/>
       <c r="O17" s="8"/>
       <c r="P17" s="8"/>
-      <c r="Q17" s="8"/>
       <c r="R17" s="8"/>
+      <c r="S17" s="8"/>
       <c r="T17" s="8"/>
       <c r="U17" s="8"/>
       <c r="V17" s="8"/>
-      <c r="W17" s="8"/>
-      <c r="X17" s="8"/>
-      <c r="Y17" s="15">
-        <v>0</v>
-      </c>
-      <c r="Z17" s="15">
-        <v>0</v>
-      </c>
-      <c r="AA17" s="15">
-        <v>0</v>
-      </c>
-      <c r="AB17" s="8" t="s">
-        <v>50</v>
-      </c>
-      <c r="AC17" s="8" t="str">
+      <c r="W17" s="14">
+        <v>0</v>
+      </c>
+      <c r="X17" s="14">
+        <v>0</v>
+      </c>
+      <c r="Y17" s="14">
+        <v>0</v>
+      </c>
+      <c r="Z17" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="AA17" s="8" t="str">
         <f t="shared" si="1"/>
         <v>abilities/innate/drow_3b_a</v>
       </c>
-      <c r="AD17" s="16" t="s">
-        <v>51</v>
-      </c>
-      <c r="AE17" s="17"/>
+      <c r="AB17" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="AC17" s="17"/>
     </row>
-    <row r="18" ht="33" spans="1:31">
+    <row r="18" ht="33" spans="1:29">
       <c r="A18" s="7" t="s">
-        <v>103</v>
+        <v>95</v>
       </c>
       <c r="B18" s="8" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
       <c r="C18" s="8"/>
-      <c r="D18" s="8"/>
-      <c r="E18" s="8"/>
+      <c r="D18" s="8">
+        <v>1</v>
+      </c>
+      <c r="E18" s="8">
+        <v>3</v>
+      </c>
       <c r="F18" s="8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G18" s="8">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H18" s="8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I18" s="8">
-        <v>0</v>
-      </c>
-      <c r="J18" s="8">
-        <v>1</v>
+        <v>1</v>
+      </c>
+      <c r="J18" s="8" t="s">
+        <v>60</v>
       </c>
       <c r="K18" s="8">
-        <v>1</v>
-      </c>
-      <c r="L18" s="8" t="s">
-        <v>68</v>
-      </c>
-      <c r="M18" s="8">
-        <v>0</v>
-      </c>
-      <c r="N18" s="8">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="L18" s="8">
+        <v>0</v>
+      </c>
+      <c r="M18" s="8"/>
+      <c r="N18" s="8"/>
       <c r="O18" s="8"/>
       <c r="P18" s="8"/>
-      <c r="Q18" s="8"/>
       <c r="R18" s="8"/>
+      <c r="S18" s="8"/>
       <c r="T18" s="8"/>
       <c r="U18" s="8"/>
       <c r="V18" s="8"/>
-      <c r="W18" s="8"/>
-      <c r="X18" s="8"/>
-      <c r="Y18" s="15">
-        <v>0</v>
-      </c>
-      <c r="Z18" s="15">
-        <v>0</v>
-      </c>
-      <c r="AA18" s="15">
-        <v>0</v>
-      </c>
-      <c r="AB18" s="8" t="s">
-        <v>50</v>
-      </c>
-      <c r="AC18" s="8" t="str">
+      <c r="W18" s="14">
+        <v>0</v>
+      </c>
+      <c r="X18" s="14">
+        <v>0</v>
+      </c>
+      <c r="Y18" s="14">
+        <v>0</v>
+      </c>
+      <c r="Z18" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="AA18" s="8" t="str">
         <f t="shared" si="1"/>
         <v>abilities/innate/drow_3b_b</v>
       </c>
-      <c r="AD18" s="16" t="s">
-        <v>51</v>
-      </c>
-      <c r="AE18" s="17"/>
+      <c r="AB18" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="AC18" s="17"/>
     </row>
-    <row r="19" ht="33" spans="1:31">
+    <row r="19" ht="33" spans="1:29">
       <c r="A19" s="7" t="s">
-        <v>105</v>
+        <v>97</v>
       </c>
       <c r="B19" s="8" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
       <c r="C19" s="8"/>
-      <c r="D19" s="8"/>
-      <c r="E19" s="8"/>
+      <c r="D19" s="8">
+        <v>1</v>
+      </c>
+      <c r="E19" s="8">
+        <v>4</v>
+      </c>
       <c r="F19" s="8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G19" s="8">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H19" s="8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I19" s="8">
-        <v>0</v>
-      </c>
-      <c r="J19" s="8">
-        <v>1</v>
+        <v>1</v>
+      </c>
+      <c r="J19" s="8" t="s">
+        <v>60</v>
       </c>
       <c r="K19" s="8">
-        <v>1</v>
-      </c>
-      <c r="L19" s="8" t="s">
-        <v>68</v>
-      </c>
-      <c r="M19" s="8">
-        <v>0</v>
-      </c>
-      <c r="N19" s="8">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="L19" s="8">
+        <v>0</v>
+      </c>
+      <c r="M19" s="8"/>
+      <c r="N19" s="8"/>
       <c r="O19" s="8"/>
       <c r="P19" s="8"/>
-      <c r="Q19" s="8"/>
       <c r="R19" s="8"/>
+      <c r="S19" s="8"/>
       <c r="T19" s="8"/>
       <c r="U19" s="8"/>
       <c r="V19" s="8"/>
-      <c r="W19" s="8"/>
-      <c r="X19" s="8"/>
-      <c r="Y19" s="15">
-        <v>0</v>
-      </c>
-      <c r="Z19" s="15">
-        <v>0</v>
-      </c>
-      <c r="AA19" s="15">
-        <v>0</v>
-      </c>
-      <c r="AB19" s="8" t="s">
-        <v>50</v>
-      </c>
-      <c r="AC19" s="8" t="str">
+      <c r="W19" s="14">
+        <v>0</v>
+      </c>
+      <c r="X19" s="14">
+        <v>0</v>
+      </c>
+      <c r="Y19" s="14">
+        <v>0</v>
+      </c>
+      <c r="Z19" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="AA19" s="8" t="str">
         <f t="shared" si="1"/>
         <v>abilities/innate/drow_4a</v>
       </c>
-      <c r="AD19" s="16" t="s">
-        <v>51</v>
-      </c>
-      <c r="AE19" s="17"/>
+      <c r="AB19" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="AC19" s="17"/>
     </row>
-    <row r="20" ht="33" spans="1:31">
+    <row r="20" ht="33" spans="1:29">
       <c r="A20" s="7" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
       <c r="B20" s="8" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="C20" s="8"/>
-      <c r="D20" s="8"/>
-      <c r="E20" s="8"/>
+      <c r="D20" s="8">
+        <v>1</v>
+      </c>
+      <c r="E20" s="8">
+        <v>4</v>
+      </c>
       <c r="F20" s="8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G20" s="8">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H20" s="8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I20" s="8">
-        <v>0</v>
-      </c>
-      <c r="J20" s="8">
-        <v>1</v>
+        <v>1</v>
+      </c>
+      <c r="J20" s="8" t="s">
+        <v>60</v>
       </c>
       <c r="K20" s="8">
-        <v>1</v>
-      </c>
-      <c r="L20" s="8" t="s">
-        <v>68</v>
-      </c>
-      <c r="M20" s="8">
-        <v>0</v>
-      </c>
-      <c r="N20" s="8">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="L20" s="8">
+        <v>0</v>
+      </c>
+      <c r="M20" s="8"/>
+      <c r="N20" s="8"/>
       <c r="O20" s="8"/>
       <c r="P20" s="8"/>
-      <c r="Q20" s="8"/>
       <c r="R20" s="8"/>
+      <c r="S20" s="8"/>
       <c r="T20" s="8"/>
       <c r="U20" s="8"/>
       <c r="V20" s="8"/>
-      <c r="W20" s="8"/>
-      <c r="X20" s="8"/>
-      <c r="Y20" s="15">
-        <v>0</v>
-      </c>
-      <c r="Z20" s="15">
-        <v>0</v>
-      </c>
-      <c r="AA20" s="15">
-        <v>0</v>
-      </c>
-      <c r="AB20" s="8" t="s">
-        <v>50</v>
-      </c>
-      <c r="AC20" s="8" t="str">
+      <c r="W20" s="14">
+        <v>0</v>
+      </c>
+      <c r="X20" s="14">
+        <v>0</v>
+      </c>
+      <c r="Y20" s="14">
+        <v>0</v>
+      </c>
+      <c r="Z20" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="AA20" s="8" t="str">
         <f t="shared" si="1"/>
         <v>abilities/innate/drow_4b</v>
       </c>
-      <c r="AD20" s="16" t="s">
-        <v>51</v>
-      </c>
-      <c r="AE20" s="17"/>
+      <c r="AB20" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="AC20" s="17"/>
     </row>
-    <row r="21" ht="33" spans="1:31">
+    <row r="21" ht="33" spans="1:29">
       <c r="A21" s="7" t="s">
-        <v>109</v>
+        <v>101</v>
       </c>
       <c r="B21" s="8" t="s">
-        <v>110</v>
+        <v>102</v>
       </c>
       <c r="C21" s="8"/>
-      <c r="D21" s="8"/>
-      <c r="E21" s="8"/>
+      <c r="D21" s="8">
+        <v>1</v>
+      </c>
+      <c r="E21" s="8">
+        <v>5</v>
+      </c>
       <c r="F21" s="8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G21" s="8">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="H21" s="8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I21" s="8">
-        <v>0</v>
-      </c>
-      <c r="J21" s="8">
-        <v>1</v>
+        <v>1</v>
+      </c>
+      <c r="J21" s="8" t="s">
+        <v>60</v>
       </c>
       <c r="K21" s="8">
-        <v>1</v>
-      </c>
-      <c r="L21" s="8" t="s">
-        <v>68</v>
-      </c>
-      <c r="M21" s="8">
-        <v>0</v>
-      </c>
-      <c r="N21" s="8">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="L21" s="8">
+        <v>0</v>
+      </c>
+      <c r="M21" s="8"/>
+      <c r="N21" s="8"/>
       <c r="O21" s="8"/>
       <c r="P21" s="8"/>
-      <c r="Q21" s="8"/>
       <c r="R21" s="8"/>
+      <c r="S21" s="8"/>
       <c r="T21" s="8"/>
       <c r="U21" s="8"/>
       <c r="V21" s="8"/>
-      <c r="W21" s="8"/>
-      <c r="X21" s="8"/>
-      <c r="Y21" s="15">
-        <v>0</v>
-      </c>
-      <c r="Z21" s="15">
-        <v>0</v>
-      </c>
-      <c r="AA21" s="15">
-        <v>0</v>
-      </c>
-      <c r="AB21" s="8" t="s">
-        <v>50</v>
-      </c>
-      <c r="AC21" s="8" t="str">
+      <c r="W21" s="14">
+        <v>0</v>
+      </c>
+      <c r="X21" s="14">
+        <v>0</v>
+      </c>
+      <c r="Y21" s="14">
+        <v>0</v>
+      </c>
+      <c r="Z21" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="AA21" s="8" t="str">
         <f t="shared" si="1"/>
         <v>abilities/innate/drow_5</v>
       </c>
-      <c r="AD21" s="16" t="s">
-        <v>51</v>
-      </c>
-      <c r="AE21" s="17"/>
+      <c r="AB21" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="AC21" s="17"/>
     </row>
-    <row r="22" ht="33" spans="1:31">
+    <row r="22" ht="33" spans="1:29">
       <c r="A22" s="7" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
       <c r="B22" s="8" t="s">
-        <v>112</v>
+        <v>104</v>
       </c>
       <c r="C22" s="8"/>
-      <c r="D22" s="8"/>
-      <c r="E22" s="8"/>
+      <c r="D22" s="8">
+        <v>1</v>
+      </c>
+      <c r="E22" s="8">
+        <v>5</v>
+      </c>
       <c r="F22" s="8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G22" s="8">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="H22" s="8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I22" s="8">
-        <v>0</v>
-      </c>
-      <c r="J22" s="8">
-        <v>1</v>
+        <v>1</v>
+      </c>
+      <c r="J22" s="8" t="s">
+        <v>60</v>
       </c>
       <c r="K22" s="8">
-        <v>1</v>
-      </c>
-      <c r="L22" s="8" t="s">
-        <v>68</v>
-      </c>
-      <c r="M22" s="8">
-        <v>0</v>
-      </c>
-      <c r="N22" s="8">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="L22" s="8">
+        <v>0</v>
+      </c>
+      <c r="M22" s="8"/>
+      <c r="N22" s="8"/>
       <c r="O22" s="8"/>
       <c r="P22" s="8"/>
-      <c r="Q22" s="8"/>
       <c r="R22" s="8"/>
+      <c r="S22" s="8"/>
       <c r="T22" s="8"/>
       <c r="U22" s="8"/>
       <c r="V22" s="8"/>
-      <c r="W22" s="8"/>
-      <c r="X22" s="8"/>
-      <c r="Y22" s="15">
-        <v>0</v>
-      </c>
-      <c r="Z22" s="15">
-        <v>0</v>
-      </c>
-      <c r="AA22" s="15">
-        <v>0</v>
-      </c>
-      <c r="AB22" s="8" t="s">
-        <v>50</v>
-      </c>
-      <c r="AC22" s="8" t="str">
+      <c r="W22" s="14">
+        <v>0</v>
+      </c>
+      <c r="X22" s="14">
+        <v>0</v>
+      </c>
+      <c r="Y22" s="14">
+        <v>0</v>
+      </c>
+      <c r="Z22" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="AA22" s="8" t="str">
         <f t="shared" si="1"/>
         <v>abilities/innate/drow_5a</v>
       </c>
-      <c r="AD22" s="16" t="s">
-        <v>51</v>
-      </c>
-      <c r="AE22" s="17"/>
+      <c r="AB22" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="AC22" s="17"/>
     </row>
-    <row r="23" ht="33" spans="1:31">
+    <row r="23" ht="33" spans="1:29">
       <c r="A23" s="7" t="s">
-        <v>113</v>
+        <v>105</v>
       </c>
       <c r="B23" s="8" t="s">
-        <v>114</v>
+        <v>106</v>
       </c>
       <c r="C23" s="8"/>
-      <c r="D23" s="8"/>
-      <c r="E23" s="8"/>
+      <c r="D23" s="8">
+        <v>1</v>
+      </c>
+      <c r="E23" s="8">
+        <v>5</v>
+      </c>
       <c r="F23" s="8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G23" s="8">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="H23" s="8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I23" s="8">
-        <v>0</v>
-      </c>
-      <c r="J23" s="8">
-        <v>1</v>
+        <v>1</v>
+      </c>
+      <c r="J23" s="8" t="s">
+        <v>60</v>
       </c>
       <c r="K23" s="8">
-        <v>1</v>
-      </c>
-      <c r="L23" s="8" t="s">
-        <v>68</v>
-      </c>
-      <c r="M23" s="8">
-        <v>0</v>
-      </c>
-      <c r="N23" s="8">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="L23" s="8">
+        <v>0</v>
+      </c>
+      <c r="M23" s="8"/>
+      <c r="N23" s="8"/>
       <c r="O23" s="8"/>
       <c r="P23" s="8"/>
-      <c r="Q23" s="8"/>
       <c r="R23" s="8"/>
+      <c r="S23" s="8"/>
       <c r="T23" s="8"/>
       <c r="U23" s="8"/>
       <c r="V23" s="8"/>
-      <c r="W23" s="8"/>
-      <c r="X23" s="8"/>
-      <c r="Y23" s="15">
-        <v>0</v>
-      </c>
-      <c r="Z23" s="15">
-        <v>0</v>
-      </c>
-      <c r="AA23" s="15">
-        <v>0</v>
-      </c>
-      <c r="AB23" s="8" t="s">
-        <v>50</v>
-      </c>
-      <c r="AC23" s="8" t="str">
+      <c r="W23" s="14">
+        <v>0</v>
+      </c>
+      <c r="X23" s="14">
+        <v>0</v>
+      </c>
+      <c r="Y23" s="14">
+        <v>0</v>
+      </c>
+      <c r="Z23" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="AA23" s="8" t="str">
         <f t="shared" si="1"/>
         <v>abilities/innate/drow_5b</v>
       </c>
-      <c r="AD23" s="16" t="s">
-        <v>51</v>
-      </c>
-      <c r="AE23" s="17"/>
+      <c r="AB23" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="AC23" s="17"/>
     </row>
-    <row r="24" ht="33" spans="1:31">
+    <row r="24" ht="33" spans="1:29">
       <c r="A24" s="7" t="s">
-        <v>115</v>
+        <v>107</v>
       </c>
       <c r="B24" s="8" t="s">
-        <v>116</v>
+        <v>108</v>
       </c>
       <c r="C24" s="8" t="s">
-        <v>117</v>
-      </c>
-      <c r="D24" s="8"/>
-      <c r="E24" s="8"/>
+        <v>109</v>
+      </c>
+      <c r="D24" s="8">
+        <v>1</v>
+      </c>
+      <c r="E24" s="8">
+        <v>5</v>
+      </c>
       <c r="F24" s="8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G24" s="8">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="H24" s="8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I24" s="8">
-        <v>0</v>
-      </c>
-      <c r="J24" s="8">
-        <v>1</v>
+        <v>1</v>
+      </c>
+      <c r="J24" s="8" t="s">
+        <v>60</v>
       </c>
       <c r="K24" s="8">
-        <v>1</v>
-      </c>
-      <c r="L24" s="8" t="s">
-        <v>68</v>
-      </c>
-      <c r="M24" s="8">
-        <v>0</v>
-      </c>
-      <c r="N24" s="8">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="L24" s="8">
+        <v>0</v>
+      </c>
+      <c r="M24" s="8"/>
+      <c r="N24" s="8"/>
       <c r="O24" s="8"/>
       <c r="P24" s="8"/>
-      <c r="Q24" s="8"/>
       <c r="R24" s="8"/>
+      <c r="S24" s="8"/>
       <c r="T24" s="8"/>
       <c r="U24" s="8"/>
       <c r="V24" s="8"/>
-      <c r="W24" s="8"/>
-      <c r="X24" s="8"/>
-      <c r="Y24" s="15">
-        <v>0</v>
-      </c>
-      <c r="Z24" s="15">
-        <v>0</v>
-      </c>
-      <c r="AA24" s="15">
-        <v>0</v>
-      </c>
-      <c r="AB24" s="8" t="s">
-        <v>50</v>
-      </c>
-      <c r="AC24" s="8" t="str">
+      <c r="W24" s="14">
+        <v>0</v>
+      </c>
+      <c r="X24" s="14">
+        <v>0</v>
+      </c>
+      <c r="Y24" s="14">
+        <v>0</v>
+      </c>
+      <c r="Z24" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="AA24" s="8" t="str">
         <f t="shared" si="1"/>
         <v>abilities/innate/drow_5c</v>
       </c>
-      <c r="AD24" s="16" t="s">
-        <v>51</v>
-      </c>
-      <c r="AE24" s="17"/>
+      <c r="AB24" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="AC24" s="17"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1:A3">
@@ -3388,7 +3303,7 @@
       <formula>NOT(ISERROR(SEARCH("arms_t1",A4)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M$1:M$1048576">
+  <conditionalFormatting sqref="K$1:K$1048576">
     <cfRule type="colorScale" priority="11">
       <colorScale>
         <cfvo type="min"/>

--- a/excels/abilities/hero/drow.xlsx
+++ b/excels/abilities/hero/drow.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="111">
   <si>
     <t>名字</t>
   </si>
@@ -181,10 +181,11 @@
     <t>drow_1a</t>
   </si>
   <si>
-    <t>单体射击-爆炸箭</t>
+    <t>爆炸箭</t>
   </si>
   <si>
     <t>攻击1名敌人，造成攻击力%base_value%%%的伤害，并回复%give_mana%点能量
+@t:drow_ranger:2@
 @t:drow_ranger:3@
 @t:drow_ranger:4@</t>
   </si>
@@ -193,9 +194,6 @@
   </si>
   <si>
     <t>drow_1b</t>
-  </si>
-  <si>
-    <t>单体射击-穿透箭</t>
   </si>
   <si>
     <t>攻击1名敌人，造成攻击力%base_value%%%的伤害，并回复%give_mana%点</t>
@@ -271,6 +269,12 @@
   </si>
   <si>
     <t>alpha_wolf_command_aura</t>
+  </si>
+  <si>
+    <t>base_value 120 140 160 190 240</t>
+  </si>
+  <si>
+    <t>arrow_count 5</t>
   </si>
   <si>
     <t>drow_2b_a</t>
@@ -1554,9 +1558,9 @@
   <dimension ref="A1:AC24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" topLeftCell="D1" activePane="topRight" state="frozen"/>
+      <pane xSplit="3" topLeftCell="M1" activePane="topRight" state="frozen"/>
       <selection/>
-      <selection pane="topRight" activeCell="E6" sqref="E6"/>
+      <selection pane="topRight" activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1819,7 +1823,7 @@
       </c>
       <c r="AC3" s="17"/>
     </row>
-    <row r="4" ht="66" spans="1:29">
+    <row r="4" ht="82.5" spans="1:29">
       <c r="A4" s="7" t="s">
         <v>49</v>
       </c>
@@ -1896,31 +1900,31 @@
         <v>53</v>
       </c>
       <c r="B5" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="C5" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="C5" s="8" t="s">
+      <c r="D5" s="8">
+        <v>1</v>
+      </c>
+      <c r="E5" s="8">
+        <v>1</v>
+      </c>
+      <c r="F5" s="8">
+        <v>0</v>
+      </c>
+      <c r="G5" s="8">
+        <v>0</v>
+      </c>
+      <c r="H5" s="8">
+        <v>1</v>
+      </c>
+      <c r="I5" s="8">
+        <v>1</v>
+      </c>
+      <c r="J5" s="8" t="s">
         <v>55</v>
-      </c>
-      <c r="D5" s="8">
-        <v>1</v>
-      </c>
-      <c r="E5" s="8">
-        <v>1</v>
-      </c>
-      <c r="F5" s="8">
-        <v>0</v>
-      </c>
-      <c r="G5" s="8">
-        <v>0</v>
-      </c>
-      <c r="H5" s="8">
-        <v>1</v>
-      </c>
-      <c r="I5" s="8">
-        <v>1</v>
-      </c>
-      <c r="J5" s="8" t="s">
-        <v>56</v>
       </c>
       <c r="K5" s="8">
         <v>4</v>
@@ -1964,34 +1968,34 @@
     </row>
     <row r="6" ht="33" spans="1:29">
       <c r="A6" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="B6" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="B6" s="8" t="s">
+      <c r="C6" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="C6" s="8" t="s">
+      <c r="D6" s="8">
+        <v>1</v>
+      </c>
+      <c r="E6" s="8">
+        <v>1</v>
+      </c>
+      <c r="F6" s="8">
+        <v>0</v>
+      </c>
+      <c r="G6" s="8">
+        <v>0</v>
+      </c>
+      <c r="H6" s="8">
+        <v>1</v>
+      </c>
+      <c r="I6" s="8">
+        <v>1</v>
+      </c>
+      <c r="J6" s="8" t="s">
         <v>59</v>
-      </c>
-      <c r="D6" s="8">
-        <v>1</v>
-      </c>
-      <c r="E6" s="8">
-        <v>1</v>
-      </c>
-      <c r="F6" s="8">
-        <v>0</v>
-      </c>
-      <c r="G6" s="8">
-        <v>0</v>
-      </c>
-      <c r="H6" s="8">
-        <v>1</v>
-      </c>
-      <c r="I6" s="8">
-        <v>1</v>
-      </c>
-      <c r="J6" s="8" t="s">
-        <v>60</v>
       </c>
       <c r="K6" s="8">
         <v>0</v>
@@ -2035,13 +2039,13 @@
     </row>
     <row r="7" ht="33" spans="1:29">
       <c r="A7" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="B7" s="8" t="s">
         <v>61</v>
       </c>
-      <c r="B7" s="8" t="s">
+      <c r="C7" s="8" t="s">
         <v>62</v>
-      </c>
-      <c r="C7" s="8" t="s">
-        <v>63</v>
       </c>
       <c r="D7" s="8">
         <v>1</v>
@@ -2062,7 +2066,7 @@
         <v>1</v>
       </c>
       <c r="J7" s="8" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="K7" s="8">
         <v>0</v>
@@ -2072,16 +2076,16 @@
       </c>
       <c r="M7" s="8"/>
       <c r="N7" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="O7" s="8" t="s">
         <v>65</v>
       </c>
-      <c r="O7" s="8" t="s">
+      <c r="P7" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="P7" s="8" t="s">
+      <c r="Q7" t="s">
         <v>67</v>
-      </c>
-      <c r="Q7" t="s">
-        <v>68</v>
       </c>
       <c r="R7" s="8"/>
       <c r="S7" s="8"/>
@@ -2111,13 +2115,13 @@
     </row>
     <row r="8" ht="33" spans="1:29">
       <c r="A8" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="B8" s="8" t="s">
         <v>69</v>
       </c>
-      <c r="B8" s="8" t="s">
-        <v>70</v>
-      </c>
       <c r="C8" s="8" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D8" s="8">
         <v>1</v>
@@ -2138,7 +2142,7 @@
         <v>1</v>
       </c>
       <c r="J8" s="8" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="K8" s="8">
         <v>0</v>
@@ -2148,16 +2152,16 @@
       </c>
       <c r="M8" s="8"/>
       <c r="N8" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="O8" s="8" t="s">
         <v>65</v>
       </c>
-      <c r="O8" s="8" t="s">
+      <c r="P8" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="P8" s="8" t="s">
+      <c r="Q8" t="s">
         <v>67</v>
-      </c>
-      <c r="Q8" t="s">
-        <v>68</v>
       </c>
       <c r="R8" s="8"/>
       <c r="S8" s="8"/>
@@ -2187,13 +2191,13 @@
     </row>
     <row r="9" ht="33" spans="1:29">
       <c r="A9" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="B9" s="8" t="s">
         <v>72</v>
       </c>
-      <c r="B9" s="8" t="s">
-        <v>73</v>
-      </c>
       <c r="C9" s="8" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D9" s="8">
         <v>1</v>
@@ -2214,7 +2218,7 @@
         <v>1</v>
       </c>
       <c r="J9" s="8" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="K9" s="8">
         <v>0</v>
@@ -2224,16 +2228,16 @@
       </c>
       <c r="M9" s="8"/>
       <c r="N9" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="O9" s="8" t="s">
         <v>65</v>
       </c>
-      <c r="O9" s="8" t="s">
+      <c r="P9" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="P9" s="8" t="s">
+      <c r="Q9" t="s">
         <v>67</v>
-      </c>
-      <c r="Q9" t="s">
-        <v>68</v>
       </c>
       <c r="R9" s="8"/>
       <c r="S9" s="8"/>
@@ -2263,13 +2267,13 @@
     </row>
     <row r="10" ht="66" spans="1:29">
       <c r="A10" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="B10" s="8" t="s">
         <v>75</v>
       </c>
-      <c r="B10" s="8" t="s">
+      <c r="C10" s="8" t="s">
         <v>76</v>
-      </c>
-      <c r="C10" s="8" t="s">
-        <v>77</v>
       </c>
       <c r="D10" s="8">
         <v>1</v>
@@ -2290,17 +2294,21 @@
         <v>1</v>
       </c>
       <c r="J10" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="K10" s="8">
+        <v>0</v>
+      </c>
+      <c r="L10" s="8">
+        <v>0</v>
+      </c>
+      <c r="M10" s="8"/>
+      <c r="N10" s="8" t="s">
         <v>78</v>
       </c>
-      <c r="K10" s="8">
-        <v>0</v>
-      </c>
-      <c r="L10" s="8">
-        <v>0</v>
-      </c>
-      <c r="M10" s="8"/>
-      <c r="N10" s="8"/>
-      <c r="O10" s="8"/>
+      <c r="O10" s="8" t="s">
+        <v>79</v>
+      </c>
       <c r="P10" s="8"/>
       <c r="R10" s="8"/>
       <c r="S10" s="8"/>
@@ -2330,13 +2338,13 @@
     </row>
     <row r="11" ht="99" spans="1:29">
       <c r="A11" s="7" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C11" s="8" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D11" s="8">
         <v>1</v>
@@ -2357,7 +2365,7 @@
         <v>1</v>
       </c>
       <c r="J11" s="8" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="K11" s="8">
         <v>0</v>
@@ -2366,8 +2374,12 @@
         <v>0</v>
       </c>
       <c r="M11" s="8"/>
-      <c r="N11" s="8"/>
-      <c r="O11" s="8"/>
+      <c r="N11" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="O11" s="8" t="s">
+        <v>79</v>
+      </c>
       <c r="P11" s="8"/>
       <c r="R11" s="8"/>
       <c r="S11" s="8"/>
@@ -2397,13 +2409,13 @@
     </row>
     <row r="12" ht="115.5" spans="1:29">
       <c r="A12" s="7" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="D12" s="8">
         <v>1</v>
@@ -2424,7 +2436,7 @@
         <v>1</v>
       </c>
       <c r="J12" s="8" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="K12" s="8">
         <v>0</v>
@@ -2433,8 +2445,12 @@
         <v>0</v>
       </c>
       <c r="M12" s="8"/>
-      <c r="N12" s="8"/>
-      <c r="O12" s="8"/>
+      <c r="N12" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="O12" s="8" t="s">
+        <v>79</v>
+      </c>
       <c r="P12" s="8"/>
       <c r="R12" s="8"/>
       <c r="S12" s="8"/>
@@ -2464,10 +2480,10 @@
     </row>
     <row r="13" ht="33" spans="1:29">
       <c r="A13" s="7" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B13" s="8" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C13" s="8"/>
       <c r="D13" s="8">
@@ -2489,7 +2505,7 @@
         <v>1</v>
       </c>
       <c r="J13" s="8" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="K13" s="8">
         <v>0</v>
@@ -2529,10 +2545,10 @@
     </row>
     <row r="14" ht="33" spans="1:29">
       <c r="A14" s="7" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B14" s="8" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C14" s="8"/>
       <c r="D14" s="8">
@@ -2554,7 +2570,7 @@
         <v>1</v>
       </c>
       <c r="J14" s="8" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="K14" s="8">
         <v>0</v>
@@ -2594,10 +2610,10 @@
     </row>
     <row r="15" ht="33" spans="1:29">
       <c r="A15" s="7" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B15" s="8" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C15" s="8"/>
       <c r="D15" s="8">
@@ -2619,7 +2635,7 @@
         <v>1</v>
       </c>
       <c r="J15" s="8" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="K15" s="8">
         <v>0</v>
@@ -2659,10 +2675,10 @@
     </row>
     <row r="16" ht="33" spans="1:29">
       <c r="A16" s="7" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B16" s="8" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C16" s="8"/>
       <c r="D16" s="8">
@@ -2684,7 +2700,7 @@
         <v>1</v>
       </c>
       <c r="J16" s="8" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="K16" s="8">
         <v>0</v>
@@ -2724,10 +2740,10 @@
     </row>
     <row r="17" ht="33" spans="1:29">
       <c r="A17" s="7" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B17" s="8" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C17" s="8"/>
       <c r="D17" s="8">
@@ -2749,7 +2765,7 @@
         <v>1</v>
       </c>
       <c r="J17" s="8" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="K17" s="8">
         <v>0</v>
@@ -2789,10 +2805,10 @@
     </row>
     <row r="18" ht="33" spans="1:29">
       <c r="A18" s="7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B18" s="8" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C18" s="8"/>
       <c r="D18" s="8">
@@ -2814,7 +2830,7 @@
         <v>1</v>
       </c>
       <c r="J18" s="8" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="K18" s="8">
         <v>0</v>
@@ -2854,10 +2870,10 @@
     </row>
     <row r="19" ht="33" spans="1:29">
       <c r="A19" s="7" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B19" s="8" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C19" s="8"/>
       <c r="D19" s="8">
@@ -2879,7 +2895,7 @@
         <v>1</v>
       </c>
       <c r="J19" s="8" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="K19" s="8">
         <v>0</v>
@@ -2919,10 +2935,10 @@
     </row>
     <row r="20" ht="33" spans="1:29">
       <c r="A20" s="7" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B20" s="8" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C20" s="8"/>
       <c r="D20" s="8">
@@ -2944,7 +2960,7 @@
         <v>1</v>
       </c>
       <c r="J20" s="8" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="K20" s="8">
         <v>0</v>
@@ -2984,10 +3000,10 @@
     </row>
     <row r="21" ht="33" spans="1:29">
       <c r="A21" s="7" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B21" s="8" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C21" s="8"/>
       <c r="D21" s="8">
@@ -3009,7 +3025,7 @@
         <v>1</v>
       </c>
       <c r="J21" s="8" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="K21" s="8">
         <v>0</v>
@@ -3049,10 +3065,10 @@
     </row>
     <row r="22" ht="33" spans="1:29">
       <c r="A22" s="7" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B22" s="8" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C22" s="8"/>
       <c r="D22" s="8">
@@ -3074,7 +3090,7 @@
         <v>1</v>
       </c>
       <c r="J22" s="8" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="K22" s="8">
         <v>0</v>
@@ -3114,10 +3130,10 @@
     </row>
     <row r="23" ht="33" spans="1:29">
       <c r="A23" s="7" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B23" s="8" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C23" s="8"/>
       <c r="D23" s="8">
@@ -3139,7 +3155,7 @@
         <v>1</v>
       </c>
       <c r="J23" s="8" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="K23" s="8">
         <v>0</v>
@@ -3179,13 +3195,13 @@
     </row>
     <row r="24" ht="33" spans="1:29">
       <c r="A24" s="7" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B24" s="8" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C24" s="8" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="D24" s="8">
         <v>1</v>
@@ -3206,7 +3222,7 @@
         <v>1</v>
       </c>
       <c r="J24" s="8" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="K24" s="8">
         <v>0</v>

--- a/excels/abilities/hero/drow.xlsx
+++ b/excels/abilities/hero/drow.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="110">
   <si>
     <t>名字</t>
   </si>
@@ -220,7 +220,7 @@
     <t>连续射击</t>
   </si>
   <si>
-    <t>快速射出4支箭，每支箭造成攻击力%base_value%%%的伤害。</t>
+    <t>快速射出%proj_count%支箭，每支箭造成攻击力%base_value%%%的伤害。</t>
   </si>
   <si>
     <t>alchemist_corrosive_weaponry</t>
@@ -283,25 +283,13 @@
     <t>散射-火力覆盖</t>
   </si>
   <si>
-    <t>火力覆盖【范围型】《火》（3/3）：
-散射技能赋予火元素效果，伤害变为火元素伤害。伤害提高60%/90%/120%
-1.1.节减（2/2）：散射技能蓝耗下降5/10点
-1.2.压制（3/3）：对生命值高于50%的单位造成伤害提升30%/60%/100%</t>
+    <t>散射数支箭，造成攻击力120%/140%/160%/190%/240%的伤害。</t>
   </si>
   <si>
     <t>drow_2b_b</t>
   </si>
   <si>
     <t>散射-双喷</t>
-  </si>
-  <si>
-    <t>1.双喷【范围型】《冰》（3/3）：
-散射技能赋予冰元素效果，伤害变为冰元素伤害。
-有25%/30%/40%概率再次释放一次。（不可套娃）
-1.1.重创【增益型】（2/2）：散射对距离越近的单位造成伤害越高。
-最近判定25码。最高提高伤害100%/200%。
-1.2.痛击（3/3）：散射对被降低移速的敌人
-造成的伤害提高30%/60%/100%。</t>
   </si>
   <si>
     <t>drow_3a</t>
@@ -1560,7 +1548,7 @@
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="3" topLeftCell="M1" activePane="topRight" state="frozen"/>
       <selection/>
-      <selection pane="topRight" activeCell="C3" sqref="C3"/>
+      <selection pane="topRight" activeCell="N8" sqref="N8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -2336,7 +2324,7 @@
       </c>
       <c r="AC10" s="17"/>
     </row>
-    <row r="11" ht="99" spans="1:29">
+    <row r="11" ht="33" spans="1:29">
       <c r="A11" s="7" t="s">
         <v>80</v>
       </c>
@@ -2407,7 +2395,7 @@
       </c>
       <c r="AC11" s="17"/>
     </row>
-    <row r="12" ht="115.5" spans="1:29">
+    <row r="12" ht="33" spans="1:29">
       <c r="A12" s="7" t="s">
         <v>83</v>
       </c>
@@ -2415,7 +2403,7 @@
         <v>84</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="D12" s="8">
         <v>1</v>
@@ -2480,10 +2468,10 @@
     </row>
     <row r="13" ht="33" spans="1:29">
       <c r="A13" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="B13" s="8" t="s">
         <v>86</v>
-      </c>
-      <c r="B13" s="8" t="s">
-        <v>87</v>
       </c>
       <c r="C13" s="8"/>
       <c r="D13" s="8">
@@ -2545,10 +2533,10 @@
     </row>
     <row r="14" ht="33" spans="1:29">
       <c r="A14" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="B14" s="8" t="s">
         <v>88</v>
-      </c>
-      <c r="B14" s="8" t="s">
-        <v>89</v>
       </c>
       <c r="C14" s="8"/>
       <c r="D14" s="8">
@@ -2610,10 +2598,10 @@
     </row>
     <row r="15" ht="33" spans="1:29">
       <c r="A15" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="B15" s="8" t="s">
         <v>90</v>
-      </c>
-      <c r="B15" s="8" t="s">
-        <v>91</v>
       </c>
       <c r="C15" s="8"/>
       <c r="D15" s="8">
@@ -2675,10 +2663,10 @@
     </row>
     <row r="16" ht="33" spans="1:29">
       <c r="A16" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="B16" s="8" t="s">
         <v>92</v>
-      </c>
-      <c r="B16" s="8" t="s">
-        <v>93</v>
       </c>
       <c r="C16" s="8"/>
       <c r="D16" s="8">
@@ -2740,10 +2728,10 @@
     </row>
     <row r="17" ht="33" spans="1:29">
       <c r="A17" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="B17" s="8" t="s">
         <v>94</v>
-      </c>
-      <c r="B17" s="8" t="s">
-        <v>95</v>
       </c>
       <c r="C17" s="8"/>
       <c r="D17" s="8">
@@ -2805,10 +2793,10 @@
     </row>
     <row r="18" ht="33" spans="1:29">
       <c r="A18" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="B18" s="8" t="s">
         <v>96</v>
-      </c>
-      <c r="B18" s="8" t="s">
-        <v>97</v>
       </c>
       <c r="C18" s="8"/>
       <c r="D18" s="8">
@@ -2870,10 +2858,10 @@
     </row>
     <row r="19" ht="33" spans="1:29">
       <c r="A19" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="B19" s="8" t="s">
         <v>98</v>
-      </c>
-      <c r="B19" s="8" t="s">
-        <v>99</v>
       </c>
       <c r="C19" s="8"/>
       <c r="D19" s="8">
@@ -2935,10 +2923,10 @@
     </row>
     <row r="20" ht="33" spans="1:29">
       <c r="A20" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="B20" s="8" t="s">
         <v>100</v>
-      </c>
-      <c r="B20" s="8" t="s">
-        <v>101</v>
       </c>
       <c r="C20" s="8"/>
       <c r="D20" s="8">
@@ -3000,10 +2988,10 @@
     </row>
     <row r="21" ht="33" spans="1:29">
       <c r="A21" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="B21" s="8" t="s">
         <v>102</v>
-      </c>
-      <c r="B21" s="8" t="s">
-        <v>103</v>
       </c>
       <c r="C21" s="8"/>
       <c r="D21" s="8">
@@ -3065,10 +3053,10 @@
     </row>
     <row r="22" ht="33" spans="1:29">
       <c r="A22" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="B22" s="8" t="s">
         <v>104</v>
-      </c>
-      <c r="B22" s="8" t="s">
-        <v>105</v>
       </c>
       <c r="C22" s="8"/>
       <c r="D22" s="8">
@@ -3130,10 +3118,10 @@
     </row>
     <row r="23" ht="33" spans="1:29">
       <c r="A23" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="B23" s="8" t="s">
         <v>106</v>
-      </c>
-      <c r="B23" s="8" t="s">
-        <v>107</v>
       </c>
       <c r="C23" s="8"/>
       <c r="D23" s="8">
@@ -3195,13 +3183,13 @@
     </row>
     <row r="24" ht="33" spans="1:29">
       <c r="A24" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="B24" s="8" t="s">
         <v>108</v>
       </c>
-      <c r="B24" s="8" t="s">
+      <c r="C24" s="8" t="s">
         <v>109</v>
-      </c>
-      <c r="C24" s="8" t="s">
-        <v>110</v>
       </c>
       <c r="D24" s="8">
         <v>1</v>

--- a/excels/abilities/hero/drow.xlsx
+++ b/excels/abilities/hero/drow.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="111">
   <si>
     <t>名字</t>
   </si>
@@ -184,19 +184,13 @@
     <t>爆炸箭</t>
   </si>
   <si>
-    <t>攻击1名敌人，造成攻击力%base_value%%%的伤害，并回复%give_mana%点能量
-@t:drow_ranger:2@
-@t:drow_ranger:3@
-@t:drow_ranger:4@</t>
-  </si>
-  <si>
     <t>clinkz_searing_arrows_immortal</t>
   </si>
   <si>
     <t>drow_1b</t>
   </si>
   <si>
-    <t>攻击1名敌人，造成攻击力%base_value%%%的伤害，并回复%give_mana%点</t>
+    <t>穿透箭</t>
   </si>
   <si>
     <t>windrunner_powershot</t>
@@ -205,10 +199,7 @@
     <t>drow_1c</t>
   </si>
   <si>
-    <t>单体射击-分裂箭</t>
-  </si>
-  <si>
-    <t>攻击1名敌人，造成攻击力%base_value%%%的伤害，并回复</t>
+    <t>分裂箭</t>
   </si>
   <si>
     <t>medusa_split_shot</t>
@@ -241,7 +232,7 @@
     <t>drow_2a_a</t>
   </si>
   <si>
-    <t>连续射击-连发分支</t>
+    <t>连续射击-连发</t>
   </si>
   <si>
     <t>alchemist_goblins_greed</t>
@@ -250,7 +241,7 @@
     <t>drow_2a_b</t>
   </si>
   <si>
-    <t>连续射击-穿透分支</t>
+    <t>连续射击-穿透</t>
   </si>
   <si>
     <t>alchemist_unstable_concoction</t>
@@ -262,10 +253,7 @@
     <t>散射</t>
   </si>
   <si>
-    <t>散射数支箭，造成攻击力120%/140%/160%/190%/240%的伤害。
-cd：3秒
-蓝量消耗30
-作用范围：500码距离，扇形90°</t>
+    <t>散射数支箭，造成攻击力%base_value%的伤害。</t>
   </si>
   <si>
     <t>alpha_wolf_command_aura</t>
@@ -277,13 +265,22 @@
     <t>arrow_count 5</t>
   </si>
   <si>
+    <t>arrow_angle 50</t>
+  </si>
+  <si>
+    <t>proj_speed 1800</t>
+  </si>
+  <si>
+    <t>proj_width 90</t>
+  </si>
+  <si>
+    <t>proj_distance 900</t>
+  </si>
+  <si>
     <t>drow_2b_a</t>
   </si>
   <si>
     <t>散射-火力覆盖</t>
-  </si>
-  <si>
-    <t>散射数支箭，造成攻击力120%/140%/160%/190%/240%的伤害。</t>
   </si>
   <si>
     <t>drow_2b_b</t>
@@ -1546,9 +1543,9 @@
   <dimension ref="A1:AC24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" topLeftCell="M1" activePane="topRight" state="frozen"/>
+      <pane xSplit="3" topLeftCell="N1" activePane="topRight" state="frozen"/>
       <selection/>
-      <selection pane="topRight" activeCell="N8" sqref="N8"/>
+      <selection pane="topRight" activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1568,7 +1565,7 @@
     <col min="16" max="16" width="17.125" customWidth="1"/>
     <col min="17" max="17" width="18.5" customWidth="1"/>
     <col min="18" max="18" width="14" customWidth="1"/>
-    <col min="19" max="19" width="12.625" customWidth="1"/>
+    <col min="19" max="19" width="21.5" customWidth="1"/>
     <col min="20" max="21" width="6.24166666666667" customWidth="1"/>
     <col min="22" max="22" width="8.00833333333333" customWidth="1"/>
     <col min="23" max="23" width="18.175" customWidth="1"/>
@@ -1811,7 +1808,7 @@
       </c>
       <c r="AC3" s="17"/>
     </row>
-    <row r="4" ht="82.5" spans="1:29">
+    <row r="4" ht="33" spans="1:29">
       <c r="A4" s="7" t="s">
         <v>49</v>
       </c>
@@ -1819,28 +1816,28 @@
         <v>50</v>
       </c>
       <c r="C4" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="D4" s="8">
+        <v>1</v>
+      </c>
+      <c r="E4" s="8">
+        <v>1</v>
+      </c>
+      <c r="F4" s="8">
+        <v>0</v>
+      </c>
+      <c r="G4" s="8">
+        <v>0</v>
+      </c>
+      <c r="H4" s="8">
+        <v>1</v>
+      </c>
+      <c r="I4" s="8">
+        <v>1</v>
+      </c>
+      <c r="J4" s="8" t="s">
         <v>51</v>
-      </c>
-      <c r="D4" s="8">
-        <v>1</v>
-      </c>
-      <c r="E4" s="8">
-        <v>1</v>
-      </c>
-      <c r="F4" s="8">
-        <v>0</v>
-      </c>
-      <c r="G4" s="8">
-        <v>0</v>
-      </c>
-      <c r="H4" s="8">
-        <v>1</v>
-      </c>
-      <c r="I4" s="8">
-        <v>1</v>
-      </c>
-      <c r="J4" s="8" t="s">
-        <v>52</v>
       </c>
       <c r="K4" s="8">
         <v>1</v>
@@ -1885,34 +1882,34 @@
     </row>
     <row r="5" ht="33" spans="1:29">
       <c r="A5" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="B5" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="B5" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="C5" s="8" t="s">
+      <c r="C5" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="D5" s="8">
+        <v>1</v>
+      </c>
+      <c r="E5" s="8">
+        <v>1</v>
+      </c>
+      <c r="F5" s="8">
+        <v>0</v>
+      </c>
+      <c r="G5" s="8">
+        <v>0</v>
+      </c>
+      <c r="H5" s="8">
+        <v>1</v>
+      </c>
+      <c r="I5" s="8">
+        <v>1</v>
+      </c>
+      <c r="J5" s="8" t="s">
         <v>54</v>
-      </c>
-      <c r="D5" s="8">
-        <v>1</v>
-      </c>
-      <c r="E5" s="8">
-        <v>1</v>
-      </c>
-      <c r="F5" s="8">
-        <v>0</v>
-      </c>
-      <c r="G5" s="8">
-        <v>0</v>
-      </c>
-      <c r="H5" s="8">
-        <v>1</v>
-      </c>
-      <c r="I5" s="8">
-        <v>1</v>
-      </c>
-      <c r="J5" s="8" t="s">
-        <v>55</v>
       </c>
       <c r="K5" s="8">
         <v>4</v>
@@ -1956,34 +1953,34 @@
     </row>
     <row r="6" ht="33" spans="1:29">
       <c r="A6" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="B6" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="B6" s="8" t="s">
+      <c r="C6" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="D6" s="8">
+        <v>1</v>
+      </c>
+      <c r="E6" s="8">
+        <v>1</v>
+      </c>
+      <c r="F6" s="8">
+        <v>0</v>
+      </c>
+      <c r="G6" s="8">
+        <v>0</v>
+      </c>
+      <c r="H6" s="8">
+        <v>1</v>
+      </c>
+      <c r="I6" s="8">
+        <v>1</v>
+      </c>
+      <c r="J6" s="8" t="s">
         <v>57</v>
-      </c>
-      <c r="C6" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="D6" s="8">
-        <v>1</v>
-      </c>
-      <c r="E6" s="8">
-        <v>1</v>
-      </c>
-      <c r="F6" s="8">
-        <v>0</v>
-      </c>
-      <c r="G6" s="8">
-        <v>0</v>
-      </c>
-      <c r="H6" s="8">
-        <v>1</v>
-      </c>
-      <c r="I6" s="8">
-        <v>1</v>
-      </c>
-      <c r="J6" s="8" t="s">
-        <v>59</v>
       </c>
       <c r="K6" s="8">
         <v>0</v>
@@ -2027,13 +2024,13 @@
     </row>
     <row r="7" ht="33" spans="1:29">
       <c r="A7" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="B7" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="C7" s="8" t="s">
         <v>60</v>
-      </c>
-      <c r="B7" s="8" t="s">
-        <v>61</v>
-      </c>
-      <c r="C7" s="8" t="s">
-        <v>62</v>
       </c>
       <c r="D7" s="8">
         <v>1</v>
@@ -2054,7 +2051,7 @@
         <v>1</v>
       </c>
       <c r="J7" s="8" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="K7" s="8">
         <v>0</v>
@@ -2064,16 +2061,16 @@
       </c>
       <c r="M7" s="8"/>
       <c r="N7" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="O7" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="P7" s="8" t="s">
         <v>64</v>
       </c>
-      <c r="O7" s="8" t="s">
+      <c r="Q7" t="s">
         <v>65</v>
-      </c>
-      <c r="P7" s="8" t="s">
-        <v>66</v>
-      </c>
-      <c r="Q7" t="s">
-        <v>67</v>
       </c>
       <c r="R7" s="8"/>
       <c r="S7" s="8"/>
@@ -2103,13 +2100,13 @@
     </row>
     <row r="8" ht="33" spans="1:29">
       <c r="A8" s="7" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D8" s="8">
         <v>1</v>
@@ -2130,7 +2127,7 @@
         <v>1</v>
       </c>
       <c r="J8" s="8" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="K8" s="8">
         <v>0</v>
@@ -2140,16 +2137,16 @@
       </c>
       <c r="M8" s="8"/>
       <c r="N8" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="O8" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="P8" s="8" t="s">
         <v>64</v>
       </c>
-      <c r="O8" s="8" t="s">
+      <c r="Q8" t="s">
         <v>65</v>
-      </c>
-      <c r="P8" s="8" t="s">
-        <v>66</v>
-      </c>
-      <c r="Q8" t="s">
-        <v>67</v>
       </c>
       <c r="R8" s="8"/>
       <c r="S8" s="8"/>
@@ -2179,13 +2176,13 @@
     </row>
     <row r="9" ht="33" spans="1:29">
       <c r="A9" s="7" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D9" s="8">
         <v>1</v>
@@ -2206,7 +2203,7 @@
         <v>1</v>
       </c>
       <c r="J9" s="8" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="K9" s="8">
         <v>0</v>
@@ -2216,16 +2213,16 @@
       </c>
       <c r="M9" s="8"/>
       <c r="N9" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="O9" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="P9" s="8" t="s">
         <v>64</v>
       </c>
-      <c r="O9" s="8" t="s">
+      <c r="Q9" t="s">
         <v>65</v>
-      </c>
-      <c r="P9" s="8" t="s">
-        <v>66</v>
-      </c>
-      <c r="Q9" t="s">
-        <v>67</v>
       </c>
       <c r="R9" s="8"/>
       <c r="S9" s="8"/>
@@ -2253,15 +2250,15 @@
       </c>
       <c r="AC9" s="17"/>
     </row>
-    <row r="10" ht="66" spans="1:29">
+    <row r="10" ht="33" spans="1:29">
       <c r="A10" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="B10" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="C10" s="8" t="s">
         <v>74</v>
-      </c>
-      <c r="B10" s="8" t="s">
-        <v>75</v>
-      </c>
-      <c r="C10" s="8" t="s">
-        <v>76</v>
       </c>
       <c r="D10" s="8">
         <v>1</v>
@@ -2282,7 +2279,7 @@
         <v>1</v>
       </c>
       <c r="J10" s="8" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="K10" s="8">
         <v>0</v>
@@ -2292,14 +2289,23 @@
       </c>
       <c r="M10" s="8"/>
       <c r="N10" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="O10" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="P10" s="8" t="s">
         <v>78</v>
       </c>
-      <c r="O10" s="8" t="s">
+      <c r="Q10" t="s">
         <v>79</v>
       </c>
-      <c r="P10" s="8"/>
-      <c r="R10" s="8"/>
-      <c r="S10" s="8"/>
+      <c r="R10" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="S10" s="8" t="s">
+        <v>81</v>
+      </c>
       <c r="T10" s="8"/>
       <c r="U10" s="8"/>
       <c r="V10" s="8"/>
@@ -2326,13 +2332,13 @@
     </row>
     <row r="11" ht="33" spans="1:29">
       <c r="A11" s="7" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="C11" s="8" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="D11" s="8">
         <v>1</v>
@@ -2353,7 +2359,7 @@
         <v>1</v>
       </c>
       <c r="J11" s="8" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="K11" s="8">
         <v>0</v>
@@ -2363,14 +2369,23 @@
       </c>
       <c r="M11" s="8"/>
       <c r="N11" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="O11" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="P11" s="8" t="s">
         <v>78</v>
       </c>
-      <c r="O11" s="8" t="s">
+      <c r="Q11" t="s">
         <v>79</v>
       </c>
-      <c r="P11" s="8"/>
-      <c r="R11" s="8"/>
-      <c r="S11" s="8"/>
+      <c r="R11" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="S11" s="8" t="s">
+        <v>81</v>
+      </c>
       <c r="T11" s="8"/>
       <c r="U11" s="8"/>
       <c r="V11" s="8"/>
@@ -2397,13 +2412,13 @@
     </row>
     <row r="12" ht="33" spans="1:29">
       <c r="A12" s="7" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="D12" s="8">
         <v>1</v>
@@ -2424,7 +2439,7 @@
         <v>1</v>
       </c>
       <c r="J12" s="8" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="K12" s="8">
         <v>0</v>
@@ -2434,14 +2449,23 @@
       </c>
       <c r="M12" s="8"/>
       <c r="N12" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="O12" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="P12" s="8" t="s">
         <v>78</v>
       </c>
-      <c r="O12" s="8" t="s">
+      <c r="Q12" t="s">
         <v>79</v>
       </c>
-      <c r="P12" s="8"/>
-      <c r="R12" s="8"/>
-      <c r="S12" s="8"/>
+      <c r="R12" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="S12" s="8" t="s">
+        <v>81</v>
+      </c>
       <c r="T12" s="8"/>
       <c r="U12" s="8"/>
       <c r="V12" s="8"/>
@@ -2468,10 +2492,10 @@
     </row>
     <row r="13" ht="33" spans="1:29">
       <c r="A13" s="7" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B13" s="8" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C13" s="8"/>
       <c r="D13" s="8">
@@ -2493,7 +2517,7 @@
         <v>1</v>
       </c>
       <c r="J13" s="8" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="K13" s="8">
         <v>0</v>
@@ -2533,10 +2557,10 @@
     </row>
     <row r="14" ht="33" spans="1:29">
       <c r="A14" s="7" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B14" s="8" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C14" s="8"/>
       <c r="D14" s="8">
@@ -2558,7 +2582,7 @@
         <v>1</v>
       </c>
       <c r="J14" s="8" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="K14" s="8">
         <v>0</v>
@@ -2598,10 +2622,10 @@
     </row>
     <row r="15" ht="33" spans="1:29">
       <c r="A15" s="7" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B15" s="8" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C15" s="8"/>
       <c r="D15" s="8">
@@ -2623,7 +2647,7 @@
         <v>1</v>
       </c>
       <c r="J15" s="8" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="K15" s="8">
         <v>0</v>
@@ -2663,10 +2687,10 @@
     </row>
     <row r="16" ht="33" spans="1:29">
       <c r="A16" s="7" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B16" s="8" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C16" s="8"/>
       <c r="D16" s="8">
@@ -2688,7 +2712,7 @@
         <v>1</v>
       </c>
       <c r="J16" s="8" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="K16" s="8">
         <v>0</v>
@@ -2728,10 +2752,10 @@
     </row>
     <row r="17" ht="33" spans="1:29">
       <c r="A17" s="7" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B17" s="8" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C17" s="8"/>
       <c r="D17" s="8">
@@ -2753,7 +2777,7 @@
         <v>1</v>
       </c>
       <c r="J17" s="8" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="K17" s="8">
         <v>0</v>
@@ -2793,10 +2817,10 @@
     </row>
     <row r="18" ht="33" spans="1:29">
       <c r="A18" s="7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B18" s="8" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C18" s="8"/>
       <c r="D18" s="8">
@@ -2818,7 +2842,7 @@
         <v>1</v>
       </c>
       <c r="J18" s="8" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="K18" s="8">
         <v>0</v>
@@ -2858,10 +2882,10 @@
     </row>
     <row r="19" ht="33" spans="1:29">
       <c r="A19" s="7" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B19" s="8" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C19" s="8"/>
       <c r="D19" s="8">
@@ -2883,7 +2907,7 @@
         <v>1</v>
       </c>
       <c r="J19" s="8" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="K19" s="8">
         <v>0</v>
@@ -2923,10 +2947,10 @@
     </row>
     <row r="20" ht="33" spans="1:29">
       <c r="A20" s="7" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B20" s="8" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C20" s="8"/>
       <c r="D20" s="8">
@@ -2948,7 +2972,7 @@
         <v>1</v>
       </c>
       <c r="J20" s="8" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="K20" s="8">
         <v>0</v>
@@ -2988,10 +3012,10 @@
     </row>
     <row r="21" ht="33" spans="1:29">
       <c r="A21" s="7" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B21" s="8" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C21" s="8"/>
       <c r="D21" s="8">
@@ -3013,7 +3037,7 @@
         <v>1</v>
       </c>
       <c r="J21" s="8" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="K21" s="8">
         <v>0</v>
@@ -3053,10 +3077,10 @@
     </row>
     <row r="22" ht="33" spans="1:29">
       <c r="A22" s="7" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B22" s="8" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C22" s="8"/>
       <c r="D22" s="8">
@@ -3078,7 +3102,7 @@
         <v>1</v>
       </c>
       <c r="J22" s="8" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="K22" s="8">
         <v>0</v>
@@ -3118,10 +3142,10 @@
     </row>
     <row r="23" ht="33" spans="1:29">
       <c r="A23" s="7" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B23" s="8" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C23" s="8"/>
       <c r="D23" s="8">
@@ -3143,7 +3167,7 @@
         <v>1</v>
       </c>
       <c r="J23" s="8" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="K23" s="8">
         <v>0</v>
@@ -3183,13 +3207,13 @@
     </row>
     <row r="24" ht="33" spans="1:29">
       <c r="A24" s="7" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B24" s="8" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C24" s="8" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="D24" s="8">
         <v>1</v>
@@ -3210,7 +3234,7 @@
         <v>1</v>
       </c>
       <c r="J24" s="8" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="K24" s="8">
         <v>0</v>

--- a/excels/abilities/hero/drow.xlsx
+++ b/excels/abilities/hero/drow.xlsx
@@ -8,7 +8,6 @@
   </bookViews>
   <sheets>
     <sheet name="drow_skill" sheetId="1" r:id="rId1"/>
-    <sheet name="drow_tree" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -28,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="128">
   <si>
     <t>名字</t>
   </si>
@@ -295,64 +294,118 @@
     <t>风暴环绕</t>
   </si>
   <si>
+    <t>召唤一阵风暴环绕自身，每1秒对触碰到风暴的敌人造成攻击力%base_value%的伤害，持续%duration%秒。</t>
+  </si>
+  <si>
+    <t>base_value 200 250 300 350 400</t>
+  </si>
+  <si>
+    <t>surround_duration 8</t>
+  </si>
+  <si>
+    <t>interval 1</t>
+  </si>
+  <si>
+    <t>base_count 1</t>
+  </si>
+  <si>
     <t>drow_3a_a</t>
   </si>
   <si>
     <t>疾风【增益型】</t>
   </si>
   <si>
+    <t>风暴环绕伤害频率提高50%/100%</t>
+  </si>
+  <si>
     <t>drow_3a_b</t>
   </si>
   <si>
     <t>冰雹《冰》</t>
   </si>
   <si>
+    <t>风暴环绕技能赋予冰元素效果，伤害变为冰元素伤害。
+风暴数量增加1/2个。</t>
+  </si>
+  <si>
     <t>drow_3b</t>
   </si>
   <si>
     <t>箭雨【范围型】</t>
   </si>
   <si>
+    <t>向空中射出10/12/14/17/20支箭，随机打击范围1000码以内敌人，每支箭制造成攻击力200%的伤害。</t>
+  </si>
+  <si>
+    <t>arrow_count 10 12 14 17 20</t>
+  </si>
+  <si>
+    <t>base_value 200</t>
+  </si>
+  <si>
     <t>drow_3b_a</t>
   </si>
   <si>
     <t>燃矢【持续型】《火》</t>
   </si>
   <si>
+    <t>箭雨技能赋予火元素效果，伤害变为火元素伤害。
+（2级触发灼烧伤害持续时间延长至5秒，伤害增加至攻击力50%。）</t>
+  </si>
+  <si>
     <t>drow_3b_b</t>
   </si>
   <si>
     <t>集火【增益型】</t>
   </si>
   <si>
+    <t>多支箭矢命中相同敌人时，会额外造成10%的伤害。上限5/7/10层。</t>
+  </si>
+  <si>
     <t>drow_4a</t>
   </si>
   <si>
     <t>能量回复【增益型】</t>
   </si>
   <si>
+    <t>立即回复60点蓝量。cd：50/40/30秒,无蓝量消耗。</t>
+  </si>
+  <si>
     <t>drow_4b</t>
   </si>
   <si>
     <t>迷踪步【持续性】</t>
   </si>
   <si>
+    <t>获得10%/20%/30%移动速度加成，持续6秒。cd：15秒,蓝耗：30</t>
+  </si>
+  <si>
     <t>drow_5</t>
   </si>
   <si>
     <t>复仇【增益型】</t>
   </si>
   <si>
+    <t>引燃复仇之魂，获得40%伤害加成，持续15秒。cd：40秒,没有蓝耗。</t>
+  </si>
+  <si>
     <t>drow_5a</t>
   </si>
   <si>
     <t>寒霜《冰》</t>
   </si>
   <si>
+    <t>复仇获得冰元素之力，持续期间冰元素伤害提高50%，
+且免疫自身减速效果。</t>
+  </si>
+  <si>
     <t>drow_5b</t>
   </si>
   <si>
     <t>追风《风》</t>
+  </si>
+  <si>
+    <t>复仇获得风元素之力，攻击力提高50%，攻击速度及移动速度提高20%。</t>
   </si>
   <si>
     <t>drow_5c</t>
@@ -1110,7 +1163,7 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1132,6 +1185,9 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1153,13 +1209,16 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1542,41 +1601,43 @@
   <sheetPr/>
   <dimension ref="A1:AC24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" topLeftCell="N1" activePane="topRight" state="frozen"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <pane xSplit="3" topLeftCell="J1" activePane="topRight" state="frozen"/>
       <selection/>
-      <selection pane="topRight" activeCell="C8" sqref="C8"/>
+      <selection pane="topRight" activeCell="N16" sqref="N16:O18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="22.675" customWidth="1"/>
-    <col min="2" max="2" width="27.3416666666667" customWidth="1"/>
-    <col min="3" max="3" width="50.5" customWidth="1"/>
-    <col min="4" max="6" width="12.3416666666667" customWidth="1"/>
-    <col min="7" max="8" width="21.625" customWidth="1"/>
-    <col min="9" max="9" width="12.675" customWidth="1"/>
-    <col min="10" max="10" width="25.8416666666667" customWidth="1"/>
-    <col min="11" max="11" width="24.0083333333333" customWidth="1"/>
-    <col min="12" max="12" width="29.5083333333333" customWidth="1"/>
-    <col min="13" max="13" width="17.175" customWidth="1"/>
-    <col min="14" max="14" width="33.125" customWidth="1"/>
-    <col min="15" max="15" width="21.5" customWidth="1"/>
-    <col min="16" max="16" width="17.125" customWidth="1"/>
-    <col min="17" max="17" width="18.5" customWidth="1"/>
-    <col min="18" max="18" width="14" customWidth="1"/>
-    <col min="19" max="19" width="21.5" customWidth="1"/>
-    <col min="20" max="21" width="6.24166666666667" customWidth="1"/>
-    <col min="22" max="22" width="8.00833333333333" customWidth="1"/>
-    <col min="23" max="23" width="18.175" customWidth="1"/>
-    <col min="24" max="24" width="18.5083333333333" customWidth="1"/>
-    <col min="25" max="25" width="27.175" customWidth="1"/>
-    <col min="26" max="26" width="13.175" customWidth="1"/>
-    <col min="27" max="27" width="39.8416666666667" customWidth="1"/>
-    <col min="28" max="28" width="50.625" customWidth="1"/>
+    <col min="1" max="1" width="10.3416666666667" customWidth="1"/>
+    <col min="2" max="2" width="22.3416666666667" customWidth="1"/>
+    <col min="3" max="3" width="30.675" customWidth="1"/>
+    <col min="4" max="5" width="9.34166666666667" customWidth="1"/>
+    <col min="6" max="6" width="8.175" customWidth="1"/>
+    <col min="7" max="7" width="9.34166666666667" customWidth="1"/>
+    <col min="8" max="8" width="6.84166666666667" customWidth="1"/>
+    <col min="9" max="9" width="9.675" customWidth="1"/>
+    <col min="10" max="10" width="25.3416666666667" customWidth="1"/>
+    <col min="11" max="11" width="11.625" customWidth="1"/>
+    <col min="12" max="12" width="15.3416666666667" customWidth="1"/>
+    <col min="13" max="13" width="14.175" customWidth="1"/>
+    <col min="14" max="14" width="26.3416666666667" customWidth="1"/>
+    <col min="15" max="15" width="20.5" customWidth="1"/>
+    <col min="16" max="16" width="15.8416666666667" customWidth="1"/>
+    <col min="17" max="17" width="15.175" customWidth="1"/>
+    <col min="18" max="18" width="12.8416666666667" customWidth="1"/>
+    <col min="19" max="19" width="16.175" customWidth="1"/>
+    <col min="20" max="21" width="3.24166666666667" customWidth="1"/>
+    <col min="22" max="22" width="5.00833333333333" customWidth="1"/>
+    <col min="23" max="23" width="15.175" customWidth="1"/>
+    <col min="24" max="24" width="15.5083333333333" customWidth="1"/>
+    <col min="25" max="25" width="22.175" customWidth="1"/>
+    <col min="26" max="26" width="10.175" customWidth="1"/>
+    <col min="27" max="27" width="34.25" customWidth="1"/>
+    <col min="28" max="28" width="30.675" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="39" customHeight="1" spans="1:29">
+    <row r="1" s="1" customFormat="1" ht="51.5" customHeight="1" spans="1:29">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1631,13 +1692,13 @@
       <c r="V1" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="W1" s="13" t="s">
+      <c r="W1" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="X1" s="13" t="s">
+      <c r="X1" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="Y1" s="13" t="s">
+      <c r="Y1" s="14" t="s">
         <v>14</v>
       </c>
       <c r="Z1" s="4" t="s">
@@ -1649,16 +1710,16 @@
       <c r="AB1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="AC1" s="15"/>
+      <c r="AC1" s="18"/>
     </row>
-    <row r="2" s="1" customFormat="1" ht="22.5" customHeight="1" spans="1:28">
+    <row r="2" s="1" customFormat="1" ht="35" customHeight="1" spans="1:28">
       <c r="A2" s="5" t="s">
         <v>17</v>
       </c>
       <c r="B2" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="C2" s="7" t="s">
         <v>19</v>
       </c>
       <c r="D2" s="6" t="s">
@@ -1685,1592 +1746,1665 @@
       <c r="K2" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="L2" s="10" t="s">
+      <c r="L2" s="11" t="s">
         <v>28</v>
       </c>
       <c r="M2" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="N2" s="11">
-        <v>1</v>
-      </c>
-      <c r="O2" s="11">
+      <c r="N2" s="12">
+        <v>1</v>
+      </c>
+      <c r="O2" s="12">
         <v>2</v>
       </c>
-      <c r="P2" s="11">
+      <c r="P2" s="12">
         <v>3</v>
       </c>
-      <c r="Q2" s="11">
+      <c r="Q2" s="12">
         <v>4</v>
       </c>
-      <c r="R2" s="10" t="s">
+      <c r="R2" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="S2" s="10" t="s">
+      <c r="S2" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="T2" s="10" t="s">
+      <c r="T2" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="U2" s="10" t="s">
+      <c r="U2" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="V2" s="10" t="s">
+      <c r="V2" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="W2" s="11" t="s">
+      <c r="W2" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="X2" s="11" t="s">
+      <c r="X2" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="Y2" s="11" t="s">
+      <c r="Y2" s="12" t="s">
         <v>37</v>
       </c>
       <c r="Z2" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="AA2" s="6" t="s">
+      <c r="AA2" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="AB2" s="16" t="s">
+      <c r="AB2" s="7" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="3" customFormat="1" ht="33" spans="1:29">
-      <c r="A3" s="7" t="s">
+    <row r="3" customFormat="1" ht="51.5" customHeight="1" spans="1:29">
+      <c r="A3" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="B3" s="8" t="s">
+      <c r="B3" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="C3" s="8" t="s">
+      <c r="C3" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="D3" s="8">
-        <v>1</v>
-      </c>
-      <c r="E3" s="8">
-        <v>1</v>
-      </c>
-      <c r="F3" s="8">
-        <v>0</v>
-      </c>
-      <c r="G3" s="8">
-        <v>0</v>
-      </c>
-      <c r="H3" s="8">
-        <v>1</v>
-      </c>
-      <c r="I3" s="8">
-        <v>1</v>
-      </c>
-      <c r="J3" s="8" t="s">
+      <c r="D3" s="9">
+        <v>1</v>
+      </c>
+      <c r="E3" s="9">
+        <v>1</v>
+      </c>
+      <c r="F3" s="9">
+        <v>0</v>
+      </c>
+      <c r="G3" s="9">
+        <v>0</v>
+      </c>
+      <c r="H3" s="9">
+        <v>1</v>
+      </c>
+      <c r="I3" s="9">
+        <v>1</v>
+      </c>
+      <c r="J3" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="K3" s="8">
-        <v>0</v>
-      </c>
-      <c r="L3" s="8">
-        <v>0</v>
-      </c>
-      <c r="M3" s="8"/>
-      <c r="N3" s="8" t="s">
+      <c r="K3" s="9">
+        <v>0</v>
+      </c>
+      <c r="L3" s="9">
+        <v>0</v>
+      </c>
+      <c r="M3" s="9"/>
+      <c r="N3" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="O3" s="8" t="s">
+      <c r="O3" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="P3" s="8"/>
-      <c r="R3" s="8"/>
-      <c r="S3" s="8"/>
-      <c r="T3" s="8"/>
-      <c r="U3" s="8"/>
-      <c r="V3" s="8"/>
-      <c r="W3" s="14">
-        <v>0</v>
-      </c>
-      <c r="X3" s="14">
-        <v>0</v>
-      </c>
-      <c r="Y3" s="14">
-        <v>0</v>
-      </c>
-      <c r="Z3" s="8" t="s">
+      <c r="P3" s="9"/>
+      <c r="Q3" s="15"/>
+      <c r="R3" s="9"/>
+      <c r="S3" s="9"/>
+      <c r="T3" s="9"/>
+      <c r="U3" s="9"/>
+      <c r="V3" s="9"/>
+      <c r="W3" s="16">
+        <v>0</v>
+      </c>
+      <c r="X3" s="16">
+        <v>0</v>
+      </c>
+      <c r="Y3" s="16">
+        <v>0</v>
+      </c>
+      <c r="Z3" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="AA3" s="8" t="str">
+      <c r="AA3" s="10" t="str">
         <f>"abilities/hero/drow/drow_1/"&amp;A3</f>
         <v>abilities/hero/drow/drow_1/drow_1</v>
       </c>
-      <c r="AB3" s="9" t="s">
+      <c r="AB3" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="AC3" s="17"/>
+      <c r="AC3" s="19"/>
     </row>
-    <row r="4" ht="33" spans="1:29">
-      <c r="A4" s="7" t="s">
+    <row r="4" ht="51.5" customHeight="1" spans="1:29">
+      <c r="A4" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="B4" s="8" t="s">
+      <c r="B4" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="C4" s="9" t="s">
+      <c r="C4" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="D4" s="8">
-        <v>1</v>
-      </c>
-      <c r="E4" s="8">
-        <v>1</v>
-      </c>
-      <c r="F4" s="8">
-        <v>0</v>
-      </c>
-      <c r="G4" s="8">
-        <v>0</v>
-      </c>
-      <c r="H4" s="8">
-        <v>1</v>
-      </c>
-      <c r="I4" s="8">
-        <v>1</v>
-      </c>
-      <c r="J4" s="8" t="s">
+      <c r="D4" s="9">
+        <v>1</v>
+      </c>
+      <c r="E4" s="9">
+        <v>1</v>
+      </c>
+      <c r="F4" s="9">
+        <v>0</v>
+      </c>
+      <c r="G4" s="9">
+        <v>0</v>
+      </c>
+      <c r="H4" s="9">
+        <v>1</v>
+      </c>
+      <c r="I4" s="9">
+        <v>1</v>
+      </c>
+      <c r="J4" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="K4" s="8">
-        <v>1</v>
-      </c>
-      <c r="L4" s="8">
-        <v>0</v>
-      </c>
-      <c r="M4" s="8"/>
-      <c r="N4" s="8" t="s">
+      <c r="K4" s="9">
+        <v>1</v>
+      </c>
+      <c r="L4" s="9">
+        <v>0</v>
+      </c>
+      <c r="M4" s="9"/>
+      <c r="N4" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="O4" s="8" t="s">
+      <c r="O4" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="P4" s="12"/>
-      <c r="Q4" s="12"/>
-      <c r="R4" s="8"/>
-      <c r="S4" s="8"/>
-      <c r="T4" s="8"/>
-      <c r="U4" s="8"/>
-      <c r="V4" s="8"/>
-      <c r="W4" s="14">
-        <v>0</v>
-      </c>
-      <c r="X4" s="14">
-        <v>0</v>
-      </c>
-      <c r="Y4" s="14">
-        <v>0</v>
-      </c>
-      <c r="Z4" s="8" t="s">
+      <c r="P4" s="13"/>
+      <c r="Q4" s="13"/>
+      <c r="R4" s="9"/>
+      <c r="S4" s="9"/>
+      <c r="T4" s="9"/>
+      <c r="U4" s="9"/>
+      <c r="V4" s="9"/>
+      <c r="W4" s="16">
+        <v>0</v>
+      </c>
+      <c r="X4" s="16">
+        <v>0</v>
+      </c>
+      <c r="Y4" s="16">
+        <v>0</v>
+      </c>
+      <c r="Z4" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="AA4" s="8" t="str">
+      <c r="AA4" s="10" t="str">
         <f>"abilities/hero/drow/drow_1/"&amp;A4</f>
         <v>abilities/hero/drow/drow_1/drow_1a</v>
       </c>
-      <c r="AB4" s="9" t="s">
+      <c r="AB4" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="AC4" s="17"/>
+      <c r="AC4" s="19"/>
     </row>
-    <row r="5" ht="33" spans="1:29">
-      <c r="A5" s="7" t="s">
+    <row r="5" ht="51.5" customHeight="1" spans="1:29">
+      <c r="A5" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="B5" s="8" t="s">
+      <c r="B5" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="C5" s="9" t="s">
+      <c r="C5" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="D5" s="8">
-        <v>1</v>
-      </c>
-      <c r="E5" s="8">
-        <v>1</v>
-      </c>
-      <c r="F5" s="8">
-        <v>0</v>
-      </c>
-      <c r="G5" s="8">
-        <v>0</v>
-      </c>
-      <c r="H5" s="8">
-        <v>1</v>
-      </c>
-      <c r="I5" s="8">
-        <v>1</v>
-      </c>
-      <c r="J5" s="8" t="s">
+      <c r="D5" s="9">
+        <v>1</v>
+      </c>
+      <c r="E5" s="9">
+        <v>1</v>
+      </c>
+      <c r="F5" s="9">
+        <v>0</v>
+      </c>
+      <c r="G5" s="9">
+        <v>0</v>
+      </c>
+      <c r="H5" s="9">
+        <v>1</v>
+      </c>
+      <c r="I5" s="9">
+        <v>1</v>
+      </c>
+      <c r="J5" s="9" t="s">
         <v>54</v>
       </c>
-      <c r="K5" s="8">
+      <c r="K5" s="9">
         <v>4</v>
       </c>
-      <c r="L5" s="8">
-        <v>0</v>
-      </c>
-      <c r="M5" s="8"/>
-      <c r="N5" s="8" t="s">
+      <c r="L5" s="9">
+        <v>0</v>
+      </c>
+      <c r="M5" s="9"/>
+      <c r="N5" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="O5" s="8" t="s">
+      <c r="O5" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="P5" s="8"/>
-      <c r="R5" s="8"/>
-      <c r="S5" s="8"/>
-      <c r="T5" s="8"/>
-      <c r="U5" s="8"/>
-      <c r="V5" s="8"/>
-      <c r="W5" s="14">
-        <v>0</v>
-      </c>
-      <c r="X5" s="14">
-        <v>0</v>
-      </c>
-      <c r="Y5" s="14">
-        <v>0</v>
-      </c>
-      <c r="Z5" s="8" t="s">
+      <c r="P5" s="9"/>
+      <c r="Q5" s="15"/>
+      <c r="R5" s="9"/>
+      <c r="S5" s="9"/>
+      <c r="T5" s="9"/>
+      <c r="U5" s="9"/>
+      <c r="V5" s="9"/>
+      <c r="W5" s="16">
+        <v>0</v>
+      </c>
+      <c r="X5" s="16">
+        <v>0</v>
+      </c>
+      <c r="Y5" s="16">
+        <v>0</v>
+      </c>
+      <c r="Z5" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="AA5" s="8" t="str">
+      <c r="AA5" s="10" t="str">
         <f>"abilities/hero/drow/drow_1/"&amp;A5</f>
         <v>abilities/hero/drow/drow_1/drow_1b</v>
       </c>
-      <c r="AB5" s="9" t="s">
+      <c r="AB5" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="AC5" s="17"/>
+      <c r="AC5" s="19"/>
     </row>
-    <row r="6" ht="33" spans="1:29">
-      <c r="A6" s="7" t="s">
+    <row r="6" ht="51.5" customHeight="1" spans="1:29">
+      <c r="A6" s="8" t="s">
         <v>55</v>
       </c>
-      <c r="B6" s="8" t="s">
+      <c r="B6" s="9" t="s">
         <v>56</v>
       </c>
-      <c r="C6" s="9" t="s">
+      <c r="C6" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="D6" s="8">
-        <v>1</v>
-      </c>
-      <c r="E6" s="8">
-        <v>1</v>
-      </c>
-      <c r="F6" s="8">
-        <v>0</v>
-      </c>
-      <c r="G6" s="8">
-        <v>0</v>
-      </c>
-      <c r="H6" s="8">
-        <v>1</v>
-      </c>
-      <c r="I6" s="8">
-        <v>1</v>
-      </c>
-      <c r="J6" s="8" t="s">
+      <c r="D6" s="9">
+        <v>1</v>
+      </c>
+      <c r="E6" s="9">
+        <v>1</v>
+      </c>
+      <c r="F6" s="9">
+        <v>0</v>
+      </c>
+      <c r="G6" s="9">
+        <v>0</v>
+      </c>
+      <c r="H6" s="9">
+        <v>1</v>
+      </c>
+      <c r="I6" s="9">
+        <v>1</v>
+      </c>
+      <c r="J6" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="K6" s="8">
-        <v>0</v>
-      </c>
-      <c r="L6" s="8">
-        <v>0</v>
-      </c>
-      <c r="M6" s="8"/>
-      <c r="N6" s="8" t="s">
+      <c r="K6" s="9">
+        <v>0</v>
+      </c>
+      <c r="L6" s="9">
+        <v>0</v>
+      </c>
+      <c r="M6" s="9"/>
+      <c r="N6" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="O6" s="8" t="s">
+      <c r="O6" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="P6" s="8"/>
-      <c r="R6" s="8"/>
-      <c r="S6" s="8"/>
-      <c r="T6" s="8"/>
-      <c r="U6" s="8"/>
-      <c r="V6" s="8"/>
-      <c r="W6" s="14">
-        <v>0</v>
-      </c>
-      <c r="X6" s="14">
-        <v>0</v>
-      </c>
-      <c r="Y6" s="14">
-        <v>0</v>
-      </c>
-      <c r="Z6" s="8" t="s">
+      <c r="P6" s="9"/>
+      <c r="Q6" s="15"/>
+      <c r="R6" s="9"/>
+      <c r="S6" s="9"/>
+      <c r="T6" s="9"/>
+      <c r="U6" s="9"/>
+      <c r="V6" s="9"/>
+      <c r="W6" s="16">
+        <v>0</v>
+      </c>
+      <c r="X6" s="16">
+        <v>0</v>
+      </c>
+      <c r="Y6" s="16">
+        <v>0</v>
+      </c>
+      <c r="Z6" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="AA6" s="8" t="str">
+      <c r="AA6" s="10" t="str">
         <f>"abilities/hero/drow/drow_1/"&amp;A6</f>
         <v>abilities/hero/drow/drow_1/drow_1c</v>
       </c>
-      <c r="AB6" s="9" t="s">
+      <c r="AB6" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="AC6" s="17"/>
+      <c r="AC6" s="19"/>
     </row>
-    <row r="7" ht="33" spans="1:29">
-      <c r="A7" s="7" t="s">
+    <row r="7" ht="51.5" customHeight="1" spans="1:29">
+      <c r="A7" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="B7" s="8" t="s">
+      <c r="B7" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="C7" s="8" t="s">
+      <c r="C7" s="10" t="s">
         <v>60</v>
       </c>
-      <c r="D7" s="8">
-        <v>1</v>
-      </c>
-      <c r="E7" s="8">
+      <c r="D7" s="9">
+        <v>1</v>
+      </c>
+      <c r="E7" s="9">
         <v>2</v>
       </c>
-      <c r="F7" s="8">
-        <v>0</v>
-      </c>
-      <c r="G7" s="8">
-        <v>0</v>
-      </c>
-      <c r="H7" s="8">
-        <v>1</v>
-      </c>
-      <c r="I7" s="8">
-        <v>1</v>
-      </c>
-      <c r="J7" s="8" t="s">
+      <c r="F7" s="9">
+        <v>0</v>
+      </c>
+      <c r="G7" s="9">
+        <v>0</v>
+      </c>
+      <c r="H7" s="9">
+        <v>1</v>
+      </c>
+      <c r="I7" s="9">
+        <v>1</v>
+      </c>
+      <c r="J7" s="9" t="s">
         <v>61</v>
       </c>
-      <c r="K7" s="8">
-        <v>0</v>
-      </c>
-      <c r="L7" s="8">
-        <v>0</v>
-      </c>
-      <c r="M7" s="8"/>
-      <c r="N7" s="8" t="s">
+      <c r="K7" s="9">
+        <v>0</v>
+      </c>
+      <c r="L7" s="9">
+        <v>0</v>
+      </c>
+      <c r="M7" s="9"/>
+      <c r="N7" s="9" t="s">
         <v>62</v>
       </c>
-      <c r="O7" s="8" t="s">
+      <c r="O7" s="9" t="s">
         <v>63</v>
       </c>
-      <c r="P7" s="8" t="s">
+      <c r="P7" s="9" t="s">
         <v>64</v>
       </c>
-      <c r="Q7" t="s">
+      <c r="Q7" s="17" t="s">
         <v>65</v>
       </c>
-      <c r="R7" s="8"/>
-      <c r="S7" s="8"/>
-      <c r="T7" s="8"/>
-      <c r="U7" s="8"/>
-      <c r="V7" s="8"/>
-      <c r="W7" s="14">
+      <c r="R7" s="9"/>
+      <c r="S7" s="9"/>
+      <c r="T7" s="9"/>
+      <c r="U7" s="9"/>
+      <c r="V7" s="9"/>
+      <c r="W7" s="16">
         <v>3</v>
       </c>
-      <c r="X7" s="14">
+      <c r="X7" s="16">
         <v>20</v>
       </c>
-      <c r="Y7" s="14">
-        <v>0</v>
-      </c>
-      <c r="Z7" s="8" t="s">
+      <c r="Y7" s="16">
+        <v>0</v>
+      </c>
+      <c r="Z7" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="AA7" s="8" t="str">
+      <c r="AA7" s="10" t="str">
         <f t="shared" ref="AA7:AA12" si="0">"abilities/hero/drow/drow_2/"&amp;A7</f>
         <v>abilities/hero/drow/drow_2/drow_2a</v>
       </c>
-      <c r="AB7" s="9" t="s">
+      <c r="AB7" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="AC7" s="17"/>
+      <c r="AC7" s="19"/>
     </row>
-    <row r="8" ht="33" spans="1:29">
-      <c r="A8" s="7" t="s">
+    <row r="8" ht="51.5" customHeight="1" spans="1:29">
+      <c r="A8" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="B8" s="8" t="s">
+      <c r="B8" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="C8" s="8" t="s">
+      <c r="C8" s="10" t="s">
         <v>60</v>
       </c>
-      <c r="D8" s="8">
-        <v>1</v>
-      </c>
-      <c r="E8" s="8">
+      <c r="D8" s="9">
+        <v>1</v>
+      </c>
+      <c r="E8" s="9">
         <v>2</v>
       </c>
-      <c r="F8" s="8">
-        <v>0</v>
-      </c>
-      <c r="G8" s="8">
-        <v>0</v>
-      </c>
-      <c r="H8" s="8">
-        <v>1</v>
-      </c>
-      <c r="I8" s="8">
-        <v>1</v>
-      </c>
-      <c r="J8" s="8" t="s">
+      <c r="F8" s="9">
+        <v>0</v>
+      </c>
+      <c r="G8" s="9">
+        <v>0</v>
+      </c>
+      <c r="H8" s="9">
+        <v>1</v>
+      </c>
+      <c r="I8" s="9">
+        <v>1</v>
+      </c>
+      <c r="J8" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="K8" s="8">
-        <v>0</v>
-      </c>
-      <c r="L8" s="8">
-        <v>0</v>
-      </c>
-      <c r="M8" s="8"/>
-      <c r="N8" s="8" t="s">
+      <c r="K8" s="9">
+        <v>0</v>
+      </c>
+      <c r="L8" s="9">
+        <v>0</v>
+      </c>
+      <c r="M8" s="9"/>
+      <c r="N8" s="9" t="s">
         <v>62</v>
       </c>
-      <c r="O8" s="8" t="s">
+      <c r="O8" s="9" t="s">
         <v>63</v>
       </c>
-      <c r="P8" s="8" t="s">
+      <c r="P8" s="9" t="s">
         <v>64</v>
       </c>
-      <c r="Q8" t="s">
+      <c r="Q8" s="17" t="s">
         <v>65</v>
       </c>
-      <c r="R8" s="8"/>
-      <c r="S8" s="8"/>
-      <c r="T8" s="8"/>
-      <c r="U8" s="8"/>
-      <c r="V8" s="8"/>
-      <c r="W8" s="14">
+      <c r="R8" s="9"/>
+      <c r="S8" s="9"/>
+      <c r="T8" s="9"/>
+      <c r="U8" s="9"/>
+      <c r="V8" s="9"/>
+      <c r="W8" s="16">
         <v>3</v>
       </c>
-      <c r="X8" s="14">
+      <c r="X8" s="16">
         <v>20</v>
       </c>
-      <c r="Y8" s="14">
-        <v>0</v>
-      </c>
-      <c r="Z8" s="8" t="s">
+      <c r="Y8" s="16">
+        <v>0</v>
+      </c>
+      <c r="Z8" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="AA8" s="8" t="str">
+      <c r="AA8" s="10" t="str">
         <f t="shared" si="0"/>
         <v>abilities/hero/drow/drow_2/drow_2a_a</v>
       </c>
-      <c r="AB8" s="9" t="s">
+      <c r="AB8" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="AC8" s="17"/>
+      <c r="AC8" s="19"/>
     </row>
-    <row r="9" ht="33" spans="1:29">
-      <c r="A9" s="7" t="s">
+    <row r="9" ht="51.5" customHeight="1" spans="1:29">
+      <c r="A9" s="8" t="s">
         <v>69</v>
       </c>
-      <c r="B9" s="8" t="s">
+      <c r="B9" s="9" t="s">
         <v>70</v>
       </c>
-      <c r="C9" s="8" t="s">
+      <c r="C9" s="10" t="s">
         <v>60</v>
       </c>
-      <c r="D9" s="8">
-        <v>1</v>
-      </c>
-      <c r="E9" s="8">
+      <c r="D9" s="9">
+        <v>1</v>
+      </c>
+      <c r="E9" s="9">
         <v>2</v>
       </c>
-      <c r="F9" s="8">
-        <v>0</v>
-      </c>
-      <c r="G9" s="8">
-        <v>0</v>
-      </c>
-      <c r="H9" s="8">
-        <v>1</v>
-      </c>
-      <c r="I9" s="8">
-        <v>1</v>
-      </c>
-      <c r="J9" s="8" t="s">
+      <c r="F9" s="9">
+        <v>0</v>
+      </c>
+      <c r="G9" s="9">
+        <v>0</v>
+      </c>
+      <c r="H9" s="9">
+        <v>1</v>
+      </c>
+      <c r="I9" s="9">
+        <v>1</v>
+      </c>
+      <c r="J9" s="9" t="s">
         <v>71</v>
       </c>
-      <c r="K9" s="8">
-        <v>0</v>
-      </c>
-      <c r="L9" s="8">
-        <v>0</v>
-      </c>
-      <c r="M9" s="8"/>
-      <c r="N9" s="8" t="s">
+      <c r="K9" s="9">
+        <v>0</v>
+      </c>
+      <c r="L9" s="9">
+        <v>0</v>
+      </c>
+      <c r="M9" s="9"/>
+      <c r="N9" s="9" t="s">
         <v>62</v>
       </c>
-      <c r="O9" s="8" t="s">
+      <c r="O9" s="9" t="s">
         <v>63</v>
       </c>
-      <c r="P9" s="8" t="s">
+      <c r="P9" s="9" t="s">
         <v>64</v>
       </c>
-      <c r="Q9" t="s">
+      <c r="Q9" s="17" t="s">
         <v>65</v>
       </c>
-      <c r="R9" s="8"/>
-      <c r="S9" s="8"/>
-      <c r="T9" s="8"/>
-      <c r="U9" s="8"/>
-      <c r="V9" s="8"/>
-      <c r="W9" s="14">
+      <c r="R9" s="9"/>
+      <c r="S9" s="9"/>
+      <c r="T9" s="9"/>
+      <c r="U9" s="9"/>
+      <c r="V9" s="9"/>
+      <c r="W9" s="16">
         <v>3</v>
       </c>
-      <c r="X9" s="14">
+      <c r="X9" s="16">
         <v>20</v>
       </c>
-      <c r="Y9" s="14">
-        <v>0</v>
-      </c>
-      <c r="Z9" s="8" t="s">
+      <c r="Y9" s="16">
+        <v>0</v>
+      </c>
+      <c r="Z9" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="AA9" s="8" t="str">
+      <c r="AA9" s="10" t="str">
         <f t="shared" si="0"/>
         <v>abilities/hero/drow/drow_2/drow_2a_b</v>
       </c>
-      <c r="AB9" s="9" t="s">
+      <c r="AB9" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="AC9" s="17"/>
+      <c r="AC9" s="19"/>
     </row>
-    <row r="10" ht="33" spans="1:29">
-      <c r="A10" s="7" t="s">
+    <row r="10" ht="51.5" customHeight="1" spans="1:29">
+      <c r="A10" s="8" t="s">
         <v>72</v>
       </c>
-      <c r="B10" s="8" t="s">
+      <c r="B10" s="9" t="s">
         <v>73</v>
       </c>
-      <c r="C10" s="8" t="s">
+      <c r="C10" s="10" t="s">
         <v>74</v>
       </c>
-      <c r="D10" s="8">
-        <v>1</v>
-      </c>
-      <c r="E10" s="8">
+      <c r="D10" s="9">
+        <v>1</v>
+      </c>
+      <c r="E10" s="9">
         <v>2</v>
       </c>
-      <c r="F10" s="8">
-        <v>0</v>
-      </c>
-      <c r="G10" s="8">
-        <v>0</v>
-      </c>
-      <c r="H10" s="8">
-        <v>1</v>
-      </c>
-      <c r="I10" s="8">
-        <v>1</v>
-      </c>
-      <c r="J10" s="8" t="s">
+      <c r="F10" s="9">
+        <v>0</v>
+      </c>
+      <c r="G10" s="9">
+        <v>0</v>
+      </c>
+      <c r="H10" s="9">
+        <v>1</v>
+      </c>
+      <c r="I10" s="9">
+        <v>1</v>
+      </c>
+      <c r="J10" s="9" t="s">
         <v>75</v>
       </c>
-      <c r="K10" s="8">
-        <v>0</v>
-      </c>
-      <c r="L10" s="8">
-        <v>0</v>
-      </c>
-      <c r="M10" s="8"/>
-      <c r="N10" s="8" t="s">
+      <c r="K10" s="9">
+        <v>0</v>
+      </c>
+      <c r="L10" s="9">
+        <v>0</v>
+      </c>
+      <c r="M10" s="9"/>
+      <c r="N10" s="9" t="s">
         <v>76</v>
       </c>
-      <c r="O10" s="8" t="s">
+      <c r="O10" s="9" t="s">
         <v>77</v>
       </c>
-      <c r="P10" s="8" t="s">
+      <c r="P10" s="9" t="s">
         <v>78</v>
       </c>
-      <c r="Q10" t="s">
+      <c r="Q10" s="17" t="s">
         <v>79</v>
       </c>
-      <c r="R10" s="8" t="s">
+      <c r="R10" s="9" t="s">
         <v>80</v>
       </c>
-      <c r="S10" s="8" t="s">
+      <c r="S10" s="9" t="s">
         <v>81</v>
       </c>
-      <c r="T10" s="8"/>
-      <c r="U10" s="8"/>
-      <c r="V10" s="8"/>
-      <c r="W10" s="14">
+      <c r="T10" s="9"/>
+      <c r="U10" s="9"/>
+      <c r="V10" s="9"/>
+      <c r="W10" s="16">
         <v>3</v>
       </c>
-      <c r="X10" s="14">
+      <c r="X10" s="16">
         <v>30</v>
       </c>
-      <c r="Y10" s="14">
-        <v>0</v>
-      </c>
-      <c r="Z10" s="8" t="s">
+      <c r="Y10" s="16">
+        <v>0</v>
+      </c>
+      <c r="Z10" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="AA10" s="8" t="str">
+      <c r="AA10" s="10" t="str">
         <f t="shared" si="0"/>
         <v>abilities/hero/drow/drow_2/drow_2b</v>
       </c>
-      <c r="AB10" s="9" t="s">
+      <c r="AB10" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="AC10" s="17"/>
+      <c r="AC10" s="19"/>
     </row>
-    <row r="11" ht="33" spans="1:29">
-      <c r="A11" s="7" t="s">
+    <row r="11" ht="51.5" customHeight="1" spans="1:29">
+      <c r="A11" s="8" t="s">
         <v>82</v>
       </c>
-      <c r="B11" s="8" t="s">
+      <c r="B11" s="9" t="s">
         <v>83</v>
       </c>
-      <c r="C11" s="8" t="s">
+      <c r="C11" s="10" t="s">
         <v>74</v>
       </c>
-      <c r="D11" s="8">
-        <v>1</v>
-      </c>
-      <c r="E11" s="8">
+      <c r="D11" s="9">
+        <v>1</v>
+      </c>
+      <c r="E11" s="9">
         <v>2</v>
       </c>
-      <c r="F11" s="8">
-        <v>0</v>
-      </c>
-      <c r="G11" s="8">
-        <v>0</v>
-      </c>
-      <c r="H11" s="8">
-        <v>1</v>
-      </c>
-      <c r="I11" s="8">
-        <v>1</v>
-      </c>
-      <c r="J11" s="8" t="s">
+      <c r="F11" s="9">
+        <v>0</v>
+      </c>
+      <c r="G11" s="9">
+        <v>0</v>
+      </c>
+      <c r="H11" s="9">
+        <v>1</v>
+      </c>
+      <c r="I11" s="9">
+        <v>1</v>
+      </c>
+      <c r="J11" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="K11" s="8">
-        <v>0</v>
-      </c>
-      <c r="L11" s="8">
-        <v>0</v>
-      </c>
-      <c r="M11" s="8"/>
-      <c r="N11" s="8" t="s">
+      <c r="K11" s="9">
+        <v>0</v>
+      </c>
+      <c r="L11" s="9">
+        <v>0</v>
+      </c>
+      <c r="M11" s="9"/>
+      <c r="N11" s="9" t="s">
         <v>76</v>
       </c>
-      <c r="O11" s="8" t="s">
+      <c r="O11" s="9" t="s">
         <v>77</v>
       </c>
-      <c r="P11" s="8" t="s">
+      <c r="P11" s="9" t="s">
         <v>78</v>
       </c>
-      <c r="Q11" t="s">
+      <c r="Q11" s="17" t="s">
         <v>79</v>
       </c>
-      <c r="R11" s="8" t="s">
+      <c r="R11" s="9" t="s">
         <v>80</v>
       </c>
-      <c r="S11" s="8" t="s">
+      <c r="S11" s="9" t="s">
         <v>81</v>
       </c>
-      <c r="T11" s="8"/>
-      <c r="U11" s="8"/>
-      <c r="V11" s="8"/>
-      <c r="W11" s="14">
+      <c r="T11" s="9"/>
+      <c r="U11" s="9"/>
+      <c r="V11" s="9"/>
+      <c r="W11" s="16">
         <v>3</v>
       </c>
-      <c r="X11" s="14">
+      <c r="X11" s="16">
         <v>30</v>
       </c>
-      <c r="Y11" s="14">
-        <v>0</v>
-      </c>
-      <c r="Z11" s="8" t="s">
+      <c r="Y11" s="16">
+        <v>0</v>
+      </c>
+      <c r="Z11" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="AA11" s="8" t="str">
+      <c r="AA11" s="10" t="str">
         <f t="shared" si="0"/>
         <v>abilities/hero/drow/drow_2/drow_2b_a</v>
       </c>
-      <c r="AB11" s="9" t="s">
+      <c r="AB11" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="AC11" s="17"/>
+      <c r="AC11" s="19"/>
     </row>
-    <row r="12" ht="33" spans="1:29">
-      <c r="A12" s="7" t="s">
+    <row r="12" ht="51.5" customHeight="1" spans="1:29">
+      <c r="A12" s="8" t="s">
         <v>84</v>
       </c>
-      <c r="B12" s="8" t="s">
+      <c r="B12" s="9" t="s">
         <v>85</v>
       </c>
-      <c r="C12" s="8" t="s">
+      <c r="C12" s="10" t="s">
         <v>74</v>
       </c>
-      <c r="D12" s="8">
-        <v>1</v>
-      </c>
-      <c r="E12" s="8">
+      <c r="D12" s="9">
+        <v>1</v>
+      </c>
+      <c r="E12" s="9">
         <v>2</v>
       </c>
-      <c r="F12" s="8">
-        <v>0</v>
-      </c>
-      <c r="G12" s="8">
-        <v>0</v>
-      </c>
-      <c r="H12" s="8">
-        <v>1</v>
-      </c>
-      <c r="I12" s="8">
-        <v>1</v>
-      </c>
-      <c r="J12" s="8" t="s">
+      <c r="F12" s="9">
+        <v>0</v>
+      </c>
+      <c r="G12" s="9">
+        <v>0</v>
+      </c>
+      <c r="H12" s="9">
+        <v>1</v>
+      </c>
+      <c r="I12" s="9">
+        <v>1</v>
+      </c>
+      <c r="J12" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="K12" s="8">
-        <v>0</v>
-      </c>
-      <c r="L12" s="8">
-        <v>0</v>
-      </c>
-      <c r="M12" s="8"/>
-      <c r="N12" s="8" t="s">
+      <c r="K12" s="9">
+        <v>0</v>
+      </c>
+      <c r="L12" s="9">
+        <v>0</v>
+      </c>
+      <c r="M12" s="9"/>
+      <c r="N12" s="9" t="s">
         <v>76</v>
       </c>
-      <c r="O12" s="8" t="s">
+      <c r="O12" s="9" t="s">
         <v>77</v>
       </c>
-      <c r="P12" s="8" t="s">
+      <c r="P12" s="9" t="s">
         <v>78</v>
       </c>
-      <c r="Q12" t="s">
+      <c r="Q12" s="17" t="s">
         <v>79</v>
       </c>
-      <c r="R12" s="8" t="s">
+      <c r="R12" s="9" t="s">
         <v>80</v>
       </c>
-      <c r="S12" s="8" t="s">
+      <c r="S12" s="9" t="s">
         <v>81</v>
       </c>
-      <c r="T12" s="8"/>
-      <c r="U12" s="8"/>
-      <c r="V12" s="8"/>
-      <c r="W12" s="14">
+      <c r="T12" s="9"/>
+      <c r="U12" s="9"/>
+      <c r="V12" s="9"/>
+      <c r="W12" s="16">
         <v>3</v>
       </c>
-      <c r="X12" s="14">
+      <c r="X12" s="16">
         <v>30</v>
       </c>
-      <c r="Y12" s="14">
-        <v>0</v>
-      </c>
-      <c r="Z12" s="8" t="s">
+      <c r="Y12" s="16">
+        <v>0</v>
+      </c>
+      <c r="Z12" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="AA12" s="8" t="str">
+      <c r="AA12" s="10" t="str">
         <f t="shared" si="0"/>
         <v>abilities/hero/drow/drow_2/drow_2b_b</v>
       </c>
-      <c r="AB12" s="9" t="s">
+      <c r="AB12" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="AC12" s="17"/>
+      <c r="AC12" s="19"/>
     </row>
-    <row r="13" ht="33" spans="1:29">
-      <c r="A13" s="7" t="s">
+    <row r="13" ht="101" customHeight="1" spans="1:29">
+      <c r="A13" s="8" t="s">
         <v>86</v>
       </c>
-      <c r="B13" s="8" t="s">
+      <c r="B13" s="9" t="s">
         <v>87</v>
       </c>
-      <c r="C13" s="8"/>
-      <c r="D13" s="8">
-        <v>1</v>
-      </c>
-      <c r="E13" s="8">
+      <c r="C13" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="D13" s="9">
+        <v>1</v>
+      </c>
+      <c r="E13" s="9">
         <v>3</v>
       </c>
-      <c r="F13" s="8">
-        <v>0</v>
-      </c>
-      <c r="G13" s="8">
-        <v>0</v>
-      </c>
-      <c r="H13" s="8">
-        <v>1</v>
-      </c>
-      <c r="I13" s="8">
-        <v>1</v>
-      </c>
-      <c r="J13" s="8" t="s">
+      <c r="F13" s="9">
+        <v>0</v>
+      </c>
+      <c r="G13" s="9">
+        <v>0</v>
+      </c>
+      <c r="H13" s="9">
+        <v>1</v>
+      </c>
+      <c r="I13" s="9">
+        <v>1</v>
+      </c>
+      <c r="J13" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="K13" s="8">
-        <v>0</v>
-      </c>
-      <c r="L13" s="8">
-        <v>0</v>
-      </c>
-      <c r="M13" s="8"/>
-      <c r="N13" s="8"/>
-      <c r="O13" s="8"/>
-      <c r="P13" s="8"/>
-      <c r="R13" s="8"/>
-      <c r="S13" s="8"/>
-      <c r="T13" s="8"/>
-      <c r="U13" s="8"/>
-      <c r="V13" s="8"/>
-      <c r="W13" s="14">
-        <v>0</v>
-      </c>
-      <c r="X13" s="14">
-        <v>0</v>
-      </c>
-      <c r="Y13" s="14">
-        <v>0</v>
-      </c>
-      <c r="Z13" s="8" t="s">
+      <c r="K13" s="9">
+        <v>0</v>
+      </c>
+      <c r="L13" s="9">
+        <v>0</v>
+      </c>
+      <c r="M13" s="9"/>
+      <c r="N13" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="O13" s="9" t="s">
+        <v>90</v>
+      </c>
+      <c r="P13" s="9" t="s">
+        <v>91</v>
+      </c>
+      <c r="Q13" s="17" t="s">
+        <v>92</v>
+      </c>
+      <c r="R13" s="9"/>
+      <c r="S13" s="9"/>
+      <c r="T13" s="9"/>
+      <c r="U13" s="9"/>
+      <c r="V13" s="9"/>
+      <c r="W13" s="16">
+        <v>15</v>
+      </c>
+      <c r="X13" s="16">
+        <v>20</v>
+      </c>
+      <c r="Y13" s="16">
+        <v>0</v>
+      </c>
+      <c r="Z13" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="AA13" s="8" t="str">
-        <f t="shared" ref="AA3:AA24" si="1">"abilities/innate/"&amp;A13</f>
-        <v>abilities/innate/drow_3a</v>
-      </c>
-      <c r="AB13" s="9" t="s">
+      <c r="AA13" s="10" t="str">
+        <f>"abilities/hero/drow/drow_3a/"&amp;A13</f>
+        <v>abilities/hero/drow/drow_3a/drow_3a</v>
+      </c>
+      <c r="AB13" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="AC13" s="17"/>
+      <c r="AC13" s="19"/>
     </row>
-    <row r="14" ht="33" spans="1:29">
-      <c r="A14" s="7" t="s">
-        <v>88</v>
-      </c>
-      <c r="B14" s="8" t="s">
+    <row r="14" ht="51.5" customHeight="1" spans="1:29">
+      <c r="A14" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="B14" s="9" t="s">
+        <v>94</v>
+      </c>
+      <c r="C14" s="10" t="s">
+        <v>95</v>
+      </c>
+      <c r="D14" s="9">
+        <v>1</v>
+      </c>
+      <c r="E14" s="9">
+        <v>3</v>
+      </c>
+      <c r="F14" s="9">
+        <v>0</v>
+      </c>
+      <c r="G14" s="9">
+        <v>0</v>
+      </c>
+      <c r="H14" s="9">
+        <v>1</v>
+      </c>
+      <c r="I14" s="9">
+        <v>1</v>
+      </c>
+      <c r="J14" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="K14" s="9">
+        <v>0</v>
+      </c>
+      <c r="L14" s="9">
+        <v>0</v>
+      </c>
+      <c r="M14" s="9"/>
+      <c r="N14" s="9" t="s">
         <v>89</v>
       </c>
-      <c r="C14" s="8"/>
-      <c r="D14" s="8">
-        <v>1</v>
-      </c>
-      <c r="E14" s="8">
+      <c r="O14" s="9" t="s">
+        <v>90</v>
+      </c>
+      <c r="P14" s="9" t="s">
+        <v>91</v>
+      </c>
+      <c r="Q14" s="17" t="s">
+        <v>92</v>
+      </c>
+      <c r="R14" s="9"/>
+      <c r="S14" s="9"/>
+      <c r="T14" s="9"/>
+      <c r="U14" s="9"/>
+      <c r="V14" s="9"/>
+      <c r="W14" s="16">
+        <v>15</v>
+      </c>
+      <c r="X14" s="16">
+        <v>20</v>
+      </c>
+      <c r="Y14" s="16">
+        <v>0</v>
+      </c>
+      <c r="Z14" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="AA14" s="10" t="str">
+        <f>"abilities/hero/drow/drow_3a/"&amp;A14</f>
+        <v>abilities/hero/drow/drow_3a/drow_3a_a</v>
+      </c>
+      <c r="AB14" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="AC14" s="19"/>
+    </row>
+    <row r="15" ht="51.5" customHeight="1" spans="1:29">
+      <c r="A15" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="B15" s="9" t="s">
+        <v>97</v>
+      </c>
+      <c r="C15" s="10" t="s">
+        <v>98</v>
+      </c>
+      <c r="D15" s="9">
+        <v>1</v>
+      </c>
+      <c r="E15" s="9">
         <v>3</v>
       </c>
-      <c r="F14" s="8">
-        <v>0</v>
-      </c>
-      <c r="G14" s="8">
-        <v>0</v>
-      </c>
-      <c r="H14" s="8">
-        <v>1</v>
-      </c>
-      <c r="I14" s="8">
-        <v>1</v>
-      </c>
-      <c r="J14" s="8" t="s">
+      <c r="F15" s="9">
+        <v>0</v>
+      </c>
+      <c r="G15" s="9">
+        <v>0</v>
+      </c>
+      <c r="H15" s="9">
+        <v>1</v>
+      </c>
+      <c r="I15" s="9">
+        <v>1</v>
+      </c>
+      <c r="J15" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="K14" s="8">
-        <v>0</v>
-      </c>
-      <c r="L14" s="8">
-        <v>0</v>
-      </c>
-      <c r="M14" s="8"/>
-      <c r="N14" s="8"/>
-      <c r="O14" s="8"/>
-      <c r="P14" s="8"/>
-      <c r="R14" s="8"/>
-      <c r="S14" s="8"/>
-      <c r="T14" s="8"/>
-      <c r="U14" s="8"/>
-      <c r="V14" s="8"/>
-      <c r="W14" s="14">
-        <v>0</v>
-      </c>
-      <c r="X14" s="14">
-        <v>0</v>
-      </c>
-      <c r="Y14" s="14">
-        <v>0</v>
-      </c>
-      <c r="Z14" s="8" t="s">
+      <c r="K15" s="9">
+        <v>0</v>
+      </c>
+      <c r="L15" s="9">
+        <v>0</v>
+      </c>
+      <c r="M15" s="9"/>
+      <c r="N15" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="O15" s="9" t="s">
+        <v>90</v>
+      </c>
+      <c r="P15" s="9" t="s">
+        <v>91</v>
+      </c>
+      <c r="Q15" s="17" t="s">
+        <v>92</v>
+      </c>
+      <c r="R15" s="9"/>
+      <c r="S15" s="9"/>
+      <c r="T15" s="9"/>
+      <c r="U15" s="9"/>
+      <c r="V15" s="9"/>
+      <c r="W15" s="16">
+        <v>15</v>
+      </c>
+      <c r="X15" s="16">
+        <v>20</v>
+      </c>
+      <c r="Y15" s="16">
+        <v>0</v>
+      </c>
+      <c r="Z15" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="AA14" s="8" t="str">
-        <f t="shared" si="1"/>
-        <v>abilities/innate/drow_3a_a</v>
-      </c>
-      <c r="AB14" s="9" t="s">
+      <c r="AA15" s="10" t="str">
+        <f>"abilities/hero/drow/drow_3a/"&amp;A15</f>
+        <v>abilities/hero/drow/drow_3a/drow_3a_b</v>
+      </c>
+      <c r="AB15" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="AC14" s="17"/>
+      <c r="AC15" s="19"/>
     </row>
-    <row r="15" ht="33" spans="1:29">
-      <c r="A15" s="7" t="s">
-        <v>90</v>
-      </c>
-      <c r="B15" s="8" t="s">
-        <v>91</v>
-      </c>
-      <c r="C15" s="8"/>
-      <c r="D15" s="8">
-        <v>1</v>
-      </c>
-      <c r="E15" s="8">
+    <row r="16" ht="51.5" customHeight="1" spans="1:29">
+      <c r="A16" s="8" t="s">
+        <v>99</v>
+      </c>
+      <c r="B16" s="9" t="s">
+        <v>100</v>
+      </c>
+      <c r="C16" s="10" t="s">
+        <v>101</v>
+      </c>
+      <c r="D16" s="9">
+        <v>1</v>
+      </c>
+      <c r="E16" s="9">
         <v>3</v>
       </c>
-      <c r="F15" s="8">
-        <v>0</v>
-      </c>
-      <c r="G15" s="8">
-        <v>0</v>
-      </c>
-      <c r="H15" s="8">
-        <v>1</v>
-      </c>
-      <c r="I15" s="8">
-        <v>1</v>
-      </c>
-      <c r="J15" s="8" t="s">
+      <c r="F16" s="9">
+        <v>0</v>
+      </c>
+      <c r="G16" s="9">
+        <v>0</v>
+      </c>
+      <c r="H16" s="9">
+        <v>1</v>
+      </c>
+      <c r="I16" s="9">
+        <v>1</v>
+      </c>
+      <c r="J16" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="K15" s="8">
-        <v>0</v>
-      </c>
-      <c r="L15" s="8">
-        <v>0</v>
-      </c>
-      <c r="M15" s="8"/>
-      <c r="N15" s="8"/>
-      <c r="O15" s="8"/>
-      <c r="P15" s="8"/>
-      <c r="R15" s="8"/>
-      <c r="S15" s="8"/>
-      <c r="T15" s="8"/>
-      <c r="U15" s="8"/>
-      <c r="V15" s="8"/>
-      <c r="W15" s="14">
-        <v>0</v>
-      </c>
-      <c r="X15" s="14">
-        <v>0</v>
-      </c>
-      <c r="Y15" s="14">
-        <v>0</v>
-      </c>
-      <c r="Z15" s="8" t="s">
+      <c r="K16" s="9">
+        <v>0</v>
+      </c>
+      <c r="L16" s="9">
+        <v>0</v>
+      </c>
+      <c r="M16" s="9"/>
+      <c r="N16" s="9" t="s">
+        <v>102</v>
+      </c>
+      <c r="O16" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="P16" s="9"/>
+      <c r="Q16" s="15"/>
+      <c r="R16" s="9"/>
+      <c r="S16" s="9"/>
+      <c r="T16" s="9"/>
+      <c r="U16" s="9"/>
+      <c r="V16" s="9"/>
+      <c r="W16" s="16">
+        <v>15</v>
+      </c>
+      <c r="X16" s="16">
+        <v>20</v>
+      </c>
+      <c r="Y16" s="16">
+        <v>0</v>
+      </c>
+      <c r="Z16" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="AA15" s="8" t="str">
-        <f t="shared" si="1"/>
-        <v>abilities/innate/drow_3a_b</v>
-      </c>
-      <c r="AB15" s="9" t="s">
+      <c r="AA16" s="10" t="str">
+        <f>"abilities/hero/drow/drow_3b/"&amp;A16</f>
+        <v>abilities/hero/drow/drow_3b/drow_3b</v>
+      </c>
+      <c r="AB16" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="AC15" s="17"/>
+      <c r="AC16" s="19"/>
     </row>
-    <row r="16" ht="33" spans="1:29">
-      <c r="A16" s="7" t="s">
-        <v>92</v>
-      </c>
-      <c r="B16" s="8" t="s">
-        <v>93</v>
-      </c>
-      <c r="C16" s="8"/>
-      <c r="D16" s="8">
-        <v>1</v>
-      </c>
-      <c r="E16" s="8">
+    <row r="17" ht="68" customHeight="1" spans="1:29">
+      <c r="A17" s="8" t="s">
+        <v>104</v>
+      </c>
+      <c r="B17" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="C17" s="10" t="s">
+        <v>106</v>
+      </c>
+      <c r="D17" s="9">
+        <v>1</v>
+      </c>
+      <c r="E17" s="9">
         <v>3</v>
       </c>
-      <c r="F16" s="8">
-        <v>0</v>
-      </c>
-      <c r="G16" s="8">
-        <v>0</v>
-      </c>
-      <c r="H16" s="8">
-        <v>1</v>
-      </c>
-      <c r="I16" s="8">
-        <v>1</v>
-      </c>
-      <c r="J16" s="8" t="s">
+      <c r="F17" s="9">
+        <v>0</v>
+      </c>
+      <c r="G17" s="9">
+        <v>0</v>
+      </c>
+      <c r="H17" s="9">
+        <v>1</v>
+      </c>
+      <c r="I17" s="9">
+        <v>1</v>
+      </c>
+      <c r="J17" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="K16" s="8">
-        <v>0</v>
-      </c>
-      <c r="L16" s="8">
-        <v>0</v>
-      </c>
-      <c r="M16" s="8"/>
-      <c r="N16" s="8"/>
-      <c r="O16" s="8"/>
-      <c r="P16" s="8"/>
-      <c r="R16" s="8"/>
-      <c r="S16" s="8"/>
-      <c r="T16" s="8"/>
-      <c r="U16" s="8"/>
-      <c r="V16" s="8"/>
-      <c r="W16" s="14">
-        <v>0</v>
-      </c>
-      <c r="X16" s="14">
-        <v>0</v>
-      </c>
-      <c r="Y16" s="14">
-        <v>0</v>
-      </c>
-      <c r="Z16" s="8" t="s">
+      <c r="K17" s="9">
+        <v>0</v>
+      </c>
+      <c r="L17" s="9">
+        <v>0</v>
+      </c>
+      <c r="M17" s="9"/>
+      <c r="N17" s="9" t="s">
+        <v>102</v>
+      </c>
+      <c r="O17" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="P17" s="9"/>
+      <c r="Q17" s="15"/>
+      <c r="R17" s="9"/>
+      <c r="S17" s="9"/>
+      <c r="T17" s="9"/>
+      <c r="U17" s="9"/>
+      <c r="V17" s="9"/>
+      <c r="W17" s="16">
+        <v>15</v>
+      </c>
+      <c r="X17" s="16">
+        <v>20</v>
+      </c>
+      <c r="Y17" s="16">
+        <v>0</v>
+      </c>
+      <c r="Z17" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="AA16" s="8" t="str">
-        <f t="shared" si="1"/>
-        <v>abilities/innate/drow_3b</v>
-      </c>
-      <c r="AB16" s="9" t="s">
+      <c r="AA17" s="10" t="str">
+        <f>"abilities/hero/drow/drow_3b/"&amp;A17</f>
+        <v>abilities/hero/drow/drow_3b/drow_3b_a</v>
+      </c>
+      <c r="AB17" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="AC16" s="17"/>
+      <c r="AC17" s="19"/>
     </row>
-    <row r="17" ht="33" spans="1:29">
-      <c r="A17" s="7" t="s">
-        <v>94</v>
-      </c>
-      <c r="B17" s="8" t="s">
-        <v>95</v>
-      </c>
-      <c r="C17" s="8"/>
-      <c r="D17" s="8">
-        <v>1</v>
-      </c>
-      <c r="E17" s="8">
+    <row r="18" ht="51.5" customHeight="1" spans="1:29">
+      <c r="A18" s="8" t="s">
+        <v>107</v>
+      </c>
+      <c r="B18" s="9" t="s">
+        <v>108</v>
+      </c>
+      <c r="C18" s="10" t="s">
+        <v>109</v>
+      </c>
+      <c r="D18" s="9">
+        <v>1</v>
+      </c>
+      <c r="E18" s="9">
         <v>3</v>
       </c>
-      <c r="F17" s="8">
-        <v>0</v>
-      </c>
-      <c r="G17" s="8">
-        <v>0</v>
-      </c>
-      <c r="H17" s="8">
-        <v>1</v>
-      </c>
-      <c r="I17" s="8">
-        <v>1</v>
-      </c>
-      <c r="J17" s="8" t="s">
+      <c r="F18" s="9">
+        <v>0</v>
+      </c>
+      <c r="G18" s="9">
+        <v>0</v>
+      </c>
+      <c r="H18" s="9">
+        <v>1</v>
+      </c>
+      <c r="I18" s="9">
+        <v>1</v>
+      </c>
+      <c r="J18" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="K17" s="8">
-        <v>0</v>
-      </c>
-      <c r="L17" s="8">
-        <v>0</v>
-      </c>
-      <c r="M17" s="8"/>
-      <c r="N17" s="8"/>
-      <c r="O17" s="8"/>
-      <c r="P17" s="8"/>
-      <c r="R17" s="8"/>
-      <c r="S17" s="8"/>
-      <c r="T17" s="8"/>
-      <c r="U17" s="8"/>
-      <c r="V17" s="8"/>
-      <c r="W17" s="14">
-        <v>0</v>
-      </c>
-      <c r="X17" s="14">
-        <v>0</v>
-      </c>
-      <c r="Y17" s="14">
-        <v>0</v>
-      </c>
-      <c r="Z17" s="8" t="s">
+      <c r="K18" s="9">
+        <v>0</v>
+      </c>
+      <c r="L18" s="9">
+        <v>0</v>
+      </c>
+      <c r="M18" s="9"/>
+      <c r="N18" s="9" t="s">
+        <v>102</v>
+      </c>
+      <c r="O18" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="P18" s="9"/>
+      <c r="Q18" s="15"/>
+      <c r="R18" s="9"/>
+      <c r="S18" s="9"/>
+      <c r="T18" s="9"/>
+      <c r="U18" s="9"/>
+      <c r="V18" s="9"/>
+      <c r="W18" s="16">
+        <v>15</v>
+      </c>
+      <c r="X18" s="16">
+        <v>20</v>
+      </c>
+      <c r="Y18" s="16">
+        <v>0</v>
+      </c>
+      <c r="Z18" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="AA17" s="8" t="str">
-        <f t="shared" si="1"/>
-        <v>abilities/innate/drow_3b_a</v>
-      </c>
-      <c r="AB17" s="9" t="s">
+      <c r="AA18" s="10" t="str">
+        <f>"abilities/hero/drow/drow_3b/"&amp;A18</f>
+        <v>abilities/hero/drow/drow_3b/drow_3b_b</v>
+      </c>
+      <c r="AB18" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="AC17" s="17"/>
+      <c r="AC18" s="19"/>
     </row>
-    <row r="18" ht="33" spans="1:29">
-      <c r="A18" s="7" t="s">
-        <v>96</v>
-      </c>
-      <c r="B18" s="8" t="s">
-        <v>97</v>
-      </c>
-      <c r="C18" s="8"/>
-      <c r="D18" s="8">
-        <v>1</v>
-      </c>
-      <c r="E18" s="8">
-        <v>3</v>
-      </c>
-      <c r="F18" s="8">
-        <v>0</v>
-      </c>
-      <c r="G18" s="8">
-        <v>0</v>
-      </c>
-      <c r="H18" s="8">
-        <v>1</v>
-      </c>
-      <c r="I18" s="8">
-        <v>1</v>
-      </c>
-      <c r="J18" s="8" t="s">
+    <row r="19" ht="51.5" customHeight="1" spans="1:29">
+      <c r="A19" s="8" t="s">
+        <v>110</v>
+      </c>
+      <c r="B19" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="C19" s="10" t="s">
+        <v>112</v>
+      </c>
+      <c r="D19" s="9">
+        <v>1</v>
+      </c>
+      <c r="E19" s="9">
+        <v>4</v>
+      </c>
+      <c r="F19" s="9">
+        <v>0</v>
+      </c>
+      <c r="G19" s="9">
+        <v>0</v>
+      </c>
+      <c r="H19" s="9">
+        <v>1</v>
+      </c>
+      <c r="I19" s="9">
+        <v>1</v>
+      </c>
+      <c r="J19" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="K18" s="8">
-        <v>0</v>
-      </c>
-      <c r="L18" s="8">
-        <v>0</v>
-      </c>
-      <c r="M18" s="8"/>
-      <c r="N18" s="8"/>
-      <c r="O18" s="8"/>
-      <c r="P18" s="8"/>
-      <c r="R18" s="8"/>
-      <c r="S18" s="8"/>
-      <c r="T18" s="8"/>
-      <c r="U18" s="8"/>
-      <c r="V18" s="8"/>
-      <c r="W18" s="14">
-        <v>0</v>
-      </c>
-      <c r="X18" s="14">
-        <v>0</v>
-      </c>
-      <c r="Y18" s="14">
-        <v>0</v>
-      </c>
-      <c r="Z18" s="8" t="s">
+      <c r="K19" s="9">
+        <v>0</v>
+      </c>
+      <c r="L19" s="9">
+        <v>0</v>
+      </c>
+      <c r="M19" s="9"/>
+      <c r="N19" s="9"/>
+      <c r="O19" s="9"/>
+      <c r="P19" s="9"/>
+      <c r="Q19" s="15"/>
+      <c r="R19" s="9"/>
+      <c r="S19" s="9"/>
+      <c r="T19" s="9"/>
+      <c r="U19" s="9"/>
+      <c r="V19" s="9"/>
+      <c r="W19" s="16">
+        <v>0</v>
+      </c>
+      <c r="X19" s="16">
+        <v>0</v>
+      </c>
+      <c r="Y19" s="16">
+        <v>0</v>
+      </c>
+      <c r="Z19" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="AA18" s="8" t="str">
-        <f t="shared" si="1"/>
-        <v>abilities/innate/drow_3b_b</v>
-      </c>
-      <c r="AB18" s="9" t="s">
+      <c r="AA19" s="10" t="str">
+        <f>"abilities/hero/drow/drow_4a/"&amp;A19</f>
+        <v>abilities/hero/drow/drow_4a/drow_4a</v>
+      </c>
+      <c r="AB19" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="AC18" s="17"/>
+      <c r="AC19" s="19"/>
     </row>
-    <row r="19" ht="33" spans="1:29">
-      <c r="A19" s="7" t="s">
-        <v>98</v>
-      </c>
-      <c r="B19" s="8" t="s">
-        <v>99</v>
-      </c>
-      <c r="C19" s="8"/>
-      <c r="D19" s="8">
-        <v>1</v>
-      </c>
-      <c r="E19" s="8">
+    <row r="20" ht="51.5" customHeight="1" spans="1:29">
+      <c r="A20" s="8" t="s">
+        <v>113</v>
+      </c>
+      <c r="B20" s="9" t="s">
+        <v>114</v>
+      </c>
+      <c r="C20" s="10" t="s">
+        <v>115</v>
+      </c>
+      <c r="D20" s="9">
+        <v>1</v>
+      </c>
+      <c r="E20" s="9">
         <v>4</v>
       </c>
-      <c r="F19" s="8">
-        <v>0</v>
-      </c>
-      <c r="G19" s="8">
-        <v>0</v>
-      </c>
-      <c r="H19" s="8">
-        <v>1</v>
-      </c>
-      <c r="I19" s="8">
-        <v>1</v>
-      </c>
-      <c r="J19" s="8" t="s">
+      <c r="F20" s="9">
+        <v>0</v>
+      </c>
+      <c r="G20" s="9">
+        <v>0</v>
+      </c>
+      <c r="H20" s="9">
+        <v>1</v>
+      </c>
+      <c r="I20" s="9">
+        <v>1</v>
+      </c>
+      <c r="J20" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="K19" s="8">
-        <v>0</v>
-      </c>
-      <c r="L19" s="8">
-        <v>0</v>
-      </c>
-      <c r="M19" s="8"/>
-      <c r="N19" s="8"/>
-      <c r="O19" s="8"/>
-      <c r="P19" s="8"/>
-      <c r="R19" s="8"/>
-      <c r="S19" s="8"/>
-      <c r="T19" s="8"/>
-      <c r="U19" s="8"/>
-      <c r="V19" s="8"/>
-      <c r="W19" s="14">
-        <v>0</v>
-      </c>
-      <c r="X19" s="14">
-        <v>0</v>
-      </c>
-      <c r="Y19" s="14">
-        <v>0</v>
-      </c>
-      <c r="Z19" s="8" t="s">
+      <c r="K20" s="9">
+        <v>0</v>
+      </c>
+      <c r="L20" s="9">
+        <v>0</v>
+      </c>
+      <c r="M20" s="9"/>
+      <c r="N20" s="9"/>
+      <c r="O20" s="9"/>
+      <c r="P20" s="9"/>
+      <c r="Q20" s="15"/>
+      <c r="R20" s="9"/>
+      <c r="S20" s="9"/>
+      <c r="T20" s="9"/>
+      <c r="U20" s="9"/>
+      <c r="V20" s="9"/>
+      <c r="W20" s="16">
+        <v>0</v>
+      </c>
+      <c r="X20" s="16">
+        <v>0</v>
+      </c>
+      <c r="Y20" s="16">
+        <v>0</v>
+      </c>
+      <c r="Z20" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="AA19" s="8" t="str">
-        <f t="shared" si="1"/>
-        <v>abilities/innate/drow_4a</v>
-      </c>
-      <c r="AB19" s="9" t="s">
+      <c r="AA20" s="10" t="str">
+        <f>"abilities/hero/drow/drow_4b/"&amp;A20</f>
+        <v>abilities/hero/drow/drow_4b/drow_4b</v>
+      </c>
+      <c r="AB20" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="AC19" s="17"/>
+      <c r="AC20" s="19"/>
     </row>
-    <row r="20" ht="33" spans="1:29">
-      <c r="A20" s="7" t="s">
-        <v>100</v>
-      </c>
-      <c r="B20" s="8" t="s">
-        <v>101</v>
-      </c>
-      <c r="C20" s="8"/>
-      <c r="D20" s="8">
-        <v>1</v>
-      </c>
-      <c r="E20" s="8">
-        <v>4</v>
-      </c>
-      <c r="F20" s="8">
-        <v>0</v>
-      </c>
-      <c r="G20" s="8">
-        <v>0</v>
-      </c>
-      <c r="H20" s="8">
-        <v>1</v>
-      </c>
-      <c r="I20" s="8">
-        <v>1</v>
-      </c>
-      <c r="J20" s="8" t="s">
+    <row r="21" ht="51.5" customHeight="1" spans="1:29">
+      <c r="A21" s="8" t="s">
+        <v>116</v>
+      </c>
+      <c r="B21" s="9" t="s">
+        <v>117</v>
+      </c>
+      <c r="C21" s="10" t="s">
+        <v>118</v>
+      </c>
+      <c r="D21" s="9">
+        <v>1</v>
+      </c>
+      <c r="E21" s="9">
+        <v>5</v>
+      </c>
+      <c r="F21" s="9">
+        <v>0</v>
+      </c>
+      <c r="G21" s="9">
+        <v>0</v>
+      </c>
+      <c r="H21" s="9">
+        <v>1</v>
+      </c>
+      <c r="I21" s="9">
+        <v>1</v>
+      </c>
+      <c r="J21" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="K20" s="8">
-        <v>0</v>
-      </c>
-      <c r="L20" s="8">
-        <v>0</v>
-      </c>
-      <c r="M20" s="8"/>
-      <c r="N20" s="8"/>
-      <c r="O20" s="8"/>
-      <c r="P20" s="8"/>
-      <c r="R20" s="8"/>
-      <c r="S20" s="8"/>
-      <c r="T20" s="8"/>
-      <c r="U20" s="8"/>
-      <c r="V20" s="8"/>
-      <c r="W20" s="14">
-        <v>0</v>
-      </c>
-      <c r="X20" s="14">
-        <v>0</v>
-      </c>
-      <c r="Y20" s="14">
-        <v>0</v>
-      </c>
-      <c r="Z20" s="8" t="s">
+      <c r="K21" s="9">
+        <v>0</v>
+      </c>
+      <c r="L21" s="9">
+        <v>0</v>
+      </c>
+      <c r="M21" s="9"/>
+      <c r="N21" s="9"/>
+      <c r="O21" s="9"/>
+      <c r="P21" s="9"/>
+      <c r="Q21" s="15"/>
+      <c r="R21" s="9"/>
+      <c r="S21" s="9"/>
+      <c r="T21" s="9"/>
+      <c r="U21" s="9"/>
+      <c r="V21" s="9"/>
+      <c r="W21" s="16">
+        <v>0</v>
+      </c>
+      <c r="X21" s="16">
+        <v>0</v>
+      </c>
+      <c r="Y21" s="16">
+        <v>0</v>
+      </c>
+      <c r="Z21" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="AA20" s="8" t="str">
-        <f t="shared" si="1"/>
-        <v>abilities/innate/drow_4b</v>
-      </c>
-      <c r="AB20" s="9" t="s">
+      <c r="AA21" s="10" t="str">
+        <f>"abilities/hero/drow/drow_5/"&amp;A21</f>
+        <v>abilities/hero/drow/drow_5/drow_5</v>
+      </c>
+      <c r="AB21" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="AC20" s="17"/>
+      <c r="AC21" s="19"/>
     </row>
-    <row r="21" ht="33" spans="1:29">
-      <c r="A21" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="B21" s="8" t="s">
-        <v>103</v>
-      </c>
-      <c r="C21" s="8"/>
-      <c r="D21" s="8">
-        <v>1</v>
-      </c>
-      <c r="E21" s="8">
+    <row r="22" ht="51.5" customHeight="1" spans="1:29">
+      <c r="A22" s="8" t="s">
+        <v>119</v>
+      </c>
+      <c r="B22" s="9" t="s">
+        <v>120</v>
+      </c>
+      <c r="C22" s="10" t="s">
+        <v>121</v>
+      </c>
+      <c r="D22" s="9">
+        <v>1</v>
+      </c>
+      <c r="E22" s="9">
         <v>5</v>
       </c>
-      <c r="F21" s="8">
-        <v>0</v>
-      </c>
-      <c r="G21" s="8">
-        <v>0</v>
-      </c>
-      <c r="H21" s="8">
-        <v>1</v>
-      </c>
-      <c r="I21" s="8">
-        <v>1</v>
-      </c>
-      <c r="J21" s="8" t="s">
+      <c r="F22" s="9">
+        <v>0</v>
+      </c>
+      <c r="G22" s="9">
+        <v>0</v>
+      </c>
+      <c r="H22" s="9">
+        <v>1</v>
+      </c>
+      <c r="I22" s="9">
+        <v>1</v>
+      </c>
+      <c r="J22" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="K21" s="8">
-        <v>0</v>
-      </c>
-      <c r="L21" s="8">
-        <v>0</v>
-      </c>
-      <c r="M21" s="8"/>
-      <c r="N21" s="8"/>
-      <c r="O21" s="8"/>
-      <c r="P21" s="8"/>
-      <c r="R21" s="8"/>
-      <c r="S21" s="8"/>
-      <c r="T21" s="8"/>
-      <c r="U21" s="8"/>
-      <c r="V21" s="8"/>
-      <c r="W21" s="14">
-        <v>0</v>
-      </c>
-      <c r="X21" s="14">
-        <v>0</v>
-      </c>
-      <c r="Y21" s="14">
-        <v>0</v>
-      </c>
-      <c r="Z21" s="8" t="s">
+      <c r="K22" s="9">
+        <v>0</v>
+      </c>
+      <c r="L22" s="9">
+        <v>0</v>
+      </c>
+      <c r="M22" s="9"/>
+      <c r="N22" s="9"/>
+      <c r="O22" s="9"/>
+      <c r="P22" s="9"/>
+      <c r="Q22" s="15"/>
+      <c r="R22" s="9"/>
+      <c r="S22" s="9"/>
+      <c r="T22" s="9"/>
+      <c r="U22" s="9"/>
+      <c r="V22" s="9"/>
+      <c r="W22" s="16">
+        <v>0</v>
+      </c>
+      <c r="X22" s="16">
+        <v>0</v>
+      </c>
+      <c r="Y22" s="16">
+        <v>0</v>
+      </c>
+      <c r="Z22" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="AA21" s="8" t="str">
-        <f t="shared" si="1"/>
-        <v>abilities/innate/drow_5</v>
-      </c>
-      <c r="AB21" s="9" t="s">
+      <c r="AA22" s="10" t="str">
+        <f>"abilities/hero/drow/drow_5/"&amp;A22</f>
+        <v>abilities/hero/drow/drow_5/drow_5a</v>
+      </c>
+      <c r="AB22" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="AC21" s="17"/>
+      <c r="AC22" s="19"/>
     </row>
-    <row r="22" ht="33" spans="1:29">
-      <c r="A22" s="7" t="s">
-        <v>104</v>
-      </c>
-      <c r="B22" s="8" t="s">
-        <v>105</v>
-      </c>
-      <c r="C22" s="8"/>
-      <c r="D22" s="8">
-        <v>1</v>
-      </c>
-      <c r="E22" s="8">
+    <row r="23" ht="51.5" customHeight="1" spans="1:29">
+      <c r="A23" s="8" t="s">
+        <v>122</v>
+      </c>
+      <c r="B23" s="9" t="s">
+        <v>123</v>
+      </c>
+      <c r="C23" s="10" t="s">
+        <v>124</v>
+      </c>
+      <c r="D23" s="9">
+        <v>1</v>
+      </c>
+      <c r="E23" s="9">
         <v>5</v>
       </c>
-      <c r="F22" s="8">
-        <v>0</v>
-      </c>
-      <c r="G22" s="8">
-        <v>0</v>
-      </c>
-      <c r="H22" s="8">
-        <v>1</v>
-      </c>
-      <c r="I22" s="8">
-        <v>1</v>
-      </c>
-      <c r="J22" s="8" t="s">
+      <c r="F23" s="9">
+        <v>0</v>
+      </c>
+      <c r="G23" s="9">
+        <v>0</v>
+      </c>
+      <c r="H23" s="9">
+        <v>1</v>
+      </c>
+      <c r="I23" s="9">
+        <v>1</v>
+      </c>
+      <c r="J23" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="K22" s="8">
-        <v>0</v>
-      </c>
-      <c r="L22" s="8">
-        <v>0</v>
-      </c>
-      <c r="M22" s="8"/>
-      <c r="N22" s="8"/>
-      <c r="O22" s="8"/>
-      <c r="P22" s="8"/>
-      <c r="R22" s="8"/>
-      <c r="S22" s="8"/>
-      <c r="T22" s="8"/>
-      <c r="U22" s="8"/>
-      <c r="V22" s="8"/>
-      <c r="W22" s="14">
-        <v>0</v>
-      </c>
-      <c r="X22" s="14">
-        <v>0</v>
-      </c>
-      <c r="Y22" s="14">
-        <v>0</v>
-      </c>
-      <c r="Z22" s="8" t="s">
+      <c r="K23" s="9">
+        <v>0</v>
+      </c>
+      <c r="L23" s="9">
+        <v>0</v>
+      </c>
+      <c r="M23" s="9"/>
+      <c r="N23" s="9"/>
+      <c r="O23" s="9"/>
+      <c r="P23" s="9"/>
+      <c r="Q23" s="15"/>
+      <c r="R23" s="9"/>
+      <c r="S23" s="9"/>
+      <c r="T23" s="9"/>
+      <c r="U23" s="9"/>
+      <c r="V23" s="9"/>
+      <c r="W23" s="16">
+        <v>0</v>
+      </c>
+      <c r="X23" s="16">
+        <v>0</v>
+      </c>
+      <c r="Y23" s="16">
+        <v>0</v>
+      </c>
+      <c r="Z23" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="AA22" s="8" t="str">
-        <f t="shared" si="1"/>
-        <v>abilities/innate/drow_5a</v>
-      </c>
-      <c r="AB22" s="9" t="s">
+      <c r="AA23" s="10" t="str">
+        <f>"abilities/hero/drow/drow_5/"&amp;A23</f>
+        <v>abilities/hero/drow/drow_5/drow_5b</v>
+      </c>
+      <c r="AB23" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="AC22" s="17"/>
+      <c r="AC23" s="19"/>
     </row>
-    <row r="23" ht="33" spans="1:29">
-      <c r="A23" s="7" t="s">
-        <v>106</v>
-      </c>
-      <c r="B23" s="8" t="s">
-        <v>107</v>
-      </c>
-      <c r="C23" s="8"/>
-      <c r="D23" s="8">
-        <v>1</v>
-      </c>
-      <c r="E23" s="8">
+    <row r="24" ht="51.5" customHeight="1" spans="1:29">
+      <c r="A24" s="8" t="s">
+        <v>125</v>
+      </c>
+      <c r="B24" s="9" t="s">
+        <v>126</v>
+      </c>
+      <c r="C24" s="10" t="s">
+        <v>127</v>
+      </c>
+      <c r="D24" s="9">
+        <v>1</v>
+      </c>
+      <c r="E24" s="9">
         <v>5</v>
       </c>
-      <c r="F23" s="8">
-        <v>0</v>
-      </c>
-      <c r="G23" s="8">
-        <v>0</v>
-      </c>
-      <c r="H23" s="8">
-        <v>1</v>
-      </c>
-      <c r="I23" s="8">
-        <v>1</v>
-      </c>
-      <c r="J23" s="8" t="s">
+      <c r="F24" s="9">
+        <v>0</v>
+      </c>
+      <c r="G24" s="9">
+        <v>0</v>
+      </c>
+      <c r="H24" s="9">
+        <v>1</v>
+      </c>
+      <c r="I24" s="9">
+        <v>1</v>
+      </c>
+      <c r="J24" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="K23" s="8">
-        <v>0</v>
-      </c>
-      <c r="L23" s="8">
-        <v>0</v>
-      </c>
-      <c r="M23" s="8"/>
-      <c r="N23" s="8"/>
-      <c r="O23" s="8"/>
-      <c r="P23" s="8"/>
-      <c r="R23" s="8"/>
-      <c r="S23" s="8"/>
-      <c r="T23" s="8"/>
-      <c r="U23" s="8"/>
-      <c r="V23" s="8"/>
-      <c r="W23" s="14">
-        <v>0</v>
-      </c>
-      <c r="X23" s="14">
-        <v>0</v>
-      </c>
-      <c r="Y23" s="14">
-        <v>0</v>
-      </c>
-      <c r="Z23" s="8" t="s">
+      <c r="K24" s="9">
+        <v>0</v>
+      </c>
+      <c r="L24" s="9">
+        <v>0</v>
+      </c>
+      <c r="M24" s="9"/>
+      <c r="N24" s="9"/>
+      <c r="O24" s="9"/>
+      <c r="P24" s="9"/>
+      <c r="Q24" s="15"/>
+      <c r="R24" s="9"/>
+      <c r="S24" s="9"/>
+      <c r="T24" s="9"/>
+      <c r="U24" s="9"/>
+      <c r="V24" s="9"/>
+      <c r="W24" s="16">
+        <v>0</v>
+      </c>
+      <c r="X24" s="16">
+        <v>0</v>
+      </c>
+      <c r="Y24" s="16">
+        <v>0</v>
+      </c>
+      <c r="Z24" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="AA23" s="8" t="str">
-        <f t="shared" si="1"/>
-        <v>abilities/innate/drow_5b</v>
-      </c>
-      <c r="AB23" s="9" t="s">
+      <c r="AA24" s="10" t="str">
+        <f>"abilities/hero/drow/drow_5/"&amp;A24</f>
+        <v>abilities/hero/drow/drow_5/drow_5c</v>
+      </c>
+      <c r="AB24" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="AC23" s="17"/>
-    </row>
-    <row r="24" ht="33" spans="1:29">
-      <c r="A24" s="7" t="s">
-        <v>108</v>
-      </c>
-      <c r="B24" s="8" t="s">
-        <v>109</v>
-      </c>
-      <c r="C24" s="8" t="s">
-        <v>110</v>
-      </c>
-      <c r="D24" s="8">
-        <v>1</v>
-      </c>
-      <c r="E24" s="8">
-        <v>5</v>
-      </c>
-      <c r="F24" s="8">
-        <v>0</v>
-      </c>
-      <c r="G24" s="8">
-        <v>0</v>
-      </c>
-      <c r="H24" s="8">
-        <v>1</v>
-      </c>
-      <c r="I24" s="8">
-        <v>1</v>
-      </c>
-      <c r="J24" s="8" t="s">
-        <v>57</v>
-      </c>
-      <c r="K24" s="8">
-        <v>0</v>
-      </c>
-      <c r="L24" s="8">
-        <v>0</v>
-      </c>
-      <c r="M24" s="8"/>
-      <c r="N24" s="8"/>
-      <c r="O24" s="8"/>
-      <c r="P24" s="8"/>
-      <c r="R24" s="8"/>
-      <c r="S24" s="8"/>
-      <c r="T24" s="8"/>
-      <c r="U24" s="8"/>
-      <c r="V24" s="8"/>
-      <c r="W24" s="14">
-        <v>0</v>
-      </c>
-      <c r="X24" s="14">
-        <v>0</v>
-      </c>
-      <c r="Y24" s="14">
-        <v>0</v>
-      </c>
-      <c r="Z24" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="AA24" s="8" t="str">
-        <f t="shared" si="1"/>
-        <v>abilities/innate/drow_5c</v>
-      </c>
-      <c r="AB24" s="9" t="s">
-        <v>48</v>
-      </c>
-      <c r="AC24" s="17"/>
+      <c r="AC24" s="19"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1:A3">
@@ -3347,20 +3481,4 @@
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
-  <sheetData/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
-</worksheet>
 </file>
--- a/excels/abilities/hero/drow.xlsx
+++ b/excels/abilities/hero/drow.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="128">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="234" uniqueCount="132">
   <si>
     <t>名字</t>
   </si>
@@ -153,6 +153,9 @@
     <t>AbilityBehavior</t>
   </si>
   <si>
+    <t>precache</t>
+  </si>
+  <si>
     <t>drow_1</t>
   </si>
   <si>
@@ -294,7 +297,10 @@
     <t>风暴环绕</t>
   </si>
   <si>
-    <t>召唤一阵风暴环绕自身，每1秒对触碰到风暴的敌人造成攻击力%base_value%的伤害，持续%duration%秒。</t>
+    <t>召唤一阵风暴环绕自身，每1秒对触碰到风暴的敌人造成攻击力%base_value%的伤害，持续%surround_duration%秒。</t>
+  </si>
+  <si>
+    <t>wisp_spirits</t>
   </si>
   <si>
     <t>base_value 200 250 300 350 400</t>
@@ -337,10 +343,16 @@
     <t>向空中射出10/12/14/17/20支箭，随机打击范围1000码以内敌人，每支箭制造成攻击力200%的伤害。</t>
   </si>
   <si>
+    <t>mirana/mirana_persona/mirana_starfall</t>
+  </si>
+  <si>
     <t>arrow_count 10 12 14 17 20</t>
   </si>
   <si>
     <t>base_value 200</t>
+  </si>
+  <si>
+    <t>radius 1000</t>
   </si>
   <si>
     <t>drow_3b_a</t>
@@ -1163,7 +1175,7 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1215,10 +1227,19 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1599,12 +1620,12 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:AC24"/>
+  <dimension ref="A1:AD24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
       <pane xSplit="3" topLeftCell="J1" activePane="topRight" state="frozen"/>
       <selection/>
-      <selection pane="topRight" activeCell="N16" sqref="N16:O18"/>
+      <selection pane="topRight" activeCell="J15" sqref="J15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1635,9 +1656,12 @@
     <col min="26" max="26" width="10.175" customWidth="1"/>
     <col min="27" max="27" width="34.25" customWidth="1"/>
     <col min="28" max="28" width="30.675" customWidth="1"/>
+    <col min="29" max="29" width="68.625" customWidth="1"/>
+    <col min="30" max="30" width="66.375" customWidth="1"/>
+    <col min="31" max="31" width="12.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="51.5" customHeight="1" spans="1:29">
+    <row r="1" s="1" customFormat="1" ht="51.5" customHeight="1" spans="1:30">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1710,9 +1734,10 @@
       <c r="AB1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="AC1" s="18"/>
+      <c r="AC1" s="17"/>
+      <c r="AD1" s="18"/>
     </row>
-    <row r="2" s="1" customFormat="1" ht="35" customHeight="1" spans="1:28">
+    <row r="2" s="1" customFormat="1" ht="35" customHeight="1" spans="1:29">
       <c r="A2" s="5" t="s">
         <v>17</v>
       </c>
@@ -1797,16 +1822,19 @@
       <c r="AB2" s="7" t="s">
         <v>40</v>
       </c>
+      <c r="AC2" s="19" t="s">
+        <v>41</v>
+      </c>
     </row>
-    <row r="3" customFormat="1" ht="51.5" customHeight="1" spans="1:29">
+    <row r="3" customFormat="1" ht="51.5" customHeight="1" spans="1:30">
       <c r="A3" s="8" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C3" s="10" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D3" s="9">
         <v>1</v>
@@ -1827,7 +1855,7 @@
         <v>1</v>
       </c>
       <c r="J3" s="9" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K3" s="9">
         <v>0</v>
@@ -1837,10 +1865,10 @@
       </c>
       <c r="M3" s="9"/>
       <c r="N3" s="9" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="O3" s="9" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="P3" s="9"/>
       <c r="Q3" s="15"/>
@@ -1859,26 +1887,27 @@
         <v>0</v>
       </c>
       <c r="Z3" s="9" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AA3" s="10" t="str">
         <f>"abilities/hero/drow/drow_1/"&amp;A3</f>
         <v>abilities/hero/drow/drow_1/drow_1</v>
       </c>
       <c r="AB3" s="10" t="s">
-        <v>48</v>
-      </c>
-      <c r="AC3" s="19"/>
+        <v>49</v>
+      </c>
+      <c r="AC3" s="20"/>
+      <c r="AD3" s="21"/>
     </row>
-    <row r="4" ht="51.5" customHeight="1" spans="1:29">
+    <row r="4" ht="51.5" customHeight="1" spans="1:30">
       <c r="A4" s="8" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C4" s="10" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D4" s="9">
         <v>1</v>
@@ -1899,7 +1928,7 @@
         <v>1</v>
       </c>
       <c r="J4" s="9" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K4" s="9">
         <v>1</v>
@@ -1909,10 +1938,10 @@
       </c>
       <c r="M4" s="9"/>
       <c r="N4" s="9" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="O4" s="9" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="P4" s="13"/>
       <c r="Q4" s="13"/>
@@ -1931,26 +1960,27 @@
         <v>0</v>
       </c>
       <c r="Z4" s="9" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AA4" s="10" t="str">
         <f>"abilities/hero/drow/drow_1/"&amp;A4</f>
         <v>abilities/hero/drow/drow_1/drow_1a</v>
       </c>
       <c r="AB4" s="10" t="s">
-        <v>48</v>
-      </c>
-      <c r="AC4" s="19"/>
+        <v>49</v>
+      </c>
+      <c r="AC4" s="20"/>
+      <c r="AD4" s="22"/>
     </row>
-    <row r="5" ht="51.5" customHeight="1" spans="1:29">
+    <row r="5" ht="51.5" customHeight="1" spans="1:30">
       <c r="A5" s="8" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D5" s="9">
         <v>1</v>
@@ -1971,7 +2001,7 @@
         <v>1</v>
       </c>
       <c r="J5" s="9" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K5" s="9">
         <v>4</v>
@@ -1981,10 +2011,10 @@
       </c>
       <c r="M5" s="9"/>
       <c r="N5" s="9" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="O5" s="9" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="P5" s="9"/>
       <c r="Q5" s="15"/>
@@ -2003,26 +2033,27 @@
         <v>0</v>
       </c>
       <c r="Z5" s="9" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AA5" s="10" t="str">
         <f>"abilities/hero/drow/drow_1/"&amp;A5</f>
         <v>abilities/hero/drow/drow_1/drow_1b</v>
       </c>
       <c r="AB5" s="10" t="s">
-        <v>48</v>
-      </c>
-      <c r="AC5" s="19"/>
+        <v>49</v>
+      </c>
+      <c r="AC5" s="20"/>
+      <c r="AD5" s="22"/>
     </row>
-    <row r="6" ht="51.5" customHeight="1" spans="1:29">
+    <row r="6" ht="51.5" customHeight="1" spans="1:30">
       <c r="A6" s="8" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C6" s="10" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D6" s="9">
         <v>1</v>
@@ -2043,7 +2074,7 @@
         <v>1</v>
       </c>
       <c r="J6" s="9" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="K6" s="9">
         <v>0</v>
@@ -2053,10 +2084,10 @@
       </c>
       <c r="M6" s="9"/>
       <c r="N6" s="9" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="O6" s="9" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="P6" s="9"/>
       <c r="Q6" s="15"/>
@@ -2075,26 +2106,27 @@
         <v>0</v>
       </c>
       <c r="Z6" s="9" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AA6" s="10" t="str">
         <f>"abilities/hero/drow/drow_1/"&amp;A6</f>
         <v>abilities/hero/drow/drow_1/drow_1c</v>
       </c>
       <c r="AB6" s="10" t="s">
-        <v>48</v>
-      </c>
-      <c r="AC6" s="19"/>
+        <v>49</v>
+      </c>
+      <c r="AC6" s="20"/>
+      <c r="AD6" s="22"/>
     </row>
-    <row r="7" ht="51.5" customHeight="1" spans="1:29">
+    <row r="7" ht="51.5" customHeight="1" spans="1:30">
       <c r="A7" s="8" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C7" s="10" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D7" s="9">
         <v>1</v>
@@ -2115,7 +2147,7 @@
         <v>1</v>
       </c>
       <c r="J7" s="9" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="K7" s="9">
         <v>0</v>
@@ -2125,16 +2157,16 @@
       </c>
       <c r="M7" s="9"/>
       <c r="N7" s="9" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="O7" s="9" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="P7" s="9" t="s">
-        <v>64</v>
-      </c>
-      <c r="Q7" s="17" t="s">
         <v>65</v>
+      </c>
+      <c r="Q7" s="15" t="s">
+        <v>66</v>
       </c>
       <c r="R7" s="9"/>
       <c r="S7" s="9"/>
@@ -2151,26 +2183,27 @@
         <v>0</v>
       </c>
       <c r="Z7" s="9" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AA7" s="10" t="str">
         <f t="shared" ref="AA7:AA12" si="0">"abilities/hero/drow/drow_2/"&amp;A7</f>
         <v>abilities/hero/drow/drow_2/drow_2a</v>
       </c>
       <c r="AB7" s="10" t="s">
-        <v>48</v>
-      </c>
-      <c r="AC7" s="19"/>
+        <v>49</v>
+      </c>
+      <c r="AC7" s="20"/>
+      <c r="AD7" s="22"/>
     </row>
-    <row r="8" ht="51.5" customHeight="1" spans="1:29">
+    <row r="8" ht="51.5" customHeight="1" spans="1:30">
       <c r="A8" s="8" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C8" s="10" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D8" s="9">
         <v>1</v>
@@ -2191,7 +2224,7 @@
         <v>1</v>
       </c>
       <c r="J8" s="9" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="K8" s="9">
         <v>0</v>
@@ -2201,16 +2234,16 @@
       </c>
       <c r="M8" s="9"/>
       <c r="N8" s="9" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="O8" s="9" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="P8" s="9" t="s">
-        <v>64</v>
-      </c>
-      <c r="Q8" s="17" t="s">
         <v>65</v>
+      </c>
+      <c r="Q8" s="15" t="s">
+        <v>66</v>
       </c>
       <c r="R8" s="9"/>
       <c r="S8" s="9"/>
@@ -2227,26 +2260,27 @@
         <v>0</v>
       </c>
       <c r="Z8" s="9" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AA8" s="10" t="str">
         <f t="shared" si="0"/>
         <v>abilities/hero/drow/drow_2/drow_2a_a</v>
       </c>
       <c r="AB8" s="10" t="s">
-        <v>48</v>
-      </c>
-      <c r="AC8" s="19"/>
+        <v>49</v>
+      </c>
+      <c r="AC8" s="20"/>
+      <c r="AD8" s="22"/>
     </row>
-    <row r="9" ht="51.5" customHeight="1" spans="1:29">
+    <row r="9" ht="51.5" customHeight="1" spans="1:30">
       <c r="A9" s="8" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D9" s="9">
         <v>1</v>
@@ -2267,7 +2301,7 @@
         <v>1</v>
       </c>
       <c r="J9" s="9" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="K9" s="9">
         <v>0</v>
@@ -2277,16 +2311,16 @@
       </c>
       <c r="M9" s="9"/>
       <c r="N9" s="9" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="O9" s="9" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="P9" s="9" t="s">
-        <v>64</v>
-      </c>
-      <c r="Q9" s="17" t="s">
         <v>65</v>
+      </c>
+      <c r="Q9" s="15" t="s">
+        <v>66</v>
       </c>
       <c r="R9" s="9"/>
       <c r="S9" s="9"/>
@@ -2303,26 +2337,27 @@
         <v>0</v>
       </c>
       <c r="Z9" s="9" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AA9" s="10" t="str">
         <f t="shared" si="0"/>
         <v>abilities/hero/drow/drow_2/drow_2a_b</v>
       </c>
       <c r="AB9" s="10" t="s">
-        <v>48</v>
-      </c>
-      <c r="AC9" s="19"/>
+        <v>49</v>
+      </c>
+      <c r="AC9" s="20"/>
+      <c r="AD9" s="22"/>
     </row>
-    <row r="10" ht="51.5" customHeight="1" spans="1:29">
+    <row r="10" ht="51.5" customHeight="1" spans="1:30">
       <c r="A10" s="8" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B10" s="9" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C10" s="10" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D10" s="9">
         <v>1</v>
@@ -2343,7 +2378,7 @@
         <v>1</v>
       </c>
       <c r="J10" s="9" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="K10" s="9">
         <v>0</v>
@@ -2353,22 +2388,22 @@
       </c>
       <c r="M10" s="9"/>
       <c r="N10" s="9" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="O10" s="9" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="P10" s="9" t="s">
-        <v>78</v>
-      </c>
-      <c r="Q10" s="17" t="s">
         <v>79</v>
       </c>
+      <c r="Q10" s="15" t="s">
+        <v>80</v>
+      </c>
       <c r="R10" s="9" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="S10" s="9" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="T10" s="9"/>
       <c r="U10" s="9"/>
@@ -2383,26 +2418,27 @@
         <v>0</v>
       </c>
       <c r="Z10" s="9" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AA10" s="10" t="str">
         <f t="shared" si="0"/>
         <v>abilities/hero/drow/drow_2/drow_2b</v>
       </c>
       <c r="AB10" s="10" t="s">
-        <v>48</v>
-      </c>
-      <c r="AC10" s="19"/>
+        <v>49</v>
+      </c>
+      <c r="AC10" s="20"/>
+      <c r="AD10" s="22"/>
     </row>
-    <row r="11" ht="51.5" customHeight="1" spans="1:29">
+    <row r="11" ht="51.5" customHeight="1" spans="1:30">
       <c r="A11" s="8" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B11" s="9" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C11" s="10" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D11" s="9">
         <v>1</v>
@@ -2423,7 +2459,7 @@
         <v>1</v>
       </c>
       <c r="J11" s="9" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="K11" s="9">
         <v>0</v>
@@ -2433,22 +2469,22 @@
       </c>
       <c r="M11" s="9"/>
       <c r="N11" s="9" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="O11" s="9" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="P11" s="9" t="s">
-        <v>78</v>
-      </c>
-      <c r="Q11" s="17" t="s">
         <v>79</v>
       </c>
+      <c r="Q11" s="15" t="s">
+        <v>80</v>
+      </c>
       <c r="R11" s="9" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="S11" s="9" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="T11" s="9"/>
       <c r="U11" s="9"/>
@@ -2463,26 +2499,27 @@
         <v>0</v>
       </c>
       <c r="Z11" s="9" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AA11" s="10" t="str">
         <f t="shared" si="0"/>
         <v>abilities/hero/drow/drow_2/drow_2b_a</v>
       </c>
       <c r="AB11" s="10" t="s">
-        <v>48</v>
-      </c>
-      <c r="AC11" s="19"/>
+        <v>49</v>
+      </c>
+      <c r="AC11" s="20"/>
+      <c r="AD11" s="22"/>
     </row>
-    <row r="12" ht="51.5" customHeight="1" spans="1:29">
+    <row r="12" ht="51.5" customHeight="1" spans="1:30">
       <c r="A12" s="8" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B12" s="9" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C12" s="10" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D12" s="9">
         <v>1</v>
@@ -2503,7 +2540,7 @@
         <v>1</v>
       </c>
       <c r="J12" s="9" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="K12" s="9">
         <v>0</v>
@@ -2513,22 +2550,22 @@
       </c>
       <c r="M12" s="9"/>
       <c r="N12" s="9" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="O12" s="9" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="P12" s="9" t="s">
-        <v>78</v>
-      </c>
-      <c r="Q12" s="17" t="s">
         <v>79</v>
       </c>
+      <c r="Q12" s="15" t="s">
+        <v>80</v>
+      </c>
       <c r="R12" s="9" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="S12" s="9" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="T12" s="9"/>
       <c r="U12" s="9"/>
@@ -2543,26 +2580,27 @@
         <v>0</v>
       </c>
       <c r="Z12" s="9" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AA12" s="10" t="str">
         <f t="shared" si="0"/>
         <v>abilities/hero/drow/drow_2/drow_2b_b</v>
       </c>
       <c r="AB12" s="10" t="s">
-        <v>48</v>
-      </c>
-      <c r="AC12" s="19"/>
+        <v>49</v>
+      </c>
+      <c r="AC12" s="20"/>
+      <c r="AD12" s="22"/>
     </row>
-    <row r="13" ht="101" customHeight="1" spans="1:29">
+    <row r="13" ht="101" customHeight="1" spans="1:30">
       <c r="A13" s="8" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C13" s="10" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="D13" s="9">
         <v>1</v>
@@ -2583,7 +2621,7 @@
         <v>1</v>
       </c>
       <c r="J13" s="9" t="s">
-        <v>57</v>
+        <v>90</v>
       </c>
       <c r="K13" s="9">
         <v>0</v>
@@ -2593,16 +2631,16 @@
       </c>
       <c r="M13" s="9"/>
       <c r="N13" s="9" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="O13" s="9" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="P13" s="9" t="s">
-        <v>91</v>
-      </c>
-      <c r="Q13" s="17" t="s">
-        <v>92</v>
+        <v>93</v>
+      </c>
+      <c r="Q13" s="15" t="s">
+        <v>94</v>
       </c>
       <c r="R13" s="9"/>
       <c r="S13" s="9"/>
@@ -2619,26 +2657,27 @@
         <v>0</v>
       </c>
       <c r="Z13" s="9" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AA13" s="10" t="str">
         <f>"abilities/hero/drow/drow_3a/"&amp;A13</f>
         <v>abilities/hero/drow/drow_3a/drow_3a</v>
       </c>
       <c r="AB13" s="10" t="s">
-        <v>48</v>
-      </c>
-      <c r="AC13" s="19"/>
+        <v>49</v>
+      </c>
+      <c r="AC13" s="20"/>
+      <c r="AD13" s="22"/>
     </row>
-    <row r="14" ht="51.5" customHeight="1" spans="1:29">
+    <row r="14" ht="51.5" customHeight="1" spans="1:30">
       <c r="A14" s="8" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B14" s="9" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="C14" s="10" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="D14" s="9">
         <v>1</v>
@@ -2659,7 +2698,7 @@
         <v>1</v>
       </c>
       <c r="J14" s="9" t="s">
-        <v>57</v>
+        <v>90</v>
       </c>
       <c r="K14" s="9">
         <v>0</v>
@@ -2669,16 +2708,16 @@
       </c>
       <c r="M14" s="9"/>
       <c r="N14" s="9" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="O14" s="9" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="P14" s="9" t="s">
-        <v>91</v>
-      </c>
-      <c r="Q14" s="17" t="s">
-        <v>92</v>
+        <v>93</v>
+      </c>
+      <c r="Q14" s="15" t="s">
+        <v>94</v>
       </c>
       <c r="R14" s="9"/>
       <c r="S14" s="9"/>
@@ -2695,26 +2734,27 @@
         <v>0</v>
       </c>
       <c r="Z14" s="9" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AA14" s="10" t="str">
         <f>"abilities/hero/drow/drow_3a/"&amp;A14</f>
         <v>abilities/hero/drow/drow_3a/drow_3a_a</v>
       </c>
       <c r="AB14" s="10" t="s">
-        <v>48</v>
-      </c>
-      <c r="AC14" s="19"/>
+        <v>49</v>
+      </c>
+      <c r="AC14" s="20"/>
+      <c r="AD14" s="22"/>
     </row>
-    <row r="15" ht="51.5" customHeight="1" spans="1:29">
+    <row r="15" ht="51.5" customHeight="1" spans="1:30">
       <c r="A15" s="8" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B15" s="9" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="C15" s="10" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="D15" s="9">
         <v>1</v>
@@ -2735,7 +2775,7 @@
         <v>1</v>
       </c>
       <c r="J15" s="9" t="s">
-        <v>57</v>
+        <v>90</v>
       </c>
       <c r="K15" s="9">
         <v>0</v>
@@ -2745,16 +2785,16 @@
       </c>
       <c r="M15" s="9"/>
       <c r="N15" s="9" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="O15" s="9" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="P15" s="9" t="s">
-        <v>91</v>
-      </c>
-      <c r="Q15" s="17" t="s">
-        <v>92</v>
+        <v>93</v>
+      </c>
+      <c r="Q15" s="15" t="s">
+        <v>94</v>
       </c>
       <c r="R15" s="9"/>
       <c r="S15" s="9"/>
@@ -2771,26 +2811,27 @@
         <v>0</v>
       </c>
       <c r="Z15" s="9" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AA15" s="10" t="str">
         <f>"abilities/hero/drow/drow_3a/"&amp;A15</f>
         <v>abilities/hero/drow/drow_3a/drow_3a_b</v>
       </c>
       <c r="AB15" s="10" t="s">
-        <v>48</v>
-      </c>
-      <c r="AC15" s="19"/>
+        <v>49</v>
+      </c>
+      <c r="AC15" s="20"/>
+      <c r="AD15" s="22"/>
     </row>
-    <row r="16" ht="51.5" customHeight="1" spans="1:29">
+    <row r="16" ht="51.5" customHeight="1" spans="1:30">
       <c r="A16" s="8" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B16" s="9" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="C16" s="10" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="D16" s="9">
         <v>1</v>
@@ -2811,7 +2852,7 @@
         <v>1</v>
       </c>
       <c r="J16" s="9" t="s">
-        <v>57</v>
+        <v>104</v>
       </c>
       <c r="K16" s="9">
         <v>0</v>
@@ -2821,12 +2862,14 @@
       </c>
       <c r="M16" s="9"/>
       <c r="N16" s="9" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="O16" s="9" t="s">
-        <v>103</v>
-      </c>
-      <c r="P16" s="9"/>
+        <v>106</v>
+      </c>
+      <c r="P16" s="9" t="s">
+        <v>107</v>
+      </c>
       <c r="Q16" s="15"/>
       <c r="R16" s="9"/>
       <c r="S16" s="9"/>
@@ -2843,26 +2886,27 @@
         <v>0</v>
       </c>
       <c r="Z16" s="9" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AA16" s="10" t="str">
         <f>"abilities/hero/drow/drow_3b/"&amp;A16</f>
         <v>abilities/hero/drow/drow_3b/drow_3b</v>
       </c>
       <c r="AB16" s="10" t="s">
-        <v>48</v>
-      </c>
-      <c r="AC16" s="19"/>
+        <v>49</v>
+      </c>
+      <c r="AC16" s="20"/>
+      <c r="AD16" s="22"/>
     </row>
-    <row r="17" ht="68" customHeight="1" spans="1:29">
+    <row r="17" ht="68" customHeight="1" spans="1:30">
       <c r="A17" s="8" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="B17" s="9" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="C17" s="10" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="D17" s="9">
         <v>1</v>
@@ -2883,7 +2927,7 @@
         <v>1</v>
       </c>
       <c r="J17" s="9" t="s">
-        <v>57</v>
+        <v>104</v>
       </c>
       <c r="K17" s="9">
         <v>0</v>
@@ -2893,12 +2937,14 @@
       </c>
       <c r="M17" s="9"/>
       <c r="N17" s="9" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="O17" s="9" t="s">
-        <v>103</v>
-      </c>
-      <c r="P17" s="9"/>
+        <v>106</v>
+      </c>
+      <c r="P17" s="9" t="s">
+        <v>107</v>
+      </c>
       <c r="Q17" s="15"/>
       <c r="R17" s="9"/>
       <c r="S17" s="9"/>
@@ -2915,26 +2961,27 @@
         <v>0</v>
       </c>
       <c r="Z17" s="9" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AA17" s="10" t="str">
         <f>"abilities/hero/drow/drow_3b/"&amp;A17</f>
         <v>abilities/hero/drow/drow_3b/drow_3b_a</v>
       </c>
       <c r="AB17" s="10" t="s">
-        <v>48</v>
-      </c>
-      <c r="AC17" s="19"/>
+        <v>49</v>
+      </c>
+      <c r="AC17" s="20"/>
+      <c r="AD17" s="22"/>
     </row>
-    <row r="18" ht="51.5" customHeight="1" spans="1:29">
+    <row r="18" ht="51.5" customHeight="1" spans="1:30">
       <c r="A18" s="8" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="B18" s="9" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="C18" s="10" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="D18" s="9">
         <v>1</v>
@@ -2955,7 +3002,7 @@
         <v>1</v>
       </c>
       <c r="J18" s="9" t="s">
-        <v>57</v>
+        <v>104</v>
       </c>
       <c r="K18" s="9">
         <v>0</v>
@@ -2965,12 +3012,14 @@
       </c>
       <c r="M18" s="9"/>
       <c r="N18" s="9" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="O18" s="9" t="s">
-        <v>103</v>
-      </c>
-      <c r="P18" s="9"/>
+        <v>106</v>
+      </c>
+      <c r="P18" s="9" t="s">
+        <v>107</v>
+      </c>
       <c r="Q18" s="15"/>
       <c r="R18" s="9"/>
       <c r="S18" s="9"/>
@@ -2987,26 +3036,27 @@
         <v>0</v>
       </c>
       <c r="Z18" s="9" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AA18" s="10" t="str">
         <f>"abilities/hero/drow/drow_3b/"&amp;A18</f>
         <v>abilities/hero/drow/drow_3b/drow_3b_b</v>
       </c>
       <c r="AB18" s="10" t="s">
-        <v>48</v>
-      </c>
-      <c r="AC18" s="19"/>
+        <v>49</v>
+      </c>
+      <c r="AC18" s="20"/>
+      <c r="AD18" s="22"/>
     </row>
-    <row r="19" ht="51.5" customHeight="1" spans="1:29">
+    <row r="19" ht="51.5" customHeight="1" spans="1:30">
       <c r="A19" s="8" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="B19" s="9" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="C19" s="10" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="D19" s="9">
         <v>1</v>
@@ -3027,7 +3077,7 @@
         <v>1</v>
       </c>
       <c r="J19" s="9" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="K19" s="9">
         <v>0</v>
@@ -3055,26 +3105,27 @@
         <v>0</v>
       </c>
       <c r="Z19" s="9" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AA19" s="10" t="str">
         <f>"abilities/hero/drow/drow_4a/"&amp;A19</f>
         <v>abilities/hero/drow/drow_4a/drow_4a</v>
       </c>
       <c r="AB19" s="10" t="s">
-        <v>48</v>
-      </c>
-      <c r="AC19" s="19"/>
+        <v>49</v>
+      </c>
+      <c r="AC19" s="20"/>
+      <c r="AD19" s="22"/>
     </row>
-    <row r="20" ht="51.5" customHeight="1" spans="1:29">
+    <row r="20" ht="51.5" customHeight="1" spans="1:30">
       <c r="A20" s="8" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="B20" s="9" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="C20" s="10" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="D20" s="9">
         <v>1</v>
@@ -3095,7 +3146,7 @@
         <v>1</v>
       </c>
       <c r="J20" s="9" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="K20" s="9">
         <v>0</v>
@@ -3123,26 +3174,27 @@
         <v>0</v>
       </c>
       <c r="Z20" s="9" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AA20" s="10" t="str">
         <f>"abilities/hero/drow/drow_4b/"&amp;A20</f>
         <v>abilities/hero/drow/drow_4b/drow_4b</v>
       </c>
       <c r="AB20" s="10" t="s">
-        <v>48</v>
-      </c>
-      <c r="AC20" s="19"/>
+        <v>49</v>
+      </c>
+      <c r="AC20" s="20"/>
+      <c r="AD20" s="22"/>
     </row>
-    <row r="21" ht="51.5" customHeight="1" spans="1:29">
+    <row r="21" ht="51.5" customHeight="1" spans="1:30">
       <c r="A21" s="8" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="B21" s="9" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="C21" s="10" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="D21" s="9">
         <v>1</v>
@@ -3163,7 +3215,7 @@
         <v>1</v>
       </c>
       <c r="J21" s="9" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="K21" s="9">
         <v>0</v>
@@ -3191,26 +3243,27 @@
         <v>0</v>
       </c>
       <c r="Z21" s="9" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AA21" s="10" t="str">
         <f>"abilities/hero/drow/drow_5/"&amp;A21</f>
         <v>abilities/hero/drow/drow_5/drow_5</v>
       </c>
       <c r="AB21" s="10" t="s">
-        <v>48</v>
-      </c>
-      <c r="AC21" s="19"/>
+        <v>49</v>
+      </c>
+      <c r="AC21" s="20"/>
+      <c r="AD21" s="22"/>
     </row>
-    <row r="22" ht="51.5" customHeight="1" spans="1:29">
+    <row r="22" ht="51.5" customHeight="1" spans="1:30">
       <c r="A22" s="8" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="B22" s="9" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="C22" s="10" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="D22" s="9">
         <v>1</v>
@@ -3231,7 +3284,7 @@
         <v>1</v>
       </c>
       <c r="J22" s="9" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="K22" s="9">
         <v>0</v>
@@ -3259,26 +3312,27 @@
         <v>0</v>
       </c>
       <c r="Z22" s="9" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AA22" s="10" t="str">
         <f>"abilities/hero/drow/drow_5/"&amp;A22</f>
         <v>abilities/hero/drow/drow_5/drow_5a</v>
       </c>
       <c r="AB22" s="10" t="s">
-        <v>48</v>
-      </c>
-      <c r="AC22" s="19"/>
+        <v>49</v>
+      </c>
+      <c r="AC22" s="20"/>
+      <c r="AD22" s="22"/>
     </row>
-    <row r="23" ht="51.5" customHeight="1" spans="1:29">
+    <row r="23" ht="51.5" customHeight="1" spans="1:30">
       <c r="A23" s="8" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="B23" s="9" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="C23" s="10" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="D23" s="9">
         <v>1</v>
@@ -3299,7 +3353,7 @@
         <v>1</v>
       </c>
       <c r="J23" s="9" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="K23" s="9">
         <v>0</v>
@@ -3327,26 +3381,27 @@
         <v>0</v>
       </c>
       <c r="Z23" s="9" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AA23" s="10" t="str">
         <f>"abilities/hero/drow/drow_5/"&amp;A23</f>
         <v>abilities/hero/drow/drow_5/drow_5b</v>
       </c>
       <c r="AB23" s="10" t="s">
-        <v>48</v>
-      </c>
-      <c r="AC23" s="19"/>
+        <v>49</v>
+      </c>
+      <c r="AC23" s="20"/>
+      <c r="AD23" s="22"/>
     </row>
-    <row r="24" ht="51.5" customHeight="1" spans="1:29">
+    <row r="24" ht="51.5" customHeight="1" spans="1:30">
       <c r="A24" s="8" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="B24" s="9" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="C24" s="10" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="D24" s="9">
         <v>1</v>
@@ -3367,7 +3422,7 @@
         <v>1</v>
       </c>
       <c r="J24" s="9" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="K24" s="9">
         <v>0</v>
@@ -3395,16 +3450,17 @@
         <v>0</v>
       </c>
       <c r="Z24" s="9" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AA24" s="10" t="str">
         <f>"abilities/hero/drow/drow_5/"&amp;A24</f>
         <v>abilities/hero/drow/drow_5/drow_5c</v>
       </c>
       <c r="AB24" s="10" t="s">
-        <v>48</v>
-      </c>
-      <c r="AC24" s="19"/>
+        <v>49</v>
+      </c>
+      <c r="AC24" s="20"/>
+      <c r="AD24" s="22"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1:A3">

--- a/excels/abilities/hero/drow.xlsx
+++ b/excels/abilities/hero/drow.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="234" uniqueCount="132">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="252" uniqueCount="147">
   <si>
     <t>名字</t>
   </si>
@@ -383,6 +383,15 @@
     <t>立即回复60点蓝量。cd：50/40/30秒,无蓝量消耗。</t>
   </si>
   <si>
+    <t>keeper_of_the_light_chakra_magic</t>
+  </si>
+  <si>
+    <t>recover_mana 60</t>
+  </si>
+  <si>
+    <t>50 40 30</t>
+  </si>
+  <si>
     <t>drow_4b</t>
   </si>
   <si>
@@ -392,6 +401,15 @@
     <t>获得10%/20%/30%移动速度加成，持续6秒。cd：15秒,蓝耗：30</t>
   </si>
   <si>
+    <t>windrunner_windrun</t>
+  </si>
+  <si>
+    <t>move_pct 10 20 30</t>
+  </si>
+  <si>
+    <t>duration 6</t>
+  </si>
+  <si>
     <t>drow_5</t>
   </si>
   <si>
@@ -399,6 +417,15 @@
   </si>
   <si>
     <t>引燃复仇之魂，获得40%伤害加成，持续15秒。cd：40秒,没有蓝耗。</t>
+  </si>
+  <si>
+    <t>phantom_assassin_blur</t>
+  </si>
+  <si>
+    <t>dmg_bonus_pct 40</t>
+  </si>
+  <si>
+    <t>duration 15</t>
   </si>
   <si>
     <t>drow_5a</t>
@@ -411,6 +438,9 @@
 且免疫自身减速效果。</t>
   </si>
   <si>
+    <t>ice_bonus_pct 50</t>
+  </si>
+  <si>
     <t>drow_5b</t>
   </si>
   <si>
@@ -418,6 +448,15 @@
   </si>
   <si>
     <t>复仇获得风元素之力，攻击力提高50%，攻击速度及移动速度提高20%。</t>
+  </si>
+  <si>
+    <t>ad_bonus_pct 50</t>
+  </si>
+  <si>
+    <t>as_bonus_pct 20</t>
+  </si>
+  <si>
+    <t>mv_bonus_pct 20</t>
   </si>
   <si>
     <t>drow_5c</t>
@@ -428,6 +467,12 @@
   <si>
     <t>复仇获得火元素之力，持续期间火元素伤害提高50%，
 且所有技能蓝量消耗降低50%。</t>
+  </si>
+  <si>
+    <t>fire_bonus_pct 50</t>
+  </si>
+  <si>
+    <t>mana_retrench 50</t>
   </si>
 </sst>
 </file>
@@ -1622,10 +1667,10 @@
   <sheetPr/>
   <dimension ref="A1:AD24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <pane xSplit="3" topLeftCell="J1" activePane="topRight" state="frozen"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <pane xSplit="3" topLeftCell="K1" activePane="topRight" state="frozen"/>
       <selection/>
-      <selection pane="topRight" activeCell="J15" sqref="J15"/>
+      <selection pane="topRight" activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -3077,7 +3122,7 @@
         <v>1</v>
       </c>
       <c r="J19" s="9" t="s">
-        <v>58</v>
+        <v>117</v>
       </c>
       <c r="K19" s="9">
         <v>0</v>
@@ -3086,7 +3131,9 @@
         <v>0</v>
       </c>
       <c r="M19" s="9"/>
-      <c r="N19" s="9"/>
+      <c r="N19" s="9" t="s">
+        <v>118</v>
+      </c>
       <c r="O19" s="9"/>
       <c r="P19" s="9"/>
       <c r="Q19" s="15"/>
@@ -3095,8 +3142,8 @@
       <c r="T19" s="9"/>
       <c r="U19" s="9"/>
       <c r="V19" s="9"/>
-      <c r="W19" s="16">
-        <v>0</v>
+      <c r="W19" s="16" t="s">
+        <v>119</v>
       </c>
       <c r="X19" s="16">
         <v>0</v>
@@ -3108,8 +3155,8 @@
         <v>48</v>
       </c>
       <c r="AA19" s="10" t="str">
-        <f>"abilities/hero/drow/drow_4a/"&amp;A19</f>
-        <v>abilities/hero/drow/drow_4a/drow_4a</v>
+        <f>"abilities/hero/drow/drow_4/"&amp;A19</f>
+        <v>abilities/hero/drow/drow_4/drow_4a</v>
       </c>
       <c r="AB19" s="10" t="s">
         <v>49</v>
@@ -3119,13 +3166,13 @@
     </row>
     <row r="20" ht="51.5" customHeight="1" spans="1:30">
       <c r="A20" s="8" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="B20" s="9" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="C20" s="10" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="D20" s="9">
         <v>1</v>
@@ -3146,7 +3193,7 @@
         <v>1</v>
       </c>
       <c r="J20" s="9" t="s">
-        <v>58</v>
+        <v>123</v>
       </c>
       <c r="K20" s="9">
         <v>0</v>
@@ -3155,8 +3202,12 @@
         <v>0</v>
       </c>
       <c r="M20" s="9"/>
-      <c r="N20" s="9"/>
-      <c r="O20" s="9"/>
+      <c r="N20" s="9" t="s">
+        <v>124</v>
+      </c>
+      <c r="O20" s="9" t="s">
+        <v>125</v>
+      </c>
       <c r="P20" s="9"/>
       <c r="Q20" s="15"/>
       <c r="R20" s="9"/>
@@ -3165,10 +3216,10 @@
       <c r="U20" s="9"/>
       <c r="V20" s="9"/>
       <c r="W20" s="16">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="X20" s="16">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="Y20" s="16">
         <v>0</v>
@@ -3177,8 +3228,8 @@
         <v>48</v>
       </c>
       <c r="AA20" s="10" t="str">
-        <f>"abilities/hero/drow/drow_4b/"&amp;A20</f>
-        <v>abilities/hero/drow/drow_4b/drow_4b</v>
+        <f>"abilities/hero/drow/drow_4/"&amp;A20</f>
+        <v>abilities/hero/drow/drow_4/drow_4b</v>
       </c>
       <c r="AB20" s="10" t="s">
         <v>49</v>
@@ -3188,13 +3239,13 @@
     </row>
     <row r="21" ht="51.5" customHeight="1" spans="1:30">
       <c r="A21" s="8" t="s">
-        <v>120</v>
+        <v>126</v>
       </c>
       <c r="B21" s="9" t="s">
-        <v>121</v>
+        <v>127</v>
       </c>
       <c r="C21" s="10" t="s">
-        <v>122</v>
+        <v>128</v>
       </c>
       <c r="D21" s="9">
         <v>1</v>
@@ -3215,7 +3266,7 @@
         <v>1</v>
       </c>
       <c r="J21" s="9" t="s">
-        <v>58</v>
+        <v>129</v>
       </c>
       <c r="K21" s="9">
         <v>0</v>
@@ -3224,8 +3275,12 @@
         <v>0</v>
       </c>
       <c r="M21" s="9"/>
-      <c r="N21" s="9"/>
-      <c r="O21" s="9"/>
+      <c r="N21" s="9" t="s">
+        <v>130</v>
+      </c>
+      <c r="O21" s="9" t="s">
+        <v>131</v>
+      </c>
       <c r="P21" s="9"/>
       <c r="Q21" s="15"/>
       <c r="R21" s="9"/>
@@ -3234,7 +3289,7 @@
       <c r="U21" s="9"/>
       <c r="V21" s="9"/>
       <c r="W21" s="16">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="X21" s="16">
         <v>0</v>
@@ -3257,13 +3312,13 @@
     </row>
     <row r="22" ht="51.5" customHeight="1" spans="1:30">
       <c r="A22" s="8" t="s">
-        <v>123</v>
+        <v>132</v>
       </c>
       <c r="B22" s="9" t="s">
-        <v>124</v>
+        <v>133</v>
       </c>
       <c r="C22" s="10" t="s">
-        <v>125</v>
+        <v>134</v>
       </c>
       <c r="D22" s="9">
         <v>1</v>
@@ -3293,9 +3348,15 @@
         <v>0</v>
       </c>
       <c r="M22" s="9"/>
-      <c r="N22" s="9"/>
-      <c r="O22" s="9"/>
-      <c r="P22" s="9"/>
+      <c r="N22" s="9" t="s">
+        <v>130</v>
+      </c>
+      <c r="O22" s="9" t="s">
+        <v>131</v>
+      </c>
+      <c r="P22" s="9" t="s">
+        <v>135</v>
+      </c>
       <c r="Q22" s="15"/>
       <c r="R22" s="9"/>
       <c r="S22" s="9"/>
@@ -3303,7 +3364,7 @@
       <c r="U22" s="9"/>
       <c r="V22" s="9"/>
       <c r="W22" s="16">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="X22" s="16">
         <v>0</v>
@@ -3326,13 +3387,13 @@
     </row>
     <row r="23" ht="51.5" customHeight="1" spans="1:30">
       <c r="A23" s="8" t="s">
-        <v>126</v>
+        <v>136</v>
       </c>
       <c r="B23" s="9" t="s">
-        <v>127</v>
+        <v>137</v>
       </c>
       <c r="C23" s="10" t="s">
-        <v>128</v>
+        <v>138</v>
       </c>
       <c r="D23" s="9">
         <v>1</v>
@@ -3362,17 +3423,27 @@
         <v>0</v>
       </c>
       <c r="M23" s="9"/>
-      <c r="N23" s="9"/>
-      <c r="O23" s="9"/>
-      <c r="P23" s="9"/>
-      <c r="Q23" s="15"/>
-      <c r="R23" s="9"/>
+      <c r="N23" s="9" t="s">
+        <v>130</v>
+      </c>
+      <c r="O23" s="9" t="s">
+        <v>131</v>
+      </c>
+      <c r="P23" s="9" t="s">
+        <v>139</v>
+      </c>
+      <c r="Q23" s="15" t="s">
+        <v>140</v>
+      </c>
+      <c r="R23" s="9" t="s">
+        <v>141</v>
+      </c>
       <c r="S23" s="9"/>
       <c r="T23" s="9"/>
       <c r="U23" s="9"/>
       <c r="V23" s="9"/>
       <c r="W23" s="16">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="X23" s="16">
         <v>0</v>
@@ -3395,13 +3466,13 @@
     </row>
     <row r="24" ht="51.5" customHeight="1" spans="1:30">
       <c r="A24" s="8" t="s">
-        <v>129</v>
+        <v>142</v>
       </c>
       <c r="B24" s="9" t="s">
-        <v>130</v>
+        <v>143</v>
       </c>
       <c r="C24" s="10" t="s">
-        <v>131</v>
+        <v>144</v>
       </c>
       <c r="D24" s="9">
         <v>1</v>
@@ -3431,17 +3502,25 @@
         <v>0</v>
       </c>
       <c r="M24" s="9"/>
-      <c r="N24" s="9"/>
-      <c r="O24" s="9"/>
-      <c r="P24" s="9"/>
-      <c r="Q24" s="15"/>
+      <c r="N24" s="9" t="s">
+        <v>130</v>
+      </c>
+      <c r="O24" s="9" t="s">
+        <v>131</v>
+      </c>
+      <c r="P24" s="9" t="s">
+        <v>145</v>
+      </c>
+      <c r="Q24" s="15" t="s">
+        <v>146</v>
+      </c>
       <c r="R24" s="9"/>
       <c r="S24" s="9"/>
       <c r="T24" s="9"/>
       <c r="U24" s="9"/>
       <c r="V24" s="9"/>
       <c r="W24" s="16">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="X24" s="16">
         <v>0</v>

--- a/excels/abilities/hero/drow.xlsx
+++ b/excels/abilities/hero/drow.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="252" uniqueCount="147">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="252" uniqueCount="156">
   <si>
     <t>名字</t>
   </si>
@@ -165,7 +165,7 @@
     <t>攻击1名敌人，造成攻击力%base_value%%%的伤害，并回复%give_mana%点能量</t>
   </si>
   <si>
-    <t>clinkz_burning_barrage</t>
+    <t>hero/drow/单体射击</t>
   </si>
   <si>
     <t>base_value 100</t>
@@ -186,7 +186,7 @@
     <t>爆炸箭</t>
   </si>
   <si>
-    <t>clinkz_searing_arrows_immortal</t>
+    <t>hero/drow/爆炸箭</t>
   </si>
   <si>
     <t>drow_1b</t>
@@ -195,7 +195,7 @@
     <t>穿透箭</t>
   </si>
   <si>
-    <t>windrunner_powershot</t>
+    <t>hero/drow/穿透箭</t>
   </si>
   <si>
     <t>drow_1c</t>
@@ -204,7 +204,7 @@
     <t>分裂箭</t>
   </si>
   <si>
-    <t>medusa_split_shot</t>
+    <t>hero/drow/分裂箭2</t>
   </si>
   <si>
     <t>drow_2a</t>
@@ -216,7 +216,7 @@
     <t>快速射出%proj_count%支箭，每支箭造成攻击力%base_value%%%的伤害。</t>
   </si>
   <si>
-    <t>alchemist_corrosive_weaponry</t>
+    <t>hero/drow/连续射击</t>
   </si>
   <si>
     <t>base_value 130 160 190 225 260</t>
@@ -234,19 +234,19 @@
     <t>drow_2a_a</t>
   </si>
   <si>
-    <t>连续射击-连发</t>
-  </si>
-  <si>
-    <t>alchemist_goblins_greed</t>
+    <t>连发</t>
+  </si>
+  <si>
+    <t>hero/drow/连发</t>
   </si>
   <si>
     <t>drow_2a_b</t>
   </si>
   <si>
-    <t>连续射击-穿透</t>
-  </si>
-  <si>
-    <t>alchemist_unstable_concoction</t>
+    <t>穿透</t>
+  </si>
+  <si>
+    <t>hero/drow/穿透</t>
   </si>
   <si>
     <t>drow_2b</t>
@@ -258,7 +258,7 @@
     <t>散射数支箭，造成攻击力%base_value%的伤害。</t>
   </si>
   <si>
-    <t>alpha_wolf_command_aura</t>
+    <t>hero/drow/散射</t>
   </si>
   <si>
     <t>base_value 120 140 160 190 240</t>
@@ -285,12 +285,18 @@
     <t>散射-火力覆盖</t>
   </si>
   <si>
+    <t>hero/drow/火力覆盖</t>
+  </si>
+  <si>
     <t>drow_2b_b</t>
   </si>
   <si>
     <t>散射-双喷</t>
   </si>
   <si>
+    <t>hero/drow/双喷</t>
+  </si>
+  <si>
     <t>drow_3a</t>
   </si>
   <si>
@@ -300,7 +306,7 @@
     <t>召唤一阵风暴环绕自身，每1秒对触碰到风暴的敌人造成攻击力%base_value%的伤害，持续%surround_duration%秒。</t>
   </si>
   <si>
-    <t>wisp_spirits</t>
+    <t>hero/drow/风暴环绕</t>
   </si>
   <si>
     <t>base_value 200 250 300 350 400</t>
@@ -322,6 +328,9 @@
   </si>
   <si>
     <t>风暴环绕伤害频率提高50%/100%</t>
+  </si>
+  <si>
+    <t>hero/drow/疾风</t>
   </si>
   <si>
     <t>drow_3a_b</t>
@@ -334,6 +343,9 @@
 风暴数量增加1/2个。</t>
   </si>
   <si>
+    <t>hero/drow/冰雹</t>
+  </si>
+  <si>
     <t>drow_3b</t>
   </si>
   <si>
@@ -343,7 +355,7 @@
     <t>向空中射出10/12/14/17/20支箭，随机打击范围1000码以内敌人，每支箭制造成攻击力200%的伤害。</t>
   </si>
   <si>
-    <t>mirana/mirana_persona/mirana_starfall</t>
+    <t>hero/drow/箭雨</t>
   </si>
   <si>
     <t>arrow_count 10 12 14 17 20</t>
@@ -365,6 +377,9 @@
 （2级触发灼烧伤害持续时间延长至5秒，伤害增加至攻击力50%。）</t>
   </si>
   <si>
+    <t>hero/drow/燃矢</t>
+  </si>
+  <si>
     <t>drow_3b_b</t>
   </si>
   <si>
@@ -374,6 +389,9 @@
     <t>多支箭矢命中相同敌人时，会额外造成10%的伤害。上限5/7/10层。</t>
   </si>
   <si>
+    <t>hero/drow/集火</t>
+  </si>
+  <si>
     <t>drow_4a</t>
   </si>
   <si>
@@ -383,7 +401,7 @@
     <t>立即回复60点蓝量。cd：50/40/30秒,无蓝量消耗。</t>
   </si>
   <si>
-    <t>keeper_of_the_light_chakra_magic</t>
+    <t>hero/drow/能量回复</t>
   </si>
   <si>
     <t>recover_mana 60</t>
@@ -401,7 +419,7 @@
     <t>获得10%/20%/30%移动速度加成，持续6秒。cd：15秒,蓝耗：30</t>
   </si>
   <si>
-    <t>windrunner_windrun</t>
+    <t>hero/drow/迷踪步</t>
   </si>
   <si>
     <t>move_pct 10 20 30</t>
@@ -419,7 +437,7 @@
     <t>引燃复仇之魂，获得40%伤害加成，持续15秒。cd：40秒,没有蓝耗。</t>
   </si>
   <si>
-    <t>phantom_assassin_blur</t>
+    <t>hero/drow/复仇</t>
   </si>
   <si>
     <t>dmg_bonus_pct 40</t>
@@ -438,6 +456,9 @@
 且免疫自身减速效果。</t>
   </si>
   <si>
+    <t>hero/drow/寒霜</t>
+  </si>
+  <si>
     <t>ice_bonus_pct 50</t>
   </si>
   <si>
@@ -448,6 +469,9 @@
   </si>
   <si>
     <t>复仇获得风元素之力，攻击力提高50%，攻击速度及移动速度提高20%。</t>
+  </si>
+  <si>
+    <t>hero/drow/追风</t>
   </si>
   <si>
     <t>ad_bonus_pct 50</t>
@@ -467,6 +491,9 @@
   <si>
     <t>复仇获得火元素之力，持续期间火元素伤害提高50%，
 且所有技能蓝量消耗降低50%。</t>
+  </si>
+  <si>
+    <t>hero/drow/热烈</t>
   </si>
   <si>
     <t>fire_bonus_pct 50</t>
@@ -1667,10 +1694,10 @@
   <sheetPr/>
   <dimension ref="A1:AD24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <pane xSplit="3" topLeftCell="K1" activePane="topRight" state="frozen"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <pane xSplit="3" topLeftCell="D1" activePane="topRight" state="frozen"/>
       <selection/>
-      <selection pane="topRight" activeCell="C23" sqref="C23"/>
+      <selection pane="topRight" activeCell="J24" sqref="J24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -2504,7 +2531,7 @@
         <v>1</v>
       </c>
       <c r="J11" s="9" t="s">
-        <v>58</v>
+        <v>85</v>
       </c>
       <c r="K11" s="9">
         <v>0</v>
@@ -2558,10 +2585,10 @@
     </row>
     <row r="12" ht="51.5" customHeight="1" spans="1:30">
       <c r="A12" s="8" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B12" s="9" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C12" s="10" t="s">
         <v>75</v>
@@ -2585,7 +2612,7 @@
         <v>1</v>
       </c>
       <c r="J12" s="9" t="s">
-        <v>58</v>
+        <v>88</v>
       </c>
       <c r="K12" s="9">
         <v>0</v>
@@ -2639,13 +2666,13 @@
     </row>
     <row r="13" ht="101" customHeight="1" spans="1:30">
       <c r="A13" s="8" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="C13" s="10" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="D13" s="9">
         <v>1</v>
@@ -2666,7 +2693,7 @@
         <v>1</v>
       </c>
       <c r="J13" s="9" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="K13" s="9">
         <v>0</v>
@@ -2676,16 +2703,16 @@
       </c>
       <c r="M13" s="9"/>
       <c r="N13" s="9" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="O13" s="9" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="P13" s="9" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="Q13" s="15" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="R13" s="9"/>
       <c r="S13" s="9"/>
@@ -2716,13 +2743,13 @@
     </row>
     <row r="14" ht="51.5" customHeight="1" spans="1:30">
       <c r="A14" s="8" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B14" s="9" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="C14" s="10" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="D14" s="9">
         <v>1</v>
@@ -2743,7 +2770,7 @@
         <v>1</v>
       </c>
       <c r="J14" s="9" t="s">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="K14" s="9">
         <v>0</v>
@@ -2753,16 +2780,16 @@
       </c>
       <c r="M14" s="9"/>
       <c r="N14" s="9" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="O14" s="9" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="P14" s="9" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="Q14" s="15" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="R14" s="9"/>
       <c r="S14" s="9"/>
@@ -2793,13 +2820,13 @@
     </row>
     <row r="15" ht="51.5" customHeight="1" spans="1:30">
       <c r="A15" s="8" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="B15" s="9" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="C15" s="10" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="D15" s="9">
         <v>1</v>
@@ -2820,7 +2847,7 @@
         <v>1</v>
       </c>
       <c r="J15" s="9" t="s">
-        <v>90</v>
+        <v>104</v>
       </c>
       <c r="K15" s="9">
         <v>0</v>
@@ -2830,16 +2857,16 @@
       </c>
       <c r="M15" s="9"/>
       <c r="N15" s="9" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="O15" s="9" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="P15" s="9" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="Q15" s="15" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="R15" s="9"/>
       <c r="S15" s="9"/>
@@ -2870,13 +2897,13 @@
     </row>
     <row r="16" ht="51.5" customHeight="1" spans="1:30">
       <c r="A16" s="8" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="B16" s="9" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="C16" s="10" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="D16" s="9">
         <v>1</v>
@@ -2897,7 +2924,7 @@
         <v>1</v>
       </c>
       <c r="J16" s="9" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="K16" s="9">
         <v>0</v>
@@ -2907,13 +2934,13 @@
       </c>
       <c r="M16" s="9"/>
       <c r="N16" s="9" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="O16" s="9" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="P16" s="9" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="Q16" s="15"/>
       <c r="R16" s="9"/>
@@ -2945,13 +2972,13 @@
     </row>
     <row r="17" ht="68" customHeight="1" spans="1:30">
       <c r="A17" s="8" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="B17" s="9" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="C17" s="10" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="D17" s="9">
         <v>1</v>
@@ -2972,7 +2999,7 @@
         <v>1</v>
       </c>
       <c r="J17" s="9" t="s">
-        <v>104</v>
+        <v>115</v>
       </c>
       <c r="K17" s="9">
         <v>0</v>
@@ -2982,13 +3009,13 @@
       </c>
       <c r="M17" s="9"/>
       <c r="N17" s="9" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="O17" s="9" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="P17" s="9" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="Q17" s="15"/>
       <c r="R17" s="9"/>
@@ -3020,13 +3047,13 @@
     </row>
     <row r="18" ht="51.5" customHeight="1" spans="1:30">
       <c r="A18" s="8" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="B18" s="9" t="s">
-        <v>112</v>
+        <v>117</v>
       </c>
       <c r="C18" s="10" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="D18" s="9">
         <v>1</v>
@@ -3047,7 +3074,7 @@
         <v>1</v>
       </c>
       <c r="J18" s="9" t="s">
-        <v>104</v>
+        <v>119</v>
       </c>
       <c r="K18" s="9">
         <v>0</v>
@@ -3057,13 +3084,13 @@
       </c>
       <c r="M18" s="9"/>
       <c r="N18" s="9" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="O18" s="9" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="P18" s="9" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="Q18" s="15"/>
       <c r="R18" s="9"/>
@@ -3095,13 +3122,13 @@
     </row>
     <row r="19" ht="51.5" customHeight="1" spans="1:30">
       <c r="A19" s="8" t="s">
-        <v>114</v>
+        <v>120</v>
       </c>
       <c r="B19" s="9" t="s">
-        <v>115</v>
+        <v>121</v>
       </c>
       <c r="C19" s="10" t="s">
-        <v>116</v>
+        <v>122</v>
       </c>
       <c r="D19" s="9">
         <v>1</v>
@@ -3122,7 +3149,7 @@
         <v>1</v>
       </c>
       <c r="J19" s="9" t="s">
-        <v>117</v>
+        <v>123</v>
       </c>
       <c r="K19" s="9">
         <v>0</v>
@@ -3132,7 +3159,7 @@
       </c>
       <c r="M19" s="9"/>
       <c r="N19" s="9" t="s">
-        <v>118</v>
+        <v>124</v>
       </c>
       <c r="O19" s="9"/>
       <c r="P19" s="9"/>
@@ -3143,7 +3170,7 @@
       <c r="U19" s="9"/>
       <c r="V19" s="9"/>
       <c r="W19" s="16" t="s">
-        <v>119</v>
+        <v>125</v>
       </c>
       <c r="X19" s="16">
         <v>0</v>
@@ -3166,13 +3193,13 @@
     </row>
     <row r="20" ht="51.5" customHeight="1" spans="1:30">
       <c r="A20" s="8" t="s">
-        <v>120</v>
+        <v>126</v>
       </c>
       <c r="B20" s="9" t="s">
-        <v>121</v>
+        <v>127</v>
       </c>
       <c r="C20" s="10" t="s">
-        <v>122</v>
+        <v>128</v>
       </c>
       <c r="D20" s="9">
         <v>1</v>
@@ -3193,7 +3220,7 @@
         <v>1</v>
       </c>
       <c r="J20" s="9" t="s">
-        <v>123</v>
+        <v>129</v>
       </c>
       <c r="K20" s="9">
         <v>0</v>
@@ -3203,10 +3230,10 @@
       </c>
       <c r="M20" s="9"/>
       <c r="N20" s="9" t="s">
-        <v>124</v>
+        <v>130</v>
       </c>
       <c r="O20" s="9" t="s">
-        <v>125</v>
+        <v>131</v>
       </c>
       <c r="P20" s="9"/>
       <c r="Q20" s="15"/>
@@ -3239,13 +3266,13 @@
     </row>
     <row r="21" ht="51.5" customHeight="1" spans="1:30">
       <c r="A21" s="8" t="s">
-        <v>126</v>
+        <v>132</v>
       </c>
       <c r="B21" s="9" t="s">
-        <v>127</v>
+        <v>133</v>
       </c>
       <c r="C21" s="10" t="s">
-        <v>128</v>
+        <v>134</v>
       </c>
       <c r="D21" s="9">
         <v>1</v>
@@ -3266,7 +3293,7 @@
         <v>1</v>
       </c>
       <c r="J21" s="9" t="s">
-        <v>129</v>
+        <v>135</v>
       </c>
       <c r="K21" s="9">
         <v>0</v>
@@ -3276,10 +3303,10 @@
       </c>
       <c r="M21" s="9"/>
       <c r="N21" s="9" t="s">
-        <v>130</v>
+        <v>136</v>
       </c>
       <c r="O21" s="9" t="s">
-        <v>131</v>
+        <v>137</v>
       </c>
       <c r="P21" s="9"/>
       <c r="Q21" s="15"/>
@@ -3312,13 +3339,13 @@
     </row>
     <row r="22" ht="51.5" customHeight="1" spans="1:30">
       <c r="A22" s="8" t="s">
-        <v>132</v>
+        <v>138</v>
       </c>
       <c r="B22" s="9" t="s">
-        <v>133</v>
+        <v>139</v>
       </c>
       <c r="C22" s="10" t="s">
-        <v>134</v>
+        <v>140</v>
       </c>
       <c r="D22" s="9">
         <v>1</v>
@@ -3339,7 +3366,7 @@
         <v>1</v>
       </c>
       <c r="J22" s="9" t="s">
-        <v>58</v>
+        <v>141</v>
       </c>
       <c r="K22" s="9">
         <v>0</v>
@@ -3349,13 +3376,13 @@
       </c>
       <c r="M22" s="9"/>
       <c r="N22" s="9" t="s">
-        <v>130</v>
+        <v>136</v>
       </c>
       <c r="O22" s="9" t="s">
-        <v>131</v>
+        <v>137</v>
       </c>
       <c r="P22" s="9" t="s">
-        <v>135</v>
+        <v>142</v>
       </c>
       <c r="Q22" s="15"/>
       <c r="R22" s="9"/>
@@ -3387,13 +3414,13 @@
     </row>
     <row r="23" ht="51.5" customHeight="1" spans="1:30">
       <c r="A23" s="8" t="s">
-        <v>136</v>
+        <v>143</v>
       </c>
       <c r="B23" s="9" t="s">
-        <v>137</v>
+        <v>144</v>
       </c>
       <c r="C23" s="10" t="s">
-        <v>138</v>
+        <v>145</v>
       </c>
       <c r="D23" s="9">
         <v>1</v>
@@ -3414,7 +3441,7 @@
         <v>1</v>
       </c>
       <c r="J23" s="9" t="s">
-        <v>58</v>
+        <v>146</v>
       </c>
       <c r="K23" s="9">
         <v>0</v>
@@ -3424,19 +3451,19 @@
       </c>
       <c r="M23" s="9"/>
       <c r="N23" s="9" t="s">
-        <v>130</v>
+        <v>136</v>
       </c>
       <c r="O23" s="9" t="s">
-        <v>131</v>
+        <v>137</v>
       </c>
       <c r="P23" s="9" t="s">
-        <v>139</v>
+        <v>147</v>
       </c>
       <c r="Q23" s="15" t="s">
-        <v>140</v>
+        <v>148</v>
       </c>
       <c r="R23" s="9" t="s">
-        <v>141</v>
+        <v>149</v>
       </c>
       <c r="S23" s="9"/>
       <c r="T23" s="9"/>
@@ -3466,13 +3493,13 @@
     </row>
     <row r="24" ht="51.5" customHeight="1" spans="1:30">
       <c r="A24" s="8" t="s">
-        <v>142</v>
+        <v>150</v>
       </c>
       <c r="B24" s="9" t="s">
-        <v>143</v>
+        <v>151</v>
       </c>
       <c r="C24" s="10" t="s">
-        <v>144</v>
+        <v>152</v>
       </c>
       <c r="D24" s="9">
         <v>1</v>
@@ -3493,7 +3520,7 @@
         <v>1</v>
       </c>
       <c r="J24" s="9" t="s">
-        <v>58</v>
+        <v>153</v>
       </c>
       <c r="K24" s="9">
         <v>0</v>
@@ -3503,16 +3530,16 @@
       </c>
       <c r="M24" s="9"/>
       <c r="N24" s="9" t="s">
-        <v>130</v>
+        <v>136</v>
       </c>
       <c r="O24" s="9" t="s">
-        <v>131</v>
+        <v>137</v>
       </c>
       <c r="P24" s="9" t="s">
-        <v>145</v>
+        <v>154</v>
       </c>
       <c r="Q24" s="15" t="s">
-        <v>146</v>
+        <v>155</v>
       </c>
       <c r="R24" s="9"/>
       <c r="S24" s="9"/>

--- a/excels/abilities/hero/drow.xlsx
+++ b/excels/abilities/hero/drow.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="252" uniqueCount="156">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="255" uniqueCount="156">
   <si>
     <t>名字</t>
   </si>
@@ -231,6 +231,9 @@
     <t>proj_speed 1400</t>
   </si>
   <si>
+    <t>proj_width 90</t>
+  </si>
+  <si>
     <t>drow_2a_a</t>
   </si>
   <si>
@@ -271,9 +274,6 @@
   </si>
   <si>
     <t>proj_speed 1800</t>
-  </si>
-  <si>
-    <t>proj_width 90</t>
   </si>
   <si>
     <t>proj_distance 900</t>
@@ -1694,10 +1694,10 @@
   <sheetPr/>
   <dimension ref="A1:AD24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <pane xSplit="3" topLeftCell="D1" activePane="topRight" state="frozen"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <pane xSplit="3" topLeftCell="L1" activePane="topRight" state="frozen"/>
       <selection/>
-      <selection pane="topRight" activeCell="J24" sqref="J24"/>
+      <selection pane="topRight" activeCell="S7" sqref="S7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -2240,7 +2240,9 @@
       <c r="Q7" s="15" t="s">
         <v>66</v>
       </c>
-      <c r="R7" s="9"/>
+      <c r="R7" s="9" t="s">
+        <v>67</v>
+      </c>
       <c r="S7" s="9"/>
       <c r="T7" s="9"/>
       <c r="U7" s="9"/>
@@ -2269,10 +2271,10 @@
     </row>
     <row r="8" ht="51.5" customHeight="1" spans="1:30">
       <c r="A8" s="8" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C8" s="10" t="s">
         <v>61</v>
@@ -2296,7 +2298,7 @@
         <v>1</v>
       </c>
       <c r="J8" s="9" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="K8" s="9">
         <v>0</v>
@@ -2317,7 +2319,9 @@
       <c r="Q8" s="15" t="s">
         <v>66</v>
       </c>
-      <c r="R8" s="9"/>
+      <c r="R8" s="9" t="s">
+        <v>67</v>
+      </c>
       <c r="S8" s="9"/>
       <c r="T8" s="9"/>
       <c r="U8" s="9"/>
@@ -2346,10 +2350,10 @@
     </row>
     <row r="9" ht="51.5" customHeight="1" spans="1:30">
       <c r="A9" s="8" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C9" s="10" t="s">
         <v>61</v>
@@ -2373,7 +2377,7 @@
         <v>1</v>
       </c>
       <c r="J9" s="9" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="K9" s="9">
         <v>0</v>
@@ -2394,7 +2398,9 @@
       <c r="Q9" s="15" t="s">
         <v>66</v>
       </c>
-      <c r="R9" s="9"/>
+      <c r="R9" s="9" t="s">
+        <v>67</v>
+      </c>
       <c r="S9" s="9"/>
       <c r="T9" s="9"/>
       <c r="U9" s="9"/>
@@ -2423,13 +2429,13 @@
     </row>
     <row r="10" ht="51.5" customHeight="1" spans="1:30">
       <c r="A10" s="8" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B10" s="9" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C10" s="10" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D10" s="9">
         <v>1</v>
@@ -2450,7 +2456,7 @@
         <v>1</v>
       </c>
       <c r="J10" s="9" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="K10" s="9">
         <v>0</v>
@@ -2460,19 +2466,19 @@
       </c>
       <c r="M10" s="9"/>
       <c r="N10" s="9" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="O10" s="9" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="P10" s="9" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="Q10" s="15" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="R10" s="9" t="s">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="S10" s="9" t="s">
         <v>82</v>
@@ -2510,7 +2516,7 @@
         <v>84</v>
       </c>
       <c r="C11" s="10" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D11" s="9">
         <v>1</v>
@@ -2541,19 +2547,19 @@
       </c>
       <c r="M11" s="9"/>
       <c r="N11" s="9" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="O11" s="9" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="P11" s="9" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="Q11" s="15" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="R11" s="9" t="s">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="S11" s="9" t="s">
         <v>82</v>
@@ -2591,7 +2597,7 @@
         <v>87</v>
       </c>
       <c r="C12" s="10" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D12" s="9">
         <v>1</v>
@@ -2622,19 +2628,19 @@
       </c>
       <c r="M12" s="9"/>
       <c r="N12" s="9" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="O12" s="9" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="P12" s="9" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="Q12" s="15" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="R12" s="9" t="s">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="S12" s="9" t="s">
         <v>82</v>

--- a/excels/abilities/hero/drow.xlsx
+++ b/excels/abilities/hero/drow.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="255" uniqueCount="156">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="255" uniqueCount="135">
   <si>
     <t>名字</t>
   </si>
@@ -183,27 +183,18 @@
     <t>drow_1a</t>
   </si>
   <si>
-    <t>爆炸箭</t>
-  </si>
-  <si>
     <t>hero/drow/爆炸箭</t>
   </si>
   <si>
     <t>drow_1b</t>
   </si>
   <si>
-    <t>穿透箭</t>
-  </si>
-  <si>
     <t>hero/drow/穿透箭</t>
   </si>
   <si>
     <t>drow_1c</t>
   </si>
   <si>
-    <t>分裂箭</t>
-  </si>
-  <si>
     <t>hero/drow/分裂箭2</t>
   </si>
   <si>
@@ -237,18 +228,12 @@
     <t>drow_2a_a</t>
   </si>
   <si>
-    <t>连发</t>
-  </si>
-  <si>
     <t>hero/drow/连发</t>
   </si>
   <si>
     <t>drow_2a_b</t>
   </si>
   <si>
-    <t>穿透</t>
-  </si>
-  <si>
     <t>hero/drow/穿透</t>
   </si>
   <si>
@@ -282,18 +267,12 @@
     <t>drow_2b_a</t>
   </si>
   <si>
-    <t>散射-火力覆盖</t>
-  </si>
-  <si>
     <t>hero/drow/火力覆盖</t>
   </si>
   <si>
     <t>drow_2b_b</t>
   </si>
   <si>
-    <t>散射-双喷</t>
-  </si>
-  <si>
     <t>hero/drow/双喷</t>
   </si>
   <si>
@@ -303,7 +282,7 @@
     <t>风暴环绕</t>
   </si>
   <si>
-    <t>召唤一阵风暴环绕自身，每1秒对触碰到风暴的敌人造成攻击力%base_value%的伤害，持续%surround_duration%秒。</t>
+    <t>召唤一阵风暴环绕自身，每1秒对触碰到风暴的敌人造成攻击力%base_value%%%的伤害，持续%surround_duration%秒。</t>
   </si>
   <si>
     <t>hero/drow/风暴环绕</t>
@@ -324,35 +303,22 @@
     <t>drow_3a_a</t>
   </si>
   <si>
-    <t>疾风【增益型】</t>
-  </si>
-  <si>
-    <t>风暴环绕伤害频率提高50%/100%</t>
-  </si>
-  <si>
     <t>hero/drow/疾风</t>
   </si>
   <si>
     <t>drow_3a_b</t>
   </si>
   <si>
-    <t>冰雹《冰》</t>
-  </si>
-  <si>
-    <t>风暴环绕技能赋予冰元素效果，伤害变为冰元素伤害。
-风暴数量增加1/2个。</t>
-  </si>
-  <si>
     <t>hero/drow/冰雹</t>
   </si>
   <si>
     <t>drow_3b</t>
   </si>
   <si>
-    <t>箭雨【范围型】</t>
-  </si>
-  <si>
-    <t>向空中射出10/12/14/17/20支箭，随机打击范围1000码以内敌人，每支箭制造成攻击力200%的伤害。</t>
+    <t>箭雨</t>
+  </si>
+  <si>
+    <t>向空中射出%arrow_count%支箭，随机打击范围%radius%码以内敌人，每支箭制造成攻击力%base_value%%%的伤害。</t>
   </si>
   <si>
     <t>hero/drow/箭雨</t>
@@ -370,35 +336,22 @@
     <t>drow_3b_a</t>
   </si>
   <si>
-    <t>燃矢【持续型】《火》</t>
-  </si>
-  <si>
-    <t>箭雨技能赋予火元素效果，伤害变为火元素伤害。
-（2级触发灼烧伤害持续时间延长至5秒，伤害增加至攻击力50%。）</t>
-  </si>
-  <si>
     <t>hero/drow/燃矢</t>
   </si>
   <si>
     <t>drow_3b_b</t>
   </si>
   <si>
-    <t>集火【增益型】</t>
-  </si>
-  <si>
-    <t>多支箭矢命中相同敌人时，会额外造成10%的伤害。上限5/7/10层。</t>
-  </si>
-  <si>
     <t>hero/drow/集火</t>
   </si>
   <si>
     <t>drow_4a</t>
   </si>
   <si>
-    <t>能量回复【增益型】</t>
-  </si>
-  <si>
-    <t>立即回复60点蓝量。cd：50/40/30秒,无蓝量消耗。</t>
+    <t>能量回复</t>
+  </si>
+  <si>
+    <t>立即回复%recover_mana%点蓝量。</t>
   </si>
   <si>
     <t>hero/drow/能量回复</t>
@@ -413,10 +366,10 @@
     <t>drow_4b</t>
   </si>
   <si>
-    <t>迷踪步【持续性】</t>
-  </si>
-  <si>
-    <t>获得10%/20%/30%移动速度加成，持续6秒。cd：15秒,蓝耗：30</t>
+    <t>迷踪步</t>
+  </si>
+  <si>
+    <t>获得%move_pct%%%移动速度加成，持续%duration%秒。</t>
   </si>
   <si>
     <t>hero/drow/迷踪步</t>
@@ -431,10 +384,10 @@
     <t>drow_5</t>
   </si>
   <si>
-    <t>复仇【增益型】</t>
-  </si>
-  <si>
-    <t>引燃复仇之魂，获得40%伤害加成，持续15秒。cd：40秒,没有蓝耗。</t>
+    <t>复仇</t>
+  </si>
+  <si>
+    <t>引燃复仇之魂，获得%dmg_bonus_pct%%%伤害加成，持续%duration%秒。</t>
   </si>
   <si>
     <t>hero/drow/复仇</t>
@@ -449,13 +402,6 @@
     <t>drow_5a</t>
   </si>
   <si>
-    <t>寒霜《冰》</t>
-  </si>
-  <si>
-    <t>复仇获得冰元素之力，持续期间冰元素伤害提高50%，
-且免疫自身减速效果。</t>
-  </si>
-  <si>
     <t>hero/drow/寒霜</t>
   </si>
   <si>
@@ -465,12 +411,6 @@
     <t>drow_5b</t>
   </si>
   <si>
-    <t>追风《风》</t>
-  </si>
-  <si>
-    <t>复仇获得风元素之力，攻击力提高50%，攻击速度及移动速度提高20%。</t>
-  </si>
-  <si>
     <t>hero/drow/追风</t>
   </si>
   <si>
@@ -484,13 +424,6 @@
   </si>
   <si>
     <t>drow_5c</t>
-  </si>
-  <si>
-    <t>热烈《火》</t>
-  </si>
-  <si>
-    <t>复仇获得火元素之力，持续期间火元素伤害提高50%，
-且所有技能蓝量消耗降低50%。</t>
   </si>
   <si>
     <t>hero/drow/热烈</t>
@@ -1694,10 +1627,10 @@
   <sheetPr/>
   <dimension ref="A1:AD24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <pane xSplit="3" topLeftCell="L1" activePane="topRight" state="frozen"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <pane xSplit="3" topLeftCell="D1" activePane="topRight" state="frozen"/>
       <selection/>
-      <selection pane="topRight" activeCell="S7" sqref="S7"/>
+      <selection pane="topRight" activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1976,7 +1909,7 @@
         <v>50</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="C4" s="10" t="s">
         <v>44</v>
@@ -2000,7 +1933,7 @@
         <v>1</v>
       </c>
       <c r="J4" s="9" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K4" s="9">
         <v>1</v>
@@ -2046,10 +1979,10 @@
     </row>
     <row r="5" ht="51.5" customHeight="1" spans="1:30">
       <c r="A5" s="8" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="C5" s="10" t="s">
         <v>44</v>
@@ -2073,7 +2006,7 @@
         <v>1</v>
       </c>
       <c r="J5" s="9" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="K5" s="9">
         <v>4</v>
@@ -2119,10 +2052,10 @@
     </row>
     <row r="6" ht="51.5" customHeight="1" spans="1:30">
       <c r="A6" s="8" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>57</v>
+        <v>43</v>
       </c>
       <c r="C6" s="10" t="s">
         <v>44</v>
@@ -2146,7 +2079,7 @@
         <v>1</v>
       </c>
       <c r="J6" s="9" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="K6" s="9">
         <v>0</v>
@@ -2192,13 +2125,13 @@
     </row>
     <row r="7" ht="51.5" customHeight="1" spans="1:30">
       <c r="A7" s="8" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="C7" s="10" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="D7" s="9">
         <v>1</v>
@@ -2219,7 +2152,7 @@
         <v>1</v>
       </c>
       <c r="J7" s="9" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="K7" s="9">
         <v>0</v>
@@ -2229,19 +2162,19 @@
       </c>
       <c r="M7" s="9"/>
       <c r="N7" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="O7" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="P7" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="Q7" s="15" t="s">
         <v>63</v>
       </c>
-      <c r="O7" s="9" t="s">
+      <c r="R7" s="9" t="s">
         <v>64</v>
-      </c>
-      <c r="P7" s="9" t="s">
-        <v>65</v>
-      </c>
-      <c r="Q7" s="15" t="s">
-        <v>66</v>
-      </c>
-      <c r="R7" s="9" t="s">
-        <v>67</v>
       </c>
       <c r="S7" s="9"/>
       <c r="T7" s="9"/>
@@ -2271,13 +2204,13 @@
     </row>
     <row r="8" ht="51.5" customHeight="1" spans="1:30">
       <c r="A8" s="8" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>69</v>
+        <v>57</v>
       </c>
       <c r="C8" s="10" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="D8" s="9">
         <v>1</v>
@@ -2298,7 +2231,7 @@
         <v>1</v>
       </c>
       <c r="J8" s="9" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="K8" s="9">
         <v>0</v>
@@ -2308,19 +2241,19 @@
       </c>
       <c r="M8" s="9"/>
       <c r="N8" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="O8" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="P8" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="Q8" s="15" t="s">
         <v>63</v>
       </c>
-      <c r="O8" s="9" t="s">
+      <c r="R8" s="9" t="s">
         <v>64</v>
-      </c>
-      <c r="P8" s="9" t="s">
-        <v>65</v>
-      </c>
-      <c r="Q8" s="15" t="s">
-        <v>66</v>
-      </c>
-      <c r="R8" s="9" t="s">
-        <v>67</v>
       </c>
       <c r="S8" s="9"/>
       <c r="T8" s="9"/>
@@ -2350,13 +2283,13 @@
     </row>
     <row r="9" ht="51.5" customHeight="1" spans="1:30">
       <c r="A9" s="8" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>72</v>
+        <v>57</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="D9" s="9">
         <v>1</v>
@@ -2377,7 +2310,7 @@
         <v>1</v>
       </c>
       <c r="J9" s="9" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="K9" s="9">
         <v>0</v>
@@ -2387,19 +2320,19 @@
       </c>
       <c r="M9" s="9"/>
       <c r="N9" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="O9" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="P9" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="Q9" s="15" t="s">
         <v>63</v>
       </c>
-      <c r="O9" s="9" t="s">
+      <c r="R9" s="9" t="s">
         <v>64</v>
-      </c>
-      <c r="P9" s="9" t="s">
-        <v>65</v>
-      </c>
-      <c r="Q9" s="15" t="s">
-        <v>66</v>
-      </c>
-      <c r="R9" s="9" t="s">
-        <v>67</v>
       </c>
       <c r="S9" s="9"/>
       <c r="T9" s="9"/>
@@ -2429,13 +2362,13 @@
     </row>
     <row r="10" ht="51.5" customHeight="1" spans="1:30">
       <c r="A10" s="8" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="B10" s="9" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="C10" s="10" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="D10" s="9">
         <v>1</v>
@@ -2456,7 +2389,7 @@
         <v>1</v>
       </c>
       <c r="J10" s="9" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="K10" s="9">
         <v>0</v>
@@ -2466,22 +2399,22 @@
       </c>
       <c r="M10" s="9"/>
       <c r="N10" s="9" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="O10" s="9" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="P10" s="9" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="Q10" s="15" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="R10" s="9" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="S10" s="9" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="T10" s="9"/>
       <c r="U10" s="9"/>
@@ -2510,13 +2443,13 @@
     </row>
     <row r="11" ht="51.5" customHeight="1" spans="1:30">
       <c r="A11" s="8" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="B11" s="9" t="s">
-        <v>84</v>
+        <v>70</v>
       </c>
       <c r="C11" s="10" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="D11" s="9">
         <v>1</v>
@@ -2537,7 +2470,7 @@
         <v>1</v>
       </c>
       <c r="J11" s="9" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="K11" s="9">
         <v>0</v>
@@ -2547,22 +2480,22 @@
       </c>
       <c r="M11" s="9"/>
       <c r="N11" s="9" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="O11" s="9" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="P11" s="9" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="Q11" s="15" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="R11" s="9" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="S11" s="9" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="T11" s="9"/>
       <c r="U11" s="9"/>
@@ -2591,13 +2524,13 @@
     </row>
     <row r="12" ht="51.5" customHeight="1" spans="1:30">
       <c r="A12" s="8" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="B12" s="9" t="s">
-        <v>87</v>
+        <v>70</v>
       </c>
       <c r="C12" s="10" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="D12" s="9">
         <v>1</v>
@@ -2618,7 +2551,7 @@
         <v>1</v>
       </c>
       <c r="J12" s="9" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="K12" s="9">
         <v>0</v>
@@ -2628,22 +2561,22 @@
       </c>
       <c r="M12" s="9"/>
       <c r="N12" s="9" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="O12" s="9" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="P12" s="9" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="Q12" s="15" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="R12" s="9" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="S12" s="9" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="T12" s="9"/>
       <c r="U12" s="9"/>
@@ -2672,13 +2605,13 @@
     </row>
     <row r="13" ht="101" customHeight="1" spans="1:30">
       <c r="A13" s="8" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
       <c r="C13" s="10" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
       <c r="D13" s="9">
         <v>1</v>
@@ -2699,7 +2632,7 @@
         <v>1</v>
       </c>
       <c r="J13" s="9" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="K13" s="9">
         <v>0</v>
@@ -2709,16 +2642,16 @@
       </c>
       <c r="M13" s="9"/>
       <c r="N13" s="9" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="O13" s="9" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="P13" s="9" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
       <c r="Q13" s="15" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="R13" s="9"/>
       <c r="S13" s="9"/>
@@ -2747,15 +2680,15 @@
       <c r="AC13" s="20"/>
       <c r="AD13" s="22"/>
     </row>
-    <row r="14" ht="51.5" customHeight="1" spans="1:30">
+    <row r="14" ht="66" spans="1:30">
       <c r="A14" s="8" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
       <c r="B14" s="9" t="s">
-        <v>98</v>
+        <v>83</v>
       </c>
       <c r="C14" s="10" t="s">
-        <v>99</v>
+        <v>84</v>
       </c>
       <c r="D14" s="9">
         <v>1</v>
@@ -2776,7 +2709,7 @@
         <v>1</v>
       </c>
       <c r="J14" s="9" t="s">
-        <v>100</v>
+        <v>91</v>
       </c>
       <c r="K14" s="9">
         <v>0</v>
@@ -2786,16 +2719,16 @@
       </c>
       <c r="M14" s="9"/>
       <c r="N14" s="9" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="O14" s="9" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="P14" s="9" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
       <c r="Q14" s="15" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="R14" s="9"/>
       <c r="S14" s="9"/>
@@ -2824,15 +2757,15 @@
       <c r="AC14" s="20"/>
       <c r="AD14" s="22"/>
     </row>
-    <row r="15" ht="51.5" customHeight="1" spans="1:30">
+    <row r="15" ht="66" spans="1:30">
       <c r="A15" s="8" t="s">
-        <v>101</v>
+        <v>92</v>
       </c>
       <c r="B15" s="9" t="s">
-        <v>102</v>
+        <v>83</v>
       </c>
       <c r="C15" s="10" t="s">
-        <v>103</v>
+        <v>84</v>
       </c>
       <c r="D15" s="9">
         <v>1</v>
@@ -2853,7 +2786,7 @@
         <v>1</v>
       </c>
       <c r="J15" s="9" t="s">
-        <v>104</v>
+        <v>93</v>
       </c>
       <c r="K15" s="9">
         <v>0</v>
@@ -2863,16 +2796,16 @@
       </c>
       <c r="M15" s="9"/>
       <c r="N15" s="9" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="O15" s="9" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="P15" s="9" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
       <c r="Q15" s="15" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="R15" s="9"/>
       <c r="S15" s="9"/>
@@ -2903,13 +2836,13 @@
     </row>
     <row r="16" ht="51.5" customHeight="1" spans="1:30">
       <c r="A16" s="8" t="s">
-        <v>105</v>
+        <v>94</v>
       </c>
       <c r="B16" s="9" t="s">
-        <v>106</v>
+        <v>95</v>
       </c>
       <c r="C16" s="10" t="s">
-        <v>107</v>
+        <v>96</v>
       </c>
       <c r="D16" s="9">
         <v>1</v>
@@ -2930,7 +2863,7 @@
         <v>1</v>
       </c>
       <c r="J16" s="9" t="s">
-        <v>108</v>
+        <v>97</v>
       </c>
       <c r="K16" s="9">
         <v>0</v>
@@ -2940,13 +2873,13 @@
       </c>
       <c r="M16" s="9"/>
       <c r="N16" s="9" t="s">
-        <v>109</v>
+        <v>98</v>
       </c>
       <c r="O16" s="9" t="s">
-        <v>110</v>
+        <v>99</v>
       </c>
       <c r="P16" s="9" t="s">
-        <v>111</v>
+        <v>100</v>
       </c>
       <c r="Q16" s="15"/>
       <c r="R16" s="9"/>
@@ -2978,13 +2911,13 @@
     </row>
     <row r="17" ht="68" customHeight="1" spans="1:30">
       <c r="A17" s="8" t="s">
-        <v>112</v>
+        <v>101</v>
       </c>
       <c r="B17" s="9" t="s">
-        <v>113</v>
+        <v>95</v>
       </c>
       <c r="C17" s="10" t="s">
-        <v>114</v>
+        <v>96</v>
       </c>
       <c r="D17" s="9">
         <v>1</v>
@@ -3005,7 +2938,7 @@
         <v>1</v>
       </c>
       <c r="J17" s="9" t="s">
-        <v>115</v>
+        <v>102</v>
       </c>
       <c r="K17" s="9">
         <v>0</v>
@@ -3015,13 +2948,13 @@
       </c>
       <c r="M17" s="9"/>
       <c r="N17" s="9" t="s">
-        <v>109</v>
+        <v>98</v>
       </c>
       <c r="O17" s="9" t="s">
-        <v>110</v>
+        <v>99</v>
       </c>
       <c r="P17" s="9" t="s">
-        <v>111</v>
+        <v>100</v>
       </c>
       <c r="Q17" s="15"/>
       <c r="R17" s="9"/>
@@ -3053,13 +2986,13 @@
     </row>
     <row r="18" ht="51.5" customHeight="1" spans="1:30">
       <c r="A18" s="8" t="s">
-        <v>116</v>
+        <v>103</v>
       </c>
       <c r="B18" s="9" t="s">
-        <v>117</v>
+        <v>95</v>
       </c>
       <c r="C18" s="10" t="s">
-        <v>118</v>
+        <v>96</v>
       </c>
       <c r="D18" s="9">
         <v>1</v>
@@ -3080,7 +3013,7 @@
         <v>1</v>
       </c>
       <c r="J18" s="9" t="s">
-        <v>119</v>
+        <v>104</v>
       </c>
       <c r="K18" s="9">
         <v>0</v>
@@ -3090,13 +3023,13 @@
       </c>
       <c r="M18" s="9"/>
       <c r="N18" s="9" t="s">
-        <v>109</v>
+        <v>98</v>
       </c>
       <c r="O18" s="9" t="s">
-        <v>110</v>
+        <v>99</v>
       </c>
       <c r="P18" s="9" t="s">
-        <v>111</v>
+        <v>100</v>
       </c>
       <c r="Q18" s="15"/>
       <c r="R18" s="9"/>
@@ -3128,13 +3061,13 @@
     </row>
     <row r="19" ht="51.5" customHeight="1" spans="1:30">
       <c r="A19" s="8" t="s">
-        <v>120</v>
+        <v>105</v>
       </c>
       <c r="B19" s="9" t="s">
-        <v>121</v>
+        <v>106</v>
       </c>
       <c r="C19" s="10" t="s">
-        <v>122</v>
+        <v>107</v>
       </c>
       <c r="D19" s="9">
         <v>1</v>
@@ -3155,7 +3088,7 @@
         <v>1</v>
       </c>
       <c r="J19" s="9" t="s">
-        <v>123</v>
+        <v>108</v>
       </c>
       <c r="K19" s="9">
         <v>0</v>
@@ -3165,7 +3098,7 @@
       </c>
       <c r="M19" s="9"/>
       <c r="N19" s="9" t="s">
-        <v>124</v>
+        <v>109</v>
       </c>
       <c r="O19" s="9"/>
       <c r="P19" s="9"/>
@@ -3176,7 +3109,7 @@
       <c r="U19" s="9"/>
       <c r="V19" s="9"/>
       <c r="W19" s="16" t="s">
-        <v>125</v>
+        <v>110</v>
       </c>
       <c r="X19" s="16">
         <v>0</v>
@@ -3199,13 +3132,13 @@
     </row>
     <row r="20" ht="51.5" customHeight="1" spans="1:30">
       <c r="A20" s="8" t="s">
-        <v>126</v>
+        <v>111</v>
       </c>
       <c r="B20" s="9" t="s">
-        <v>127</v>
+        <v>112</v>
       </c>
       <c r="C20" s="10" t="s">
-        <v>128</v>
+        <v>113</v>
       </c>
       <c r="D20" s="9">
         <v>1</v>
@@ -3226,7 +3159,7 @@
         <v>1</v>
       </c>
       <c r="J20" s="9" t="s">
-        <v>129</v>
+        <v>114</v>
       </c>
       <c r="K20" s="9">
         <v>0</v>
@@ -3236,10 +3169,10 @@
       </c>
       <c r="M20" s="9"/>
       <c r="N20" s="9" t="s">
-        <v>130</v>
+        <v>115</v>
       </c>
       <c r="O20" s="9" t="s">
-        <v>131</v>
+        <v>116</v>
       </c>
       <c r="P20" s="9"/>
       <c r="Q20" s="15"/>
@@ -3272,13 +3205,13 @@
     </row>
     <row r="21" ht="51.5" customHeight="1" spans="1:30">
       <c r="A21" s="8" t="s">
-        <v>132</v>
+        <v>117</v>
       </c>
       <c r="B21" s="9" t="s">
-        <v>133</v>
+        <v>118</v>
       </c>
       <c r="C21" s="10" t="s">
-        <v>134</v>
+        <v>119</v>
       </c>
       <c r="D21" s="9">
         <v>1</v>
@@ -3299,7 +3232,7 @@
         <v>1</v>
       </c>
       <c r="J21" s="9" t="s">
-        <v>135</v>
+        <v>120</v>
       </c>
       <c r="K21" s="9">
         <v>0</v>
@@ -3309,10 +3242,10 @@
       </c>
       <c r="M21" s="9"/>
       <c r="N21" s="9" t="s">
-        <v>136</v>
+        <v>121</v>
       </c>
       <c r="O21" s="9" t="s">
-        <v>137</v>
+        <v>122</v>
       </c>
       <c r="P21" s="9"/>
       <c r="Q21" s="15"/>
@@ -3345,13 +3278,13 @@
     </row>
     <row r="22" ht="51.5" customHeight="1" spans="1:30">
       <c r="A22" s="8" t="s">
-        <v>138</v>
+        <v>123</v>
       </c>
       <c r="B22" s="9" t="s">
-        <v>139</v>
+        <v>118</v>
       </c>
       <c r="C22" s="10" t="s">
-        <v>140</v>
+        <v>119</v>
       </c>
       <c r="D22" s="9">
         <v>1</v>
@@ -3372,7 +3305,7 @@
         <v>1</v>
       </c>
       <c r="J22" s="9" t="s">
-        <v>141</v>
+        <v>124</v>
       </c>
       <c r="K22" s="9">
         <v>0</v>
@@ -3382,13 +3315,13 @@
       </c>
       <c r="M22" s="9"/>
       <c r="N22" s="9" t="s">
-        <v>136</v>
+        <v>121</v>
       </c>
       <c r="O22" s="9" t="s">
-        <v>137</v>
+        <v>122</v>
       </c>
       <c r="P22" s="9" t="s">
-        <v>142</v>
+        <v>125</v>
       </c>
       <c r="Q22" s="15"/>
       <c r="R22" s="9"/>
@@ -3420,13 +3353,13 @@
     </row>
     <row r="23" ht="51.5" customHeight="1" spans="1:30">
       <c r="A23" s="8" t="s">
-        <v>143</v>
+        <v>126</v>
       </c>
       <c r="B23" s="9" t="s">
-        <v>144</v>
+        <v>118</v>
       </c>
       <c r="C23" s="10" t="s">
-        <v>145</v>
+        <v>119</v>
       </c>
       <c r="D23" s="9">
         <v>1</v>
@@ -3447,7 +3380,7 @@
         <v>1</v>
       </c>
       <c r="J23" s="9" t="s">
-        <v>146</v>
+        <v>127</v>
       </c>
       <c r="K23" s="9">
         <v>0</v>
@@ -3457,19 +3390,19 @@
       </c>
       <c r="M23" s="9"/>
       <c r="N23" s="9" t="s">
-        <v>136</v>
+        <v>121</v>
       </c>
       <c r="O23" s="9" t="s">
-        <v>137</v>
+        <v>122</v>
       </c>
       <c r="P23" s="9" t="s">
-        <v>147</v>
+        <v>128</v>
       </c>
       <c r="Q23" s="15" t="s">
-        <v>148</v>
+        <v>129</v>
       </c>
       <c r="R23" s="9" t="s">
-        <v>149</v>
+        <v>130</v>
       </c>
       <c r="S23" s="9"/>
       <c r="T23" s="9"/>
@@ -3499,13 +3432,13 @@
     </row>
     <row r="24" ht="51.5" customHeight="1" spans="1:30">
       <c r="A24" s="8" t="s">
-        <v>150</v>
+        <v>131</v>
       </c>
       <c r="B24" s="9" t="s">
-        <v>151</v>
+        <v>118</v>
       </c>
       <c r="C24" s="10" t="s">
-        <v>152</v>
+        <v>119</v>
       </c>
       <c r="D24" s="9">
         <v>1</v>
@@ -3526,7 +3459,7 @@
         <v>1</v>
       </c>
       <c r="J24" s="9" t="s">
-        <v>153</v>
+        <v>132</v>
       </c>
       <c r="K24" s="9">
         <v>0</v>
@@ -3536,16 +3469,16 @@
       </c>
       <c r="M24" s="9"/>
       <c r="N24" s="9" t="s">
-        <v>136</v>
+        <v>121</v>
       </c>
       <c r="O24" s="9" t="s">
-        <v>137</v>
+        <v>122</v>
       </c>
       <c r="P24" s="9" t="s">
-        <v>154</v>
+        <v>133</v>
       </c>
       <c r="Q24" s="15" t="s">
-        <v>155</v>
+        <v>134</v>
       </c>
       <c r="R24" s="9"/>
       <c r="S24" s="9"/>

--- a/excels/abilities/hero/drow.xlsx
+++ b/excels/abilities/hero/drow.xlsx
@@ -243,7 +243,7 @@
     <t>散射</t>
   </si>
   <si>
-    <t>散射数支箭，造成攻击力%base_value%的伤害。</t>
+    <t>散射数支箭，造成攻击力%base_value%%%的伤害。</t>
   </si>
   <si>
     <t>hero/drow/散射</t>
@@ -1627,10 +1627,10 @@
   <sheetPr/>
   <dimension ref="A1:AD24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
       <pane xSplit="3" topLeftCell="D1" activePane="topRight" state="frozen"/>
       <selection/>
-      <selection pane="topRight" activeCell="G11" sqref="G11"/>
+      <selection pane="topRight" activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>

--- a/excels/abilities/hero/drow.xlsx
+++ b/excels/abilities/hero/drow.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="255" uniqueCount="135">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="123">
   <si>
     <t>名字</t>
   </si>
@@ -397,42 +397,6 @@
   </si>
   <si>
     <t>duration 15</t>
-  </si>
-  <si>
-    <t>drow_5a</t>
-  </si>
-  <si>
-    <t>hero/drow/寒霜</t>
-  </si>
-  <si>
-    <t>ice_bonus_pct 50</t>
-  </si>
-  <si>
-    <t>drow_5b</t>
-  </si>
-  <si>
-    <t>hero/drow/追风</t>
-  </si>
-  <si>
-    <t>ad_bonus_pct 50</t>
-  </si>
-  <si>
-    <t>as_bonus_pct 20</t>
-  </si>
-  <si>
-    <t>mv_bonus_pct 20</t>
-  </si>
-  <si>
-    <t>drow_5c</t>
-  </si>
-  <si>
-    <t>hero/drow/热烈</t>
-  </si>
-  <si>
-    <t>fire_bonus_pct 50</t>
-  </si>
-  <si>
-    <t>mana_retrench 50</t>
   </si>
 </sst>
 </file>
@@ -1627,10 +1591,10 @@
   <sheetPr/>
   <dimension ref="A1:AD24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
       <pane xSplit="3" topLeftCell="D1" activePane="topRight" state="frozen"/>
       <selection/>
-      <selection pane="topRight" activeCell="D11" sqref="D11"/>
+      <selection pane="topRight" activeCell="G24" sqref="G24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -3277,233 +3241,98 @@
       <c r="AD21" s="22"/>
     </row>
     <row r="22" ht="51.5" customHeight="1" spans="1:30">
-      <c r="A22" s="8" t="s">
-        <v>123</v>
-      </c>
-      <c r="B22" s="9" t="s">
-        <v>118</v>
-      </c>
-      <c r="C22" s="10" t="s">
-        <v>119</v>
-      </c>
-      <c r="D22" s="9">
-        <v>1</v>
-      </c>
-      <c r="E22" s="9">
-        <v>5</v>
-      </c>
-      <c r="F22" s="9">
-        <v>0</v>
-      </c>
-      <c r="G22" s="9">
-        <v>0</v>
-      </c>
-      <c r="H22" s="9">
-        <v>1</v>
-      </c>
-      <c r="I22" s="9">
-        <v>1</v>
-      </c>
-      <c r="J22" s="9" t="s">
-        <v>124</v>
-      </c>
-      <c r="K22" s="9">
-        <v>0</v>
-      </c>
-      <c r="L22" s="9">
-        <v>0</v>
-      </c>
+      <c r="A22" s="8"/>
+      <c r="B22" s="9"/>
+      <c r="C22" s="10"/>
+      <c r="D22" s="9"/>
+      <c r="E22" s="9"/>
+      <c r="F22" s="9"/>
+      <c r="G22" s="9"/>
+      <c r="H22" s="9"/>
+      <c r="I22" s="9"/>
+      <c r="J22" s="9"/>
+      <c r="K22" s="9"/>
+      <c r="L22" s="9"/>
       <c r="M22" s="9"/>
-      <c r="N22" s="9" t="s">
-        <v>121</v>
-      </c>
-      <c r="O22" s="9" t="s">
-        <v>122</v>
-      </c>
-      <c r="P22" s="9" t="s">
-        <v>125</v>
-      </c>
+      <c r="N22" s="9"/>
+      <c r="O22" s="9"/>
+      <c r="P22" s="9"/>
       <c r="Q22" s="15"/>
       <c r="R22" s="9"/>
       <c r="S22" s="9"/>
       <c r="T22" s="9"/>
       <c r="U22" s="9"/>
       <c r="V22" s="9"/>
-      <c r="W22" s="16">
-        <v>40</v>
-      </c>
-      <c r="X22" s="16">
-        <v>0</v>
-      </c>
-      <c r="Y22" s="16">
-        <v>0</v>
-      </c>
-      <c r="Z22" s="9" t="s">
-        <v>48</v>
-      </c>
-      <c r="AA22" s="10" t="str">
-        <f>"abilities/hero/drow/drow_5/"&amp;A22</f>
-        <v>abilities/hero/drow/drow_5/drow_5a</v>
-      </c>
-      <c r="AB22" s="10" t="s">
-        <v>49</v>
-      </c>
+      <c r="W22" s="16"/>
+      <c r="X22" s="16"/>
+      <c r="Y22" s="16"/>
+      <c r="Z22" s="9"/>
+      <c r="AA22" s="10"/>
+      <c r="AB22" s="10"/>
       <c r="AC22" s="20"/>
       <c r="AD22" s="22"/>
     </row>
     <row r="23" ht="51.5" customHeight="1" spans="1:30">
-      <c r="A23" s="8" t="s">
-        <v>126</v>
-      </c>
-      <c r="B23" s="9" t="s">
-        <v>118</v>
-      </c>
-      <c r="C23" s="10" t="s">
-        <v>119</v>
-      </c>
-      <c r="D23" s="9">
-        <v>1</v>
-      </c>
-      <c r="E23" s="9">
-        <v>5</v>
-      </c>
-      <c r="F23" s="9">
-        <v>0</v>
-      </c>
-      <c r="G23" s="9">
-        <v>0</v>
-      </c>
-      <c r="H23" s="9">
-        <v>1</v>
-      </c>
-      <c r="I23" s="9">
-        <v>1</v>
-      </c>
-      <c r="J23" s="9" t="s">
-        <v>127</v>
-      </c>
-      <c r="K23" s="9">
-        <v>0</v>
-      </c>
-      <c r="L23" s="9">
-        <v>0</v>
-      </c>
+      <c r="A23" s="8"/>
+      <c r="B23" s="9"/>
+      <c r="C23" s="10"/>
+      <c r="D23" s="9"/>
+      <c r="E23" s="9"/>
+      <c r="F23" s="9"/>
+      <c r="G23" s="9"/>
+      <c r="H23" s="9"/>
+      <c r="I23" s="9"/>
+      <c r="J23" s="9"/>
+      <c r="K23" s="9"/>
+      <c r="L23" s="9"/>
       <c r="M23" s="9"/>
-      <c r="N23" s="9" t="s">
-        <v>121</v>
-      </c>
-      <c r="O23" s="9" t="s">
-        <v>122</v>
-      </c>
-      <c r="P23" s="9" t="s">
-        <v>128</v>
-      </c>
-      <c r="Q23" s="15" t="s">
-        <v>129</v>
-      </c>
-      <c r="R23" s="9" t="s">
-        <v>130</v>
-      </c>
+      <c r="N23" s="9"/>
+      <c r="O23" s="9"/>
+      <c r="P23" s="9"/>
+      <c r="Q23" s="15"/>
+      <c r="R23" s="9"/>
       <c r="S23" s="9"/>
       <c r="T23" s="9"/>
       <c r="U23" s="9"/>
       <c r="V23" s="9"/>
-      <c r="W23" s="16">
-        <v>40</v>
-      </c>
-      <c r="X23" s="16">
-        <v>0</v>
-      </c>
-      <c r="Y23" s="16">
-        <v>0</v>
-      </c>
-      <c r="Z23" s="9" t="s">
-        <v>48</v>
-      </c>
-      <c r="AA23" s="10" t="str">
-        <f>"abilities/hero/drow/drow_5/"&amp;A23</f>
-        <v>abilities/hero/drow/drow_5/drow_5b</v>
-      </c>
-      <c r="AB23" s="10" t="s">
-        <v>49</v>
-      </c>
+      <c r="W23" s="16"/>
+      <c r="X23" s="16"/>
+      <c r="Y23" s="16"/>
+      <c r="Z23" s="9"/>
+      <c r="AA23" s="10"/>
+      <c r="AB23" s="10"/>
       <c r="AC23" s="20"/>
       <c r="AD23" s="22"/>
     </row>
     <row r="24" ht="51.5" customHeight="1" spans="1:30">
-      <c r="A24" s="8" t="s">
-        <v>131</v>
-      </c>
-      <c r="B24" s="9" t="s">
-        <v>118</v>
-      </c>
-      <c r="C24" s="10" t="s">
-        <v>119</v>
-      </c>
-      <c r="D24" s="9">
-        <v>1</v>
-      </c>
-      <c r="E24" s="9">
-        <v>5</v>
-      </c>
-      <c r="F24" s="9">
-        <v>0</v>
-      </c>
-      <c r="G24" s="9">
-        <v>0</v>
-      </c>
-      <c r="H24" s="9">
-        <v>1</v>
-      </c>
-      <c r="I24" s="9">
-        <v>1</v>
-      </c>
-      <c r="J24" s="9" t="s">
-        <v>132</v>
-      </c>
-      <c r="K24" s="9">
-        <v>0</v>
-      </c>
-      <c r="L24" s="9">
-        <v>0</v>
-      </c>
+      <c r="A24" s="8"/>
+      <c r="B24" s="9"/>
+      <c r="C24" s="10"/>
+      <c r="D24" s="9"/>
+      <c r="E24" s="9"/>
+      <c r="F24" s="9"/>
+      <c r="G24" s="9"/>
+      <c r="H24" s="9"/>
+      <c r="I24" s="9"/>
+      <c r="J24" s="9"/>
+      <c r="K24" s="9"/>
+      <c r="L24" s="9"/>
       <c r="M24" s="9"/>
-      <c r="N24" s="9" t="s">
-        <v>121</v>
-      </c>
-      <c r="O24" s="9" t="s">
-        <v>122</v>
-      </c>
-      <c r="P24" s="9" t="s">
-        <v>133</v>
-      </c>
-      <c r="Q24" s="15" t="s">
-        <v>134</v>
-      </c>
+      <c r="N24" s="9"/>
+      <c r="O24" s="9"/>
+      <c r="P24" s="9"/>
+      <c r="Q24" s="15"/>
       <c r="R24" s="9"/>
       <c r="S24" s="9"/>
       <c r="T24" s="9"/>
       <c r="U24" s="9"/>
       <c r="V24" s="9"/>
-      <c r="W24" s="16">
-        <v>40</v>
-      </c>
-      <c r="X24" s="16">
-        <v>0</v>
-      </c>
-      <c r="Y24" s="16">
-        <v>0</v>
-      </c>
-      <c r="Z24" s="9" t="s">
-        <v>48</v>
-      </c>
-      <c r="AA24" s="10" t="str">
-        <f>"abilities/hero/drow/drow_5/"&amp;A24</f>
-        <v>abilities/hero/drow/drow_5/drow_5c</v>
-      </c>
-      <c r="AB24" s="10" t="s">
-        <v>49</v>
-      </c>
+      <c r="W24" s="16"/>
+      <c r="X24" s="16"/>
+      <c r="Y24" s="16"/>
+      <c r="Z24" s="9"/>
+      <c r="AA24" s="10"/>
+      <c r="AB24" s="10"/>
       <c r="AC24" s="20"/>
       <c r="AD24" s="22"/>
     </row>

--- a/excels/abilities/hero/drow.xlsx
+++ b/excels/abilities/hero/drow.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27945" windowHeight="12345"/>
+    <workbookView windowWidth="27945" windowHeight="12255"/>
   </bookViews>
   <sheets>
     <sheet name="drow_skill" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="126">
   <si>
     <t>名字</t>
   </si>
@@ -213,7 +213,7 @@
     <t>base_value 130 160 190 225 260</t>
   </si>
   <si>
-    <t>proj_count 4</t>
+    <t>proj_count 5</t>
   </si>
   <si>
     <t>action_range 750</t>
@@ -249,13 +249,13 @@
     <t>hero/drow/散射</t>
   </si>
   <si>
-    <t>base_value 120 140 160 190 240</t>
-  </si>
-  <si>
-    <t>arrow_count 5</t>
-  </si>
-  <si>
-    <t>arrow_angle 50</t>
+    <t>base_value 100 110 120 130 150</t>
+  </si>
+  <si>
+    <t>arrow_count 10</t>
+  </si>
+  <si>
+    <t>arrow_angle 90</t>
   </si>
   <si>
     <t>proj_speed 1800</t>
@@ -270,12 +270,21 @@
     <t>hero/drow/火力覆盖</t>
   </si>
   <si>
+    <t>arrow_count 20</t>
+  </si>
+  <si>
+    <t>arrow_angle 120</t>
+  </si>
+  <si>
     <t>drow_2b_b</t>
   </si>
   <si>
     <t>hero/drow/双喷</t>
   </si>
   <si>
+    <t>proj_distance 1200</t>
+  </si>
+  <si>
     <t>drow_3a</t>
   </si>
   <si>
@@ -291,7 +300,7 @@
     <t>base_value 200 250 300 350 400</t>
   </si>
   <si>
-    <t>surround_duration 8</t>
+    <t>surround_duration 5</t>
   </si>
   <si>
     <t>interval 1</t>
@@ -324,7 +333,7 @@
     <t>hero/drow/箭雨</t>
   </si>
   <si>
-    <t>arrow_count 10 12 14 17 20</t>
+    <t>arrow_count 15 20 25 30 35</t>
   </si>
   <si>
     <t>base_value 200</t>
@@ -360,7 +369,7 @@
     <t>recover_mana 60</t>
   </si>
   <si>
-    <t>50 40 30</t>
+    <t>40 30 20</t>
   </si>
   <si>
     <t>drow_4b</t>
@@ -1591,10 +1600,10 @@
   <sheetPr/>
   <dimension ref="A1:AD24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <pane xSplit="3" topLeftCell="D1" activePane="topRight" state="frozen"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <pane xSplit="3" topLeftCell="K1" activePane="topRight" state="frozen"/>
       <selection/>
-      <selection pane="topRight" activeCell="G24" sqref="G24"/>
+      <selection pane="topRight" activeCell="N6" sqref="N6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -2387,7 +2396,7 @@
         <v>3</v>
       </c>
       <c r="X10" s="16">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="Y10" s="16">
         <v>0</v>
@@ -2447,10 +2456,10 @@
         <v>73</v>
       </c>
       <c r="O11" s="9" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="P11" s="9" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="Q11" s="15" t="s">
         <v>76</v>
@@ -2468,7 +2477,7 @@
         <v>3</v>
       </c>
       <c r="X11" s="16">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="Y11" s="16">
         <v>0</v>
@@ -2488,7 +2497,7 @@
     </row>
     <row r="12" ht="51.5" customHeight="1" spans="1:30">
       <c r="A12" s="8" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B12" s="9" t="s">
         <v>70</v>
@@ -2515,7 +2524,7 @@
         <v>1</v>
       </c>
       <c r="J12" s="9" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="K12" s="9">
         <v>0</v>
@@ -2540,7 +2549,7 @@
         <v>64</v>
       </c>
       <c r="S12" s="9" t="s">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="T12" s="9"/>
       <c r="U12" s="9"/>
@@ -2549,7 +2558,7 @@
         <v>3</v>
       </c>
       <c r="X12" s="16">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="Y12" s="16">
         <v>0</v>
@@ -2569,13 +2578,13 @@
     </row>
     <row r="13" ht="101" customHeight="1" spans="1:30">
       <c r="A13" s="8" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="C13" s="10" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="D13" s="9">
         <v>1</v>
@@ -2596,7 +2605,7 @@
         <v>1</v>
       </c>
       <c r="J13" s="9" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="K13" s="9">
         <v>0</v>
@@ -2606,16 +2615,16 @@
       </c>
       <c r="M13" s="9"/>
       <c r="N13" s="9" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="O13" s="9" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="P13" s="9" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="Q13" s="15" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="R13" s="9"/>
       <c r="S13" s="9"/>
@@ -2623,7 +2632,7 @@
       <c r="U13" s="9"/>
       <c r="V13" s="9"/>
       <c r="W13" s="16">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="X13" s="16">
         <v>20</v>
@@ -2646,13 +2655,13 @@
     </row>
     <row r="14" ht="66" spans="1:30">
       <c r="A14" s="8" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="B14" s="9" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="C14" s="10" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="D14" s="9">
         <v>1</v>
@@ -2673,7 +2682,7 @@
         <v>1</v>
       </c>
       <c r="J14" s="9" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="K14" s="9">
         <v>0</v>
@@ -2683,16 +2692,16 @@
       </c>
       <c r="M14" s="9"/>
       <c r="N14" s="9" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="O14" s="9" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="P14" s="9" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="Q14" s="15" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="R14" s="9"/>
       <c r="S14" s="9"/>
@@ -2700,7 +2709,7 @@
       <c r="U14" s="9"/>
       <c r="V14" s="9"/>
       <c r="W14" s="16">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="X14" s="16">
         <v>20</v>
@@ -2723,13 +2732,13 @@
     </row>
     <row r="15" ht="66" spans="1:30">
       <c r="A15" s="8" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="B15" s="9" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="C15" s="10" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="D15" s="9">
         <v>1</v>
@@ -2750,7 +2759,7 @@
         <v>1</v>
       </c>
       <c r="J15" s="9" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="K15" s="9">
         <v>0</v>
@@ -2760,16 +2769,16 @@
       </c>
       <c r="M15" s="9"/>
       <c r="N15" s="9" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="O15" s="9" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="P15" s="9" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="Q15" s="15" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="R15" s="9"/>
       <c r="S15" s="9"/>
@@ -2777,7 +2786,7 @@
       <c r="U15" s="9"/>
       <c r="V15" s="9"/>
       <c r="W15" s="16">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="X15" s="16">
         <v>20</v>
@@ -2800,13 +2809,13 @@
     </row>
     <row r="16" ht="51.5" customHeight="1" spans="1:30">
       <c r="A16" s="8" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="B16" s="9" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="C16" s="10" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="D16" s="9">
         <v>1</v>
@@ -2827,7 +2836,7 @@
         <v>1</v>
       </c>
       <c r="J16" s="9" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="K16" s="9">
         <v>0</v>
@@ -2837,13 +2846,13 @@
       </c>
       <c r="M16" s="9"/>
       <c r="N16" s="9" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="O16" s="9" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="P16" s="9" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="Q16" s="15"/>
       <c r="R16" s="9"/>
@@ -2852,7 +2861,7 @@
       <c r="U16" s="9"/>
       <c r="V16" s="9"/>
       <c r="W16" s="16">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="X16" s="16">
         <v>20</v>
@@ -2875,13 +2884,13 @@
     </row>
     <row r="17" ht="68" customHeight="1" spans="1:30">
       <c r="A17" s="8" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="B17" s="9" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="C17" s="10" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="D17" s="9">
         <v>1</v>
@@ -2902,7 +2911,7 @@
         <v>1</v>
       </c>
       <c r="J17" s="9" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="K17" s="9">
         <v>0</v>
@@ -2912,13 +2921,13 @@
       </c>
       <c r="M17" s="9"/>
       <c r="N17" s="9" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="O17" s="9" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="P17" s="9" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="Q17" s="15"/>
       <c r="R17" s="9"/>
@@ -2927,7 +2936,7 @@
       <c r="U17" s="9"/>
       <c r="V17" s="9"/>
       <c r="W17" s="16">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="X17" s="16">
         <v>20</v>
@@ -2950,13 +2959,13 @@
     </row>
     <row r="18" ht="51.5" customHeight="1" spans="1:30">
       <c r="A18" s="8" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="B18" s="9" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="C18" s="10" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="D18" s="9">
         <v>1</v>
@@ -2977,7 +2986,7 @@
         <v>1</v>
       </c>
       <c r="J18" s="9" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="K18" s="9">
         <v>0</v>
@@ -2987,13 +2996,13 @@
       </c>
       <c r="M18" s="9"/>
       <c r="N18" s="9" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="O18" s="9" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="P18" s="9" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="Q18" s="15"/>
       <c r="R18" s="9"/>
@@ -3002,7 +3011,7 @@
       <c r="U18" s="9"/>
       <c r="V18" s="9"/>
       <c r="W18" s="16">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="X18" s="16">
         <v>20</v>
@@ -3025,13 +3034,13 @@
     </row>
     <row r="19" ht="51.5" customHeight="1" spans="1:30">
       <c r="A19" s="8" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="B19" s="9" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="C19" s="10" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="D19" s="9">
         <v>1</v>
@@ -3052,7 +3061,7 @@
         <v>1</v>
       </c>
       <c r="J19" s="9" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="K19" s="9">
         <v>0</v>
@@ -3062,7 +3071,7 @@
       </c>
       <c r="M19" s="9"/>
       <c r="N19" s="9" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="O19" s="9"/>
       <c r="P19" s="9"/>
@@ -3073,7 +3082,7 @@
       <c r="U19" s="9"/>
       <c r="V19" s="9"/>
       <c r="W19" s="16" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="X19" s="16">
         <v>0</v>
@@ -3096,13 +3105,13 @@
     </row>
     <row r="20" ht="51.5" customHeight="1" spans="1:30">
       <c r="A20" s="8" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="B20" s="9" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="C20" s="10" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="D20" s="9">
         <v>1</v>
@@ -3123,7 +3132,7 @@
         <v>1</v>
       </c>
       <c r="J20" s="9" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="K20" s="9">
         <v>0</v>
@@ -3133,10 +3142,10 @@
       </c>
       <c r="M20" s="9"/>
       <c r="N20" s="9" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="O20" s="9" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="P20" s="9"/>
       <c r="Q20" s="15"/>
@@ -3146,7 +3155,7 @@
       <c r="U20" s="9"/>
       <c r="V20" s="9"/>
       <c r="W20" s="16">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="X20" s="16">
         <v>30</v>
@@ -3169,13 +3178,13 @@
     </row>
     <row r="21" ht="51.5" customHeight="1" spans="1:30">
       <c r="A21" s="8" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="B21" s="9" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="C21" s="10" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="D21" s="9">
         <v>1</v>
@@ -3196,7 +3205,7 @@
         <v>1</v>
       </c>
       <c r="J21" s="9" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="K21" s="9">
         <v>0</v>
@@ -3206,10 +3215,10 @@
       </c>
       <c r="M21" s="9"/>
       <c r="N21" s="9" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="O21" s="9" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="P21" s="9"/>
       <c r="Q21" s="15"/>

--- a/excels/abilities/hero/drow.xlsx
+++ b/excels/abilities/hero/drow.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:dbsheet="http://web.wps.cn/et/2021/dbsheet">
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27945" windowHeight="12255"/>
+    <workbookView windowWidth="28800" windowHeight="12375"/>
   </bookViews>
   <sheets>
     <sheet name="drow_skill" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="126">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="130">
   <si>
     <t>名字</t>
   </si>
@@ -406,6 +406,18 @@
   </si>
   <si>
     <t>duration 15</t>
+  </si>
+  <si>
+    <t>drow_6</t>
+  </si>
+  <si>
+    <t>攻击敌方英雄</t>
+  </si>
+  <si>
+    <t>向空中射出%arrow_count%支箭，1个主剑造成%base_value_frist%伤害，另外4只剑造成%base_value_second%伤害。</t>
+  </si>
+  <si>
+    <t>blue_dragonspawn_overseer_evasion</t>
   </si>
 </sst>
 </file>
@@ -442,6 +454,12 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="微软雅黑"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <b/>
       <sz val="10"/>
       <color theme="0"/>
@@ -452,12 +470,6 @@
       <sz val="10"/>
       <color theme="1"/>
       <name val="Microsoft YaHei"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="微软雅黑"/>
       <charset val="134"/>
     </font>
     <font>
@@ -1169,56 +1181,56 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="4" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1600,10 +1612,10 @@
   <sheetPr/>
   <dimension ref="A1:AD24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <pane xSplit="3" topLeftCell="K1" activePane="topRight" state="frozen"/>
+    <sheetView tabSelected="1" topLeftCell="Q1" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A16" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="topRight" activeCell="N6" sqref="N6"/>
+      <selection pane="bottomLeft" activeCell="W22" sqref="W22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1694,13 +1706,13 @@
       <c r="V1" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="W1" s="14" t="s">
+      <c r="W1" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="X1" s="14" t="s">
+      <c r="X1" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="Y1" s="14" t="s">
+      <c r="Y1" s="5" t="s">
         <v>14</v>
       </c>
       <c r="Z1" s="4" t="s">
@@ -1712,47 +1724,47 @@
       <c r="AB1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="AC1" s="17"/>
-      <c r="AD1" s="18"/>
+      <c r="AC1" s="6"/>
+      <c r="AD1" s="7"/>
     </row>
-    <row r="2" s="1" customFormat="1" ht="35" customHeight="1" spans="1:29">
-      <c r="A2" s="5" t="s">
+    <row r="2" s="1" customFormat="1" ht="35" customHeight="1" spans="1:30">
+      <c r="A2" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="C2" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="D2" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="E2" s="6" t="s">
+      <c r="E2" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="F2" s="6" t="s">
+      <c r="F2" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="G2" s="6" t="s">
+      <c r="G2" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="H2" s="6" t="s">
+      <c r="H2" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="I2" s="6" t="s">
+      <c r="I2" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="J2" s="6" t="s">
+      <c r="J2" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="K2" s="6" t="s">
+      <c r="K2" s="9" t="s">
         <v>27</v>
       </c>
       <c r="L2" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="M2" s="6" t="s">
+      <c r="M2" s="9" t="s">
         <v>29</v>
       </c>
       <c r="N2" s="12">
@@ -1791,1558 +1803,1584 @@
       <c r="Y2" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="Z2" s="6" t="s">
+      <c r="Z2" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="AA2" s="7" t="s">
+      <c r="AA2" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="AB2" s="7" t="s">
+      <c r="AB2" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="AC2" s="19" t="s">
+      <c r="AC2" s="13" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="3" customFormat="1" ht="51.5" customHeight="1" spans="1:30">
-      <c r="A3" s="8" t="s">
+      <c r="A3" s="14" t="s">
         <v>42</v>
       </c>
-      <c r="B3" s="9" t="s">
+      <c r="B3" s="15" t="s">
         <v>43</v>
       </c>
-      <c r="C3" s="10" t="s">
+      <c r="C3" s="16" t="s">
         <v>44</v>
       </c>
-      <c r="D3" s="9">
-        <v>1</v>
-      </c>
-      <c r="E3" s="9">
-        <v>1</v>
-      </c>
-      <c r="F3" s="9">
-        <v>0</v>
-      </c>
-      <c r="G3" s="9">
-        <v>0</v>
-      </c>
-      <c r="H3" s="9">
-        <v>1</v>
-      </c>
-      <c r="I3" s="9">
-        <v>1</v>
-      </c>
-      <c r="J3" s="9" t="s">
+      <c r="D3" s="15">
+        <v>1</v>
+      </c>
+      <c r="E3" s="15">
+        <v>1</v>
+      </c>
+      <c r="F3" s="15">
+        <v>0</v>
+      </c>
+      <c r="G3" s="15">
+        <v>0</v>
+      </c>
+      <c r="H3" s="15">
+        <v>1</v>
+      </c>
+      <c r="I3" s="15">
+        <v>1</v>
+      </c>
+      <c r="J3" s="15" t="s">
         <v>45</v>
       </c>
-      <c r="K3" s="9">
-        <v>0</v>
-      </c>
-      <c r="L3" s="9">
-        <v>0</v>
-      </c>
-      <c r="M3" s="9"/>
-      <c r="N3" s="9" t="s">
+      <c r="K3" s="15">
+        <v>0</v>
+      </c>
+      <c r="L3" s="15">
+        <v>0</v>
+      </c>
+      <c r="M3" s="15"/>
+      <c r="N3" s="15" t="s">
         <v>46</v>
       </c>
-      <c r="O3" s="9" t="s">
+      <c r="O3" s="15" t="s">
         <v>47</v>
       </c>
-      <c r="P3" s="9"/>
-      <c r="Q3" s="15"/>
-      <c r="R3" s="9"/>
-      <c r="S3" s="9"/>
-      <c r="T3" s="9"/>
-      <c r="U3" s="9"/>
-      <c r="V3" s="9"/>
-      <c r="W3" s="16">
-        <v>0</v>
-      </c>
-      <c r="X3" s="16">
-        <v>0</v>
-      </c>
-      <c r="Y3" s="16">
-        <v>0</v>
-      </c>
-      <c r="Z3" s="9" t="s">
+      <c r="P3" s="15"/>
+      <c r="Q3" s="17"/>
+      <c r="R3" s="15"/>
+      <c r="S3" s="15"/>
+      <c r="T3" s="15"/>
+      <c r="U3" s="15"/>
+      <c r="V3" s="15"/>
+      <c r="W3" s="18">
+        <v>0</v>
+      </c>
+      <c r="X3" s="18">
+        <v>0</v>
+      </c>
+      <c r="Y3" s="18">
+        <v>0</v>
+      </c>
+      <c r="Z3" s="15" t="s">
         <v>48</v>
       </c>
-      <c r="AA3" s="10" t="str">
+      <c r="AA3" s="16" t="str">
         <f>"abilities/hero/drow/drow_1/"&amp;A3</f>
         <v>abilities/hero/drow/drow_1/drow_1</v>
       </c>
-      <c r="AB3" s="10" t="s">
+      <c r="AB3" s="16" t="s">
         <v>49</v>
       </c>
-      <c r="AC3" s="20"/>
-      <c r="AD3" s="21"/>
+      <c r="AC3" s="19"/>
+      <c r="AD3" s="20"/>
     </row>
     <row r="4" ht="51.5" customHeight="1" spans="1:30">
-      <c r="A4" s="8" t="s">
+      <c r="A4" s="14" t="s">
         <v>50</v>
       </c>
-      <c r="B4" s="9" t="s">
+      <c r="B4" s="15" t="s">
         <v>43</v>
       </c>
-      <c r="C4" s="10" t="s">
+      <c r="C4" s="16" t="s">
         <v>44</v>
       </c>
-      <c r="D4" s="9">
-        <v>1</v>
-      </c>
-      <c r="E4" s="9">
-        <v>1</v>
-      </c>
-      <c r="F4" s="9">
-        <v>0</v>
-      </c>
-      <c r="G4" s="9">
-        <v>0</v>
-      </c>
-      <c r="H4" s="9">
-        <v>1</v>
-      </c>
-      <c r="I4" s="9">
-        <v>1</v>
-      </c>
-      <c r="J4" s="9" t="s">
+      <c r="D4" s="15">
+        <v>1</v>
+      </c>
+      <c r="E4" s="15">
+        <v>1</v>
+      </c>
+      <c r="F4" s="15">
+        <v>0</v>
+      </c>
+      <c r="G4" s="15">
+        <v>0</v>
+      </c>
+      <c r="H4" s="15">
+        <v>1</v>
+      </c>
+      <c r="I4" s="15">
+        <v>1</v>
+      </c>
+      <c r="J4" s="15" t="s">
         <v>51</v>
       </c>
-      <c r="K4" s="9">
-        <v>1</v>
-      </c>
-      <c r="L4" s="9">
-        <v>0</v>
-      </c>
-      <c r="M4" s="9"/>
-      <c r="N4" s="9" t="s">
+      <c r="K4" s="15">
+        <v>1</v>
+      </c>
+      <c r="L4" s="15">
+        <v>0</v>
+      </c>
+      <c r="M4" s="15"/>
+      <c r="N4" s="15" t="s">
         <v>46</v>
       </c>
-      <c r="O4" s="9" t="s">
+      <c r="O4" s="15" t="s">
         <v>47</v>
       </c>
-      <c r="P4" s="13"/>
-      <c r="Q4" s="13"/>
-      <c r="R4" s="9"/>
-      <c r="S4" s="9"/>
-      <c r="T4" s="9"/>
-      <c r="U4" s="9"/>
-      <c r="V4" s="9"/>
-      <c r="W4" s="16">
-        <v>0</v>
-      </c>
-      <c r="X4" s="16">
-        <v>0</v>
-      </c>
-      <c r="Y4" s="16">
-        <v>0</v>
-      </c>
-      <c r="Z4" s="9" t="s">
+      <c r="P4" s="21"/>
+      <c r="Q4" s="21"/>
+      <c r="R4" s="15"/>
+      <c r="S4" s="15"/>
+      <c r="T4" s="15"/>
+      <c r="U4" s="15"/>
+      <c r="V4" s="15"/>
+      <c r="W4" s="18">
+        <v>0</v>
+      </c>
+      <c r="X4" s="18">
+        <v>0</v>
+      </c>
+      <c r="Y4" s="18">
+        <v>0</v>
+      </c>
+      <c r="Z4" s="15" t="s">
         <v>48</v>
       </c>
-      <c r="AA4" s="10" t="str">
+      <c r="AA4" s="16" t="str">
         <f>"abilities/hero/drow/drow_1/"&amp;A4</f>
         <v>abilities/hero/drow/drow_1/drow_1a</v>
       </c>
-      <c r="AB4" s="10" t="s">
+      <c r="AB4" s="16" t="s">
         <v>49</v>
       </c>
-      <c r="AC4" s="20"/>
+      <c r="AC4" s="19"/>
       <c r="AD4" s="22"/>
     </row>
     <row r="5" ht="51.5" customHeight="1" spans="1:30">
-      <c r="A5" s="8" t="s">
+      <c r="A5" s="14" t="s">
         <v>52</v>
       </c>
-      <c r="B5" s="9" t="s">
+      <c r="B5" s="15" t="s">
         <v>43</v>
       </c>
-      <c r="C5" s="10" t="s">
+      <c r="C5" s="16" t="s">
         <v>44</v>
       </c>
-      <c r="D5" s="9">
-        <v>1</v>
-      </c>
-      <c r="E5" s="9">
-        <v>1</v>
-      </c>
-      <c r="F5" s="9">
-        <v>0</v>
-      </c>
-      <c r="G5" s="9">
-        <v>0</v>
-      </c>
-      <c r="H5" s="9">
-        <v>1</v>
-      </c>
-      <c r="I5" s="9">
-        <v>1</v>
-      </c>
-      <c r="J5" s="9" t="s">
+      <c r="D5" s="15">
+        <v>1</v>
+      </c>
+      <c r="E5" s="15">
+        <v>1</v>
+      </c>
+      <c r="F5" s="15">
+        <v>0</v>
+      </c>
+      <c r="G5" s="15">
+        <v>0</v>
+      </c>
+      <c r="H5" s="15">
+        <v>1</v>
+      </c>
+      <c r="I5" s="15">
+        <v>1</v>
+      </c>
+      <c r="J5" s="15" t="s">
         <v>53</v>
       </c>
-      <c r="K5" s="9">
+      <c r="K5" s="15">
         <v>4</v>
       </c>
-      <c r="L5" s="9">
-        <v>0</v>
-      </c>
-      <c r="M5" s="9"/>
-      <c r="N5" s="9" t="s">
+      <c r="L5" s="15">
+        <v>0</v>
+      </c>
+      <c r="M5" s="15"/>
+      <c r="N5" s="15" t="s">
         <v>46</v>
       </c>
-      <c r="O5" s="9" t="s">
+      <c r="O5" s="15" t="s">
         <v>47</v>
       </c>
-      <c r="P5" s="9"/>
-      <c r="Q5" s="15"/>
-      <c r="R5" s="9"/>
-      <c r="S5" s="9"/>
-      <c r="T5" s="9"/>
-      <c r="U5" s="9"/>
-      <c r="V5" s="9"/>
-      <c r="W5" s="16">
-        <v>0</v>
-      </c>
-      <c r="X5" s="16">
-        <v>0</v>
-      </c>
-      <c r="Y5" s="16">
-        <v>0</v>
-      </c>
-      <c r="Z5" s="9" t="s">
+      <c r="P5" s="15"/>
+      <c r="Q5" s="17"/>
+      <c r="R5" s="15"/>
+      <c r="S5" s="15"/>
+      <c r="T5" s="15"/>
+      <c r="U5" s="15"/>
+      <c r="V5" s="15"/>
+      <c r="W5" s="18">
+        <v>0</v>
+      </c>
+      <c r="X5" s="18">
+        <v>0</v>
+      </c>
+      <c r="Y5" s="18">
+        <v>0</v>
+      </c>
+      <c r="Z5" s="15" t="s">
         <v>48</v>
       </c>
-      <c r="AA5" s="10" t="str">
+      <c r="AA5" s="16" t="str">
         <f>"abilities/hero/drow/drow_1/"&amp;A5</f>
         <v>abilities/hero/drow/drow_1/drow_1b</v>
       </c>
-      <c r="AB5" s="10" t="s">
+      <c r="AB5" s="16" t="s">
         <v>49</v>
       </c>
-      <c r="AC5" s="20"/>
+      <c r="AC5" s="19"/>
       <c r="AD5" s="22"/>
     </row>
     <row r="6" ht="51.5" customHeight="1" spans="1:30">
-      <c r="A6" s="8" t="s">
+      <c r="A6" s="14" t="s">
         <v>54</v>
       </c>
-      <c r="B6" s="9" t="s">
+      <c r="B6" s="15" t="s">
         <v>43</v>
       </c>
-      <c r="C6" s="10" t="s">
+      <c r="C6" s="16" t="s">
         <v>44</v>
       </c>
-      <c r="D6" s="9">
-        <v>1</v>
-      </c>
-      <c r="E6" s="9">
-        <v>1</v>
-      </c>
-      <c r="F6" s="9">
-        <v>0</v>
-      </c>
-      <c r="G6" s="9">
-        <v>0</v>
-      </c>
-      <c r="H6" s="9">
-        <v>1</v>
-      </c>
-      <c r="I6" s="9">
-        <v>1</v>
-      </c>
-      <c r="J6" s="9" t="s">
+      <c r="D6" s="15">
+        <v>1</v>
+      </c>
+      <c r="E6" s="15">
+        <v>1</v>
+      </c>
+      <c r="F6" s="15">
+        <v>0</v>
+      </c>
+      <c r="G6" s="15">
+        <v>0</v>
+      </c>
+      <c r="H6" s="15">
+        <v>1</v>
+      </c>
+      <c r="I6" s="15">
+        <v>1</v>
+      </c>
+      <c r="J6" s="15" t="s">
         <v>55</v>
       </c>
-      <c r="K6" s="9">
-        <v>0</v>
-      </c>
-      <c r="L6" s="9">
-        <v>0</v>
-      </c>
-      <c r="M6" s="9"/>
-      <c r="N6" s="9" t="s">
+      <c r="K6" s="15">
+        <v>0</v>
+      </c>
+      <c r="L6" s="15">
+        <v>0</v>
+      </c>
+      <c r="M6" s="15"/>
+      <c r="N6" s="15" t="s">
         <v>46</v>
       </c>
-      <c r="O6" s="9" t="s">
+      <c r="O6" s="15" t="s">
         <v>47</v>
       </c>
-      <c r="P6" s="9"/>
-      <c r="Q6" s="15"/>
-      <c r="R6" s="9"/>
-      <c r="S6" s="9"/>
-      <c r="T6" s="9"/>
-      <c r="U6" s="9"/>
-      <c r="V6" s="9"/>
-      <c r="W6" s="16">
-        <v>0</v>
-      </c>
-      <c r="X6" s="16">
-        <v>0</v>
-      </c>
-      <c r="Y6" s="16">
-        <v>0</v>
-      </c>
-      <c r="Z6" s="9" t="s">
+      <c r="P6" s="15"/>
+      <c r="Q6" s="17"/>
+      <c r="R6" s="15"/>
+      <c r="S6" s="15"/>
+      <c r="T6" s="15"/>
+      <c r="U6" s="15"/>
+      <c r="V6" s="15"/>
+      <c r="W6" s="18">
+        <v>0</v>
+      </c>
+      <c r="X6" s="18">
+        <v>0</v>
+      </c>
+      <c r="Y6" s="18">
+        <v>0</v>
+      </c>
+      <c r="Z6" s="15" t="s">
         <v>48</v>
       </c>
-      <c r="AA6" s="10" t="str">
+      <c r="AA6" s="16" t="str">
         <f>"abilities/hero/drow/drow_1/"&amp;A6</f>
         <v>abilities/hero/drow/drow_1/drow_1c</v>
       </c>
-      <c r="AB6" s="10" t="s">
+      <c r="AB6" s="16" t="s">
         <v>49</v>
       </c>
-      <c r="AC6" s="20"/>
+      <c r="AC6" s="19"/>
       <c r="AD6" s="22"/>
     </row>
     <row r="7" ht="51.5" customHeight="1" spans="1:30">
-      <c r="A7" s="8" t="s">
+      <c r="A7" s="14" t="s">
         <v>56</v>
       </c>
-      <c r="B7" s="9" t="s">
+      <c r="B7" s="15" t="s">
         <v>57</v>
       </c>
-      <c r="C7" s="10" t="s">
+      <c r="C7" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="D7" s="9">
-        <v>1</v>
-      </c>
-      <c r="E7" s="9">
+      <c r="D7" s="15">
+        <v>1</v>
+      </c>
+      <c r="E7" s="15">
         <v>2</v>
       </c>
-      <c r="F7" s="9">
-        <v>0</v>
-      </c>
-      <c r="G7" s="9">
-        <v>0</v>
-      </c>
-      <c r="H7" s="9">
-        <v>1</v>
-      </c>
-      <c r="I7" s="9">
-        <v>1</v>
-      </c>
-      <c r="J7" s="9" t="s">
+      <c r="F7" s="15">
+        <v>0</v>
+      </c>
+      <c r="G7" s="15">
+        <v>0</v>
+      </c>
+      <c r="H7" s="15">
+        <v>1</v>
+      </c>
+      <c r="I7" s="15">
+        <v>1</v>
+      </c>
+      <c r="J7" s="15" t="s">
         <v>59</v>
       </c>
-      <c r="K7" s="9">
-        <v>0</v>
-      </c>
-      <c r="L7" s="9">
-        <v>0</v>
-      </c>
-      <c r="M7" s="9"/>
-      <c r="N7" s="9" t="s">
+      <c r="K7" s="15">
+        <v>0</v>
+      </c>
+      <c r="L7" s="15">
+        <v>0</v>
+      </c>
+      <c r="M7" s="15"/>
+      <c r="N7" s="15" t="s">
         <v>60</v>
       </c>
-      <c r="O7" s="9" t="s">
+      <c r="O7" s="15" t="s">
         <v>61</v>
       </c>
-      <c r="P7" s="9" t="s">
+      <c r="P7" s="15" t="s">
         <v>62</v>
       </c>
-      <c r="Q7" s="15" t="s">
+      <c r="Q7" s="17" t="s">
         <v>63</v>
       </c>
-      <c r="R7" s="9" t="s">
+      <c r="R7" s="15" t="s">
         <v>64</v>
       </c>
-      <c r="S7" s="9"/>
-      <c r="T7" s="9"/>
-      <c r="U7" s="9"/>
-      <c r="V7" s="9"/>
-      <c r="W7" s="16">
+      <c r="S7" s="15"/>
+      <c r="T7" s="15"/>
+      <c r="U7" s="15"/>
+      <c r="V7" s="15"/>
+      <c r="W7" s="18">
         <v>3</v>
       </c>
-      <c r="X7" s="16">
+      <c r="X7" s="18">
         <v>20</v>
       </c>
-      <c r="Y7" s="16">
-        <v>0</v>
-      </c>
-      <c r="Z7" s="9" t="s">
+      <c r="Y7" s="18">
+        <v>0</v>
+      </c>
+      <c r="Z7" s="15" t="s">
         <v>48</v>
       </c>
-      <c r="AA7" s="10" t="str">
+      <c r="AA7" s="16" t="str">
         <f t="shared" ref="AA7:AA12" si="0">"abilities/hero/drow/drow_2/"&amp;A7</f>
         <v>abilities/hero/drow/drow_2/drow_2a</v>
       </c>
-      <c r="AB7" s="10" t="s">
+      <c r="AB7" s="16" t="s">
         <v>49</v>
       </c>
-      <c r="AC7" s="20"/>
+      <c r="AC7" s="19"/>
       <c r="AD7" s="22"/>
     </row>
     <row r="8" ht="51.5" customHeight="1" spans="1:30">
-      <c r="A8" s="8" t="s">
+      <c r="A8" s="14" t="s">
         <v>65</v>
       </c>
-      <c r="B8" s="9" t="s">
+      <c r="B8" s="15" t="s">
         <v>57</v>
       </c>
-      <c r="C8" s="10" t="s">
+      <c r="C8" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="D8" s="9">
-        <v>1</v>
-      </c>
-      <c r="E8" s="9">
+      <c r="D8" s="15">
+        <v>1</v>
+      </c>
+      <c r="E8" s="15">
         <v>2</v>
       </c>
-      <c r="F8" s="9">
-        <v>0</v>
-      </c>
-      <c r="G8" s="9">
-        <v>0</v>
-      </c>
-      <c r="H8" s="9">
-        <v>1</v>
-      </c>
-      <c r="I8" s="9">
-        <v>1</v>
-      </c>
-      <c r="J8" s="9" t="s">
+      <c r="F8" s="15">
+        <v>0</v>
+      </c>
+      <c r="G8" s="15">
+        <v>0</v>
+      </c>
+      <c r="H8" s="15">
+        <v>1</v>
+      </c>
+      <c r="I8" s="15">
+        <v>1</v>
+      </c>
+      <c r="J8" s="15" t="s">
         <v>66</v>
       </c>
-      <c r="K8" s="9">
-        <v>0</v>
-      </c>
-      <c r="L8" s="9">
-        <v>0</v>
-      </c>
-      <c r="M8" s="9"/>
-      <c r="N8" s="9" t="s">
+      <c r="K8" s="15">
+        <v>0</v>
+      </c>
+      <c r="L8" s="15">
+        <v>0</v>
+      </c>
+      <c r="M8" s="15"/>
+      <c r="N8" s="15" t="s">
         <v>60</v>
       </c>
-      <c r="O8" s="9" t="s">
+      <c r="O8" s="15" t="s">
         <v>61</v>
       </c>
-      <c r="P8" s="9" t="s">
+      <c r="P8" s="15" t="s">
         <v>62</v>
       </c>
-      <c r="Q8" s="15" t="s">
+      <c r="Q8" s="17" t="s">
         <v>63</v>
       </c>
-      <c r="R8" s="9" t="s">
+      <c r="R8" s="15" t="s">
         <v>64</v>
       </c>
-      <c r="S8" s="9"/>
-      <c r="T8" s="9"/>
-      <c r="U8" s="9"/>
-      <c r="V8" s="9"/>
-      <c r="W8" s="16">
+      <c r="S8" s="15"/>
+      <c r="T8" s="15"/>
+      <c r="U8" s="15"/>
+      <c r="V8" s="15"/>
+      <c r="W8" s="18">
         <v>3</v>
       </c>
-      <c r="X8" s="16">
+      <c r="X8" s="18">
         <v>20</v>
       </c>
-      <c r="Y8" s="16">
-        <v>0</v>
-      </c>
-      <c r="Z8" s="9" t="s">
+      <c r="Y8" s="18">
+        <v>0</v>
+      </c>
+      <c r="Z8" s="15" t="s">
         <v>48</v>
       </c>
-      <c r="AA8" s="10" t="str">
+      <c r="AA8" s="16" t="str">
         <f t="shared" si="0"/>
         <v>abilities/hero/drow/drow_2/drow_2a_a</v>
       </c>
-      <c r="AB8" s="10" t="s">
+      <c r="AB8" s="16" t="s">
         <v>49</v>
       </c>
-      <c r="AC8" s="20"/>
+      <c r="AC8" s="19"/>
       <c r="AD8" s="22"/>
     </row>
     <row r="9" ht="51.5" customHeight="1" spans="1:30">
-      <c r="A9" s="8" t="s">
+      <c r="A9" s="14" t="s">
         <v>67</v>
       </c>
-      <c r="B9" s="9" t="s">
+      <c r="B9" s="15" t="s">
         <v>57</v>
       </c>
-      <c r="C9" s="10" t="s">
+      <c r="C9" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="D9" s="9">
-        <v>1</v>
-      </c>
-      <c r="E9" s="9">
+      <c r="D9" s="15">
+        <v>1</v>
+      </c>
+      <c r="E9" s="15">
         <v>2</v>
       </c>
-      <c r="F9" s="9">
-        <v>0</v>
-      </c>
-      <c r="G9" s="9">
-        <v>0</v>
-      </c>
-      <c r="H9" s="9">
-        <v>1</v>
-      </c>
-      <c r="I9" s="9">
-        <v>1</v>
-      </c>
-      <c r="J9" s="9" t="s">
+      <c r="F9" s="15">
+        <v>0</v>
+      </c>
+      <c r="G9" s="15">
+        <v>0</v>
+      </c>
+      <c r="H9" s="15">
+        <v>1</v>
+      </c>
+      <c r="I9" s="15">
+        <v>1</v>
+      </c>
+      <c r="J9" s="15" t="s">
         <v>68</v>
       </c>
-      <c r="K9" s="9">
-        <v>0</v>
-      </c>
-      <c r="L9" s="9">
-        <v>0</v>
-      </c>
-      <c r="M9" s="9"/>
-      <c r="N9" s="9" t="s">
+      <c r="K9" s="15">
+        <v>0</v>
+      </c>
+      <c r="L9" s="15">
+        <v>0</v>
+      </c>
+      <c r="M9" s="15"/>
+      <c r="N9" s="15" t="s">
         <v>60</v>
       </c>
-      <c r="O9" s="9" t="s">
+      <c r="O9" s="15" t="s">
         <v>61</v>
       </c>
-      <c r="P9" s="9" t="s">
+      <c r="P9" s="15" t="s">
         <v>62</v>
       </c>
-      <c r="Q9" s="15" t="s">
+      <c r="Q9" s="17" t="s">
         <v>63</v>
       </c>
-      <c r="R9" s="9" t="s">
+      <c r="R9" s="15" t="s">
         <v>64</v>
       </c>
-      <c r="S9" s="9"/>
-      <c r="T9" s="9"/>
-      <c r="U9" s="9"/>
-      <c r="V9" s="9"/>
-      <c r="W9" s="16">
+      <c r="S9" s="15"/>
+      <c r="T9" s="15"/>
+      <c r="U9" s="15"/>
+      <c r="V9" s="15"/>
+      <c r="W9" s="18">
         <v>3</v>
       </c>
-      <c r="X9" s="16">
+      <c r="X9" s="18">
         <v>20</v>
       </c>
-      <c r="Y9" s="16">
-        <v>0</v>
-      </c>
-      <c r="Z9" s="9" t="s">
+      <c r="Y9" s="18">
+        <v>0</v>
+      </c>
+      <c r="Z9" s="15" t="s">
         <v>48</v>
       </c>
-      <c r="AA9" s="10" t="str">
+      <c r="AA9" s="16" t="str">
         <f t="shared" si="0"/>
         <v>abilities/hero/drow/drow_2/drow_2a_b</v>
       </c>
-      <c r="AB9" s="10" t="s">
+      <c r="AB9" s="16" t="s">
         <v>49</v>
       </c>
-      <c r="AC9" s="20"/>
+      <c r="AC9" s="19"/>
       <c r="AD9" s="22"/>
     </row>
     <row r="10" ht="51.5" customHeight="1" spans="1:30">
-      <c r="A10" s="8" t="s">
+      <c r="A10" s="14" t="s">
         <v>69</v>
       </c>
-      <c r="B10" s="9" t="s">
+      <c r="B10" s="15" t="s">
         <v>70</v>
       </c>
-      <c r="C10" s="10" t="s">
+      <c r="C10" s="16" t="s">
         <v>71</v>
       </c>
-      <c r="D10" s="9">
-        <v>1</v>
-      </c>
-      <c r="E10" s="9">
+      <c r="D10" s="15">
+        <v>1</v>
+      </c>
+      <c r="E10" s="15">
         <v>2</v>
       </c>
-      <c r="F10" s="9">
-        <v>0</v>
-      </c>
-      <c r="G10" s="9">
-        <v>0</v>
-      </c>
-      <c r="H10" s="9">
-        <v>1</v>
-      </c>
-      <c r="I10" s="9">
-        <v>1</v>
-      </c>
-      <c r="J10" s="9" t="s">
+      <c r="F10" s="15">
+        <v>0</v>
+      </c>
+      <c r="G10" s="15">
+        <v>0</v>
+      </c>
+      <c r="H10" s="15">
+        <v>1</v>
+      </c>
+      <c r="I10" s="15">
+        <v>1</v>
+      </c>
+      <c r="J10" s="15" t="s">
         <v>72</v>
       </c>
-      <c r="K10" s="9">
-        <v>0</v>
-      </c>
-      <c r="L10" s="9">
-        <v>0</v>
-      </c>
-      <c r="M10" s="9"/>
-      <c r="N10" s="9" t="s">
+      <c r="K10" s="15">
+        <v>0</v>
+      </c>
+      <c r="L10" s="15">
+        <v>0</v>
+      </c>
+      <c r="M10" s="15"/>
+      <c r="N10" s="15" t="s">
         <v>73</v>
       </c>
-      <c r="O10" s="9" t="s">
+      <c r="O10" s="15" t="s">
         <v>74</v>
       </c>
-      <c r="P10" s="9" t="s">
+      <c r="P10" s="15" t="s">
         <v>75</v>
       </c>
-      <c r="Q10" s="15" t="s">
+      <c r="Q10" s="17" t="s">
         <v>76</v>
       </c>
-      <c r="R10" s="9" t="s">
+      <c r="R10" s="15" t="s">
         <v>64</v>
       </c>
-      <c r="S10" s="9" t="s">
+      <c r="S10" s="15" t="s">
         <v>77</v>
       </c>
-      <c r="T10" s="9"/>
-      <c r="U10" s="9"/>
-      <c r="V10" s="9"/>
-      <c r="W10" s="16">
+      <c r="T10" s="15"/>
+      <c r="U10" s="15"/>
+      <c r="V10" s="15"/>
+      <c r="W10" s="18">
         <v>3</v>
       </c>
-      <c r="X10" s="16">
+      <c r="X10" s="18">
         <v>20</v>
       </c>
-      <c r="Y10" s="16">
-        <v>0</v>
-      </c>
-      <c r="Z10" s="9" t="s">
+      <c r="Y10" s="18">
+        <v>0</v>
+      </c>
+      <c r="Z10" s="15" t="s">
         <v>48</v>
       </c>
-      <c r="AA10" s="10" t="str">
+      <c r="AA10" s="16" t="str">
         <f t="shared" si="0"/>
         <v>abilities/hero/drow/drow_2/drow_2b</v>
       </c>
-      <c r="AB10" s="10" t="s">
+      <c r="AB10" s="16" t="s">
         <v>49</v>
       </c>
-      <c r="AC10" s="20"/>
+      <c r="AC10" s="19"/>
       <c r="AD10" s="22"/>
     </row>
     <row r="11" ht="51.5" customHeight="1" spans="1:30">
-      <c r="A11" s="8" t="s">
+      <c r="A11" s="14" t="s">
         <v>78</v>
       </c>
-      <c r="B11" s="9" t="s">
+      <c r="B11" s="15" t="s">
         <v>70</v>
       </c>
-      <c r="C11" s="10" t="s">
+      <c r="C11" s="16" t="s">
         <v>71</v>
       </c>
-      <c r="D11" s="9">
-        <v>1</v>
-      </c>
-      <c r="E11" s="9">
+      <c r="D11" s="15">
+        <v>1</v>
+      </c>
+      <c r="E11" s="15">
         <v>2</v>
       </c>
-      <c r="F11" s="9">
-        <v>0</v>
-      </c>
-      <c r="G11" s="9">
-        <v>0</v>
-      </c>
-      <c r="H11" s="9">
-        <v>1</v>
-      </c>
-      <c r="I11" s="9">
-        <v>1</v>
-      </c>
-      <c r="J11" s="9" t="s">
+      <c r="F11" s="15">
+        <v>0</v>
+      </c>
+      <c r="G11" s="15">
+        <v>0</v>
+      </c>
+      <c r="H11" s="15">
+        <v>1</v>
+      </c>
+      <c r="I11" s="15">
+        <v>1</v>
+      </c>
+      <c r="J11" s="15" t="s">
         <v>79</v>
       </c>
-      <c r="K11" s="9">
-        <v>0</v>
-      </c>
-      <c r="L11" s="9">
-        <v>0</v>
-      </c>
-      <c r="M11" s="9"/>
-      <c r="N11" s="9" t="s">
+      <c r="K11" s="15">
+        <v>0</v>
+      </c>
+      <c r="L11" s="15">
+        <v>0</v>
+      </c>
+      <c r="M11" s="15"/>
+      <c r="N11" s="15" t="s">
         <v>73</v>
       </c>
-      <c r="O11" s="9" t="s">
+      <c r="O11" s="15" t="s">
         <v>80</v>
       </c>
-      <c r="P11" s="9" t="s">
+      <c r="P11" s="15" t="s">
         <v>81</v>
       </c>
-      <c r="Q11" s="15" t="s">
+      <c r="Q11" s="17" t="s">
         <v>76</v>
       </c>
-      <c r="R11" s="9" t="s">
+      <c r="R11" s="15" t="s">
         <v>64</v>
       </c>
-      <c r="S11" s="9" t="s">
+      <c r="S11" s="15" t="s">
         <v>77</v>
       </c>
-      <c r="T11" s="9"/>
-      <c r="U11" s="9"/>
-      <c r="V11" s="9"/>
-      <c r="W11" s="16">
+      <c r="T11" s="15"/>
+      <c r="U11" s="15"/>
+      <c r="V11" s="15"/>
+      <c r="W11" s="18">
         <v>3</v>
       </c>
-      <c r="X11" s="16">
+      <c r="X11" s="18">
         <v>20</v>
       </c>
-      <c r="Y11" s="16">
-        <v>0</v>
-      </c>
-      <c r="Z11" s="9" t="s">
+      <c r="Y11" s="18">
+        <v>0</v>
+      </c>
+      <c r="Z11" s="15" t="s">
         <v>48</v>
       </c>
-      <c r="AA11" s="10" t="str">
+      <c r="AA11" s="16" t="str">
         <f t="shared" si="0"/>
         <v>abilities/hero/drow/drow_2/drow_2b_a</v>
       </c>
-      <c r="AB11" s="10" t="s">
+      <c r="AB11" s="16" t="s">
         <v>49</v>
       </c>
-      <c r="AC11" s="20"/>
+      <c r="AC11" s="19"/>
       <c r="AD11" s="22"/>
     </row>
     <row r="12" ht="51.5" customHeight="1" spans="1:30">
-      <c r="A12" s="8" t="s">
+      <c r="A12" s="14" t="s">
         <v>82</v>
       </c>
-      <c r="B12" s="9" t="s">
+      <c r="B12" s="15" t="s">
         <v>70</v>
       </c>
-      <c r="C12" s="10" t="s">
+      <c r="C12" s="16" t="s">
         <v>71</v>
       </c>
-      <c r="D12" s="9">
-        <v>1</v>
-      </c>
-      <c r="E12" s="9">
+      <c r="D12" s="15">
+        <v>1</v>
+      </c>
+      <c r="E12" s="15">
         <v>2</v>
       </c>
-      <c r="F12" s="9">
-        <v>0</v>
-      </c>
-      <c r="G12" s="9">
-        <v>0</v>
-      </c>
-      <c r="H12" s="9">
-        <v>1</v>
-      </c>
-      <c r="I12" s="9">
-        <v>1</v>
-      </c>
-      <c r="J12" s="9" t="s">
+      <c r="F12" s="15">
+        <v>0</v>
+      </c>
+      <c r="G12" s="15">
+        <v>0</v>
+      </c>
+      <c r="H12" s="15">
+        <v>1</v>
+      </c>
+      <c r="I12" s="15">
+        <v>1</v>
+      </c>
+      <c r="J12" s="15" t="s">
         <v>83</v>
       </c>
-      <c r="K12" s="9">
-        <v>0</v>
-      </c>
-      <c r="L12" s="9">
-        <v>0</v>
-      </c>
-      <c r="M12" s="9"/>
-      <c r="N12" s="9" t="s">
+      <c r="K12" s="15">
+        <v>0</v>
+      </c>
+      <c r="L12" s="15">
+        <v>0</v>
+      </c>
+      <c r="M12" s="15"/>
+      <c r="N12" s="15" t="s">
         <v>73</v>
       </c>
-      <c r="O12" s="9" t="s">
+      <c r="O12" s="15" t="s">
         <v>74</v>
       </c>
-      <c r="P12" s="9" t="s">
+      <c r="P12" s="15" t="s">
         <v>75</v>
       </c>
-      <c r="Q12" s="15" t="s">
+      <c r="Q12" s="17" t="s">
         <v>76</v>
       </c>
-      <c r="R12" s="9" t="s">
+      <c r="R12" s="15" t="s">
         <v>64</v>
       </c>
-      <c r="S12" s="9" t="s">
+      <c r="S12" s="15" t="s">
         <v>84</v>
       </c>
-      <c r="T12" s="9"/>
-      <c r="U12" s="9"/>
-      <c r="V12" s="9"/>
-      <c r="W12" s="16">
+      <c r="T12" s="15"/>
+      <c r="U12" s="15"/>
+      <c r="V12" s="15"/>
+      <c r="W12" s="18">
         <v>3</v>
       </c>
-      <c r="X12" s="16">
+      <c r="X12" s="18">
         <v>20</v>
       </c>
-      <c r="Y12" s="16">
-        <v>0</v>
-      </c>
-      <c r="Z12" s="9" t="s">
+      <c r="Y12" s="18">
+        <v>0</v>
+      </c>
+      <c r="Z12" s="15" t="s">
         <v>48</v>
       </c>
-      <c r="AA12" s="10" t="str">
+      <c r="AA12" s="16" t="str">
         <f t="shared" si="0"/>
         <v>abilities/hero/drow/drow_2/drow_2b_b</v>
       </c>
-      <c r="AB12" s="10" t="s">
+      <c r="AB12" s="16" t="s">
         <v>49</v>
       </c>
-      <c r="AC12" s="20"/>
+      <c r="AC12" s="19"/>
       <c r="AD12" s="22"/>
     </row>
     <row r="13" ht="101" customHeight="1" spans="1:30">
-      <c r="A13" s="8" t="s">
+      <c r="A13" s="14" t="s">
         <v>85</v>
       </c>
-      <c r="B13" s="9" t="s">
+      <c r="B13" s="15" t="s">
         <v>86</v>
       </c>
-      <c r="C13" s="10" t="s">
+      <c r="C13" s="16" t="s">
         <v>87</v>
       </c>
-      <c r="D13" s="9">
-        <v>1</v>
-      </c>
-      <c r="E13" s="9">
+      <c r="D13" s="15">
+        <v>1</v>
+      </c>
+      <c r="E13" s="15">
         <v>3</v>
       </c>
-      <c r="F13" s="9">
-        <v>0</v>
-      </c>
-      <c r="G13" s="9">
-        <v>0</v>
-      </c>
-      <c r="H13" s="9">
-        <v>1</v>
-      </c>
-      <c r="I13" s="9">
-        <v>1</v>
-      </c>
-      <c r="J13" s="9" t="s">
+      <c r="F13" s="15">
+        <v>0</v>
+      </c>
+      <c r="G13" s="15">
+        <v>0</v>
+      </c>
+      <c r="H13" s="15">
+        <v>1</v>
+      </c>
+      <c r="I13" s="15">
+        <v>1</v>
+      </c>
+      <c r="J13" s="15" t="s">
         <v>88</v>
       </c>
-      <c r="K13" s="9">
-        <v>0</v>
-      </c>
-      <c r="L13" s="9">
-        <v>0</v>
-      </c>
-      <c r="M13" s="9"/>
-      <c r="N13" s="9" t="s">
+      <c r="K13" s="15">
+        <v>0</v>
+      </c>
+      <c r="L13" s="15">
+        <v>0</v>
+      </c>
+      <c r="M13" s="15"/>
+      <c r="N13" s="15" t="s">
         <v>89</v>
       </c>
-      <c r="O13" s="9" t="s">
+      <c r="O13" s="15" t="s">
         <v>90</v>
       </c>
-      <c r="P13" s="9" t="s">
+      <c r="P13" s="15" t="s">
         <v>91</v>
       </c>
-      <c r="Q13" s="15" t="s">
+      <c r="Q13" s="17" t="s">
         <v>92</v>
       </c>
-      <c r="R13" s="9"/>
-      <c r="S13" s="9"/>
-      <c r="T13" s="9"/>
-      <c r="U13" s="9"/>
-      <c r="V13" s="9"/>
-      <c r="W13" s="16">
+      <c r="R13" s="15"/>
+      <c r="S13" s="15"/>
+      <c r="T13" s="15"/>
+      <c r="U13" s="15"/>
+      <c r="V13" s="15"/>
+      <c r="W13" s="18">
         <v>8</v>
       </c>
-      <c r="X13" s="16">
+      <c r="X13" s="18">
         <v>20</v>
       </c>
-      <c r="Y13" s="16">
-        <v>0</v>
-      </c>
-      <c r="Z13" s="9" t="s">
+      <c r="Y13" s="18">
+        <v>0</v>
+      </c>
+      <c r="Z13" s="15" t="s">
         <v>48</v>
       </c>
-      <c r="AA13" s="10" t="str">
+      <c r="AA13" s="16" t="str">
         <f>"abilities/hero/drow/drow_3a/"&amp;A13</f>
         <v>abilities/hero/drow/drow_3a/drow_3a</v>
       </c>
-      <c r="AB13" s="10" t="s">
+      <c r="AB13" s="16" t="s">
         <v>49</v>
       </c>
-      <c r="AC13" s="20"/>
+      <c r="AC13" s="19"/>
       <c r="AD13" s="22"/>
     </row>
     <row r="14" ht="66" spans="1:30">
-      <c r="A14" s="8" t="s">
+      <c r="A14" s="14" t="s">
         <v>93</v>
       </c>
-      <c r="B14" s="9" t="s">
+      <c r="B14" s="15" t="s">
         <v>86</v>
       </c>
-      <c r="C14" s="10" t="s">
+      <c r="C14" s="16" t="s">
         <v>87</v>
       </c>
-      <c r="D14" s="9">
-        <v>1</v>
-      </c>
-      <c r="E14" s="9">
+      <c r="D14" s="15">
+        <v>1</v>
+      </c>
+      <c r="E14" s="15">
         <v>3</v>
       </c>
-      <c r="F14" s="9">
-        <v>0</v>
-      </c>
-      <c r="G14" s="9">
-        <v>0</v>
-      </c>
-      <c r="H14" s="9">
-        <v>1</v>
-      </c>
-      <c r="I14" s="9">
-        <v>1</v>
-      </c>
-      <c r="J14" s="9" t="s">
+      <c r="F14" s="15">
+        <v>0</v>
+      </c>
+      <c r="G14" s="15">
+        <v>0</v>
+      </c>
+      <c r="H14" s="15">
+        <v>1</v>
+      </c>
+      <c r="I14" s="15">
+        <v>1</v>
+      </c>
+      <c r="J14" s="15" t="s">
         <v>94</v>
       </c>
-      <c r="K14" s="9">
-        <v>0</v>
-      </c>
-      <c r="L14" s="9">
-        <v>0</v>
-      </c>
-      <c r="M14" s="9"/>
-      <c r="N14" s="9" t="s">
+      <c r="K14" s="15">
+        <v>0</v>
+      </c>
+      <c r="L14" s="15">
+        <v>0</v>
+      </c>
+      <c r="M14" s="15"/>
+      <c r="N14" s="15" t="s">
         <v>89</v>
       </c>
-      <c r="O14" s="9" t="s">
+      <c r="O14" s="15" t="s">
         <v>90</v>
       </c>
-      <c r="P14" s="9" t="s">
+      <c r="P14" s="15" t="s">
         <v>91</v>
       </c>
-      <c r="Q14" s="15" t="s">
+      <c r="Q14" s="17" t="s">
         <v>92</v>
       </c>
-      <c r="R14" s="9"/>
-      <c r="S14" s="9"/>
-      <c r="T14" s="9"/>
-      <c r="U14" s="9"/>
-      <c r="V14" s="9"/>
-      <c r="W14" s="16">
+      <c r="R14" s="15"/>
+      <c r="S14" s="15"/>
+      <c r="T14" s="15"/>
+      <c r="U14" s="15"/>
+      <c r="V14" s="15"/>
+      <c r="W14" s="18">
         <v>8</v>
       </c>
-      <c r="X14" s="16">
+      <c r="X14" s="18">
         <v>20</v>
       </c>
-      <c r="Y14" s="16">
-        <v>0</v>
-      </c>
-      <c r="Z14" s="9" t="s">
+      <c r="Y14" s="18">
+        <v>0</v>
+      </c>
+      <c r="Z14" s="15" t="s">
         <v>48</v>
       </c>
-      <c r="AA14" s="10" t="str">
+      <c r="AA14" s="16" t="str">
         <f>"abilities/hero/drow/drow_3a/"&amp;A14</f>
         <v>abilities/hero/drow/drow_3a/drow_3a_a</v>
       </c>
-      <c r="AB14" s="10" t="s">
+      <c r="AB14" s="16" t="s">
         <v>49</v>
       </c>
-      <c r="AC14" s="20"/>
+      <c r="AC14" s="19"/>
       <c r="AD14" s="22"/>
     </row>
     <row r="15" ht="66" spans="1:30">
-      <c r="A15" s="8" t="s">
+      <c r="A15" s="14" t="s">
         <v>95</v>
       </c>
-      <c r="B15" s="9" t="s">
+      <c r="B15" s="15" t="s">
         <v>86</v>
       </c>
-      <c r="C15" s="10" t="s">
+      <c r="C15" s="16" t="s">
         <v>87</v>
       </c>
-      <c r="D15" s="9">
-        <v>1</v>
-      </c>
-      <c r="E15" s="9">
+      <c r="D15" s="15">
+        <v>1</v>
+      </c>
+      <c r="E15" s="15">
         <v>3</v>
       </c>
-      <c r="F15" s="9">
-        <v>0</v>
-      </c>
-      <c r="G15" s="9">
-        <v>0</v>
-      </c>
-      <c r="H15" s="9">
-        <v>1</v>
-      </c>
-      <c r="I15" s="9">
-        <v>1</v>
-      </c>
-      <c r="J15" s="9" t="s">
+      <c r="F15" s="15">
+        <v>0</v>
+      </c>
+      <c r="G15" s="15">
+        <v>0</v>
+      </c>
+      <c r="H15" s="15">
+        <v>1</v>
+      </c>
+      <c r="I15" s="15">
+        <v>1</v>
+      </c>
+      <c r="J15" s="15" t="s">
         <v>96</v>
       </c>
-      <c r="K15" s="9">
-        <v>0</v>
-      </c>
-      <c r="L15" s="9">
-        <v>0</v>
-      </c>
-      <c r="M15" s="9"/>
-      <c r="N15" s="9" t="s">
+      <c r="K15" s="15">
+        <v>0</v>
+      </c>
+      <c r="L15" s="15">
+        <v>0</v>
+      </c>
+      <c r="M15" s="15"/>
+      <c r="N15" s="15" t="s">
         <v>89</v>
       </c>
-      <c r="O15" s="9" t="s">
+      <c r="O15" s="15" t="s">
         <v>90</v>
       </c>
-      <c r="P15" s="9" t="s">
+      <c r="P15" s="15" t="s">
         <v>91</v>
       </c>
-      <c r="Q15" s="15" t="s">
+      <c r="Q15" s="17" t="s">
         <v>92</v>
       </c>
-      <c r="R15" s="9"/>
-      <c r="S15" s="9"/>
-      <c r="T15" s="9"/>
-      <c r="U15" s="9"/>
-      <c r="V15" s="9"/>
-      <c r="W15" s="16">
+      <c r="R15" s="15"/>
+      <c r="S15" s="15"/>
+      <c r="T15" s="15"/>
+      <c r="U15" s="15"/>
+      <c r="V15" s="15"/>
+      <c r="W15" s="18">
         <v>8</v>
       </c>
-      <c r="X15" s="16">
+      <c r="X15" s="18">
         <v>20</v>
       </c>
-      <c r="Y15" s="16">
-        <v>0</v>
-      </c>
-      <c r="Z15" s="9" t="s">
+      <c r="Y15" s="18">
+        <v>0</v>
+      </c>
+      <c r="Z15" s="15" t="s">
         <v>48</v>
       </c>
-      <c r="AA15" s="10" t="str">
+      <c r="AA15" s="16" t="str">
         <f>"abilities/hero/drow/drow_3a/"&amp;A15</f>
         <v>abilities/hero/drow/drow_3a/drow_3a_b</v>
       </c>
-      <c r="AB15" s="10" t="s">
+      <c r="AB15" s="16" t="s">
         <v>49</v>
       </c>
-      <c r="AC15" s="20"/>
+      <c r="AC15" s="19"/>
       <c r="AD15" s="22"/>
     </row>
     <row r="16" ht="51.5" customHeight="1" spans="1:30">
-      <c r="A16" s="8" t="s">
+      <c r="A16" s="14" t="s">
         <v>97</v>
       </c>
-      <c r="B16" s="9" t="s">
+      <c r="B16" s="15" t="s">
         <v>98</v>
       </c>
-      <c r="C16" s="10" t="s">
+      <c r="C16" s="16" t="s">
         <v>99</v>
       </c>
-      <c r="D16" s="9">
-        <v>1</v>
-      </c>
-      <c r="E16" s="9">
+      <c r="D16" s="15">
+        <v>1</v>
+      </c>
+      <c r="E16" s="15">
         <v>3</v>
       </c>
-      <c r="F16" s="9">
-        <v>0</v>
-      </c>
-      <c r="G16" s="9">
-        <v>0</v>
-      </c>
-      <c r="H16" s="9">
-        <v>1</v>
-      </c>
-      <c r="I16" s="9">
-        <v>1</v>
-      </c>
-      <c r="J16" s="9" t="s">
+      <c r="F16" s="15">
+        <v>0</v>
+      </c>
+      <c r="G16" s="15">
+        <v>0</v>
+      </c>
+      <c r="H16" s="15">
+        <v>1</v>
+      </c>
+      <c r="I16" s="15">
+        <v>1</v>
+      </c>
+      <c r="J16" s="15" t="s">
         <v>100</v>
       </c>
-      <c r="K16" s="9">
-        <v>0</v>
-      </c>
-      <c r="L16" s="9">
-        <v>0</v>
-      </c>
-      <c r="M16" s="9"/>
-      <c r="N16" s="9" t="s">
+      <c r="K16" s="15">
+        <v>0</v>
+      </c>
+      <c r="L16" s="15">
+        <v>0</v>
+      </c>
+      <c r="M16" s="15"/>
+      <c r="N16" s="15" t="s">
         <v>101</v>
       </c>
-      <c r="O16" s="9" t="s">
+      <c r="O16" s="15" t="s">
         <v>102</v>
       </c>
-      <c r="P16" s="9" t="s">
+      <c r="P16" s="15" t="s">
         <v>103</v>
       </c>
-      <c r="Q16" s="15"/>
-      <c r="R16" s="9"/>
-      <c r="S16" s="9"/>
-      <c r="T16" s="9"/>
-      <c r="U16" s="9"/>
-      <c r="V16" s="9"/>
-      <c r="W16" s="16">
+      <c r="Q16" s="17"/>
+      <c r="R16" s="15"/>
+      <c r="S16" s="15"/>
+      <c r="T16" s="15"/>
+      <c r="U16" s="15"/>
+      <c r="V16" s="15"/>
+      <c r="W16" s="18">
         <v>8</v>
       </c>
-      <c r="X16" s="16">
+      <c r="X16" s="18">
         <v>20</v>
       </c>
-      <c r="Y16" s="16">
-        <v>0</v>
-      </c>
-      <c r="Z16" s="9" t="s">
+      <c r="Y16" s="18">
+        <v>0</v>
+      </c>
+      <c r="Z16" s="15" t="s">
         <v>48</v>
       </c>
-      <c r="AA16" s="10" t="str">
+      <c r="AA16" s="16" t="str">
         <f>"abilities/hero/drow/drow_3b/"&amp;A16</f>
         <v>abilities/hero/drow/drow_3b/drow_3b</v>
       </c>
-      <c r="AB16" s="10" t="s">
+      <c r="AB16" s="16" t="s">
         <v>49</v>
       </c>
-      <c r="AC16" s="20"/>
+      <c r="AC16" s="19"/>
       <c r="AD16" s="22"/>
     </row>
     <row r="17" ht="68" customHeight="1" spans="1:30">
-      <c r="A17" s="8" t="s">
+      <c r="A17" s="14" t="s">
         <v>104</v>
       </c>
-      <c r="B17" s="9" t="s">
+      <c r="B17" s="15" t="s">
         <v>98</v>
       </c>
-      <c r="C17" s="10" t="s">
+      <c r="C17" s="16" t="s">
         <v>99</v>
       </c>
-      <c r="D17" s="9">
-        <v>1</v>
-      </c>
-      <c r="E17" s="9">
+      <c r="D17" s="15">
+        <v>1</v>
+      </c>
+      <c r="E17" s="15">
         <v>3</v>
       </c>
-      <c r="F17" s="9">
-        <v>0</v>
-      </c>
-      <c r="G17" s="9">
-        <v>0</v>
-      </c>
-      <c r="H17" s="9">
-        <v>1</v>
-      </c>
-      <c r="I17" s="9">
-        <v>1</v>
-      </c>
-      <c r="J17" s="9" t="s">
+      <c r="F17" s="15">
+        <v>0</v>
+      </c>
+      <c r="G17" s="15">
+        <v>0</v>
+      </c>
+      <c r="H17" s="15">
+        <v>1</v>
+      </c>
+      <c r="I17" s="15">
+        <v>1</v>
+      </c>
+      <c r="J17" s="15" t="s">
         <v>105</v>
       </c>
-      <c r="K17" s="9">
-        <v>0</v>
-      </c>
-      <c r="L17" s="9">
-        <v>0</v>
-      </c>
-      <c r="M17" s="9"/>
-      <c r="N17" s="9" t="s">
+      <c r="K17" s="15">
+        <v>0</v>
+      </c>
+      <c r="L17" s="15">
+        <v>0</v>
+      </c>
+      <c r="M17" s="15"/>
+      <c r="N17" s="15" t="s">
         <v>101</v>
       </c>
-      <c r="O17" s="9" t="s">
+      <c r="O17" s="15" t="s">
         <v>102</v>
       </c>
-      <c r="P17" s="9" t="s">
+      <c r="P17" s="15" t="s">
         <v>103</v>
       </c>
-      <c r="Q17" s="15"/>
-      <c r="R17" s="9"/>
-      <c r="S17" s="9"/>
-      <c r="T17" s="9"/>
-      <c r="U17" s="9"/>
-      <c r="V17" s="9"/>
-      <c r="W17" s="16">
+      <c r="Q17" s="17"/>
+      <c r="R17" s="15"/>
+      <c r="S17" s="15"/>
+      <c r="T17" s="15"/>
+      <c r="U17" s="15"/>
+      <c r="V17" s="15"/>
+      <c r="W17" s="18">
         <v>8</v>
       </c>
-      <c r="X17" s="16">
+      <c r="X17" s="18">
         <v>20</v>
       </c>
-      <c r="Y17" s="16">
-        <v>0</v>
-      </c>
-      <c r="Z17" s="9" t="s">
+      <c r="Y17" s="18">
+        <v>0</v>
+      </c>
+      <c r="Z17" s="15" t="s">
         <v>48</v>
       </c>
-      <c r="AA17" s="10" t="str">
+      <c r="AA17" s="16" t="str">
         <f>"abilities/hero/drow/drow_3b/"&amp;A17</f>
         <v>abilities/hero/drow/drow_3b/drow_3b_a</v>
       </c>
-      <c r="AB17" s="10" t="s">
+      <c r="AB17" s="16" t="s">
         <v>49</v>
       </c>
-      <c r="AC17" s="20"/>
+      <c r="AC17" s="19"/>
       <c r="AD17" s="22"/>
     </row>
     <row r="18" ht="51.5" customHeight="1" spans="1:30">
-      <c r="A18" s="8" t="s">
+      <c r="A18" s="14" t="s">
         <v>106</v>
       </c>
-      <c r="B18" s="9" t="s">
+      <c r="B18" s="15" t="s">
         <v>98</v>
       </c>
-      <c r="C18" s="10" t="s">
+      <c r="C18" s="16" t="s">
         <v>99</v>
       </c>
-      <c r="D18" s="9">
-        <v>1</v>
-      </c>
-      <c r="E18" s="9">
+      <c r="D18" s="15">
+        <v>1</v>
+      </c>
+      <c r="E18" s="15">
         <v>3</v>
       </c>
-      <c r="F18" s="9">
-        <v>0</v>
-      </c>
-      <c r="G18" s="9">
-        <v>0</v>
-      </c>
-      <c r="H18" s="9">
-        <v>1</v>
-      </c>
-      <c r="I18" s="9">
-        <v>1</v>
-      </c>
-      <c r="J18" s="9" t="s">
+      <c r="F18" s="15">
+        <v>0</v>
+      </c>
+      <c r="G18" s="15">
+        <v>0</v>
+      </c>
+      <c r="H18" s="15">
+        <v>1</v>
+      </c>
+      <c r="I18" s="15">
+        <v>1</v>
+      </c>
+      <c r="J18" s="15" t="s">
         <v>107</v>
       </c>
-      <c r="K18" s="9">
-        <v>0</v>
-      </c>
-      <c r="L18" s="9">
-        <v>0</v>
-      </c>
-      <c r="M18" s="9"/>
-      <c r="N18" s="9" t="s">
+      <c r="K18" s="15">
+        <v>0</v>
+      </c>
+      <c r="L18" s="15">
+        <v>0</v>
+      </c>
+      <c r="M18" s="15"/>
+      <c r="N18" s="15" t="s">
         <v>101</v>
       </c>
-      <c r="O18" s="9" t="s">
+      <c r="O18" s="15" t="s">
         <v>102</v>
       </c>
-      <c r="P18" s="9" t="s">
+      <c r="P18" s="15" t="s">
         <v>103</v>
       </c>
-      <c r="Q18" s="15"/>
-      <c r="R18" s="9"/>
-      <c r="S18" s="9"/>
-      <c r="T18" s="9"/>
-      <c r="U18" s="9"/>
-      <c r="V18" s="9"/>
-      <c r="W18" s="16">
+      <c r="Q18" s="17"/>
+      <c r="R18" s="15"/>
+      <c r="S18" s="15"/>
+      <c r="T18" s="15"/>
+      <c r="U18" s="15"/>
+      <c r="V18" s="15"/>
+      <c r="W18" s="18">
         <v>8</v>
       </c>
-      <c r="X18" s="16">
+      <c r="X18" s="18">
         <v>20</v>
       </c>
-      <c r="Y18" s="16">
-        <v>0</v>
-      </c>
-      <c r="Z18" s="9" t="s">
+      <c r="Y18" s="18">
+        <v>0</v>
+      </c>
+      <c r="Z18" s="15" t="s">
         <v>48</v>
       </c>
-      <c r="AA18" s="10" t="str">
+      <c r="AA18" s="16" t="str">
         <f>"abilities/hero/drow/drow_3b/"&amp;A18</f>
         <v>abilities/hero/drow/drow_3b/drow_3b_b</v>
       </c>
-      <c r="AB18" s="10" t="s">
+      <c r="AB18" s="16" t="s">
         <v>49</v>
       </c>
-      <c r="AC18" s="20"/>
+      <c r="AC18" s="19"/>
       <c r="AD18" s="22"/>
     </row>
     <row r="19" ht="51.5" customHeight="1" spans="1:30">
-      <c r="A19" s="8" t="s">
+      <c r="A19" s="14" t="s">
         <v>108</v>
       </c>
-      <c r="B19" s="9" t="s">
+      <c r="B19" s="15" t="s">
         <v>109</v>
       </c>
-      <c r="C19" s="10" t="s">
+      <c r="C19" s="16" t="s">
         <v>110</v>
       </c>
-      <c r="D19" s="9">
-        <v>1</v>
-      </c>
-      <c r="E19" s="9">
+      <c r="D19" s="15">
+        <v>1</v>
+      </c>
+      <c r="E19" s="15">
         <v>4</v>
       </c>
-      <c r="F19" s="9">
-        <v>0</v>
-      </c>
-      <c r="G19" s="9">
-        <v>0</v>
-      </c>
-      <c r="H19" s="9">
-        <v>1</v>
-      </c>
-      <c r="I19" s="9">
-        <v>1</v>
-      </c>
-      <c r="J19" s="9" t="s">
+      <c r="F19" s="15">
+        <v>0</v>
+      </c>
+      <c r="G19" s="15">
+        <v>0</v>
+      </c>
+      <c r="H19" s="15">
+        <v>1</v>
+      </c>
+      <c r="I19" s="15">
+        <v>1</v>
+      </c>
+      <c r="J19" s="15" t="s">
         <v>111</v>
       </c>
-      <c r="K19" s="9">
-        <v>0</v>
-      </c>
-      <c r="L19" s="9">
-        <v>0</v>
-      </c>
-      <c r="M19" s="9"/>
-      <c r="N19" s="9" t="s">
+      <c r="K19" s="15">
+        <v>0</v>
+      </c>
+      <c r="L19" s="15">
+        <v>0</v>
+      </c>
+      <c r="M19" s="15"/>
+      <c r="N19" s="15" t="s">
         <v>112</v>
       </c>
-      <c r="O19" s="9"/>
-      <c r="P19" s="9"/>
-      <c r="Q19" s="15"/>
-      <c r="R19" s="9"/>
-      <c r="S19" s="9"/>
-      <c r="T19" s="9"/>
-      <c r="U19" s="9"/>
-      <c r="V19" s="9"/>
-      <c r="W19" s="16" t="s">
+      <c r="O19" s="15"/>
+      <c r="P19" s="15"/>
+      <c r="Q19" s="17"/>
+      <c r="R19" s="15"/>
+      <c r="S19" s="15"/>
+      <c r="T19" s="15"/>
+      <c r="U19" s="15"/>
+      <c r="V19" s="15"/>
+      <c r="W19" s="18" t="s">
         <v>113</v>
       </c>
-      <c r="X19" s="16">
-        <v>0</v>
-      </c>
-      <c r="Y19" s="16">
-        <v>0</v>
-      </c>
-      <c r="Z19" s="9" t="s">
+      <c r="X19" s="18">
+        <v>0</v>
+      </c>
+      <c r="Y19" s="18">
+        <v>0</v>
+      </c>
+      <c r="Z19" s="15" t="s">
         <v>48</v>
       </c>
-      <c r="AA19" s="10" t="str">
+      <c r="AA19" s="16" t="str">
         <f>"abilities/hero/drow/drow_4/"&amp;A19</f>
         <v>abilities/hero/drow/drow_4/drow_4a</v>
       </c>
-      <c r="AB19" s="10" t="s">
+      <c r="AB19" s="16" t="s">
         <v>49</v>
       </c>
-      <c r="AC19" s="20"/>
+      <c r="AC19" s="19"/>
       <c r="AD19" s="22"/>
     </row>
     <row r="20" ht="51.5" customHeight="1" spans="1:30">
-      <c r="A20" s="8" t="s">
+      <c r="A20" s="14" t="s">
         <v>114</v>
       </c>
-      <c r="B20" s="9" t="s">
+      <c r="B20" s="15" t="s">
         <v>115</v>
       </c>
-      <c r="C20" s="10" t="s">
+      <c r="C20" s="16" t="s">
         <v>116</v>
       </c>
-      <c r="D20" s="9">
-        <v>1</v>
-      </c>
-      <c r="E20" s="9">
+      <c r="D20" s="15">
+        <v>1</v>
+      </c>
+      <c r="E20" s="15">
         <v>4</v>
       </c>
-      <c r="F20" s="9">
-        <v>0</v>
-      </c>
-      <c r="G20" s="9">
-        <v>0</v>
-      </c>
-      <c r="H20" s="9">
-        <v>1</v>
-      </c>
-      <c r="I20" s="9">
-        <v>1</v>
-      </c>
-      <c r="J20" s="9" t="s">
+      <c r="F20" s="15">
+        <v>0</v>
+      </c>
+      <c r="G20" s="15">
+        <v>0</v>
+      </c>
+      <c r="H20" s="15">
+        <v>1</v>
+      </c>
+      <c r="I20" s="15">
+        <v>1</v>
+      </c>
+      <c r="J20" s="15" t="s">
         <v>117</v>
       </c>
-      <c r="K20" s="9">
-        <v>0</v>
-      </c>
-      <c r="L20" s="9">
-        <v>0</v>
-      </c>
-      <c r="M20" s="9"/>
-      <c r="N20" s="9" t="s">
+      <c r="K20" s="15">
+        <v>0</v>
+      </c>
+      <c r="L20" s="15">
+        <v>0</v>
+      </c>
+      <c r="M20" s="15"/>
+      <c r="N20" s="15" t="s">
         <v>118</v>
       </c>
-      <c r="O20" s="9" t="s">
+      <c r="O20" s="15" t="s">
         <v>119</v>
       </c>
-      <c r="P20" s="9"/>
-      <c r="Q20" s="15"/>
-      <c r="R20" s="9"/>
-      <c r="S20" s="9"/>
-      <c r="T20" s="9"/>
-      <c r="U20" s="9"/>
-      <c r="V20" s="9"/>
-      <c r="W20" s="16">
+      <c r="P20" s="15"/>
+      <c r="Q20" s="17"/>
+      <c r="R20" s="15"/>
+      <c r="S20" s="15"/>
+      <c r="T20" s="15"/>
+      <c r="U20" s="15"/>
+      <c r="V20" s="15"/>
+      <c r="W20" s="18">
         <v>10</v>
       </c>
-      <c r="X20" s="16">
+      <c r="X20" s="18">
         <v>30</v>
       </c>
-      <c r="Y20" s="16">
-        <v>0</v>
-      </c>
-      <c r="Z20" s="9" t="s">
+      <c r="Y20" s="18">
+        <v>0</v>
+      </c>
+      <c r="Z20" s="15" t="s">
         <v>48</v>
       </c>
-      <c r="AA20" s="10" t="str">
+      <c r="AA20" s="16" t="str">
         <f>"abilities/hero/drow/drow_4/"&amp;A20</f>
         <v>abilities/hero/drow/drow_4/drow_4b</v>
       </c>
-      <c r="AB20" s="10" t="s">
+      <c r="AB20" s="16" t="s">
         <v>49</v>
       </c>
-      <c r="AC20" s="20"/>
+      <c r="AC20" s="19"/>
       <c r="AD20" s="22"/>
     </row>
     <row r="21" ht="51.5" customHeight="1" spans="1:30">
-      <c r="A21" s="8" t="s">
+      <c r="A21" s="14" t="s">
         <v>120</v>
       </c>
-      <c r="B21" s="9" t="s">
+      <c r="B21" s="15" t="s">
         <v>121</v>
       </c>
-      <c r="C21" s="10" t="s">
+      <c r="C21" s="16" t="s">
         <v>122</v>
       </c>
-      <c r="D21" s="9">
-        <v>1</v>
-      </c>
-      <c r="E21" s="9">
+      <c r="D21" s="15">
+        <v>1</v>
+      </c>
+      <c r="E21" s="15">
         <v>5</v>
       </c>
-      <c r="F21" s="9">
-        <v>0</v>
-      </c>
-      <c r="G21" s="9">
-        <v>0</v>
-      </c>
-      <c r="H21" s="9">
-        <v>1</v>
-      </c>
-      <c r="I21" s="9">
-        <v>1</v>
-      </c>
-      <c r="J21" s="9" t="s">
+      <c r="F21" s="15">
+        <v>0</v>
+      </c>
+      <c r="G21" s="15">
+        <v>0</v>
+      </c>
+      <c r="H21" s="15">
+        <v>1</v>
+      </c>
+      <c r="I21" s="15">
+        <v>1</v>
+      </c>
+      <c r="J21" s="15" t="s">
         <v>123</v>
       </c>
-      <c r="K21" s="9">
-        <v>0</v>
-      </c>
-      <c r="L21" s="9">
-        <v>0</v>
-      </c>
-      <c r="M21" s="9"/>
-      <c r="N21" s="9" t="s">
+      <c r="K21" s="15">
+        <v>0</v>
+      </c>
+      <c r="L21" s="15">
+        <v>0</v>
+      </c>
+      <c r="M21" s="15"/>
+      <c r="N21" s="15" t="s">
         <v>124</v>
       </c>
-      <c r="O21" s="9" t="s">
+      <c r="O21" s="15" t="s">
         <v>125</v>
       </c>
-      <c r="P21" s="9"/>
-      <c r="Q21" s="15"/>
-      <c r="R21" s="9"/>
-      <c r="S21" s="9"/>
-      <c r="T21" s="9"/>
-      <c r="U21" s="9"/>
-      <c r="V21" s="9"/>
-      <c r="W21" s="16">
+      <c r="P21" s="15"/>
+      <c r="Q21" s="17"/>
+      <c r="R21" s="15"/>
+      <c r="S21" s="15"/>
+      <c r="T21" s="15"/>
+      <c r="U21" s="15"/>
+      <c r="V21" s="15"/>
+      <c r="W21" s="18">
         <v>40</v>
       </c>
-      <c r="X21" s="16">
-        <v>0</v>
-      </c>
-      <c r="Y21" s="16">
-        <v>0</v>
-      </c>
-      <c r="Z21" s="9" t="s">
+      <c r="X21" s="18">
+        <v>0</v>
+      </c>
+      <c r="Y21" s="18">
+        <v>0</v>
+      </c>
+      <c r="Z21" s="15" t="s">
         <v>48</v>
       </c>
-      <c r="AA21" s="10" t="str">
+      <c r="AA21" s="16" t="str">
         <f>"abilities/hero/drow/drow_5/"&amp;A21</f>
         <v>abilities/hero/drow/drow_5/drow_5</v>
       </c>
-      <c r="AB21" s="10" t="s">
+      <c r="AB21" s="16" t="s">
         <v>49</v>
       </c>
-      <c r="AC21" s="20"/>
+      <c r="AC21" s="19"/>
       <c r="AD21" s="22"/>
     </row>
     <row r="22" ht="51.5" customHeight="1" spans="1:30">
-      <c r="A22" s="8"/>
-      <c r="B22" s="9"/>
-      <c r="C22" s="10"/>
-      <c r="D22" s="9"/>
-      <c r="E22" s="9"/>
-      <c r="F22" s="9"/>
-      <c r="G22" s="9"/>
-      <c r="H22" s="9"/>
-      <c r="I22" s="9"/>
-      <c r="J22" s="9"/>
-      <c r="K22" s="9"/>
-      <c r="L22" s="9"/>
-      <c r="M22" s="9"/>
-      <c r="N22" s="9"/>
-      <c r="O22" s="9"/>
-      <c r="P22" s="9"/>
-      <c r="Q22" s="15"/>
-      <c r="R22" s="9"/>
-      <c r="S22" s="9"/>
-      <c r="T22" s="9"/>
-      <c r="U22" s="9"/>
-      <c r="V22" s="9"/>
-      <c r="W22" s="16"/>
-      <c r="X22" s="16"/>
-      <c r="Y22" s="16"/>
-      <c r="Z22" s="9"/>
-      <c r="AA22" s="10"/>
-      <c r="AB22" s="10"/>
-      <c r="AC22" s="20"/>
+      <c r="A22" s="14" t="s">
+        <v>126</v>
+      </c>
+      <c r="B22" s="15" t="s">
+        <v>127</v>
+      </c>
+      <c r="C22" s="16" t="s">
+        <v>128</v>
+      </c>
+      <c r="D22" s="15">
+        <v>1</v>
+      </c>
+      <c r="E22" s="15">
+        <v>1</v>
+      </c>
+      <c r="F22" s="15">
+        <v>0</v>
+      </c>
+      <c r="G22" s="15">
+        <v>0</v>
+      </c>
+      <c r="H22" s="15">
+        <v>1</v>
+      </c>
+      <c r="I22" s="15">
+        <v>1</v>
+      </c>
+      <c r="J22" s="15" t="s">
+        <v>129</v>
+      </c>
+      <c r="K22" s="15">
+        <v>0</v>
+      </c>
+      <c r="L22" s="15">
+        <v>0</v>
+      </c>
+      <c r="M22" s="15"/>
+      <c r="N22" s="15" t="s">
+        <v>46</v>
+      </c>
+      <c r="O22" s="15"/>
+      <c r="P22" s="15"/>
+      <c r="Q22" s="17"/>
+      <c r="R22" s="15"/>
+      <c r="S22" s="15"/>
+      <c r="T22" s="15"/>
+      <c r="U22" s="15"/>
+      <c r="V22" s="15"/>
+      <c r="W22" s="18"/>
+      <c r="X22" s="18"/>
+      <c r="Y22" s="18"/>
+      <c r="Z22" s="15"/>
+      <c r="AA22" s="16"/>
+      <c r="AB22" s="16"/>
+      <c r="AC22" s="19"/>
       <c r="AD22" s="22"/>
     </row>
     <row r="23" ht="51.5" customHeight="1" spans="1:30">
-      <c r="A23" s="8"/>
-      <c r="B23" s="9"/>
-      <c r="C23" s="10"/>
-      <c r="D23" s="9"/>
-      <c r="E23" s="9"/>
-      <c r="F23" s="9"/>
-      <c r="G23" s="9"/>
-      <c r="H23" s="9"/>
-      <c r="I23" s="9"/>
-      <c r="J23" s="9"/>
-      <c r="K23" s="9"/>
-      <c r="L23" s="9"/>
-      <c r="M23" s="9"/>
-      <c r="N23" s="9"/>
-      <c r="O23" s="9"/>
-      <c r="P23" s="9"/>
-      <c r="Q23" s="15"/>
-      <c r="R23" s="9"/>
-      <c r="S23" s="9"/>
-      <c r="T23" s="9"/>
-      <c r="U23" s="9"/>
-      <c r="V23" s="9"/>
-      <c r="W23" s="16"/>
-      <c r="X23" s="16"/>
-      <c r="Y23" s="16"/>
-      <c r="Z23" s="9"/>
-      <c r="AA23" s="10"/>
-      <c r="AB23" s="10"/>
-      <c r="AC23" s="20"/>
+      <c r="A23" s="14"/>
+      <c r="B23" s="15"/>
+      <c r="C23" s="16"/>
+      <c r="D23" s="15"/>
+      <c r="E23" s="15"/>
+      <c r="F23" s="15"/>
+      <c r="G23" s="15"/>
+      <c r="H23" s="15"/>
+      <c r="I23" s="15"/>
+      <c r="J23" s="15"/>
+      <c r="K23" s="15"/>
+      <c r="L23" s="15"/>
+      <c r="M23" s="15"/>
+      <c r="N23" s="15"/>
+      <c r="O23" s="15"/>
+      <c r="P23" s="15"/>
+      <c r="Q23" s="17"/>
+      <c r="R23" s="15"/>
+      <c r="S23" s="15"/>
+      <c r="T23" s="15"/>
+      <c r="U23" s="15"/>
+      <c r="V23" s="15"/>
+      <c r="W23" s="18"/>
+      <c r="X23" s="18"/>
+      <c r="Y23" s="18"/>
+      <c r="Z23" s="15"/>
+      <c r="AA23" s="16"/>
+      <c r="AB23" s="16"/>
+      <c r="AC23" s="19"/>
       <c r="AD23" s="22"/>
     </row>
     <row r="24" ht="51.5" customHeight="1" spans="1:30">
-      <c r="A24" s="8"/>
-      <c r="B24" s="9"/>
-      <c r="C24" s="10"/>
-      <c r="D24" s="9"/>
-      <c r="E24" s="9"/>
-      <c r="F24" s="9"/>
-      <c r="G24" s="9"/>
-      <c r="H24" s="9"/>
-      <c r="I24" s="9"/>
-      <c r="J24" s="9"/>
-      <c r="K24" s="9"/>
-      <c r="L24" s="9"/>
-      <c r="M24" s="9"/>
-      <c r="N24" s="9"/>
-      <c r="O24" s="9"/>
-      <c r="P24" s="9"/>
-      <c r="Q24" s="15"/>
-      <c r="R24" s="9"/>
-      <c r="S24" s="9"/>
-      <c r="T24" s="9"/>
-      <c r="U24" s="9"/>
-      <c r="V24" s="9"/>
-      <c r="W24" s="16"/>
-      <c r="X24" s="16"/>
-      <c r="Y24" s="16"/>
-      <c r="Z24" s="9"/>
-      <c r="AA24" s="10"/>
-      <c r="AB24" s="10"/>
-      <c r="AC24" s="20"/>
+      <c r="A24" s="14"/>
+      <c r="B24" s="15"/>
+      <c r="C24" s="16"/>
+      <c r="D24" s="15"/>
+      <c r="E24" s="15"/>
+      <c r="F24" s="15"/>
+      <c r="G24" s="15"/>
+      <c r="H24" s="15"/>
+      <c r="I24" s="15"/>
+      <c r="J24" s="15"/>
+      <c r="K24" s="15"/>
+      <c r="L24" s="15"/>
+      <c r="M24" s="15"/>
+      <c r="N24" s="15"/>
+      <c r="O24" s="15"/>
+      <c r="P24" s="15"/>
+      <c r="Q24" s="17"/>
+      <c r="R24" s="15"/>
+      <c r="S24" s="15"/>
+      <c r="T24" s="15"/>
+      <c r="U24" s="15"/>
+      <c r="V24" s="15"/>
+      <c r="W24" s="18"/>
+      <c r="X24" s="18"/>
+      <c r="Y24" s="18"/>
+      <c r="Z24" s="15"/>
+      <c r="AA24" s="16"/>
+      <c r="AB24" s="16"/>
+      <c r="AC24" s="19"/>
       <c r="AD24" s="22"/>
     </row>
   </sheetData>
